--- a/data/AllData.xlsx
+++ b/data/AllData.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanschaefer/Documents/SMU/2022Spring/CS3353/Projects/Project2/Program2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F63EF7F-BE2F-3D46-B01B-DC42BC8ECB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C506D8-D2BC-A94E-B189-234D784262E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" activeTab="7" xr2:uid="{0351E3D1-8E73-2641-852B-06D6734494C5}"/>
+    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" activeTab="8" xr2:uid="{0351E3D1-8E73-2641-852B-06D6734494C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Ryan1" sheetId="1" r:id="rId1"/>
     <sheet name="Ryan2" sheetId="2" r:id="rId2"/>
     <sheet name="Ryan3" sheetId="3" r:id="rId3"/>
-    <sheet name="Mean1" sheetId="4" r:id="rId4"/>
+    <sheet name="RyanMean" sheetId="4" r:id="rId4"/>
     <sheet name="Wes1" sheetId="5" r:id="rId5"/>
     <sheet name="Wes2" sheetId="6" r:id="rId6"/>
     <sheet name="Wes3" sheetId="7" r:id="rId7"/>
-    <sheet name="Mean2" sheetId="8" r:id="rId8"/>
+    <sheet name="WesMean" sheetId="8" r:id="rId8"/>
+    <sheet name="Combined" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="18">
   <si>
     <t xml:space="preserve"> var_type</t>
   </si>
@@ -2235,7 +2236,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2283,19 +2284,19 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>0.25182199999999999</v>
+        <v>0.24049599999999999</v>
       </c>
       <c r="F2">
-        <v>3.3929</v>
+        <v>3.21712</v>
       </c>
       <c r="G2">
-        <v>0.46544200000000002</v>
+        <v>0.414968</v>
       </c>
       <c r="H2">
-        <v>1.2200800000000001</v>
+        <v>1.0101599999999999</v>
       </c>
       <c r="I2">
-        <v>1.2986599999999999</v>
+        <v>1.2930299999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2312,19 +2313,19 @@
         <v>17</v>
       </c>
       <c r="E3">
-        <v>0.51712400000000003</v>
+        <v>0.45218599999999998</v>
       </c>
       <c r="F3">
-        <v>7.0445000000000002</v>
+        <v>6.0569899999999999</v>
       </c>
       <c r="G3">
-        <v>1.02661</v>
+        <v>0.92133200000000004</v>
       </c>
       <c r="H3">
-        <v>2.60419</v>
+        <v>2.5981200000000002</v>
       </c>
       <c r="I3">
-        <v>2.74607</v>
+        <v>2.4661599999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2341,19 +2342,19 @@
         <v>17</v>
       </c>
       <c r="E4">
-        <v>4.5989700000000001E-2</v>
+        <v>3.9250399999999998E-2</v>
       </c>
       <c r="F4">
-        <v>0.66830900000000004</v>
+        <v>0.58124799999999999</v>
       </c>
       <c r="G4">
-        <v>7.2805499999999995E-2</v>
+        <v>8.4621299999999997E-2</v>
       </c>
       <c r="H4">
-        <v>0.23186499999999999</v>
+        <v>0.189248</v>
       </c>
       <c r="I4">
-        <v>0.23424200000000001</v>
+        <v>0.20818300000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2370,19 +2371,19 @@
         <v>17</v>
       </c>
       <c r="E5">
-        <v>4.0463900000000004E-3</v>
+        <v>3.25553E-3</v>
       </c>
       <c r="F5">
-        <v>6.1969299999999998E-2</v>
+        <v>6.47253E-2</v>
       </c>
       <c r="G5">
-        <v>4.7499899999999999E-3</v>
+        <v>4.9375900000000004E-3</v>
       </c>
       <c r="H5">
-        <v>1.7329799999999999E-2</v>
+        <v>2.2526999999999998E-2</v>
       </c>
       <c r="I5">
-        <v>1.9047999999999999E-2</v>
+        <v>2.71688E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2399,19 +2400,19 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>1.5250700000000001E-2</v>
+        <v>2.2666499999999999E-2</v>
       </c>
       <c r="F6">
-        <v>0.31141099999999999</v>
+        <v>0.357763</v>
       </c>
       <c r="G6">
-        <v>9.0420799999999992E-3</v>
+        <v>8.7048400000000001E-3</v>
       </c>
       <c r="H6">
-        <v>0.100956</v>
+        <v>0.100246</v>
       </c>
       <c r="I6">
-        <v>9.1609399999999994E-2</v>
+        <v>9.3015500000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2428,19 +2429,19 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>2.17667E-2</v>
+        <v>1.9056500000000001E-2</v>
       </c>
       <c r="F7">
-        <v>0.32240799999999997</v>
+        <v>0.335781</v>
       </c>
       <c r="G7">
-        <v>3.2109800000000001E-2</v>
+        <v>2.9539800000000001E-2</v>
       </c>
       <c r="H7">
-        <v>0.104087</v>
+        <v>8.5941699999999996E-2</v>
       </c>
       <c r="I7">
-        <v>0.108054</v>
+        <v>9.7094600000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2457,19 +2458,19 @@
         <v>17</v>
       </c>
       <c r="E8">
-        <v>1.88733E-3</v>
+        <v>1.75315E-3</v>
       </c>
       <c r="F8">
-        <v>2.98806E-2</v>
+        <v>2.6828299999999999E-2</v>
       </c>
       <c r="G8">
-        <v>2.17432E-3</v>
+        <v>1.9184499999999999E-3</v>
       </c>
       <c r="H8">
-        <v>7.8425999999999999E-3</v>
+        <v>7.02909E-3</v>
       </c>
       <c r="I8">
-        <v>9.0681300000000006E-3</v>
+        <v>7.8878899999999998E-3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2486,19 +2487,19 @@
         <v>17</v>
       </c>
       <c r="E9">
-        <v>0.18726899999999999</v>
+        <v>0.156807</v>
       </c>
       <c r="F9">
-        <v>3.2843200000000001</v>
+        <v>2.87981</v>
       </c>
       <c r="G9">
-        <v>0.11210199999999999</v>
+        <v>0.109362</v>
       </c>
       <c r="H9">
-        <v>1.14242</v>
+        <v>1.1111500000000001</v>
       </c>
       <c r="I9">
-        <v>1.1067199999999999</v>
+        <v>1.0456000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2515,19 +2516,19 @@
         <v>17</v>
       </c>
       <c r="E10">
-        <v>0.223276</v>
+        <v>0.17846799999999999</v>
       </c>
       <c r="F10">
-        <v>3.2930899999999999</v>
+        <v>2.91547</v>
       </c>
       <c r="G10">
-        <v>0.22761200000000001</v>
+        <v>0.211452</v>
       </c>
       <c r="H10">
-        <v>1.1456200000000001</v>
+        <v>1.0427999999999999</v>
       </c>
       <c r="I10">
-        <v>1.15008</v>
+        <v>1.0142599999999999</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2544,19 +2545,19 @@
         <v>17</v>
       </c>
       <c r="E11">
-        <v>3.4828599999999999E-3</v>
+        <v>2.7887799999999998E-3</v>
       </c>
       <c r="F11">
-        <v>6.1073299999999997E-2</v>
+        <v>5.01343E-2</v>
       </c>
       <c r="G11">
-        <v>2.65781E-3</v>
+        <v>2.4167300000000002E-3</v>
       </c>
       <c r="H11">
-        <v>1.7436500000000001E-2</v>
+        <v>1.3994400000000001E-2</v>
       </c>
       <c r="I11">
-        <v>1.72836E-2</v>
+        <v>1.5443800000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2573,19 +2574,19 @@
         <v>17</v>
       </c>
       <c r="E12">
-        <v>0.51682799999999995</v>
+        <v>0.44212800000000002</v>
       </c>
       <c r="F12">
-        <v>6.9283400000000004</v>
+        <v>5.9359299999999999</v>
       </c>
       <c r="G12">
-        <v>1.0258700000000001</v>
+        <v>0.97468200000000005</v>
       </c>
       <c r="H12">
-        <v>2.5242100000000001</v>
+        <v>2.3156400000000001</v>
       </c>
       <c r="I12">
-        <v>2.69509</v>
+        <v>2.76736</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2602,19 +2603,19 @@
         <v>17</v>
       </c>
       <c r="E13">
-        <v>0.52818900000000002</v>
+        <v>0.46060000000000001</v>
       </c>
       <c r="F13">
-        <v>6.9518500000000003</v>
+        <v>7.2014800000000001</v>
       </c>
       <c r="G13">
-        <v>1.04653</v>
+        <v>0.99551199999999995</v>
       </c>
       <c r="H13">
-        <v>2.5890200000000001</v>
+        <v>2.4773100000000001</v>
       </c>
       <c r="I13">
-        <v>2.6977699999999998</v>
+        <v>2.5346799999999998</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2631,19 +2632,19 @@
         <v>17</v>
       </c>
       <c r="E14">
-        <v>2.2097200000000001E-2</v>
+        <v>1.80454E-2</v>
       </c>
       <c r="F14">
-        <v>0.32199800000000001</v>
+        <v>0.31456499999999998</v>
       </c>
       <c r="G14">
-        <v>3.3034899999999999E-2</v>
+        <v>2.93368E-2</v>
       </c>
       <c r="H14">
-        <v>0.101114</v>
+        <v>8.8001899999999994E-2</v>
       </c>
       <c r="I14">
-        <v>0.107906</v>
+        <v>9.3898700000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2660,19 +2661,19 @@
         <v>17</v>
       </c>
       <c r="E15">
-        <v>1.53918E-3</v>
+        <v>1.2607E-3</v>
       </c>
       <c r="F15">
-        <v>2.9721399999999999E-2</v>
+        <v>2.4606599999999999E-2</v>
       </c>
       <c r="G15">
-        <v>1.21408E-3</v>
+        <v>1.0631799999999999E-3</v>
       </c>
       <c r="H15">
-        <v>7.9993100000000008E-3</v>
+        <v>6.4563800000000003E-3</v>
       </c>
       <c r="I15">
-        <v>1.11547E-2</v>
+        <v>7.1736300000000003E-3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2689,19 +2690,19 @@
         <v>17</v>
       </c>
       <c r="E16">
-        <v>1.40858E-3</v>
+        <v>1.01775E-3</v>
       </c>
       <c r="F16">
-        <v>2.9034299999999999E-2</v>
+        <v>2.4496E-2</v>
       </c>
       <c r="G16">
-        <v>7.0749500000000004E-4</v>
+        <v>6.7449600000000001E-4</v>
       </c>
       <c r="H16">
-        <v>7.9645700000000007E-3</v>
+        <v>6.53222E-3</v>
       </c>
       <c r="I16">
-        <v>7.6065999999999998E-3</v>
+        <v>6.3923699999999996E-3</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2718,19 +2719,19 @@
         <v>17</v>
       </c>
       <c r="E17">
-        <v>4.5451400000000003E-2</v>
+        <v>3.6677800000000003E-2</v>
       </c>
       <c r="F17">
-        <v>0.66270600000000002</v>
+        <v>0.62065700000000001</v>
       </c>
       <c r="G17">
-        <v>7.2003499999999998E-2</v>
+        <v>6.3441200000000003E-2</v>
       </c>
       <c r="H17">
-        <v>0.218836</v>
+        <v>0.18394199999999999</v>
       </c>
       <c r="I17">
-        <v>0.232768</v>
+        <v>0.22357199999999999</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2747,19 +2748,19 @@
         <v>17</v>
       </c>
       <c r="E18">
-        <v>1.7782300000000001E-2</v>
+        <v>1.43465E-2</v>
       </c>
       <c r="F18">
-        <v>0.315749</v>
+        <v>0.26724900000000001</v>
       </c>
       <c r="G18">
-        <v>1.7442300000000001E-2</v>
+        <v>1.67128E-2</v>
       </c>
       <c r="H18">
-        <v>0.10206899999999999</v>
+        <v>8.6839399999999997E-2</v>
       </c>
       <c r="I18">
-        <v>9.7890400000000002E-2</v>
+        <v>8.9677999999999994E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2776,19 +2777,19 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>3.9730499999999997E-3</v>
+        <v>3.59969E-3</v>
       </c>
       <c r="F19">
-        <v>6.1647899999999999E-2</v>
+        <v>6.8492999999999998E-2</v>
       </c>
       <c r="G19">
-        <v>4.9154300000000001E-3</v>
+        <v>5.42985E-3</v>
       </c>
       <c r="H19">
-        <v>1.6864199999999999E-2</v>
+        <v>2.23369E-2</v>
       </c>
       <c r="I19">
-        <v>1.9284099999999998E-2</v>
+        <v>2.5787999999999998E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2805,19 +2806,19 @@
         <v>17</v>
       </c>
       <c r="E20">
-        <v>0.24854200000000001</v>
+        <v>0.22270999999999999</v>
       </c>
       <c r="F20">
-        <v>3.3887299999999998</v>
+        <v>3.06026</v>
       </c>
       <c r="G20">
-        <v>0.462115</v>
+        <v>0.45178699999999999</v>
       </c>
       <c r="H20">
-        <v>1.20079</v>
+        <v>1.0183500000000001</v>
       </c>
       <c r="I20">
-        <v>1.27915</v>
+        <v>1.1271100000000001</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2834,19 +2835,19 @@
         <v>17</v>
       </c>
       <c r="E21">
-        <v>0.25068800000000002</v>
+        <v>0.21335699999999999</v>
       </c>
       <c r="F21">
-        <v>3.39574</v>
+        <v>2.8849100000000001</v>
       </c>
       <c r="G21">
-        <v>0.46321200000000001</v>
+        <v>0.42033100000000001</v>
       </c>
       <c r="H21">
-        <v>1.1973100000000001</v>
+        <v>1.04295</v>
       </c>
       <c r="I21">
-        <v>1.2718100000000001</v>
+        <v>1.1193900000000001</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2863,19 +2864,19 @@
         <v>17</v>
       </c>
       <c r="E22">
-        <v>0.351244</v>
+        <v>0.28540300000000002</v>
       </c>
       <c r="F22">
-        <v>6.6323600000000003</v>
+        <v>5.9260700000000002</v>
       </c>
       <c r="G22">
-        <v>0.238091</v>
+        <v>0.22969400000000001</v>
       </c>
       <c r="H22">
-        <v>2.41628</v>
+        <v>2.0849899999999999</v>
       </c>
       <c r="I22">
-        <v>2.2952699999999999</v>
+        <v>2.0183499999999999</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2892,19 +2893,19 @@
         <v>17</v>
       </c>
       <c r="E23">
-        <v>1.92626E-3</v>
+        <v>1.55674E-3</v>
       </c>
       <c r="F23">
-        <v>2.9967199999999999E-2</v>
+        <v>2.50078E-2</v>
       </c>
       <c r="G23">
-        <v>2.1192400000000001E-3</v>
+        <v>1.83811E-3</v>
       </c>
       <c r="H23">
-        <v>8.0248200000000002E-3</v>
+        <v>6.8964899999999999E-3</v>
       </c>
       <c r="I23">
-        <v>8.9232500000000006E-3</v>
+        <v>7.7169300000000003E-3</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2921,19 +2922,19 @@
         <v>17</v>
       </c>
       <c r="E24">
-        <v>4.5933599999999998E-2</v>
+        <v>3.7262700000000003E-2</v>
       </c>
       <c r="F24">
-        <v>0.668771</v>
+        <v>0.56536600000000004</v>
       </c>
       <c r="G24">
-        <v>7.3091199999999995E-2</v>
+        <v>6.4850900000000003E-2</v>
       </c>
       <c r="H24">
-        <v>0.21668100000000001</v>
+        <v>0.186616</v>
       </c>
       <c r="I24">
-        <v>0.23826700000000001</v>
+        <v>0.19928000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2950,19 +2951,19 @@
         <v>17</v>
       </c>
       <c r="E25">
-        <v>2.2041999999999999E-2</v>
+        <v>1.9226199999999999E-2</v>
       </c>
       <c r="F25">
-        <v>0.32990999999999998</v>
+        <v>0.27518799999999999</v>
       </c>
       <c r="G25">
-        <v>3.2928699999999998E-2</v>
+        <v>2.85399E-2</v>
       </c>
       <c r="H25">
-        <v>0.104478</v>
+        <v>8.4976099999999999E-2</v>
       </c>
       <c r="I25">
-        <v>0.110973</v>
+        <v>9.39474E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2979,19 +2980,19 @@
         <v>17</v>
       </c>
       <c r="E26">
-        <v>4.11101E-3</v>
+        <v>3.2449900000000001E-3</v>
       </c>
       <c r="F26">
-        <v>6.3075000000000006E-2</v>
+        <v>5.1546599999999998E-2</v>
       </c>
       <c r="G26">
-        <v>4.8899199999999999E-3</v>
+        <v>4.2683399999999998E-3</v>
       </c>
       <c r="H26">
-        <v>1.8867999999999999E-2</v>
+        <v>1.4392800000000001E-2</v>
       </c>
       <c r="I26">
-        <v>1.9500699999999999E-2</v>
+        <v>1.62811E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -3008,19 +3009,19 @@
         <v>17</v>
       </c>
       <c r="E27">
-        <v>3.04748E-2</v>
+        <v>3.0048399999999999E-2</v>
       </c>
       <c r="F27">
-        <v>0.64832299999999998</v>
+        <v>0.54227099999999995</v>
       </c>
       <c r="G27">
-        <v>2.00971E-2</v>
+        <v>1.99679E-2</v>
       </c>
       <c r="H27">
-        <v>0.19966900000000001</v>
+        <v>0.16778499999999999</v>
       </c>
       <c r="I27">
-        <v>0.19869899999999999</v>
+        <v>0.177615</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -3037,19 +3038,19 @@
         <v>17</v>
       </c>
       <c r="E28">
-        <v>3.9670400000000001E-2</v>
+        <v>3.1057899999999999E-2</v>
       </c>
       <c r="F28">
-        <v>0.65945399999999998</v>
+        <v>0.54151700000000003</v>
       </c>
       <c r="G28">
-        <v>3.8567400000000002E-2</v>
+        <v>3.61591E-2</v>
       </c>
       <c r="H28">
-        <v>0.21785299999999999</v>
+        <v>0.186526</v>
       </c>
       <c r="I28">
-        <v>0.21290100000000001</v>
+        <v>0.17991299999999999</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -3066,19 +3067,19 @@
         <v>17</v>
       </c>
       <c r="E29">
-        <v>2.64716E-3</v>
+        <v>2.7041500000000002E-3</v>
       </c>
       <c r="F29">
-        <v>6.1216600000000003E-2</v>
+        <v>4.9579400000000003E-2</v>
       </c>
       <c r="G29">
-        <v>1.5519799999999999E-3</v>
+        <v>1.4738399999999999E-3</v>
       </c>
       <c r="H29">
-        <v>1.8230900000000001E-2</v>
+        <v>1.3514699999999999E-2</v>
       </c>
       <c r="I29">
-        <v>1.6365999999999999E-2</v>
+        <v>1.4280299999999999E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -3095,19 +3096,19 @@
         <v>17</v>
       </c>
       <c r="E30">
-        <v>1.87671E-3</v>
+        <v>1.5303300000000001E-3</v>
       </c>
       <c r="F30">
-        <v>3.0716799999999999E-2</v>
+        <v>2.51357E-2</v>
       </c>
       <c r="G30">
-        <v>2.16847E-3</v>
+        <v>1.9858699999999998E-3</v>
       </c>
       <c r="H30">
-        <v>8.0956199999999996E-3</v>
+        <v>6.9017000000000002E-3</v>
       </c>
       <c r="I30">
-        <v>9.0527300000000002E-3</v>
+        <v>1.08585E-2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -3124,19 +3125,19 @@
         <v>17</v>
       </c>
       <c r="E31">
-        <v>0.43119800000000003</v>
+        <v>0.381554</v>
       </c>
       <c r="F31">
-        <v>6.7950699999999999</v>
+        <v>5.8891099999999996</v>
       </c>
       <c r="G31">
-        <v>0.50150300000000003</v>
+        <v>0.47275499999999998</v>
       </c>
       <c r="H31">
-        <v>2.4984899999999999</v>
+        <v>2.2476099999999999</v>
       </c>
       <c r="I31">
-        <v>2.4450500000000002</v>
+        <v>2.3033999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -3153,19 +3154,19 @@
         <v>17</v>
       </c>
       <c r="E32">
-        <v>0.12517500000000001</v>
+        <v>0.11100400000000001</v>
       </c>
       <c r="F32">
-        <v>0.51558999999999999</v>
+        <v>0.44370100000000001</v>
       </c>
       <c r="G32">
-        <v>0.115221</v>
+        <v>9.5911099999999999E-2</v>
       </c>
       <c r="H32">
-        <v>0.25012400000000001</v>
+        <v>0.23342299999999999</v>
       </c>
       <c r="I32">
-        <v>0.25133899999999998</v>
+        <v>0.22701199999999999</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -3182,19 +3183,19 @@
         <v>17</v>
       </c>
       <c r="E33">
-        <v>1.7399500000000001</v>
+        <v>1.56935</v>
       </c>
       <c r="F33">
-        <v>6.3040099999999999</v>
+        <v>5.6021799999999997</v>
       </c>
       <c r="G33">
-        <v>4.3557199999999998</v>
+        <v>3.9315600000000002</v>
       </c>
       <c r="H33">
-        <v>3.5559400000000001</v>
+        <v>3.1762600000000001</v>
       </c>
       <c r="I33">
-        <v>4.4539400000000002</v>
+        <v>4.0686299999999997</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -3211,19 +3212,19 @@
         <v>17</v>
       </c>
       <c r="E34">
-        <v>0.14013999999999999</v>
+        <v>0.127776</v>
       </c>
       <c r="F34">
-        <v>0.58262599999999998</v>
+        <v>0.54420199999999996</v>
       </c>
       <c r="G34">
-        <v>0.30052000000000001</v>
+        <v>0.26243699999999998</v>
       </c>
       <c r="H34">
-        <v>0.30899399999999999</v>
+        <v>0.29255599999999998</v>
       </c>
       <c r="I34">
-        <v>0.37720700000000001</v>
+        <v>0.33259300000000003</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -3240,19 +3241,19 @@
         <v>17</v>
       </c>
       <c r="E35">
-        <v>2.3705500000000001E-2</v>
+        <v>2.09471E-2</v>
       </c>
       <c r="F35">
-        <v>0.105839</v>
+        <v>9.1541999999999998E-2</v>
       </c>
       <c r="G35">
-        <v>4.2627600000000002E-2</v>
+        <v>3.56992E-2</v>
       </c>
       <c r="H35">
-        <v>5.0029499999999998E-2</v>
+        <v>4.84816E-2</v>
       </c>
       <c r="I35">
-        <v>6.5191499999999999E-2</v>
+        <v>6.1870500000000002E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -3269,19 +3270,19 @@
         <v>17</v>
       </c>
       <c r="E36">
-        <v>2.5225899999999999E-2</v>
+        <v>2.0305199999999999E-2</v>
       </c>
       <c r="F36">
-        <v>9.9954500000000002E-2</v>
+        <v>8.6350899999999994E-2</v>
       </c>
       <c r="G36">
-        <v>4.1964899999999999E-2</v>
+        <v>3.6021499999999998E-2</v>
       </c>
       <c r="H36">
-        <v>4.9624500000000002E-2</v>
+        <v>3.8622200000000002E-2</v>
       </c>
       <c r="I36">
-        <v>5.1739800000000002E-2</v>
+        <v>4.3099199999999997E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -3298,19 +3299,19 @@
         <v>17</v>
       </c>
       <c r="E37">
-        <v>0.285163</v>
+        <v>0.249416</v>
       </c>
       <c r="F37">
-        <v>1.0563800000000001</v>
+        <v>0.92163600000000001</v>
       </c>
       <c r="G37">
-        <v>0.24768200000000001</v>
+        <v>0.23514499999999999</v>
       </c>
       <c r="H37">
-        <v>0.59598399999999996</v>
+        <v>0.499052</v>
       </c>
       <c r="I37">
-        <v>0.55122800000000005</v>
+        <v>0.47324899999999998</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -3327,19 +3328,19 @@
         <v>17</v>
       </c>
       <c r="E38">
-        <v>1.1438E-2</v>
+        <v>9.3731999999999999E-3</v>
       </c>
       <c r="F38">
-        <v>5.0674900000000002E-2</v>
+        <v>4.2577499999999997E-2</v>
       </c>
       <c r="G38">
-        <v>1.8291399999999999E-2</v>
+        <v>1.53686E-2</v>
       </c>
       <c r="H38">
-        <v>2.6881599999999999E-2</v>
+        <v>2.0062300000000002E-2</v>
       </c>
       <c r="I38">
-        <v>0.03</v>
+        <v>2.9941300000000001E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -3356,19 +3357,19 @@
         <v>17</v>
       </c>
       <c r="E39">
-        <v>1.7572099999999999</v>
+        <v>1.4733000000000001</v>
       </c>
       <c r="F39">
-        <v>5.9481400000000004</v>
+        <v>5.1627700000000001</v>
       </c>
       <c r="G39">
-        <v>4.0100499999999997</v>
+        <v>3.4798300000000002</v>
       </c>
       <c r="H39">
-        <v>3.5583999999999998</v>
+        <v>3.18194</v>
       </c>
       <c r="I39">
-        <v>3.6957800000000001</v>
+        <v>3.3409300000000002</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -3385,19 +3386,19 @@
         <v>17</v>
       </c>
       <c r="E40">
-        <v>0.140682</v>
+        <v>0.11866</v>
       </c>
       <c r="F40">
-        <v>0.61158500000000005</v>
+        <v>0.53365300000000004</v>
       </c>
       <c r="G40">
-        <v>0.30307600000000001</v>
+        <v>0.27057399999999998</v>
       </c>
       <c r="H40">
-        <v>0.29746099999999998</v>
+        <v>0.24822900000000001</v>
       </c>
       <c r="I40">
-        <v>0.374305</v>
+        <v>0.32768199999999997</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -3414,19 +3415,19 @@
         <v>17</v>
       </c>
       <c r="E41">
-        <v>1.8056700000000001</v>
+        <v>1.6895199999999999</v>
       </c>
       <c r="F41">
-        <v>6.4912999999999998</v>
+        <v>5.42286</v>
       </c>
       <c r="G41">
-        <v>4.8237399999999999</v>
+        <v>4.1159999999999997</v>
       </c>
       <c r="H41">
-        <v>3.7123499999999998</v>
+        <v>3.4196599999999999</v>
       </c>
       <c r="I41">
-        <v>4.4919900000000004</v>
+        <v>3.9741</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -3443,19 +3444,19 @@
         <v>17</v>
       </c>
       <c r="E42">
-        <v>1.18099E-2</v>
+        <v>9.01741E-3</v>
       </c>
       <c r="F42">
-        <v>5.3572399999999999E-2</v>
+        <v>4.4593099999999997E-2</v>
       </c>
       <c r="G42">
-        <v>1.8392499999999999E-2</v>
+        <v>1.5443699999999999E-2</v>
       </c>
       <c r="H42">
-        <v>2.78797E-2</v>
+        <v>1.9126000000000001E-2</v>
       </c>
       <c r="I42">
-        <v>3.0810799999999999E-2</v>
+        <v>2.51726E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -3472,19 +3473,19 @@
         <v>17</v>
       </c>
       <c r="E43">
-        <v>0.30530499999999999</v>
+        <v>0.27606999999999998</v>
       </c>
       <c r="F43">
-        <v>1.23817</v>
+        <v>1.0501</v>
       </c>
       <c r="G43">
-        <v>0.68224300000000004</v>
+        <v>0.58592299999999997</v>
       </c>
       <c r="H43">
-        <v>0.66146400000000005</v>
+        <v>0.53609799999999996</v>
       </c>
       <c r="I43">
-        <v>0.79729499999999998</v>
+        <v>0.70320899999999997</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -3501,19 +3502,19 @@
         <v>17</v>
       </c>
       <c r="E44">
-        <v>1.0695100000000001E-2</v>
+        <v>9.6976600000000003E-3</v>
       </c>
       <c r="F44">
-        <v>5.2614000000000001E-2</v>
+        <v>4.5313199999999998E-2</v>
       </c>
       <c r="G44">
-        <v>1.8556699999999999E-2</v>
+        <v>1.59194E-2</v>
       </c>
       <c r="H44">
-        <v>2.15424E-2</v>
+        <v>1.96525E-2</v>
       </c>
       <c r="I44">
-        <v>3.3786799999999999E-2</v>
+        <v>2.4973200000000001E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -3530,19 +3531,19 @@
         <v>17</v>
       </c>
       <c r="E45">
-        <v>0.30960300000000002</v>
+        <v>0.25045600000000001</v>
       </c>
       <c r="F45">
-        <v>1.1733499999999999</v>
+        <v>0.95289000000000001</v>
       </c>
       <c r="G45">
-        <v>0.65777200000000002</v>
+        <v>0.56075200000000003</v>
       </c>
       <c r="H45">
-        <v>0.653891</v>
+        <v>0.54851499999999997</v>
       </c>
       <c r="I45">
-        <v>0.65396799999999999</v>
+        <v>0.57099100000000003</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -3559,19 +3560,19 @@
         <v>17</v>
       </c>
       <c r="E46">
-        <v>3.81779</v>
+        <v>3.2282700000000002</v>
       </c>
       <c r="F46">
-        <v>14.1716</v>
+        <v>11.449400000000001</v>
       </c>
       <c r="G46">
-        <v>10.8192</v>
+        <v>9.3783899999999996</v>
       </c>
       <c r="H46">
-        <v>7.9918500000000003</v>
+        <v>6.7677199999999997</v>
       </c>
       <c r="I46">
-        <v>9.48475</v>
+        <v>8.2474399999999992</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -3588,19 +3589,19 @@
         <v>17</v>
       </c>
       <c r="E47">
-        <v>2.37109E-2</v>
+        <v>2.44446E-2</v>
       </c>
       <c r="F47">
-        <v>0.107823</v>
+        <v>9.3802499999999997E-2</v>
       </c>
       <c r="G47">
-        <v>4.4061999999999997E-2</v>
+        <v>3.8812199999999998E-2</v>
       </c>
       <c r="H47">
-        <v>6.1575299999999999E-2</v>
+        <v>4.3646699999999997E-2</v>
       </c>
       <c r="I47">
-        <v>6.7527500000000004E-2</v>
+        <v>5.4489000000000003E-2</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -3617,19 +3618,19 @@
         <v>17</v>
       </c>
       <c r="E48">
-        <v>3.7226699999999999</v>
+        <v>3.2011799999999999</v>
       </c>
       <c r="F48">
-        <v>13.766299999999999</v>
+        <v>11.3127</v>
       </c>
       <c r="G48">
-        <v>10.6312</v>
+        <v>9.3647500000000008</v>
       </c>
       <c r="H48">
-        <v>8.0845500000000001</v>
+        <v>6.5862999999999996</v>
       </c>
       <c r="I48">
-        <v>9.3905600000000007</v>
+        <v>8.2899100000000008</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -3646,19 +3647,19 @@
         <v>17</v>
       </c>
       <c r="E49">
-        <v>3.5341800000000001</v>
+        <v>3.0356999999999998</v>
       </c>
       <c r="F49">
-        <v>11.7874</v>
+        <v>9.7438599999999997</v>
       </c>
       <c r="G49">
-        <v>2.96448</v>
+        <v>2.49586</v>
       </c>
       <c r="H49">
-        <v>7.6484300000000003</v>
+        <v>6.3631500000000001</v>
       </c>
       <c r="I49">
-        <v>6.57742</v>
+        <v>5.7742000000000004</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -3675,19 +3676,19 @@
         <v>17</v>
       </c>
       <c r="E50">
-        <v>1.7931999999999999</v>
+        <v>1.4926299999999999</v>
       </c>
       <c r="F50">
-        <v>6.4953399999999997</v>
+        <v>5.4062000000000001</v>
       </c>
       <c r="G50">
-        <v>4.4317099999999998</v>
+        <v>3.7570600000000001</v>
       </c>
       <c r="H50">
-        <v>4.0373099999999997</v>
+        <v>2.9928599999999999</v>
       </c>
       <c r="I50">
-        <v>4.6073199999999996</v>
+        <v>4.1252899999999997</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -3704,19 +3705,19 @@
         <v>17</v>
       </c>
       <c r="E51">
-        <v>0.32554100000000002</v>
+        <v>0.28239999999999998</v>
       </c>
       <c r="F51">
-        <v>1.3067899999999999</v>
+        <v>1.04755</v>
       </c>
       <c r="G51">
-        <v>0.70415399999999995</v>
+        <v>0.59333000000000002</v>
       </c>
       <c r="H51">
-        <v>0.72503899999999999</v>
+        <v>0.53316200000000002</v>
       </c>
       <c r="I51">
-        <v>0.81572999999999996</v>
+        <v>0.698129</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -3733,19 +3734,19 @@
         <v>17</v>
       </c>
       <c r="E52">
-        <v>1.09046E-2</v>
+        <v>9.3843299999999998E-3</v>
       </c>
       <c r="F52">
-        <v>5.55941E-2</v>
+        <v>4.0448100000000001E-2</v>
       </c>
       <c r="G52">
-        <v>1.6893999999999999E-2</v>
+        <v>1.39889E-2</v>
       </c>
       <c r="H52">
-        <v>2.2792400000000001E-2</v>
+        <v>1.9010800000000001E-2</v>
       </c>
       <c r="I52">
-        <v>2.784E-2</v>
+        <v>1.9875799999999999E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -3762,19 +3763,19 @@
         <v>17</v>
       </c>
       <c r="E53">
-        <v>3.96313</v>
+        <v>3.1601400000000002</v>
       </c>
       <c r="F53">
-        <v>12.3459</v>
+        <v>10.3436</v>
       </c>
       <c r="G53">
-        <v>9.0245599999999992</v>
+        <v>7.6630200000000004</v>
       </c>
       <c r="H53">
-        <v>8.1540900000000001</v>
+        <v>6.6587500000000004</v>
       </c>
       <c r="I53">
-        <v>7.7109199999999998</v>
+        <v>6.9592599999999996</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -3791,19 +3792,19 @@
         <v>17</v>
       </c>
       <c r="E54">
-        <v>1.0992999999999999E-2</v>
+        <v>9.2328600000000007E-3</v>
       </c>
       <c r="F54">
-        <v>5.0462300000000002E-2</v>
+        <v>3.9994000000000002E-2</v>
       </c>
       <c r="G54">
-        <v>9.0552099999999993E-3</v>
+        <v>7.4238500000000001E-3</v>
       </c>
       <c r="H54">
-        <v>2.0995099999999999E-2</v>
+        <v>2.0977699999999998E-2</v>
       </c>
       <c r="I54">
-        <v>1.9645200000000002E-2</v>
+        <v>1.65135E-2</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -3820,19 +3821,19 @@
         <v>17</v>
       </c>
       <c r="E55">
-        <v>0.30769299999999999</v>
+        <v>0.27045799999999998</v>
       </c>
       <c r="F55">
-        <v>1.2787500000000001</v>
+        <v>1.03329</v>
       </c>
       <c r="G55">
-        <v>0.70655500000000004</v>
+        <v>0.61763999999999997</v>
       </c>
       <c r="H55">
-        <v>0.67575099999999999</v>
+        <v>0.68510099999999996</v>
       </c>
       <c r="I55">
-        <v>0.84747099999999997</v>
+        <v>0.70743400000000001</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -3849,19 +3850,19 @@
         <v>17</v>
       </c>
       <c r="E56">
-        <v>2.46409E-2</v>
+        <v>1.9816500000000001E-2</v>
       </c>
       <c r="F56">
-        <v>0.10657800000000001</v>
+        <v>9.1784699999999997E-2</v>
       </c>
       <c r="G56">
-        <v>4.3116500000000002E-2</v>
+        <v>3.6292199999999997E-2</v>
       </c>
       <c r="H56">
-        <v>5.5547899999999997E-2</v>
+        <v>4.0852899999999998E-2</v>
       </c>
       <c r="I56">
-        <v>7.0730600000000005E-2</v>
+        <v>5.57273E-2</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -3878,19 +3879,19 @@
         <v>17</v>
       </c>
       <c r="E57">
-        <v>2.3269499999999999E-2</v>
+        <v>2.0223600000000001E-2</v>
       </c>
       <c r="F57">
-        <v>0.11557099999999999</v>
+        <v>8.0158999999999994E-2</v>
       </c>
       <c r="G57">
-        <v>2.0113599999999999E-2</v>
+        <v>1.6350900000000002E-2</v>
       </c>
       <c r="H57">
-        <v>5.25961E-2</v>
+        <v>4.0797199999999999E-2</v>
       </c>
       <c r="I57">
-        <v>5.6169299999999998E-2</v>
+        <v>5.3150299999999998E-2</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -3907,19 +3908,19 @@
         <v>17</v>
       </c>
       <c r="E58">
-        <v>1.64137</v>
+        <v>1.3390899999999999</v>
       </c>
       <c r="F58">
-        <v>5.8828399999999998</v>
+        <v>4.87174</v>
       </c>
       <c r="G58">
-        <v>1.41143</v>
+        <v>1.20408</v>
       </c>
       <c r="H58">
-        <v>3.6832099999999999</v>
+        <v>2.9712900000000002</v>
       </c>
       <c r="I58">
-        <v>3.0950199999999999</v>
+        <v>2.7491400000000001</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -3936,19 +3937,19 @@
         <v>17</v>
       </c>
       <c r="E59">
-        <v>0.152117</v>
+        <v>0.12679399999999999</v>
       </c>
       <c r="F59">
-        <v>0.58750899999999995</v>
+        <v>0.49261899999999997</v>
       </c>
       <c r="G59">
-        <v>0.30316700000000002</v>
+        <v>0.27323799999999998</v>
       </c>
       <c r="H59">
-        <v>0.33351799999999998</v>
+        <v>0.26283400000000001</v>
       </c>
       <c r="I59">
-        <v>0.37739099999999998</v>
+        <v>0.331648</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -3965,19 +3966,19 @@
         <v>17</v>
       </c>
       <c r="E60">
-        <v>0.142175</v>
+        <v>0.12658700000000001</v>
       </c>
       <c r="F60">
-        <v>0.62748300000000001</v>
+        <v>0.45297799999999999</v>
       </c>
       <c r="G60">
-        <v>0.282605</v>
+        <v>0.24933</v>
       </c>
       <c r="H60">
-        <v>0.343916</v>
+        <v>0.25079000000000001</v>
       </c>
       <c r="I60">
-        <v>0.305255</v>
+        <v>0.26490999999999998</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -3994,19 +3995,19 @@
         <v>17</v>
       </c>
       <c r="E61">
-        <v>3.633</v>
+        <v>3.2839299999999998</v>
       </c>
       <c r="F61">
-        <v>13.562799999999999</v>
+        <v>11.443300000000001</v>
       </c>
       <c r="G61">
-        <v>10.6043</v>
+        <v>8.9004100000000008</v>
       </c>
       <c r="H61">
-        <v>8.5251599999999996</v>
+        <v>6.8049200000000001</v>
       </c>
       <c r="I61">
-        <v>9.3854600000000001</v>
+        <v>8.3445</v>
       </c>
     </row>
   </sheetData>
@@ -4019,7 +4020,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4067,19 +4068,19 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>0.25700200000000001</v>
+        <v>0.30120999999999998</v>
       </c>
       <c r="F2">
-        <v>3.3978000000000002</v>
+        <v>3.6266699999999998</v>
       </c>
       <c r="G2">
-        <v>0.46479700000000002</v>
+        <v>0.54291400000000001</v>
       </c>
       <c r="H2">
-        <v>1.22404</v>
+        <v>1.14611</v>
       </c>
       <c r="I2">
-        <v>1.2885800000000001</v>
+        <v>1.2132700000000001</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -4096,19 +4097,19 @@
         <v>17</v>
       </c>
       <c r="E3">
-        <v>0.52627000000000002</v>
+        <v>0.44271199999999999</v>
       </c>
       <c r="F3">
-        <v>6.9291099999999997</v>
+        <v>6.7888000000000002</v>
       </c>
       <c r="G3">
-        <v>1.0204599999999999</v>
+        <v>0.95512900000000001</v>
       </c>
       <c r="H3">
-        <v>2.54508</v>
+        <v>2.24451</v>
       </c>
       <c r="I3">
-        <v>2.7130800000000002</v>
+        <v>2.5697199999999998</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4125,19 +4126,19 @@
         <v>17</v>
       </c>
       <c r="E4">
-        <v>4.6235800000000001E-2</v>
+        <v>3.92295E-2</v>
       </c>
       <c r="F4">
-        <v>0.65900700000000001</v>
+        <v>0.67975799999999997</v>
       </c>
       <c r="G4">
-        <v>7.3188199999999995E-2</v>
+        <v>6.5431600000000006E-2</v>
       </c>
       <c r="H4">
-        <v>0.216976</v>
+        <v>0.25700499999999998</v>
       </c>
       <c r="I4">
-        <v>0.23012099999999999</v>
+        <v>0.30340299999999998</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -4154,19 +4155,19 @@
         <v>17</v>
       </c>
       <c r="E5">
-        <v>3.9527099999999999E-3</v>
+        <v>3.6266900000000001E-3</v>
       </c>
       <c r="F5">
-        <v>6.1563800000000002E-2</v>
+        <v>7.3568300000000003E-2</v>
       </c>
       <c r="G5">
-        <v>4.7239999999999999E-3</v>
+        <v>4.1436099999999998E-3</v>
       </c>
       <c r="H5">
-        <v>1.6982299999999999E-2</v>
+        <v>1.4674599999999999E-2</v>
       </c>
       <c r="I5">
-        <v>1.91308E-2</v>
+        <v>1.6830600000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -4183,19 +4184,19 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>1.37185E-2</v>
+        <v>1.46672E-2</v>
       </c>
       <c r="F6">
-        <v>0.31025399999999997</v>
+        <v>0.315855</v>
       </c>
       <c r="G6">
-        <v>9.0423599999999993E-3</v>
+        <v>8.6829699999999999E-3</v>
       </c>
       <c r="H6">
-        <v>9.2697299999999996E-2</v>
+        <v>7.9460600000000006E-2</v>
       </c>
       <c r="I6">
-        <v>9.3150700000000003E-2</v>
+        <v>7.7714000000000005E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -4212,19 +4213,19 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>2.2474399999999999E-2</v>
+        <v>1.7374799999999999E-2</v>
       </c>
       <c r="F7">
-        <v>0.32153999999999999</v>
+        <v>0.26760699999999998</v>
       </c>
       <c r="G7">
-        <v>3.2088499999999999E-2</v>
+        <v>2.83225E-2</v>
       </c>
       <c r="H7">
-        <v>0.101031</v>
+        <v>0.111178</v>
       </c>
       <c r="I7">
-        <v>0.108672</v>
+        <v>0.110698</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -4241,19 +4242,19 @@
         <v>17</v>
       </c>
       <c r="E8">
-        <v>1.9807800000000001E-3</v>
+        <v>1.53002E-3</v>
       </c>
       <c r="F8">
-        <v>2.9830700000000002E-2</v>
+        <v>2.5856799999999999E-2</v>
       </c>
       <c r="G8">
-        <v>2.1813900000000001E-3</v>
+        <v>1.89493E-3</v>
       </c>
       <c r="H8">
-        <v>8.1786199999999993E-3</v>
+        <v>6.9418600000000002E-3</v>
       </c>
       <c r="I8">
-        <v>8.9622899999999995E-3</v>
+        <v>7.55267E-3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -4270,19 +4271,19 @@
         <v>17</v>
       </c>
       <c r="E9">
-        <v>0.18488499999999999</v>
+        <v>0.136825</v>
       </c>
       <c r="F9">
-        <v>3.2386699999999999</v>
+        <v>4.3051899999999996</v>
       </c>
       <c r="G9">
-        <v>0.110429</v>
+        <v>0.15235099999999999</v>
       </c>
       <c r="H9">
-        <v>1.15707</v>
+        <v>1.5416700000000001</v>
       </c>
       <c r="I9">
-        <v>1.0737699999999999</v>
+        <v>1.63365</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -4299,19 +4300,19 @@
         <v>17</v>
       </c>
       <c r="E10">
-        <v>0.21098800000000001</v>
+        <v>0.23040099999999999</v>
       </c>
       <c r="F10">
-        <v>3.2921499999999999</v>
+        <v>4.5787100000000001</v>
       </c>
       <c r="G10">
-        <v>0.22699900000000001</v>
+        <v>0.27679300000000001</v>
       </c>
       <c r="H10">
-        <v>1.1420600000000001</v>
+        <v>1.5349200000000001</v>
       </c>
       <c r="I10">
-        <v>1.15177</v>
+        <v>1.65421</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -4328,19 +4329,19 @@
         <v>17</v>
       </c>
       <c r="E11">
-        <v>3.3805200000000001E-3</v>
+        <v>4.1598599999999996E-3</v>
       </c>
       <c r="F11">
-        <v>6.1362300000000002E-2</v>
+        <v>9.35415E-2</v>
       </c>
       <c r="G11">
-        <v>2.7205699999999998E-3</v>
+        <v>3.3702300000000001E-3</v>
       </c>
       <c r="H11">
-        <v>1.6454900000000001E-2</v>
+        <v>2.7438400000000002E-2</v>
       </c>
       <c r="I11">
-        <v>1.73256E-2</v>
+        <v>2.65811E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -4357,19 +4358,19 @@
         <v>17</v>
       </c>
       <c r="E12">
-        <v>0.51381399999999999</v>
+        <v>0.56098599999999998</v>
       </c>
       <c r="F12">
-        <v>6.9183599999999998</v>
+        <v>8.7478899999999999</v>
       </c>
       <c r="G12">
-        <v>1.02338</v>
+        <v>1.19913</v>
       </c>
       <c r="H12">
-        <v>2.4979</v>
+        <v>2.77237</v>
       </c>
       <c r="I12">
-        <v>2.7029999999999998</v>
+        <v>2.9331</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -4386,19 +4387,19 @@
         <v>17</v>
       </c>
       <c r="E13">
-        <v>0.51835100000000001</v>
+        <v>0.581704</v>
       </c>
       <c r="F13">
-        <v>6.9223499999999998</v>
+        <v>7.0049599999999996</v>
       </c>
       <c r="G13">
-        <v>1.04278</v>
+        <v>1.026</v>
       </c>
       <c r="H13">
-        <v>2.7222200000000001</v>
+        <v>2.43133</v>
       </c>
       <c r="I13">
-        <v>2.6962000000000002</v>
+        <v>2.6382099999999999</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -4415,19 +4416,19 @@
         <v>17</v>
       </c>
       <c r="E14">
-        <v>2.2086700000000001E-2</v>
+        <v>1.7793900000000001E-2</v>
       </c>
       <c r="F14">
-        <v>0.32194800000000001</v>
+        <v>0.27169500000000002</v>
       </c>
       <c r="G14">
-        <v>3.2946400000000001E-2</v>
+        <v>2.9554400000000002E-2</v>
       </c>
       <c r="H14">
-        <v>0.104768</v>
+        <v>9.0242699999999995E-2</v>
       </c>
       <c r="I14">
-        <v>0.10943600000000001</v>
+        <v>9.9851099999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -4444,19 +4445,19 @@
         <v>17</v>
       </c>
       <c r="E15">
-        <v>1.4898400000000001E-3</v>
+        <v>1.37849E-3</v>
       </c>
       <c r="F15">
-        <v>2.93975E-2</v>
+        <v>2.6528199999999998E-2</v>
       </c>
       <c r="G15">
-        <v>1.17768E-3</v>
+        <v>1.2219500000000001E-3</v>
       </c>
       <c r="H15">
-        <v>7.4420500000000004E-3</v>
+        <v>7.4077600000000002E-3</v>
       </c>
       <c r="I15">
-        <v>8.0605699999999995E-3</v>
+        <v>6.9544999999999997E-3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -4473,19 +4474,19 @@
         <v>17</v>
       </c>
       <c r="E16">
-        <v>1.32248E-3</v>
+        <v>9.8350900000000003E-4</v>
       </c>
       <c r="F16">
-        <v>2.8983200000000001E-2</v>
+        <v>2.5041399999999998E-2</v>
       </c>
       <c r="G16">
-        <v>7.0737700000000003E-4</v>
+        <v>7.0195100000000003E-4</v>
       </c>
       <c r="H16">
-        <v>7.43803E-3</v>
+        <v>6.3188899999999998E-3</v>
       </c>
       <c r="I16">
-        <v>7.5481899999999998E-3</v>
+        <v>6.6530699999999996E-3</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -4502,19 +4503,19 @@
         <v>17</v>
       </c>
       <c r="E17">
-        <v>4.7183599999999999E-2</v>
+        <v>3.8715600000000003E-2</v>
       </c>
       <c r="F17">
-        <v>0.65840699999999996</v>
+        <v>0.58200499999999999</v>
       </c>
       <c r="G17">
-        <v>7.1940000000000004E-2</v>
+        <v>6.5008700000000003E-2</v>
       </c>
       <c r="H17">
-        <v>0.217977</v>
+        <v>0.192583</v>
       </c>
       <c r="I17">
-        <v>0.22930400000000001</v>
+        <v>0.21860499999999999</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -4531,19 +4532,19 @@
         <v>17</v>
       </c>
       <c r="E18">
-        <v>1.8765400000000002E-2</v>
+        <v>1.5999800000000002E-2</v>
       </c>
       <c r="F18">
-        <v>0.31613799999999997</v>
+        <v>0.27573300000000001</v>
       </c>
       <c r="G18">
-        <v>1.7555600000000001E-2</v>
+        <v>1.5905499999999999E-2</v>
       </c>
       <c r="H18">
-        <v>9.1773999999999994E-2</v>
+        <v>8.2898600000000003E-2</v>
       </c>
       <c r="I18">
-        <v>9.8242700000000002E-2</v>
+        <v>8.5133200000000006E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -4560,19 +4561,19 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>3.9956100000000001E-3</v>
+        <v>3.35243E-3</v>
       </c>
       <c r="F19">
-        <v>6.22862E-2</v>
+        <v>5.1503800000000002E-2</v>
       </c>
       <c r="G19">
-        <v>4.9077499999999998E-3</v>
+        <v>4.2852200000000002E-3</v>
       </c>
       <c r="H19">
-        <v>1.7228500000000001E-2</v>
+        <v>1.41478E-2</v>
       </c>
       <c r="I19">
-        <v>1.9031800000000001E-2</v>
+        <v>1.67425E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -4589,19 +4590,19 @@
         <v>17</v>
       </c>
       <c r="E20">
-        <v>0.247305</v>
+        <v>0.21013200000000001</v>
       </c>
       <c r="F20">
-        <v>3.38591</v>
+        <v>2.8857699999999999</v>
       </c>
       <c r="G20">
-        <v>0.46139400000000003</v>
+        <v>0.423545</v>
       </c>
       <c r="H20">
-        <v>1.18024</v>
+        <v>1.0368599999999999</v>
       </c>
       <c r="I20">
-        <v>1.2694099999999999</v>
+        <v>1.18668</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -4618,19 +4619,19 @@
         <v>17</v>
       </c>
       <c r="E21">
-        <v>0.24848100000000001</v>
+        <v>0.22036500000000001</v>
       </c>
       <c r="F21">
-        <v>3.3811900000000001</v>
+        <v>2.8990100000000001</v>
       </c>
       <c r="G21">
-        <v>0.46008700000000002</v>
+        <v>0.410829</v>
       </c>
       <c r="H21">
-        <v>1.21834</v>
+        <v>1.0240899999999999</v>
       </c>
       <c r="I21">
-        <v>1.26709</v>
+        <v>1.1022799999999999</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -4647,19 +4648,19 @@
         <v>17</v>
       </c>
       <c r="E22">
-        <v>0.380552</v>
+        <v>0.33309299999999997</v>
       </c>
       <c r="F22">
-        <v>6.61869</v>
+        <v>6.0911099999999996</v>
       </c>
       <c r="G22">
-        <v>0.23477000000000001</v>
+        <v>0.240088</v>
       </c>
       <c r="H22">
-        <v>2.5392000000000001</v>
+        <v>2.1291600000000002</v>
       </c>
       <c r="I22">
-        <v>2.2858900000000002</v>
+        <v>2.1886399999999999</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -4676,19 +4677,19 @@
         <v>17</v>
       </c>
       <c r="E23">
-        <v>1.87367E-3</v>
+        <v>1.5166100000000001E-3</v>
       </c>
       <c r="F23">
-        <v>2.9946199999999999E-2</v>
+        <v>2.52959E-2</v>
       </c>
       <c r="G23">
-        <v>2.11779E-3</v>
+        <v>1.84155E-3</v>
       </c>
       <c r="H23">
-        <v>7.8129099999999993E-3</v>
+        <v>6.8293299999999998E-3</v>
       </c>
       <c r="I23">
-        <v>8.9256100000000005E-3</v>
+        <v>7.5174400000000002E-3</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -4705,19 +4706,19 @@
         <v>17</v>
       </c>
       <c r="E24">
-        <v>4.6018200000000002E-2</v>
+        <v>3.7960500000000001E-2</v>
       </c>
       <c r="F24">
-        <v>0.66297899999999998</v>
+        <v>0.57801499999999995</v>
       </c>
       <c r="G24">
-        <v>7.2986200000000001E-2</v>
+        <v>6.9472000000000006E-2</v>
       </c>
       <c r="H24">
-        <v>0.220775</v>
+        <v>0.19087499999999999</v>
       </c>
       <c r="I24">
-        <v>0.23230200000000001</v>
+        <v>0.20013800000000001</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -4734,19 +4735,19 @@
         <v>17</v>
       </c>
       <c r="E25">
-        <v>2.1880799999999999E-2</v>
+        <v>2.4768600000000002E-2</v>
       </c>
       <c r="F25">
-        <v>0.32116400000000001</v>
+        <v>0.29835800000000001</v>
       </c>
       <c r="G25">
-        <v>3.2567699999999998E-2</v>
+        <v>2.8802899999999999E-2</v>
       </c>
       <c r="H25">
-        <v>9.9907200000000002E-2</v>
+        <v>9.3006500000000006E-2</v>
       </c>
       <c r="I25">
-        <v>0.10796</v>
+        <v>9.3761300000000006E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -4763,19 +4764,19 @@
         <v>17</v>
       </c>
       <c r="E26">
-        <v>3.9960600000000001E-3</v>
+        <v>3.26063E-3</v>
       </c>
       <c r="F26">
-        <v>6.1567200000000002E-2</v>
+        <v>5.1331099999999998E-2</v>
       </c>
       <c r="G26">
-        <v>4.8588199999999998E-3</v>
+        <v>4.3295800000000004E-3</v>
       </c>
       <c r="H26">
-        <v>1.7399499999999998E-2</v>
+        <v>1.45819E-2</v>
       </c>
       <c r="I26">
-        <v>1.9100599999999999E-2</v>
+        <v>1.6227100000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -4792,19 +4793,19 @@
         <v>17</v>
       </c>
       <c r="E27">
-        <v>2.8922099999999999E-2</v>
+        <v>2.5728299999999999E-2</v>
       </c>
       <c r="F27">
-        <v>0.63398500000000002</v>
+        <v>0.57516400000000001</v>
       </c>
       <c r="G27">
-        <v>1.9405499999999999E-2</v>
+        <v>1.9220299999999999E-2</v>
       </c>
       <c r="H27">
-        <v>0.195103</v>
+        <v>0.18309400000000001</v>
       </c>
       <c r="I27">
-        <v>0.19644600000000001</v>
+        <v>0.17818999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -4821,19 +4822,19 @@
         <v>17</v>
       </c>
       <c r="E28">
-        <v>3.8921200000000003E-2</v>
+        <v>3.3611000000000002E-2</v>
       </c>
       <c r="F28">
-        <v>0.64293699999999998</v>
+        <v>0.56191999999999998</v>
       </c>
       <c r="G28">
-        <v>3.75956E-2</v>
+        <v>3.4635800000000001E-2</v>
       </c>
       <c r="H28">
-        <v>0.207345</v>
+        <v>0.194634</v>
       </c>
       <c r="I28">
-        <v>0.20857999999999999</v>
+        <v>0.18312600000000001</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -4850,19 +4851,19 @@
         <v>17</v>
       </c>
       <c r="E29">
-        <v>2.8308500000000002E-3</v>
+        <v>2.22208E-3</v>
       </c>
       <c r="F29">
-        <v>5.9726099999999997E-2</v>
+        <v>4.9987299999999998E-2</v>
       </c>
       <c r="G29">
-        <v>1.5482200000000001E-3</v>
+        <v>1.5207199999999999E-3</v>
       </c>
       <c r="H29">
-        <v>1.6358000000000001E-2</v>
+        <v>1.3962799999999999E-2</v>
       </c>
       <c r="I29">
-        <v>1.6231300000000001E-2</v>
+        <v>1.3732599999999999E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -4879,19 +4880,19 @@
         <v>17</v>
       </c>
       <c r="E30">
-        <v>1.87732E-3</v>
+        <v>1.49526E-3</v>
       </c>
       <c r="F30">
-        <v>2.98228E-2</v>
+        <v>2.6203000000000001E-2</v>
       </c>
       <c r="G30">
-        <v>2.17045E-3</v>
+        <v>2.0050200000000002E-3</v>
       </c>
       <c r="H30">
-        <v>7.9552900000000003E-3</v>
+        <v>7.8859099999999994E-3</v>
       </c>
       <c r="I30">
-        <v>8.9004500000000007E-3</v>
+        <v>8.1961299999999994E-3</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -4908,19 +4909,19 @@
         <v>17</v>
       </c>
       <c r="E31">
-        <v>0.40723100000000001</v>
+        <v>0.387766</v>
       </c>
       <c r="F31">
-        <v>6.7275799999999997</v>
+        <v>7.0281399999999996</v>
       </c>
       <c r="G31">
-        <v>0.501328</v>
+        <v>0.49109199999999997</v>
       </c>
       <c r="H31">
-        <v>2.5050699999999999</v>
+        <v>2.3222200000000002</v>
       </c>
       <c r="I31">
-        <v>2.4349500000000002</v>
+        <v>2.2237499999999999</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -4937,19 +4938,19 @@
         <v>17</v>
       </c>
       <c r="E32">
-        <v>0.134829</v>
+        <v>0.123087</v>
       </c>
       <c r="F32">
-        <v>0.50935200000000003</v>
+        <v>0.43487900000000002</v>
       </c>
       <c r="G32">
-        <v>0.11534700000000001</v>
+        <v>0.103738</v>
       </c>
       <c r="H32">
-        <v>0.27773199999999998</v>
+        <v>0.243233</v>
       </c>
       <c r="I32">
-        <v>0.25253599999999998</v>
+        <v>0.22310199999999999</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -4966,19 +4967,19 @@
         <v>17</v>
       </c>
       <c r="E33">
-        <v>1.8402499999999999</v>
+        <v>1.6009199999999999</v>
       </c>
       <c r="F33">
-        <v>6.29657</v>
+        <v>6.0212700000000003</v>
       </c>
       <c r="G33">
-        <v>4.3352599999999999</v>
+        <v>4.18886</v>
       </c>
       <c r="H33">
-        <v>3.47743</v>
+        <v>3.4555600000000002</v>
       </c>
       <c r="I33">
-        <v>4.4090199999999999</v>
+        <v>4.0989300000000002</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -4995,19 +4996,19 @@
         <v>17</v>
       </c>
       <c r="E34">
-        <v>0.14254</v>
+        <v>0.123277</v>
       </c>
       <c r="F34">
-        <v>0.57048100000000002</v>
+        <v>0.50610100000000002</v>
       </c>
       <c r="G34">
-        <v>0.30008600000000002</v>
+        <v>0.25655899999999998</v>
       </c>
       <c r="H34">
-        <v>0.28446700000000003</v>
+        <v>0.241843</v>
       </c>
       <c r="I34">
-        <v>0.368307</v>
+        <v>0.33085100000000001</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -5024,19 +5025,19 @@
         <v>17</v>
       </c>
       <c r="E35">
-        <v>2.4234100000000001E-2</v>
+        <v>2.01291E-2</v>
       </c>
       <c r="F35">
-        <v>0.105131</v>
+        <v>8.9748999999999995E-2</v>
       </c>
       <c r="G35">
-        <v>4.2457399999999999E-2</v>
+        <v>3.6131999999999997E-2</v>
       </c>
       <c r="H35">
-        <v>4.7906299999999999E-2</v>
+        <v>4.06592E-2</v>
       </c>
       <c r="I35">
-        <v>6.5518499999999993E-2</v>
+        <v>5.4587499999999997E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -5053,19 +5054,19 @@
         <v>17</v>
       </c>
       <c r="E36">
-        <v>2.3836799999999998E-2</v>
+        <v>1.9382099999999999E-2</v>
       </c>
       <c r="F36">
-        <v>9.9907800000000005E-2</v>
+        <v>8.7789599999999995E-2</v>
       </c>
       <c r="G36">
-        <v>4.1068199999999999E-2</v>
+        <v>4.2108399999999997E-2</v>
       </c>
       <c r="H36">
-        <v>4.7534699999999999E-2</v>
+        <v>4.7701500000000001E-2</v>
       </c>
       <c r="I36">
-        <v>5.1163199999999999E-2</v>
+        <v>4.6541399999999997E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -5082,19 +5083,19 @@
         <v>17</v>
       </c>
       <c r="E37">
-        <v>0.28106999999999999</v>
+        <v>0.252029</v>
       </c>
       <c r="F37">
-        <v>1.0535600000000001</v>
+        <v>0.90565700000000005</v>
       </c>
       <c r="G37">
-        <v>0.24632499999999999</v>
+        <v>0.21057300000000001</v>
       </c>
       <c r="H37">
-        <v>0.57558100000000001</v>
+        <v>0.50136199999999997</v>
       </c>
       <c r="I37">
-        <v>0.52744199999999997</v>
+        <v>0.48299500000000001</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -5111,19 +5112,19 @@
         <v>17</v>
       </c>
       <c r="E38">
-        <v>1.1011099999999999E-2</v>
+        <v>8.9720700000000004E-3</v>
       </c>
       <c r="F38">
-        <v>5.04176E-2</v>
+        <v>4.37197E-2</v>
       </c>
       <c r="G38">
-        <v>1.8246499999999999E-2</v>
+        <v>1.5212E-2</v>
       </c>
       <c r="H38">
-        <v>2.2130299999999999E-2</v>
+        <v>1.8379099999999999E-2</v>
       </c>
       <c r="I38">
-        <v>2.99168E-2</v>
+        <v>2.5470300000000001E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -5140,19 +5141,19 @@
         <v>17</v>
       </c>
       <c r="E39">
-        <v>1.71244</v>
+        <v>1.5337700000000001</v>
       </c>
       <c r="F39">
-        <v>5.8574099999999998</v>
+        <v>5.0513000000000003</v>
       </c>
       <c r="G39">
-        <v>3.9847800000000002</v>
+        <v>3.4336899999999999</v>
       </c>
       <c r="H39">
-        <v>3.7109399999999999</v>
+        <v>3.07254</v>
       </c>
       <c r="I39">
-        <v>3.62276</v>
+        <v>3.2489699999999999</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -5169,19 +5170,19 @@
         <v>17</v>
       </c>
       <c r="E40">
-        <v>0.14172299999999999</v>
+        <v>0.124431</v>
       </c>
       <c r="F40">
-        <v>0.612904</v>
+        <v>0.48454399999999997</v>
       </c>
       <c r="G40">
-        <v>0.29853099999999999</v>
+        <v>0.27213199999999999</v>
       </c>
       <c r="H40">
-        <v>0.35725099999999999</v>
+        <v>0.24311099999999999</v>
       </c>
       <c r="I40">
-        <v>0.36991600000000002</v>
+        <v>0.34339599999999998</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -5198,19 +5199,19 @@
         <v>17</v>
       </c>
       <c r="E41">
-        <v>1.8568899999999999</v>
+        <v>1.5794999999999999</v>
       </c>
       <c r="F41">
-        <v>6.3491600000000004</v>
+        <v>5.5595499999999998</v>
       </c>
       <c r="G41">
-        <v>4.7702499999999999</v>
+        <v>4.1465300000000003</v>
       </c>
       <c r="H41">
-        <v>3.6655799999999998</v>
+        <v>3.13436</v>
       </c>
       <c r="I41">
-        <v>4.4067100000000003</v>
+        <v>3.9616699999999998</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -5227,19 +5228,19 @@
         <v>17</v>
       </c>
       <c r="E42">
-        <v>1.10297E-2</v>
+        <v>9.7694600000000006E-3</v>
       </c>
       <c r="F42">
-        <v>5.04444E-2</v>
+        <v>4.3845099999999998E-2</v>
       </c>
       <c r="G42">
-        <v>1.8239399999999999E-2</v>
+        <v>1.53408E-2</v>
       </c>
       <c r="H42">
-        <v>2.2040000000000001E-2</v>
+        <v>2.1375399999999999E-2</v>
       </c>
       <c r="I42">
-        <v>2.9748699999999999E-2</v>
+        <v>2.5254100000000002E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -5256,19 +5257,19 @@
         <v>17</v>
       </c>
       <c r="E43">
-        <v>0.32066</v>
+        <v>0.25661699999999998</v>
       </c>
       <c r="F43">
-        <v>1.17666</v>
+        <v>1.04599</v>
       </c>
       <c r="G43">
-        <v>0.67813199999999996</v>
+        <v>0.58734500000000001</v>
       </c>
       <c r="H43">
-        <v>0.67223200000000005</v>
+        <v>0.53125800000000001</v>
       </c>
       <c r="I43">
-        <v>0.77817599999999998</v>
+        <v>0.69904900000000003</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -5285,19 +5286,19 @@
         <v>17</v>
       </c>
       <c r="E44">
-        <v>1.13738E-2</v>
+        <v>1.02577E-2</v>
       </c>
       <c r="F44">
-        <v>5.03983E-2</v>
+        <v>4.4290999999999997E-2</v>
       </c>
       <c r="G44">
-        <v>1.8496200000000001E-2</v>
+        <v>1.60311E-2</v>
       </c>
       <c r="H44">
-        <v>2.45159E-2</v>
+        <v>2.1790500000000001E-2</v>
       </c>
       <c r="I44">
-        <v>2.9790000000000001E-2</v>
+        <v>2.61189E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -5314,19 +5315,19 @@
         <v>17</v>
       </c>
       <c r="E45">
-        <v>0.30755199999999999</v>
+        <v>0.24379500000000001</v>
       </c>
       <c r="F45">
-        <v>1.11958</v>
+        <v>0.954013</v>
       </c>
       <c r="G45">
-        <v>0.65292600000000001</v>
+        <v>0.56284100000000004</v>
       </c>
       <c r="H45">
-        <v>0.63236899999999996</v>
+        <v>0.51600900000000005</v>
       </c>
       <c r="I45">
-        <v>0.63454299999999997</v>
+        <v>0.57079599999999997</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -5343,19 +5344,19 @@
         <v>17</v>
       </c>
       <c r="E46">
-        <v>3.7745099999999998</v>
+        <v>3.40693</v>
       </c>
       <c r="F46">
-        <v>13.281599999999999</v>
+        <v>11.2803</v>
       </c>
       <c r="G46">
-        <v>10.676299999999999</v>
+        <v>9.22133</v>
       </c>
       <c r="H46">
-        <v>7.5960999999999999</v>
+        <v>6.5847899999999999</v>
       </c>
       <c r="I46">
-        <v>9.3564600000000002</v>
+        <v>8.30443</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -5372,19 +5373,19 @@
         <v>17</v>
       </c>
       <c r="E47">
-        <v>2.7470399999999999E-2</v>
+        <v>2.0051099999999999E-2</v>
       </c>
       <c r="F47">
-        <v>0.10588400000000001</v>
+        <v>9.0132699999999996E-2</v>
       </c>
       <c r="G47">
-        <v>4.4053000000000002E-2</v>
+        <v>3.6989099999999997E-2</v>
       </c>
       <c r="H47">
-        <v>6.9319900000000004E-2</v>
+        <v>4.5650299999999998E-2</v>
       </c>
       <c r="I47">
-        <v>6.6717200000000004E-2</v>
+        <v>5.3851400000000001E-2</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -5401,19 +5402,19 @@
         <v>17</v>
       </c>
       <c r="E48">
-        <v>3.7805800000000001</v>
+        <v>3.2218200000000001</v>
       </c>
       <c r="F48">
-        <v>13.324299999999999</v>
+        <v>11.108000000000001</v>
       </c>
       <c r="G48">
-        <v>10.3187</v>
+        <v>8.8690800000000003</v>
       </c>
       <c r="H48">
-        <v>7.74702</v>
+        <v>6.7289199999999996</v>
       </c>
       <c r="I48">
-        <v>9.3054799999999993</v>
+        <v>8.1691800000000008</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -5430,19 +5431,19 @@
         <v>17</v>
       </c>
       <c r="E49">
-        <v>3.7290700000000001</v>
+        <v>3.2678400000000001</v>
       </c>
       <c r="F49">
-        <v>11.569800000000001</v>
+        <v>9.6507400000000008</v>
       </c>
       <c r="G49">
-        <v>2.9588399999999999</v>
+        <v>2.47716</v>
       </c>
       <c r="H49">
-        <v>7.1960899999999999</v>
+        <v>6.0906799999999999</v>
       </c>
       <c r="I49">
-        <v>6.4613100000000001</v>
+        <v>5.7196800000000003</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -5459,19 +5460,19 @@
         <v>17</v>
       </c>
       <c r="E50">
-        <v>1.7863500000000001</v>
+        <v>1.67801</v>
       </c>
       <c r="F50">
-        <v>6.55898</v>
+        <v>5.39262</v>
       </c>
       <c r="G50">
-        <v>4.3929400000000003</v>
+        <v>3.7839900000000002</v>
       </c>
       <c r="H50">
-        <v>3.5912500000000001</v>
+        <v>3.1070500000000001</v>
       </c>
       <c r="I50">
-        <v>4.4327100000000002</v>
+        <v>3.8633199999999999</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -5488,19 +5489,19 @@
         <v>17</v>
       </c>
       <c r="E51">
-        <v>0.29810799999999998</v>
+        <v>0.24857499999999999</v>
       </c>
       <c r="F51">
-        <v>1.2730999999999999</v>
+        <v>1.04409</v>
       </c>
       <c r="G51">
-        <v>0.69510799999999995</v>
+        <v>0.59686099999999997</v>
       </c>
       <c r="H51">
-        <v>0.74360700000000002</v>
+        <v>0.53306299999999995</v>
       </c>
       <c r="I51">
-        <v>0.78636300000000003</v>
+        <v>0.68881199999999998</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -5517,19 +5518,19 @@
         <v>17</v>
       </c>
       <c r="E52">
-        <v>1.07329E-2</v>
+        <v>9.20143E-3</v>
       </c>
       <c r="F52">
-        <v>4.76549E-2</v>
+        <v>4.3795599999999997E-2</v>
       </c>
       <c r="G52">
-        <v>1.6835099999999999E-2</v>
+        <v>1.4290300000000001E-2</v>
       </c>
       <c r="H52">
-        <v>2.63048E-2</v>
+        <v>1.8856000000000001E-2</v>
       </c>
       <c r="I52">
-        <v>2.3777E-2</v>
+        <v>2.2504900000000001E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -5546,19 +5547,19 @@
         <v>17</v>
       </c>
       <c r="E53">
-        <v>3.6555900000000001</v>
+        <v>3.0587800000000001</v>
       </c>
       <c r="F53">
-        <v>12.472200000000001</v>
+        <v>10.3277</v>
       </c>
       <c r="G53">
-        <v>8.9337499999999999</v>
+        <v>7.6415899999999999</v>
       </c>
       <c r="H53">
-        <v>7.8784799999999997</v>
+        <v>6.7112400000000001</v>
       </c>
       <c r="I53">
-        <v>7.6405599999999998</v>
+        <v>6.8736499999999996</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -5575,19 +5576,19 @@
         <v>17</v>
       </c>
       <c r="E54">
-        <v>1.10361E-2</v>
+        <v>8.4504300000000001E-3</v>
       </c>
       <c r="F54">
-        <v>4.9734399999999998E-2</v>
+        <v>3.9850099999999999E-2</v>
       </c>
       <c r="G54">
-        <v>9.0341799999999993E-3</v>
+        <v>7.4947800000000004E-3</v>
       </c>
       <c r="H54">
-        <v>2.78143E-2</v>
+        <v>1.6913600000000001E-2</v>
       </c>
       <c r="I54">
-        <v>1.9479E-2</v>
+        <v>1.6410399999999999E-2</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -5604,19 +5605,19 @@
         <v>17</v>
       </c>
       <c r="E55">
-        <v>0.30644300000000002</v>
+        <v>0.27378599999999997</v>
       </c>
       <c r="F55">
-        <v>1.23569</v>
+        <v>1.0261100000000001</v>
       </c>
       <c r="G55">
-        <v>0.70188700000000004</v>
+        <v>0.61355499999999996</v>
       </c>
       <c r="H55">
-        <v>0.668879</v>
+        <v>0.55297700000000005</v>
       </c>
       <c r="I55">
-        <v>0.80186199999999996</v>
+        <v>0.69777100000000003</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -5633,19 +5634,19 @@
         <v>17</v>
       </c>
       <c r="E56">
-        <v>2.3301700000000002E-2</v>
+        <v>1.9379899999999999E-2</v>
       </c>
       <c r="F56">
-        <v>0.106339</v>
+        <v>8.9089299999999996E-2</v>
       </c>
       <c r="G56">
-        <v>4.2911299999999999E-2</v>
+        <v>3.5868900000000002E-2</v>
       </c>
       <c r="H56">
-        <v>4.7604599999999997E-2</v>
+        <v>3.9819899999999998E-2</v>
       </c>
       <c r="I56">
-        <v>6.7531499999999994E-2</v>
+        <v>5.38982E-2</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -5662,19 +5663,19 @@
         <v>17</v>
       </c>
       <c r="E57">
-        <v>2.3709899999999999E-2</v>
+        <v>2.0268899999999999E-2</v>
       </c>
       <c r="F57">
-        <v>9.81268E-2</v>
+        <v>7.9468200000000003E-2</v>
       </c>
       <c r="G57">
-        <v>1.9792899999999999E-2</v>
+        <v>1.6211199999999999E-2</v>
       </c>
       <c r="H57">
-        <v>4.51955E-2</v>
+        <v>3.8449700000000003E-2</v>
       </c>
       <c r="I57">
-        <v>4.23843E-2</v>
+        <v>3.6011700000000001E-2</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -5691,19 +5692,19 @@
         <v>17</v>
       </c>
       <c r="E58">
-        <v>1.6776</v>
+        <v>1.47295</v>
       </c>
       <c r="F58">
-        <v>5.6440299999999999</v>
+        <v>4.7756600000000002</v>
       </c>
       <c r="G58">
-        <v>1.3966400000000001</v>
+        <v>1.1971499999999999</v>
       </c>
       <c r="H58">
-        <v>3.7687200000000001</v>
+        <v>2.8422299999999998</v>
       </c>
       <c r="I58">
-        <v>3.0140699999999998</v>
+        <v>2.6943800000000002</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -5720,19 +5721,19 @@
         <v>17</v>
       </c>
       <c r="E59">
-        <v>0.14571700000000001</v>
+        <v>0.123819</v>
       </c>
       <c r="F59">
-        <v>0.58958100000000002</v>
+        <v>0.49354399999999998</v>
       </c>
       <c r="G59">
-        <v>0.30095899999999998</v>
+        <v>0.25218299999999999</v>
       </c>
       <c r="H59">
-        <v>0.291024</v>
+        <v>0.24418699999999999</v>
       </c>
       <c r="I59">
-        <v>0.36662899999999998</v>
+        <v>0.31751400000000002</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -5749,19 +5750,19 @@
         <v>17</v>
       </c>
       <c r="E60">
-        <v>0.14084099999999999</v>
+        <v>0.117662</v>
       </c>
       <c r="F60">
-        <v>0.58819200000000005</v>
+        <v>0.46111000000000002</v>
       </c>
       <c r="G60">
-        <v>0.29646400000000001</v>
+        <v>0.23597699999999999</v>
       </c>
       <c r="H60">
-        <v>0.318965</v>
+        <v>0.24520700000000001</v>
       </c>
       <c r="I60">
-        <v>0.29550100000000001</v>
+        <v>0.26435799999999998</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -5778,19 +5779,19 @@
         <v>17</v>
       </c>
       <c r="E61">
-        <v>3.8289200000000001</v>
+        <v>3.1501899999999998</v>
       </c>
       <c r="F61">
-        <v>13.4541</v>
+        <v>11.145899999999999</v>
       </c>
       <c r="G61">
-        <v>10.242800000000001</v>
+        <v>8.7866700000000009</v>
       </c>
       <c r="H61">
-        <v>8.0906699999999994</v>
+        <v>6.5792400000000004</v>
       </c>
       <c r="I61">
-        <v>9.3095800000000004</v>
+        <v>8.5502400000000005</v>
       </c>
     </row>
   </sheetData>
@@ -5803,7 +5804,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="A1:I61"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5853,23 +5854,23 @@
       </c>
       <c r="E2">
         <f>AVERAGE(Ryan1:Ryan3!E2)</f>
-        <v>0.2368773333333333</v>
+        <v>0.247838</v>
       </c>
       <c r="F2">
         <f>AVERAGE(Ryan1:Ryan3!F2)</f>
-        <v>3.1888533333333338</v>
+        <v>3.20655</v>
       </c>
       <c r="G2">
         <f>AVERAGE(Ryan1:Ryan3!G2)</f>
-        <v>0.44629966666666671</v>
+        <v>0.45551399999999997</v>
       </c>
       <c r="H2">
         <f>AVERAGE(Ryan1:Ryan3!H2)</f>
-        <v>1.1460049999999999</v>
+        <v>1.0500550000000002</v>
       </c>
       <c r="I2">
         <f>AVERAGE(Ryan1:Ryan3!I2)</f>
-        <v>1.2268366666666666</v>
+        <v>1.1998566666666666</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5888,23 +5889,23 @@
       </c>
       <c r="E3">
         <f>AVERAGE(Ryan1:Ryan3!E3)</f>
-        <v>0.50164233333333341</v>
+        <v>0.45214366666666667</v>
       </c>
       <c r="F3">
         <f>AVERAGE(Ryan1:Ryan3!F3)</f>
-        <v>6.7541833333333328</v>
+        <v>6.3782433333333328</v>
       </c>
       <c r="G3">
         <f>AVERAGE(Ryan1:Ryan3!G3)</f>
-        <v>1.001309</v>
+        <v>0.9444393333333333</v>
       </c>
       <c r="H3">
         <f>AVERAGE(Ryan1:Ryan3!H3)</f>
-        <v>2.4837400000000005</v>
+        <v>2.3815266666666668</v>
       </c>
       <c r="I3">
         <f>AVERAGE(Ryan1:Ryan3!I3)</f>
-        <v>2.6583433333333333</v>
+        <v>2.5172533333333331</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5923,23 +5924,23 @@
       </c>
       <c r="E4">
         <f>AVERAGE(Ryan1:Ryan3!E4)</f>
-        <v>4.3680799999999999E-2</v>
+        <v>3.9098933333333336E-2</v>
       </c>
       <c r="F4">
         <f>AVERAGE(Ryan1:Ryan3!F4)</f>
-        <v>0.63872033333333322</v>
+        <v>0.61661700000000008</v>
       </c>
       <c r="G4">
         <f>AVERAGE(Ryan1:Ryan3!G4)</f>
-        <v>7.0955666666666653E-2</v>
+        <v>7.2308733333333333E-2</v>
       </c>
       <c r="H4">
         <f>AVERAGE(Ryan1:Ryan3!H4)</f>
-        <v>0.21427599999999999</v>
+        <v>0.21341333333333332</v>
       </c>
       <c r="I4">
         <f>AVERAGE(Ryan1:Ryan3!I4)</f>
-        <v>0.22568266666666667</v>
+        <v>0.24142366666666668</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -5958,23 +5959,23 @@
       </c>
       <c r="E5">
         <f>AVERAGE(Ryan1:Ryan3!E5)</f>
-        <v>3.8196866666666668E-3</v>
+        <v>3.4473933333333331E-3</v>
       </c>
       <c r="F5">
         <f>AVERAGE(Ryan1:Ryan3!F5)</f>
-        <v>5.9061799999999998E-2</v>
+        <v>6.3981966666666668E-2</v>
       </c>
       <c r="G5">
         <f>AVERAGE(Ryan1:Ryan3!G5)</f>
-        <v>4.6740133333333335E-3</v>
+        <v>4.543083333333333E-3</v>
       </c>
       <c r="H5">
         <f>AVERAGE(Ryan1:Ryan3!H5)</f>
-        <v>1.6819900000000002E-2</v>
+        <v>1.7783066666666666E-2</v>
       </c>
       <c r="I5">
         <f>AVERAGE(Ryan1:Ryan3!I5)</f>
-        <v>1.8482933333333337E-2</v>
+        <v>2.0423133333333333E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -5993,23 +5994,23 @@
       </c>
       <c r="E6">
         <f>AVERAGE(Ryan1:Ryan3!E6)</f>
-        <v>1.4309000000000001E-2</v>
+        <v>1.7097166666666667E-2</v>
       </c>
       <c r="F6">
         <f>AVERAGE(Ryan1:Ryan3!F6)</f>
-        <v>0.30139266666666664</v>
+        <v>0.31871033333333337</v>
       </c>
       <c r="G6">
         <f>AVERAGE(Ryan1:Ryan3!G6)</f>
-        <v>8.9927466666666674E-3</v>
+        <v>8.7605366666666656E-3</v>
       </c>
       <c r="H6">
         <f>AVERAGE(Ryan1:Ryan3!H6)</f>
-        <v>9.3480899999999992E-2</v>
+        <v>8.8832000000000008E-2</v>
       </c>
       <c r="I6">
         <f>AVERAGE(Ryan1:Ryan3!I6)</f>
-        <v>8.985343333333333E-2</v>
+        <v>8.5176566666666675E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -6028,23 +6029,23 @@
       </c>
       <c r="E7">
         <f>AVERAGE(Ryan1:Ryan3!E7)</f>
-        <v>2.1015166666666668E-2</v>
+        <v>1.8411899999999998E-2</v>
       </c>
       <c r="F7">
         <f>AVERAGE(Ryan1:Ryan3!F7)</f>
-        <v>0.31352133333333332</v>
+        <v>0.30000133333333334</v>
       </c>
       <c r="G7">
         <f>AVERAGE(Ryan1:Ryan3!G7)</f>
-        <v>3.1142000000000003E-2</v>
+        <v>2.903E-2</v>
       </c>
       <c r="H7">
         <f>AVERAGE(Ryan1:Ryan3!H7)</f>
-        <v>9.8503433333333335E-2</v>
+        <v>9.583733333333333E-2</v>
       </c>
       <c r="I7">
         <f>AVERAGE(Ryan1:Ryan3!I7)</f>
-        <v>0.10906766666666667</v>
+        <v>0.10608986666666669</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -6063,23 +6064,23 @@
       </c>
       <c r="E8">
         <f>AVERAGE(Ryan1:Ryan3!E8)</f>
-        <v>1.8258199999999999E-3</v>
+        <v>1.6308399999999999E-3</v>
       </c>
       <c r="F8">
         <f>AVERAGE(Ryan1:Ryan3!F8)</f>
-        <v>2.9557866666666668E-2</v>
+        <v>2.7215799999999998E-2</v>
       </c>
       <c r="G8">
         <f>AVERAGE(Ryan1:Ryan3!G8)</f>
-        <v>2.0758199999999999E-3</v>
+        <v>1.8950433333333333E-3</v>
       </c>
       <c r="H8">
         <f>AVERAGE(Ryan1:Ryan3!H8)</f>
-        <v>7.927536666666667E-3</v>
+        <v>7.2441133333333331E-3</v>
       </c>
       <c r="I8">
         <f>AVERAGE(Ryan1:Ryan3!I8)</f>
-        <v>8.8700133333333344E-3</v>
+        <v>8.0067266666666668E-3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -6098,23 +6099,23 @@
       </c>
       <c r="E9">
         <f>AVERAGE(Ryan1:Ryan3!E9)</f>
-        <v>0.171902</v>
+        <v>0.145728</v>
       </c>
       <c r="F9">
         <f>AVERAGE(Ryan1:Ryan3!F9)</f>
-        <v>3.1450299999999998</v>
+        <v>3.3656999999999999</v>
       </c>
       <c r="G9">
         <f>AVERAGE(Ryan1:Ryan3!G9)</f>
-        <v>0.11130833333333334</v>
+        <v>0.12436899999999999</v>
       </c>
       <c r="H9">
         <f>AVERAGE(Ryan1:Ryan3!H9)</f>
-        <v>1.12523</v>
+        <v>1.2430066666666668</v>
       </c>
       <c r="I9">
         <f>AVERAGE(Ryan1:Ryan3!I9)</f>
-        <v>1.0659766666666666</v>
+        <v>1.2322300000000002</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -6133,23 +6134,23 @@
       </c>
       <c r="E10">
         <f>AVERAGE(Ryan1:Ryan3!E10)</f>
-        <v>0.20164733333333337</v>
+        <v>0.19318233333333332</v>
       </c>
       <c r="F10">
         <f>AVERAGE(Ryan1:Ryan3!F10)</f>
-        <v>3.1909933333333331</v>
+        <v>3.4939733333333329</v>
       </c>
       <c r="G10">
         <f>AVERAGE(Ryan1:Ryan3!G10)</f>
-        <v>0.22562166666666669</v>
+        <v>0.23683299999999999</v>
       </c>
       <c r="H10">
         <f>AVERAGE(Ryan1:Ryan3!H10)</f>
-        <v>1.1221566666666665</v>
+        <v>1.2188366666666666</v>
       </c>
       <c r="I10">
         <f>AVERAGE(Ryan1:Ryan3!I10)</f>
-        <v>1.1349433333333334</v>
+        <v>1.25715</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -6168,23 +6169,23 @@
       </c>
       <c r="E11">
         <f>AVERAGE(Ryan1:Ryan3!E11)</f>
-        <v>3.1429933333333333E-3</v>
+        <v>3.1714133333333333E-3</v>
       </c>
       <c r="F11">
         <f>AVERAGE(Ryan1:Ryan3!F11)</f>
-        <v>5.8570100000000007E-2</v>
+        <v>6.5650166666666662E-2</v>
       </c>
       <c r="G11">
         <f>AVERAGE(Ryan1:Ryan3!G11)</f>
-        <v>2.7114999999999999E-3</v>
+        <v>2.8476933333333333E-3</v>
       </c>
       <c r="H11">
         <f>AVERAGE(Ryan1:Ryan3!H11)</f>
-        <v>1.6753933333333335E-2</v>
+        <v>1.9267733333333332E-2</v>
       </c>
       <c r="I11">
         <f>AVERAGE(Ryan1:Ryan3!I11)</f>
-        <v>1.6631999999999997E-2</v>
+        <v>1.91039E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -6203,23 +6204,23 @@
       </c>
       <c r="E12">
         <f>AVERAGE(Ryan1:Ryan3!E12)</f>
-        <v>0.49282500000000001</v>
+        <v>0.483649</v>
       </c>
       <c r="F12">
         <f>AVERAGE(Ryan1:Ryan3!F12)</f>
-        <v>6.67462</v>
+        <v>6.9536599999999993</v>
       </c>
       <c r="G12">
         <f>AVERAGE(Ryan1:Ryan3!G12)</f>
-        <v>1.007579</v>
+        <v>1.0490996666666668</v>
       </c>
       <c r="H12">
         <f>AVERAGE(Ryan1:Ryan3!H12)</f>
-        <v>2.4719466666666663</v>
+        <v>2.4939133333333334</v>
       </c>
       <c r="I12">
         <f>AVERAGE(Ryan1:Ryan3!I12)</f>
-        <v>2.63659</v>
+        <v>2.7373799999999999</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -6238,23 +6239,23 @@
       </c>
       <c r="E13">
         <f>AVERAGE(Ryan1:Ryan3!E13)</f>
-        <v>0.49796266666666672</v>
+        <v>0.49655066666666664</v>
       </c>
       <c r="F13">
         <f>AVERAGE(Ryan1:Ryan3!F13)</f>
-        <v>6.7052933333333327</v>
+        <v>6.8160400000000001</v>
       </c>
       <c r="G13">
         <f>AVERAGE(Ryan1:Ryan3!G13)</f>
-        <v>1.0280233333333333</v>
+        <v>1.0054239999999999</v>
       </c>
       <c r="H13">
         <f>AVERAGE(Ryan1:Ryan3!H13)</f>
-        <v>2.5471533333333336</v>
+        <v>2.4129533333333333</v>
       </c>
       <c r="I13">
         <f>AVERAGE(Ryan1:Ryan3!I13)</f>
-        <v>2.6272666666666669</v>
+        <v>2.5535733333333335</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -6273,23 +6274,23 @@
       </c>
       <c r="E14">
         <f>AVERAGE(Ryan1:Ryan3!E14)</f>
-        <v>2.1097133333333334E-2</v>
+        <v>1.8315600000000001E-2</v>
       </c>
       <c r="F14">
         <f>AVERAGE(Ryan1:Ryan3!F14)</f>
-        <v>0.31105466666666665</v>
+        <v>0.29182599999999997</v>
       </c>
       <c r="G14">
         <f>AVERAGE(Ryan1:Ryan3!G14)</f>
-        <v>3.2189066666666669E-2</v>
+        <v>2.98257E-2</v>
       </c>
       <c r="H14">
         <f>AVERAGE(Ryan1:Ryan3!H14)</f>
-        <v>9.9369266666666678E-2</v>
+        <v>9.0156799999999995E-2</v>
       </c>
       <c r="I14">
         <f>AVERAGE(Ryan1:Ryan3!I14)</f>
-        <v>0.10591233333333334</v>
+        <v>9.8048266666666661E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -6308,23 +6309,23 @@
       </c>
       <c r="E15">
         <f>AVERAGE(Ryan1:Ryan3!E15)</f>
-        <v>1.4628766666666666E-3</v>
+        <v>1.3329333333333335E-3</v>
       </c>
       <c r="F15">
         <f>AVERAGE(Ryan1:Ryan3!F15)</f>
-        <v>2.853573333333333E-2</v>
+        <v>2.5874366666666666E-2</v>
       </c>
       <c r="G15">
         <f>AVERAGE(Ryan1:Ryan3!G15)</f>
-        <v>1.1997733333333333E-3</v>
+        <v>1.1642300000000003E-3</v>
       </c>
       <c r="H15">
         <f>AVERAGE(Ryan1:Ryan3!H15)</f>
-        <v>7.2874233333333344E-3</v>
+        <v>6.7616833333333333E-3</v>
       </c>
       <c r="I15">
         <f>AVERAGE(Ryan1:Ryan3!I15)</f>
-        <v>8.7015633333333339E-3</v>
+        <v>7.0058500000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -6343,23 +6344,23 @@
       </c>
       <c r="E16">
         <f>AVERAGE(Ryan1:Ryan3!E16)</f>
-        <v>1.3338499999999999E-3</v>
+        <v>1.090583E-3</v>
       </c>
       <c r="F16">
         <f>AVERAGE(Ryan1:Ryan3!F16)</f>
-        <v>2.8186766666666668E-2</v>
+        <v>2.5360066666666663E-2</v>
       </c>
       <c r="G16">
         <f>AVERAGE(Ryan1:Ryan3!G16)</f>
-        <v>6.961906666666666E-4</v>
+        <v>6.8338233333333333E-4</v>
       </c>
       <c r="H16">
         <f>AVERAGE(Ryan1:Ryan3!H16)</f>
-        <v>7.229880000000001E-3</v>
+        <v>6.3793833333333329E-3</v>
       </c>
       <c r="I16">
         <f>AVERAGE(Ryan1:Ryan3!I16)</f>
-        <v>7.5179633333333331E-3</v>
+        <v>6.8148466666666666E-3</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -6378,23 +6379,23 @@
       </c>
       <c r="E17">
         <f>AVERAGE(Ryan1:Ryan3!E17)</f>
-        <v>4.3735866666666671E-2</v>
+        <v>3.7988666666666664E-2</v>
       </c>
       <c r="F17">
         <f>AVERAGE(Ryan1:Ryan3!F17)</f>
-        <v>0.63827699999999998</v>
+        <v>0.5987933333333334</v>
       </c>
       <c r="G17">
         <f>AVERAGE(Ryan1:Ryan3!G17)</f>
-        <v>7.0219099999999993E-2</v>
+        <v>6.5054566666666674E-2</v>
       </c>
       <c r="H17">
         <f>AVERAGE(Ryan1:Ryan3!H17)</f>
-        <v>0.21018266666666666</v>
+        <v>0.19008666666666665</v>
       </c>
       <c r="I17">
         <f>AVERAGE(Ryan1:Ryan3!I17)</f>
-        <v>0.22581933333333334</v>
+        <v>0.21918766666666664</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -6413,23 +6414,23 @@
       </c>
       <c r="E18">
         <f>AVERAGE(Ryan1:Ryan3!E18)</f>
-        <v>1.7211733333333337E-2</v>
+        <v>1.5144600000000001E-2</v>
       </c>
       <c r="F18">
         <f>AVERAGE(Ryan1:Ryan3!F18)</f>
-        <v>0.30671033333333336</v>
+        <v>0.27707533333333334</v>
       </c>
       <c r="G18">
         <f>AVERAGE(Ryan1:Ryan3!G18)</f>
-        <v>1.7085233333333335E-2</v>
+        <v>1.6292033333333334E-2</v>
       </c>
       <c r="H18">
         <f>AVERAGE(Ryan1:Ryan3!H18)</f>
-        <v>9.4454366666666664E-2</v>
+        <v>8.6419366666666664E-2</v>
       </c>
       <c r="I18">
         <f>AVERAGE(Ryan1:Ryan3!I18)</f>
-        <v>9.5496600000000001E-2</v>
+        <v>8.8389300000000004E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -6448,23 +6449,23 @@
       </c>
       <c r="E19">
         <f>AVERAGE(Ryan1:Ryan3!E19)</f>
-        <v>3.79504E-3</v>
+        <v>3.4561933333333334E-3</v>
       </c>
       <c r="F19">
         <f>AVERAGE(Ryan1:Ryan3!F19)</f>
-        <v>5.9280866666666675E-2</v>
+        <v>5.7968433333333326E-2</v>
       </c>
       <c r="G19">
         <f>AVERAGE(Ryan1:Ryan3!G19)</f>
-        <v>4.7664033333333329E-3</v>
+        <v>4.7303666666666661E-3</v>
       </c>
       <c r="H19">
         <f>AVERAGE(Ryan1:Ryan3!H19)</f>
-        <v>1.6831599999999999E-2</v>
+        <v>1.7628933333333333E-2</v>
       </c>
       <c r="I19">
         <f>AVERAGE(Ryan1:Ryan3!I19)</f>
-        <v>1.8611166666666668E-2</v>
+        <v>2.0016033333333332E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -6483,23 +6484,23 @@
       </c>
       <c r="E20">
         <f>AVERAGE(Ryan1:Ryan3!E20)</f>
-        <v>0.23576533333333335</v>
+        <v>0.21476366666666666</v>
       </c>
       <c r="F20">
         <f>AVERAGE(Ryan1:Ryan3!F20)</f>
-        <v>3.2709600000000001</v>
+        <v>2.9947566666666661</v>
       </c>
       <c r="G20">
         <f>AVERAGE(Ryan1:Ryan3!G20)</f>
-        <v>0.45328066666666667</v>
+        <v>0.43722166666666668</v>
       </c>
       <c r="H20">
         <f>AVERAGE(Ryan1:Ryan3!H20)</f>
-        <v>1.1650466666666666</v>
+        <v>1.05644</v>
       </c>
       <c r="I20">
         <f>AVERAGE(Ryan1:Ryan3!I20)</f>
-        <v>1.2419233333333333</v>
+        <v>1.1636666666666666</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -6518,23 +6519,23 @@
       </c>
       <c r="E21">
         <f>AVERAGE(Ryan1:Ryan3!E21)</f>
-        <v>0.23819699999999999</v>
+        <v>0.21638133333333334</v>
       </c>
       <c r="F21">
         <f>AVERAGE(Ryan1:Ryan3!F21)</f>
-        <v>3.271433333333333</v>
+        <v>2.9404300000000005</v>
       </c>
       <c r="G21">
         <f>AVERAGE(Ryan1:Ryan3!G21)</f>
-        <v>0.45313933333333334</v>
+        <v>0.42242633333333329</v>
       </c>
       <c r="H21">
         <f>AVERAGE(Ryan1:Ryan3!H21)</f>
-        <v>1.1753100000000001</v>
+        <v>1.0591066666666666</v>
       </c>
       <c r="I21">
         <f>AVERAGE(Ryan1:Ryan3!I21)</f>
-        <v>1.2438333333333333</v>
+        <v>1.13809</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -6553,23 +6554,23 @@
       </c>
       <c r="E22">
         <f>AVERAGE(Ryan1:Ryan3!E22)</f>
-        <v>0.36112133333333335</v>
+        <v>0.32335466666666662</v>
       </c>
       <c r="F22">
         <f>AVERAGE(Ryan1:Ryan3!F22)</f>
-        <v>6.402893333333334</v>
+        <v>5.9916033333333338</v>
       </c>
       <c r="G22">
         <f>AVERAGE(Ryan1:Ryan3!G22)</f>
-        <v>0.23675599999999999</v>
+        <v>0.23572966666666664</v>
       </c>
       <c r="H22">
         <f>AVERAGE(Ryan1:Ryan3!H22)</f>
-        <v>2.4097200000000001</v>
+        <v>2.1626100000000004</v>
       </c>
       <c r="I22">
         <f>AVERAGE(Ryan1:Ryan3!I22)</f>
-        <v>2.2427166666666669</v>
+        <v>2.1179933333333332</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -6588,23 +6589,23 @@
       </c>
       <c r="E23">
         <f>AVERAGE(Ryan1:Ryan3!E23)</f>
-        <v>1.8102333333333334E-3</v>
+        <v>1.5680399999999999E-3</v>
       </c>
       <c r="F23">
         <f>AVERAGE(Ryan1:Ryan3!F23)</f>
-        <v>2.9068566666666667E-2</v>
+        <v>2.5865333333333334E-2</v>
       </c>
       <c r="G23">
         <f>AVERAGE(Ryan1:Ryan3!G23)</f>
-        <v>2.0207666666666665E-3</v>
+        <v>1.8349766666666666E-3</v>
       </c>
       <c r="H23">
         <f>AVERAGE(Ryan1:Ryan3!H23)</f>
-        <v>7.6706833333333333E-3</v>
+        <v>6.9667133333333325E-3</v>
       </c>
       <c r="I23">
         <f>AVERAGE(Ryan1:Ryan3!I23)</f>
-        <v>8.5881533333333343E-3</v>
+        <v>7.716656666666666E-3</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -6623,23 +6624,23 @@
       </c>
       <c r="E24">
         <f>AVERAGE(Ryan1:Ryan3!E24)</f>
-        <v>4.3397266666666663E-2</v>
+        <v>3.7821066666666674E-2</v>
       </c>
       <c r="F24">
         <f>AVERAGE(Ryan1:Ryan3!F24)</f>
-        <v>0.64396599999999993</v>
+        <v>0.58117633333333329</v>
       </c>
       <c r="G24">
         <f>AVERAGE(Ryan1:Ryan3!G24)</f>
-        <v>7.118943333333333E-2</v>
+        <v>6.7271266666666676E-2</v>
       </c>
       <c r="H24">
         <f>AVERAGE(Ryan1:Ryan3!H24)</f>
-        <v>0.21182999999999999</v>
+        <v>0.19184166666666666</v>
       </c>
       <c r="I24">
         <f>AVERAGE(Ryan1:Ryan3!I24)</f>
-        <v>0.22919033333333336</v>
+        <v>0.20547333333333337</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -6658,23 +6659,23 @@
       </c>
       <c r="E25">
         <f>AVERAGE(Ryan1:Ryan3!E25)</f>
-        <v>2.1308866666666666E-2</v>
+        <v>2.1332866666666669E-2</v>
       </c>
       <c r="F25">
         <f>AVERAGE(Ryan1:Ryan3!F25)</f>
-        <v>0.31178566666666668</v>
+        <v>0.285943</v>
       </c>
       <c r="G25">
         <f>AVERAGE(Ryan1:Ryan3!G25)</f>
-        <v>3.1581899999999996E-2</v>
+        <v>2.8864033333333334E-2</v>
       </c>
       <c r="H25">
         <f>AVERAGE(Ryan1:Ryan3!H25)</f>
-        <v>9.901026666666668E-2</v>
+        <v>9.0209399999999995E-2</v>
       </c>
       <c r="I25">
         <f>AVERAGE(Ryan1:Ryan3!I25)</f>
-        <v>0.1060656</v>
+        <v>9.5657500000000006E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -6693,23 +6694,23 @@
       </c>
       <c r="E26">
         <f>AVERAGE(Ryan1:Ryan3!E26)</f>
-        <v>3.776083333333334E-3</v>
+        <v>3.2422666666666669E-3</v>
       </c>
       <c r="F26">
         <f>AVERAGE(Ryan1:Ryan3!F26)</f>
-        <v>6.0089633333333337E-2</v>
+        <v>5.2834799999999994E-2</v>
       </c>
       <c r="G26">
         <f>AVERAGE(Ryan1:Ryan3!G26)</f>
-        <v>4.6431466666666662E-3</v>
+        <v>4.25954E-3</v>
       </c>
       <c r="H26">
         <f>AVERAGE(Ryan1:Ryan3!H26)</f>
-        <v>1.69599E-2</v>
+        <v>1.4528966666666669E-2</v>
       </c>
       <c r="I26">
         <f>AVERAGE(Ryan1:Ryan3!I26)</f>
-        <v>1.9400699999999996E-2</v>
+        <v>1.7369666666666669E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -6728,23 +6729,23 @@
       </c>
       <c r="E27">
         <f>AVERAGE(Ryan1:Ryan3!E27)</f>
-        <v>2.8671933333333333E-2</v>
+        <v>2.7465199999999999E-2</v>
       </c>
       <c r="F27">
         <f>AVERAGE(Ryan1:Ryan3!F27)</f>
-        <v>0.61837666666666669</v>
+        <v>0.563419</v>
       </c>
       <c r="G27">
         <f>AVERAGE(Ryan1:Ryan3!G27)</f>
-        <v>1.99329E-2</v>
+        <v>1.9828100000000001E-2</v>
       </c>
       <c r="H27">
         <f>AVERAGE(Ryan1:Ryan3!H27)</f>
-        <v>0.19271833333333332</v>
+        <v>0.17808733333333335</v>
       </c>
       <c r="I27">
         <f>AVERAGE(Ryan1:Ryan3!I27)</f>
-        <v>0.19342333333333336</v>
+        <v>0.18031</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -6763,23 +6764,23 @@
       </c>
       <c r="E28">
         <f>AVERAGE(Ryan1:Ryan3!E28)</f>
-        <v>3.6173933333333332E-2</v>
+        <v>3.1533033333333335E-2</v>
       </c>
       <c r="F28">
         <f>AVERAGE(Ryan1:Ryan3!F28)</f>
-        <v>0.6265736666666667</v>
+        <v>0.56025566666666671</v>
       </c>
       <c r="G28">
         <f>AVERAGE(Ryan1:Ryan3!G28)</f>
-        <v>3.8158900000000003E-2</v>
+        <v>3.6369533333333336E-2</v>
       </c>
       <c r="H28">
         <f>AVERAGE(Ryan1:Ryan3!H28)</f>
-        <v>0.207457</v>
+        <v>0.19277766666666665</v>
       </c>
       <c r="I28">
         <f>AVERAGE(Ryan1:Ryan3!I28)</f>
-        <v>0.2059053333333333</v>
+        <v>0.18642466666666668</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -6798,23 +6799,23 @@
       </c>
       <c r="E29">
         <f>AVERAGE(Ryan1:Ryan3!E29)</f>
-        <v>2.7360300000000004E-3</v>
+        <v>2.5521033333333332E-3</v>
       </c>
       <c r="F29">
         <f>AVERAGE(Ryan1:Ryan3!F29)</f>
-        <v>5.7972966666666674E-2</v>
+        <v>5.0847633333333329E-2</v>
       </c>
       <c r="G29">
         <f>AVERAGE(Ryan1:Ryan3!G29)</f>
-        <v>1.5245933333333335E-3</v>
+        <v>1.48938E-3</v>
       </c>
       <c r="H29">
         <f>AVERAGE(Ryan1:Ryan3!H29)</f>
-        <v>1.7524566666666668E-2</v>
+        <v>1.5154099999999998E-2</v>
       </c>
       <c r="I29">
         <f>AVERAGE(Ryan1:Ryan3!I29)</f>
-        <v>1.54804E-2</v>
+        <v>1.3952266666666666E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -6833,23 +6834,23 @@
       </c>
       <c r="E30">
         <f>AVERAGE(Ryan1:Ryan3!E30)</f>
-        <v>1.8212233333333334E-3</v>
+        <v>1.5784099999999999E-3</v>
       </c>
       <c r="F30">
         <f>AVERAGE(Ryan1:Ryan3!F30)</f>
-        <v>2.8865066666666665E-2</v>
+        <v>2.5798100000000001E-2</v>
       </c>
       <c r="G30">
         <f>AVERAGE(Ryan1:Ryan3!G30)</f>
-        <v>2.1378233333333332E-3</v>
+        <v>2.0218133333333335E-3</v>
       </c>
       <c r="H30">
         <f>AVERAGE(Ryan1:Ryan3!H30)</f>
-        <v>8.3763733333333344E-3</v>
+        <v>7.9552733333333337E-3</v>
       </c>
       <c r="I30">
         <f>AVERAGE(Ryan1:Ryan3!I30)</f>
-        <v>8.6455433333333335E-3</v>
+        <v>9.0126933333333336E-3</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -6868,23 +6869,23 @@
       </c>
       <c r="E31">
         <f>AVERAGE(Ryan1:Ryan3!E31)</f>
-        <v>0.41205933333333339</v>
+        <v>0.38902300000000006</v>
       </c>
       <c r="F31">
         <f>AVERAGE(Ryan1:Ryan3!F31)</f>
-        <v>6.5308266666666661</v>
+        <v>6.3290266666666666</v>
       </c>
       <c r="G31">
         <f>AVERAGE(Ryan1:Ryan3!G31)</f>
-        <v>0.49359666666666668</v>
+        <v>0.48060200000000003</v>
       </c>
       <c r="H31">
         <f>AVERAGE(Ryan1:Ryan3!H31)</f>
-        <v>2.4051733333333334</v>
+        <v>2.2605966666666664</v>
       </c>
       <c r="I31">
         <f>AVERAGE(Ryan1:Ryan3!I31)</f>
-        <v>2.3877833333333336</v>
+        <v>2.2701666666666669</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -6903,23 +6904,23 @@
       </c>
       <c r="E32">
         <f>AVERAGE(Ryan1:Ryan3!E32)</f>
-        <v>0.133247</v>
+        <v>0.12460933333333334</v>
       </c>
       <c r="F32">
         <f>AVERAGE(Ryan1:Ryan3!F32)</f>
-        <v>0.49929066666666672</v>
+        <v>0.45050333333333331</v>
       </c>
       <c r="G32">
         <f>AVERAGE(Ryan1:Ryan3!G32)</f>
-        <v>0.11101133333333335</v>
+        <v>0.10070503333333332</v>
       </c>
       <c r="H32">
         <f>AVERAGE(Ryan1:Ryan3!H32)</f>
-        <v>0.26582600000000001</v>
+        <v>0.24875933333333333</v>
       </c>
       <c r="I32">
         <f>AVERAGE(Ryan1:Ryan3!I32)</f>
-        <v>0.24608666666666665</v>
+        <v>0.22816633333333333</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -6938,23 +6939,23 @@
       </c>
       <c r="E33">
         <f>AVERAGE(Ryan1:Ryan3!E33)</f>
-        <v>1.7400900000000001</v>
+        <v>1.6034466666666667</v>
       </c>
       <c r="F33">
         <f>AVERAGE(Ryan1:Ryan3!F33)</f>
-        <v>6.1405099999999999</v>
+        <v>5.8148000000000009</v>
       </c>
       <c r="G33">
         <f>AVERAGE(Ryan1:Ryan3!G33)</f>
-        <v>4.21746</v>
+        <v>4.0272733333333335</v>
       </c>
       <c r="H33">
         <f>AVERAGE(Ryan1:Ryan3!H33)</f>
-        <v>3.47837</v>
+        <v>3.3445200000000006</v>
       </c>
       <c r="I33">
         <f>AVERAGE(Ryan1:Ryan3!I33)</f>
-        <v>4.3504500000000004</v>
+        <v>4.1186499999999997</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -6973,23 +6974,23 @@
       </c>
       <c r="E34">
         <f>AVERAGE(Ryan1:Ryan3!E34)</f>
-        <v>0.13526466666666667</v>
+        <v>0.12472233333333334</v>
       </c>
       <c r="F34">
         <f>AVERAGE(Ryan1:Ryan3!F34)</f>
-        <v>0.56714900000000001</v>
+        <v>0.53288100000000005</v>
       </c>
       <c r="G34">
         <f>AVERAGE(Ryan1:Ryan3!G34)</f>
-        <v>0.29075600000000001</v>
+        <v>0.26355266666666666</v>
       </c>
       <c r="H34">
         <f>AVERAGE(Ryan1:Ryan3!H34)</f>
-        <v>0.28930533333333336</v>
+        <v>0.26961799999999997</v>
       </c>
       <c r="I34">
         <f>AVERAGE(Ryan1:Ryan3!I34)</f>
-        <v>0.36722866666666665</v>
+        <v>0.33987200000000001</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -7008,23 +7009,23 @@
       </c>
       <c r="E35">
         <f>AVERAGE(Ryan1:Ryan3!E35)</f>
-        <v>2.2986166666666669E-2</v>
+        <v>2.0698366666666666E-2</v>
       </c>
       <c r="F35">
         <f>AVERAGE(Ryan1:Ryan3!F35)</f>
-        <v>0.10344716666666669</v>
+        <v>9.3554166666666674E-2</v>
       </c>
       <c r="G35">
         <f>AVERAGE(Ryan1:Ryan3!G35)</f>
-        <v>4.1269933333333335E-2</v>
+        <v>3.6851999999999996E-2</v>
       </c>
       <c r="H35">
         <f>AVERAGE(Ryan1:Ryan3!H35)</f>
-        <v>4.7170999999999998E-2</v>
+        <v>4.4239333333333332E-2</v>
       </c>
       <c r="I35">
         <f>AVERAGE(Ryan1:Ryan3!I35)</f>
-        <v>6.3921500000000006E-2</v>
+        <v>5.9170833333333339E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -7043,23 +7044,23 @@
       </c>
       <c r="E36">
         <f>AVERAGE(Ryan1:Ryan3!E36)</f>
-        <v>2.3934533333333331E-2</v>
+        <v>2.0809400000000002E-2</v>
       </c>
       <c r="F36">
         <f>AVERAGE(Ryan1:Ryan3!F36)</f>
-        <v>9.766246666666667E-2</v>
+        <v>8.9088533333333331E-2</v>
       </c>
       <c r="G36">
         <f>AVERAGE(Ryan1:Ryan3!G36)</f>
-        <v>3.9880100000000002E-2</v>
+        <v>3.8245699999999994E-2</v>
       </c>
       <c r="H36">
         <f>AVERAGE(Ryan1:Ryan3!H36)</f>
-        <v>4.8590433333333329E-2</v>
+        <v>4.4978600000000001E-2</v>
       </c>
       <c r="I36">
         <f>AVERAGE(Ryan1:Ryan3!I36)</f>
-        <v>5.0924366666666665E-2</v>
+        <v>4.6503566666666662E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -7078,23 +7079,23 @@
       </c>
       <c r="E37">
         <f>AVERAGE(Ryan1:Ryan3!E37)</f>
-        <v>0.27149333333333331</v>
+        <v>0.24989733333333333</v>
       </c>
       <c r="F37">
         <f>AVERAGE(Ryan1:Ryan3!F37)</f>
-        <v>1.0263113333333334</v>
+        <v>0.93209566666666666</v>
       </c>
       <c r="G37">
         <f>AVERAGE(Ryan1:Ryan3!G37)</f>
-        <v>0.237096</v>
+        <v>0.22099966666666668</v>
       </c>
       <c r="H37">
         <f>AVERAGE(Ryan1:Ryan3!H37)</f>
-        <v>0.57818900000000006</v>
+        <v>0.52113866666666675</v>
       </c>
       <c r="I37">
         <f>AVERAGE(Ryan1:Ryan3!I37)</f>
-        <v>0.53184133333333328</v>
+        <v>0.49103266666666667</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -7113,23 +7114,23 @@
       </c>
       <c r="E38">
         <f>AVERAGE(Ryan1:Ryan3!E38)</f>
-        <v>1.0689296666666667E-2</v>
+        <v>9.3213533333333324E-3</v>
       </c>
       <c r="F38">
         <f>AVERAGE(Ryan1:Ryan3!F38)</f>
-        <v>4.9270266666666666E-2</v>
+        <v>4.4338500000000003E-2</v>
       </c>
       <c r="G38">
         <f>AVERAGE(Ryan1:Ryan3!G38)</f>
-        <v>1.77374E-2</v>
+        <v>1.5751633333333334E-2</v>
       </c>
       <c r="H38">
         <f>AVERAGE(Ryan1:Ryan3!H38)</f>
-        <v>2.2728666666666664E-2</v>
+        <v>1.9205166666666666E-2</v>
       </c>
       <c r="I38">
         <f>AVERAGE(Ryan1:Ryan3!I38)</f>
-        <v>2.9315933333333332E-2</v>
+        <v>2.7814200000000001E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -7148,23 +7149,23 @@
       </c>
       <c r="E39">
         <f>AVERAGE(Ryan1:Ryan3!E39)</f>
-        <v>1.6646266666666667</v>
+        <v>1.5104333333333333</v>
       </c>
       <c r="F39">
         <f>AVERAGE(Ryan1:Ryan3!F39)</f>
-        <v>5.5980066666666675</v>
+        <v>5.0675133333333342</v>
       </c>
       <c r="G39">
         <f>AVERAGE(Ryan1:Ryan3!G39)</f>
-        <v>3.8141133333333332</v>
+        <v>3.4536766666666665</v>
       </c>
       <c r="H39">
         <f>AVERAGE(Ryan1:Ryan3!H39)</f>
-        <v>3.4146333333333332</v>
+        <v>3.0763466666666663</v>
       </c>
       <c r="I39">
         <f>AVERAGE(Ryan1:Ryan3!I39)</f>
-        <v>3.4924466666666665</v>
+        <v>3.2495666666666665</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -7183,23 +7184,23 @@
       </c>
       <c r="E40">
         <f>AVERAGE(Ryan1:Ryan3!E40)</f>
-        <v>0.13619299999999998</v>
+        <v>0.12308833333333334</v>
       </c>
       <c r="F40">
         <f>AVERAGE(Ryan1:Ryan3!F40)</f>
-        <v>0.56943366666666673</v>
+        <v>0.50066966666666668</v>
       </c>
       <c r="G40">
         <f>AVERAGE(Ryan1:Ryan3!G40)</f>
-        <v>0.28660933333333333</v>
+        <v>0.26697566666666667</v>
       </c>
       <c r="H40">
         <f>AVERAGE(Ryan1:Ryan3!H40)</f>
-        <v>0.30275133333333332</v>
+        <v>0.24829399999999999</v>
       </c>
       <c r="I40">
         <f>AVERAGE(Ryan1:Ryan3!I40)</f>
-        <v>0.35233166666666671</v>
+        <v>0.32795066666666667</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -7218,23 +7219,23 @@
       </c>
       <c r="E41">
         <f>AVERAGE(Ryan1:Ryan3!E41)</f>
-        <v>1.7342500000000001</v>
+        <v>1.60307</v>
       </c>
       <c r="F41">
         <f>AVERAGE(Ryan1:Ryan3!F41)</f>
-        <v>6.1553533333333341</v>
+        <v>5.5360033333333334</v>
       </c>
       <c r="G41">
         <f>AVERAGE(Ryan1:Ryan3!G41)</f>
-        <v>4.6119999999999992</v>
+        <v>4.1681800000000004</v>
       </c>
       <c r="H41">
         <f>AVERAGE(Ryan1:Ryan3!H41)</f>
-        <v>3.55674</v>
+        <v>3.2821033333333332</v>
       </c>
       <c r="I41">
         <f>AVERAGE(Ryan1:Ryan3!I41)</f>
-        <v>4.3302033333333334</v>
+        <v>4.0092266666666667</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -7253,23 +7254,23 @@
       </c>
       <c r="E42">
         <f>AVERAGE(Ryan1:Ryan3!E42)</f>
-        <v>1.1019333333333334E-2</v>
+        <v>9.6684233333333338E-3</v>
       </c>
       <c r="F42">
         <f>AVERAGE(Ryan1:Ryan3!F42)</f>
-        <v>4.9473733333333332E-2</v>
+        <v>4.4280866666666661E-2</v>
       </c>
       <c r="G42">
         <f>AVERAGE(Ryan1:Ryan3!G42)</f>
-        <v>1.7752666666666667E-2</v>
+        <v>1.5803533333333335E-2</v>
       </c>
       <c r="H42">
         <f>AVERAGE(Ryan1:Ryan3!H42)</f>
-        <v>2.4402533333333334E-2</v>
+        <v>2.1263100000000004E-2</v>
       </c>
       <c r="I42">
         <f>AVERAGE(Ryan1:Ryan3!I42)</f>
-        <v>2.8728033333333333E-2</v>
+        <v>2.5350433333333335E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -7288,23 +7289,23 @@
       </c>
       <c r="E43">
         <f>AVERAGE(Ryan1:Ryan3!E43)</f>
-        <v>0.29917766666666662</v>
+        <v>0.26808499999999996</v>
       </c>
       <c r="F43">
         <f>AVERAGE(Ryan1:Ryan3!F43)</f>
-        <v>1.1577233333333334</v>
+        <v>1.0514766666666666</v>
       </c>
       <c r="G43">
         <f>AVERAGE(Ryan1:Ryan3!G43)</f>
-        <v>0.65335266666666658</v>
+        <v>0.59098366666666668</v>
       </c>
       <c r="H43">
         <f>AVERAGE(Ryan1:Ryan3!H43)</f>
-        <v>0.63810200000000006</v>
+        <v>0.54932199999999998</v>
       </c>
       <c r="I43">
         <f>AVERAGE(Ryan1:Ryan3!I43)</f>
-        <v>0.76701566666666654</v>
+        <v>0.70927799999999996</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -7323,23 +7324,23 @@
       </c>
       <c r="E44">
         <f>AVERAGE(Ryan1:Ryan3!E44)</f>
-        <v>1.026903E-2</v>
+        <v>9.5645166666666667E-3</v>
       </c>
       <c r="F44">
         <f>AVERAGE(Ryan1:Ryan3!F44)</f>
-        <v>4.9288500000000006E-2</v>
+        <v>4.4819133333333337E-2</v>
       </c>
       <c r="G44">
         <f>AVERAGE(Ryan1:Ryan3!G44)</f>
-        <v>1.7894133333333336E-2</v>
+        <v>1.6193333333333334E-2</v>
       </c>
       <c r="H44">
         <f>AVERAGE(Ryan1:Ryan3!H44)</f>
-        <v>2.1817166666666665E-2</v>
+        <v>2.0278733333333337E-2</v>
       </c>
       <c r="I44">
         <f>AVERAGE(Ryan1:Ryan3!I44)</f>
-        <v>2.9730633333333329E-2</v>
+        <v>2.5569066666666668E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -7358,23 +7359,23 @@
       </c>
       <c r="E45">
         <f>AVERAGE(Ryan1:Ryan3!E45)</f>
-        <v>0.29516066666666668</v>
+        <v>0.25419266666666668</v>
       </c>
       <c r="F45">
         <f>AVERAGE(Ryan1:Ryan3!F45)</f>
-        <v>1.0960783333333333</v>
+        <v>0.96740266666666663</v>
       </c>
       <c r="G45">
         <f>AVERAGE(Ryan1:Ryan3!G45)</f>
-        <v>0.62838800000000006</v>
+        <v>0.5660196666666667</v>
       </c>
       <c r="H45">
         <f>AVERAGE(Ryan1:Ryan3!H45)</f>
-        <v>0.60808433333333334</v>
+        <v>0.53417233333333336</v>
       </c>
       <c r="I45">
         <f>AVERAGE(Ryan1:Ryan3!I45)</f>
-        <v>0.62725133333333327</v>
+        <v>0.57834333333333332</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -7393,23 +7394,23 @@
       </c>
       <c r="E46">
         <f>AVERAGE(Ryan1:Ryan3!E46)</f>
-        <v>3.6278799999999998</v>
+        <v>3.3088466666666663</v>
       </c>
       <c r="F46">
         <f>AVERAGE(Ryan1:Ryan3!F46)</f>
-        <v>13.114533333333332</v>
+        <v>11.540033333333334</v>
       </c>
       <c r="G46">
         <f>AVERAGE(Ryan1:Ryan3!G46)</f>
-        <v>10.428403333333334</v>
+        <v>9.463143333333333</v>
       </c>
       <c r="H46">
         <f>AVERAGE(Ryan1:Ryan3!H46)</f>
-        <v>7.583356666666667</v>
+        <v>6.8382099999999992</v>
       </c>
       <c r="I46">
         <f>AVERAGE(Ryan1:Ryan3!I46)</f>
-        <v>9.2360933333333346</v>
+        <v>8.4729799999999997</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -7428,23 +7429,23 @@
       </c>
       <c r="E47">
         <f>AVERAGE(Ryan1:Ryan3!E47)</f>
-        <v>2.4614933333333328E-2</v>
+        <v>2.2386400000000001E-2</v>
       </c>
       <c r="F47">
         <f>AVERAGE(Ryan1:Ryan3!F47)</f>
-        <v>0.10463166666666668</v>
+        <v>9.4707733333333335E-2</v>
       </c>
       <c r="G47">
         <f>AVERAGE(Ryan1:Ryan3!G47)</f>
-        <v>4.3015900000000003E-2</v>
+        <v>3.8911333333333332E-2</v>
       </c>
       <c r="H47">
         <f>AVERAGE(Ryan1:Ryan3!H47)</f>
-        <v>6.686913333333333E-2</v>
+        <v>5.3003066666666661E-2</v>
       </c>
       <c r="I47">
         <f>AVERAGE(Ryan1:Ryan3!I47)</f>
-        <v>6.7435766666666661E-2</v>
+        <v>5.8800999999999999E-2</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -7463,23 +7464,23 @@
       </c>
       <c r="E48">
         <f>AVERAGE(Ryan1:Ryan3!E48)</f>
-        <v>3.5940533333333335</v>
+        <v>3.2339700000000007</v>
       </c>
       <c r="F48">
         <f>AVERAGE(Ryan1:Ryan3!F48)</f>
-        <v>12.934433333333333</v>
+        <v>11.377799999999999</v>
       </c>
       <c r="G48">
         <f>AVERAGE(Ryan1:Ryan3!G48)</f>
-        <v>10.05372</v>
+        <v>9.1483633333333341</v>
       </c>
       <c r="H48">
         <f>AVERAGE(Ryan1:Ryan3!H48)</f>
-        <v>7.5166933333333334</v>
+        <v>6.6779099999999998</v>
       </c>
       <c r="I48">
         <f>AVERAGE(Ryan1:Ryan3!I48)</f>
-        <v>9.1455599999999997</v>
+        <v>8.3999100000000002</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -7498,23 +7499,23 @@
       </c>
       <c r="E49">
         <f>AVERAGE(Ryan1:Ryan3!E49)</f>
-        <v>3.4651100000000006</v>
+        <v>3.1452066666666667</v>
       </c>
       <c r="F49">
         <f>AVERAGE(Ryan1:Ryan3!F49)</f>
-        <v>11.156700000000001</v>
+        <v>9.8358333333333334</v>
       </c>
       <c r="G49">
         <f>AVERAGE(Ryan1:Ryan3!G49)</f>
-        <v>2.8259533333333331</v>
+        <v>2.5091866666666665</v>
       </c>
       <c r="H49">
         <f>AVERAGE(Ryan1:Ryan3!H49)</f>
-        <v>7.1777633333333339</v>
+        <v>6.380866666666666</v>
       </c>
       <c r="I49">
         <f>AVERAGE(Ryan1:Ryan3!I49)</f>
-        <v>6.3743266666666676</v>
+        <v>5.8593766666666669</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -7533,23 +7534,23 @@
       </c>
       <c r="E50">
         <f>AVERAGE(Ryan1:Ryan3!E50)</f>
-        <v>1.6951166666666666</v>
+        <v>1.5588133333333332</v>
       </c>
       <c r="F50">
         <f>AVERAGE(Ryan1:Ryan3!F50)</f>
-        <v>6.249083333333334</v>
+        <v>5.4972500000000002</v>
       </c>
       <c r="G50">
         <f>AVERAGE(Ryan1:Ryan3!G50)</f>
-        <v>4.2667533333333338</v>
+        <v>3.8388866666666672</v>
       </c>
       <c r="H50">
         <f>AVERAGE(Ryan1:Ryan3!H50)</f>
-        <v>3.6305266666666665</v>
+        <v>3.1209766666666661</v>
       </c>
       <c r="I50">
         <f>AVERAGE(Ryan1:Ryan3!I50)</f>
-        <v>4.4010566666666664</v>
+        <v>4.050583333333333</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -7568,23 +7569,23 @@
       </c>
       <c r="E51">
         <f>AVERAGE(Ryan1:Ryan3!E51)</f>
-        <v>0.30318666666666672</v>
+        <v>0.27229533333333333</v>
       </c>
       <c r="F51">
         <f>AVERAGE(Ryan1:Ryan3!F51)</f>
-        <v>1.2200299999999999</v>
+        <v>1.0572799999999998</v>
       </c>
       <c r="G51">
         <f>AVERAGE(Ryan1:Ryan3!G51)</f>
-        <v>0.67387333333333332</v>
+        <v>0.60418300000000003</v>
       </c>
       <c r="H51">
         <f>AVERAGE(Ryan1:Ryan3!H51)</f>
-        <v>0.68072966666666668</v>
+        <v>0.54658933333333337</v>
       </c>
       <c r="I51">
         <f>AVERAGE(Ryan1:Ryan3!I51)</f>
-        <v>0.779671</v>
+        <v>0.70795366666666659</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -7603,23 +7604,23 @@
       </c>
       <c r="E52">
         <f>AVERAGE(Ryan1:Ryan3!E52)</f>
-        <v>1.0516629999999999E-2</v>
+        <v>9.4993833333333333E-3</v>
       </c>
       <c r="F52">
         <f>AVERAGE(Ryan1:Ryan3!F52)</f>
-        <v>4.9327666666666665E-2</v>
+        <v>4.2992566666666669E-2</v>
       </c>
       <c r="G52">
         <f>AVERAGE(Ryan1:Ryan3!G52)</f>
-        <v>1.6089533333333333E-2</v>
+        <v>1.42729E-2</v>
       </c>
       <c r="H52">
         <f>AVERAGE(Ryan1:Ryan3!H52)</f>
-        <v>2.2897500000000001E-2</v>
+        <v>1.9154033333333334E-2</v>
       </c>
       <c r="I52">
         <f>AVERAGE(Ryan1:Ryan3!I52)</f>
-        <v>2.4299366666666666E-2</v>
+        <v>2.1220599999999996E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -7638,23 +7639,23 @@
       </c>
       <c r="E53">
         <f>AVERAGE(Ryan1:Ryan3!E53)</f>
-        <v>3.6390633333333331</v>
+        <v>3.1724633333333334</v>
       </c>
       <c r="F53">
         <f>AVERAGE(Ryan1:Ryan3!F53)</f>
-        <v>11.945866666666667</v>
+        <v>10.563600000000001</v>
       </c>
       <c r="G53">
         <f>AVERAGE(Ryan1:Ryan3!G53)</f>
-        <v>8.6914899999999999</v>
+        <v>7.8069233333333337</v>
       </c>
       <c r="H53">
         <f>AVERAGE(Ryan1:Ryan3!H53)</f>
-        <v>7.6822333333333335</v>
+        <v>6.7947066666666665</v>
       </c>
       <c r="I53">
         <f>AVERAGE(Ryan1:Ryan3!I53)</f>
-        <v>7.5483966666666662</v>
+        <v>7.0422066666666661</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -7673,23 +7674,23 @@
       </c>
       <c r="E54">
         <f>AVERAGE(Ryan1:Ryan3!E54)</f>
-        <v>1.0476543333333333E-2</v>
+        <v>9.0279399999999999E-3</v>
       </c>
       <c r="F54">
         <f>AVERAGE(Ryan1:Ryan3!F54)</f>
-        <v>4.7107833333333328E-2</v>
+        <v>4.0323633333333331E-2</v>
       </c>
       <c r="G54">
         <f>AVERAGE(Ryan1:Ryan3!G54)</f>
-        <v>8.9298566666666662E-3</v>
+        <v>7.8729366666666668E-3</v>
       </c>
       <c r="H54">
         <f>AVERAGE(Ryan1:Ryan3!H54)</f>
-        <v>2.2334966666666668E-2</v>
+        <v>1.86956E-2</v>
       </c>
       <c r="I54">
         <f>AVERAGE(Ryan1:Ryan3!I54)</f>
-        <v>1.9358666666666666E-2</v>
+        <v>1.7291900000000002E-2</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -7708,23 +7709,23 @@
       </c>
       <c r="E55">
         <f>AVERAGE(Ryan1:Ryan3!E55)</f>
-        <v>0.29493866666666668</v>
+        <v>0.27164133333333329</v>
       </c>
       <c r="F55">
         <f>AVERAGE(Ryan1:Ryan3!F55)</f>
-        <v>1.2042133333333334</v>
+        <v>1.0525333333333335</v>
       </c>
       <c r="G55">
         <f>AVERAGE(Ryan1:Ryan3!G55)</f>
-        <v>0.68584699999999998</v>
+        <v>0.62676466666666653</v>
       </c>
       <c r="H55">
         <f>AVERAGE(Ryan1:Ryan3!H55)</f>
-        <v>0.63739000000000001</v>
+        <v>0.60187266666666672</v>
       </c>
       <c r="I55">
         <f>AVERAGE(Ryan1:Ryan3!I55)</f>
-        <v>0.80201866666666666</v>
+        <v>0.72064266666666665</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -7743,23 +7744,23 @@
       </c>
       <c r="E56">
         <f>AVERAGE(Ryan1:Ryan3!E56)</f>
-        <v>2.2833366666666671E-2</v>
+        <v>1.9917966666666665E-2</v>
       </c>
       <c r="F56">
         <f>AVERAGE(Ryan1:Ryan3!F56)</f>
-        <v>0.1030355</v>
+        <v>9.2354499999999992E-2</v>
       </c>
       <c r="G56">
         <f>AVERAGE(Ryan1:Ryan3!G56)</f>
-        <v>4.1286000000000003E-2</v>
+        <v>3.6663766666666674E-2</v>
       </c>
       <c r="H56">
         <f>AVERAGE(Ryan1:Ryan3!H56)</f>
-        <v>4.8927833333333337E-2</v>
+        <v>4.1434599999999995E-2</v>
       </c>
       <c r="I56">
         <f>AVERAGE(Ryan1:Ryan3!I56)</f>
-        <v>6.6071566666666665E-2</v>
+        <v>5.6526033333333336E-2</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -7778,23 +7779,23 @@
       </c>
       <c r="E57">
         <f>AVERAGE(Ryan1:Ryan3!E57)</f>
-        <v>2.2865200000000002E-2</v>
+        <v>2.07029E-2</v>
       </c>
       <c r="F57">
         <f>AVERAGE(Ryan1:Ryan3!F57)</f>
-        <v>9.9371000000000001E-2</v>
+        <v>8.134746666666666E-2</v>
       </c>
       <c r="G57">
         <f>AVERAGE(Ryan1:Ryan3!G57)</f>
-        <v>1.9070599999999997E-2</v>
+        <v>1.6622466666666665E-2</v>
       </c>
       <c r="H57">
         <f>AVERAGE(Ryan1:Ryan3!H57)</f>
-        <v>4.7632599999999997E-2</v>
+        <v>4.1451033333333331E-2</v>
       </c>
       <c r="I57">
         <f>AVERAGE(Ryan1:Ryan3!I57)</f>
-        <v>4.744166666666666E-2</v>
+        <v>4.4311133333333336E-2</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -7813,23 +7814,23 @@
       </c>
       <c r="E58">
         <f>AVERAGE(Ryan1:Ryan3!E58)</f>
-        <v>1.6478933333333334</v>
+        <v>1.4789166666666667</v>
       </c>
       <c r="F58">
         <f>AVERAGE(Ryan1:Ryan3!F58)</f>
-        <v>5.5224366666666667</v>
+        <v>4.8959466666666662</v>
       </c>
       <c r="G58">
         <f>AVERAGE(Ryan1:Ryan3!G58)</f>
-        <v>1.3541600000000003</v>
+        <v>1.2185466666666667</v>
       </c>
       <c r="H58">
         <f>AVERAGE(Ryan1:Ryan3!H58)</f>
-        <v>3.57978</v>
+        <v>3.0336433333333335</v>
       </c>
       <c r="I58">
         <f>AVERAGE(Ryan1:Ryan3!I58)</f>
-        <v>3.0307133333333334</v>
+        <v>2.8088566666666668</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -7848,23 +7849,23 @@
       </c>
       <c r="E59">
         <f>AVERAGE(Ryan1:Ryan3!E59)</f>
-        <v>0.14463300000000001</v>
+        <v>0.12889266666666666</v>
       </c>
       <c r="F59">
         <f>AVERAGE(Ryan1:Ryan3!F59)</f>
-        <v>0.56795999999999991</v>
+        <v>0.50431766666666666</v>
       </c>
       <c r="G59">
         <f>AVERAGE(Ryan1:Ryan3!G59)</f>
-        <v>0.291574</v>
+        <v>0.26533899999999999</v>
       </c>
       <c r="H59">
         <f>AVERAGE(Ryan1:Ryan3!H59)</f>
-        <v>0.29925166666666664</v>
+        <v>0.26007799999999998</v>
       </c>
       <c r="I59">
         <f>AVERAGE(Ryan1:Ryan3!I59)</f>
-        <v>0.36231666666666662</v>
+        <v>0.33069733333333334</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -7883,23 +7884,23 @@
       </c>
       <c r="E60">
         <f>AVERAGE(Ryan1:Ryan3!E60)</f>
-        <v>0.140205</v>
+        <v>0.12728266666666668</v>
       </c>
       <c r="F60">
         <f>AVERAGE(Ryan1:Ryan3!F60)</f>
-        <v>0.56680533333333327</v>
+        <v>0.46627633333333335</v>
       </c>
       <c r="G60">
         <f>AVERAGE(Ryan1:Ryan3!G60)</f>
-        <v>0.28008766666666668</v>
+        <v>0.24883366666666665</v>
       </c>
       <c r="H60">
         <f>AVERAGE(Ryan1:Ryan3!H60)</f>
-        <v>0.30689166666666662</v>
+        <v>0.25126366666666672</v>
       </c>
       <c r="I60">
         <f>AVERAGE(Ryan1:Ryan3!I60)</f>
-        <v>0.29586833333333334</v>
+        <v>0.27203899999999998</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -7918,23 +7919,23 @@
       </c>
       <c r="E61">
         <f>AVERAGE(Ryan1:Ryan3!E61)</f>
-        <v>3.56894</v>
+        <v>3.22634</v>
       </c>
       <c r="F61">
         <f>AVERAGE(Ryan1:Ryan3!F61)</f>
-        <v>12.921899999999999</v>
+        <v>11.446</v>
       </c>
       <c r="G61">
         <f>AVERAGE(Ryan1:Ryan3!G61)</f>
-        <v>10.040376666666667</v>
+        <v>8.9870366666666666</v>
       </c>
       <c r="H61">
         <f>AVERAGE(Ryan1:Ryan3!H61)</f>
-        <v>7.934243333333332</v>
+        <v>6.8570200000000012</v>
       </c>
       <c r="I61">
         <f>AVERAGE(Ryan1:Ryan3!I61)</f>
-        <v>9.1946899999999996</v>
+        <v>8.594590000000002</v>
       </c>
     </row>
   </sheetData>
@@ -13298,8 +13299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D59C28-F948-7042-BC7E-813739BE4F18}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15436,4 +15437,2148 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DBE446-20FC-C940-8C0D-8E75523290F0}">
+  <dimension ref="A1:I61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>500000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(RyanMean!D2,WesMean!D2)</f>
+        <v>928.59249999999997</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(RyanMean!E2,WesMean!E2)</f>
+        <v>0.20632699999999998</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGE(RyanMean!F2,WesMean!F2)</f>
+        <v>2.6146383333333336</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(RyanMean!G2,WesMean!G2)</f>
+        <v>0.35297100000000003</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE(RyanMean!H2,WesMean!H2)</f>
+        <v>0.84389200000000009</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE(RyanMean!I2,WesMean!I2)</f>
+        <v>0.94704266666666659</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>1000000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <f>AVERAGE(RyanMean!D3,WesMean!D3)</f>
+        <v>3794.0600000000004</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(RyanMean!E3,WesMean!E3)</f>
+        <v>0.38262316666666668</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGE(RyanMean!F3,WesMean!F3)</f>
+        <v>5.2244299999999999</v>
+      </c>
+      <c r="G3">
+        <f>AVERAGE(RyanMean!G3,WesMean!G3)</f>
+        <v>0.77607366666666666</v>
+      </c>
+      <c r="H3">
+        <f>AVERAGE(RyanMean!H3,WesMean!H3)</f>
+        <v>1.9203116666666666</v>
+      </c>
+      <c r="I3">
+        <f>AVERAGE(RyanMean!I3,WesMean!I3)</f>
+        <v>2.0126766666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>100000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <f>AVERAGE(RyanMean!D4,WesMean!D4)</f>
+        <v>37.818300000000001</v>
+      </c>
+      <c r="E4">
+        <f>AVERAGE(RyanMean!E4,WesMean!E4)</f>
+        <v>3.3999599999999998E-2</v>
+      </c>
+      <c r="F4">
+        <f>AVERAGE(RyanMean!F4,WesMean!F4)</f>
+        <v>0.51216583333333343</v>
+      </c>
+      <c r="G4">
+        <f>AVERAGE(RyanMean!G4,WesMean!G4)</f>
+        <v>5.6593233333333333E-2</v>
+      </c>
+      <c r="H4">
+        <f>AVERAGE(RyanMean!H4,WesMean!H4)</f>
+        <v>0.16745383333333333</v>
+      </c>
+      <c r="I4">
+        <f>AVERAGE(RyanMean!I4,WesMean!I4)</f>
+        <v>0.18426066666666668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>10000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <f>AVERAGE(RyanMean!D5,WesMean!D5)</f>
+        <v>0.39220300000000002</v>
+      </c>
+      <c r="E5">
+        <f>AVERAGE(RyanMean!E5,WesMean!E5)</f>
+        <v>3.0156583333333332E-3</v>
+      </c>
+      <c r="F5">
+        <f>AVERAGE(RyanMean!F5,WesMean!F5)</f>
+        <v>4.9989033333333335E-2</v>
+      </c>
+      <c r="G5">
+        <f>AVERAGE(RyanMean!G5,WesMean!G5)</f>
+        <v>3.5379016666666667E-3</v>
+      </c>
+      <c r="H5">
+        <f>AVERAGE(RyanMean!H5,WesMean!H5)</f>
+        <v>1.360155E-2</v>
+      </c>
+      <c r="I5">
+        <f>AVERAGE(RyanMean!I5,WesMean!I5)</f>
+        <v>1.5257669999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>50000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <f>AVERAGE(RyanMean!D6,WesMean!D6)</f>
+        <v>8.8080500000000002E-4</v>
+      </c>
+      <c r="E6">
+        <f>AVERAGE(RyanMean!E6,WesMean!E6)</f>
+        <v>1.376902E-2</v>
+      </c>
+      <c r="F6">
+        <f>AVERAGE(RyanMean!F6,WesMean!F6)</f>
+        <v>0.25437033333333336</v>
+      </c>
+      <c r="G6">
+        <f>AVERAGE(RyanMean!G6,WesMean!G6)</f>
+        <v>6.8510099999999994E-3</v>
+      </c>
+      <c r="H6">
+        <f>AVERAGE(RyanMean!H6,WesMean!H6)</f>
+        <v>7.0738550000000011E-2</v>
+      </c>
+      <c r="I6">
+        <f>AVERAGE(RyanMean!I6,WesMean!I6)</f>
+        <v>6.7643983333333338E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>50000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <f>AVERAGE(RyanMean!D7,WesMean!D7)</f>
+        <v>9.5058900000000008</v>
+      </c>
+      <c r="E7">
+        <f>AVERAGE(RyanMean!E7,WesMean!E7)</f>
+        <v>1.6747399999999999E-2</v>
+      </c>
+      <c r="F7">
+        <f>AVERAGE(RyanMean!F7,WesMean!F7)</f>
+        <v>0.24884149999999999</v>
+      </c>
+      <c r="G7">
+        <f>AVERAGE(RyanMean!G7,WesMean!G7)</f>
+        <v>2.3602949999999998E-2</v>
+      </c>
+      <c r="H7">
+        <f>AVERAGE(RyanMean!H7,WesMean!H7)</f>
+        <v>7.5824083333333334E-2</v>
+      </c>
+      <c r="I7">
+        <f>AVERAGE(RyanMean!I7,WesMean!I7)</f>
+        <v>8.2080166666666676E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>5000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <f>AVERAGE(RyanMean!D8,WesMean!D8)</f>
+        <v>9.7554050000000003E-2</v>
+      </c>
+      <c r="E8">
+        <f>AVERAGE(RyanMean!E8,WesMean!E8)</f>
+        <v>1.4794999999999999E-3</v>
+      </c>
+      <c r="F8">
+        <f>AVERAGE(RyanMean!F8,WesMean!F8)</f>
+        <v>2.3019899999999996E-2</v>
+      </c>
+      <c r="G8">
+        <f>AVERAGE(RyanMean!G8,WesMean!G8)</f>
+        <v>1.568615E-3</v>
+      </c>
+      <c r="H8">
+        <f>AVERAGE(RyanMean!H8,WesMean!H8)</f>
+        <v>5.9624699999999992E-3</v>
+      </c>
+      <c r="I8">
+        <f>AVERAGE(RyanMean!I8,WesMean!I8)</f>
+        <v>6.3464133333333336E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>500000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <f>AVERAGE(RyanMean!D9,WesMean!D9)</f>
+        <v>8.6029799999999997E-3</v>
+      </c>
+      <c r="E9">
+        <f>AVERAGE(RyanMean!E9,WesMean!E9)</f>
+        <v>0.12612871666666667</v>
+      </c>
+      <c r="F9">
+        <f>AVERAGE(RyanMean!F9,WesMean!F9)</f>
+        <v>2.6839683333333335</v>
+      </c>
+      <c r="G9">
+        <f>AVERAGE(RyanMean!G9,WesMean!G9)</f>
+        <v>9.3804216666666662E-2</v>
+      </c>
+      <c r="H9">
+        <f>AVERAGE(RyanMean!H9,WesMean!H9)</f>
+        <v>0.94733233333333344</v>
+      </c>
+      <c r="I9">
+        <f>AVERAGE(RyanMean!I9,WesMean!I9)</f>
+        <v>0.91318583333333336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>500000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <f>AVERAGE(RyanMean!D10,WesMean!D10)</f>
+        <v>152.6105</v>
+      </c>
+      <c r="E10">
+        <f>AVERAGE(RyanMean!E10,WesMean!E10)</f>
+        <v>0.16170033333333333</v>
+      </c>
+      <c r="F10">
+        <f>AVERAGE(RyanMean!F10,WesMean!F10)</f>
+        <v>2.7571699999999995</v>
+      </c>
+      <c r="G10">
+        <f>AVERAGE(RyanMean!G10,WesMean!G10)</f>
+        <v>0.183444</v>
+      </c>
+      <c r="H10">
+        <f>AVERAGE(RyanMean!H10,WesMean!H10)</f>
+        <v>0.9264443333333332</v>
+      </c>
+      <c r="I10">
+        <f>AVERAGE(RyanMean!I10,WesMean!I10)</f>
+        <v>0.94644066666666671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <f>AVERAGE(RyanMean!D11,WesMean!D11)</f>
+        <v>6.1462050000000004E-2</v>
+      </c>
+      <c r="E11">
+        <f>AVERAGE(RyanMean!E11,WesMean!E11)</f>
+        <v>2.6381099999999999E-3</v>
+      </c>
+      <c r="F11">
+        <f>AVERAGE(RyanMean!F11,WesMean!F11)</f>
+        <v>5.1022683333333332E-2</v>
+      </c>
+      <c r="G11">
+        <f>AVERAGE(RyanMean!G11,WesMean!G11)</f>
+        <v>2.1301683333333331E-3</v>
+      </c>
+      <c r="H11">
+        <f>AVERAGE(RyanMean!H11,WesMean!H11)</f>
+        <v>1.4277321666666665E-2</v>
+      </c>
+      <c r="I11">
+        <f>AVERAGE(RyanMean!I11,WesMean!I11)</f>
+        <v>1.4156651666666666E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>1000000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <f>AVERAGE(RyanMean!D12,WesMean!D12)</f>
+        <v>3801.0699999999997</v>
+      </c>
+      <c r="E12">
+        <f>AVERAGE(RyanMean!E12,WesMean!E12)</f>
+        <v>0.41100816666666662</v>
+      </c>
+      <c r="F12">
+        <f>AVERAGE(RyanMean!F12,WesMean!F12)</f>
+        <v>5.6368749999999999</v>
+      </c>
+      <c r="G12">
+        <f>AVERAGE(RyanMean!G12,WesMean!G12)</f>
+        <v>0.81254266666666664</v>
+      </c>
+      <c r="H12">
+        <f>AVERAGE(RyanMean!H12,WesMean!H12)</f>
+        <v>1.9554</v>
+      </c>
+      <c r="I12">
+        <f>AVERAGE(RyanMean!I12,WesMean!I12)</f>
+        <v>2.1300149999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>1000000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <f>AVERAGE(RyanMean!D13,WesMean!D13)</f>
+        <v>3821.29</v>
+      </c>
+      <c r="E13">
+        <f>AVERAGE(RyanMean!E13,WesMean!E13)</f>
+        <v>0.41495683333333333</v>
+      </c>
+      <c r="F13">
+        <f>AVERAGE(RyanMean!F13,WesMean!F13)</f>
+        <v>5.5454749999999997</v>
+      </c>
+      <c r="G13">
+        <f>AVERAGE(RyanMean!G13,WesMean!G13)</f>
+        <v>0.79851033333333321</v>
+      </c>
+      <c r="H13">
+        <f>AVERAGE(RyanMean!H13,WesMean!H13)</f>
+        <v>1.9299249999999999</v>
+      </c>
+      <c r="I13">
+        <f>AVERAGE(RyanMean!I13,WesMean!I13)</f>
+        <v>2.0347116666666669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>50000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <f>AVERAGE(RyanMean!D14,WesMean!D14)</f>
+        <v>9.5889349999999993</v>
+      </c>
+      <c r="E14">
+        <f>AVERAGE(RyanMean!E14,WesMean!E14)</f>
+        <v>1.6368799999999999E-2</v>
+      </c>
+      <c r="F14">
+        <f>AVERAGE(RyanMean!F14,WesMean!F14)</f>
+        <v>0.24949866666666665</v>
+      </c>
+      <c r="G14">
+        <f>AVERAGE(RyanMean!G14,WesMean!G14)</f>
+        <v>2.4548199999999999E-2</v>
+      </c>
+      <c r="H14">
+        <f>AVERAGE(RyanMean!H14,WesMean!H14)</f>
+        <v>7.5524066666666667E-2</v>
+      </c>
+      <c r="I14">
+        <f>AVERAGE(RyanMean!I14,WesMean!I14)</f>
+        <v>8.169966666666667E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>5000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <f>AVERAGE(RyanMean!D15,WesMean!D15)</f>
+        <v>1.5704599999999999E-2</v>
+      </c>
+      <c r="E15">
+        <f>AVERAGE(RyanMean!E15,WesMean!E15)</f>
+        <v>1.29043E-3</v>
+      </c>
+      <c r="F15">
+        <f>AVERAGE(RyanMean!F15,WesMean!F15)</f>
+        <v>2.3205699999999999E-2</v>
+      </c>
+      <c r="G15">
+        <f>AVERAGE(RyanMean!G15,WesMean!G15)</f>
+        <v>9.320983333333335E-4</v>
+      </c>
+      <c r="H15">
+        <f>AVERAGE(RyanMean!H15,WesMean!H15)</f>
+        <v>5.896533333333333E-3</v>
+      </c>
+      <c r="I15">
+        <f>AVERAGE(RyanMean!I15,WesMean!I15)</f>
+        <v>5.8888516666666668E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>5000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <f>AVERAGE(RyanMean!D16,WesMean!D16)</f>
+        <v>7.9939999999999997E-5</v>
+      </c>
+      <c r="E16">
+        <f>AVERAGE(RyanMean!E16,WesMean!E16)</f>
+        <v>1.0944948333333334E-3</v>
+      </c>
+      <c r="F16">
+        <f>AVERAGE(RyanMean!F16,WesMean!F16)</f>
+        <v>2.176585E-2</v>
+      </c>
+      <c r="G16">
+        <f>AVERAGE(RyanMean!G16,WesMean!G16)</f>
+        <v>5.1929950000000004E-4</v>
+      </c>
+      <c r="H16">
+        <f>AVERAGE(RyanMean!H16,WesMean!H16)</f>
+        <v>5.4894449999999999E-3</v>
+      </c>
+      <c r="I16">
+        <f>AVERAGE(RyanMean!I16,WesMean!I16)</f>
+        <v>5.4154583333333329E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>100000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <f>AVERAGE(RyanMean!D17,WesMean!D17)</f>
+        <v>38.068449999999999</v>
+      </c>
+      <c r="E17">
+        <f>AVERAGE(RyanMean!E17,WesMean!E17)</f>
+        <v>3.402288333333333E-2</v>
+      </c>
+      <c r="F17">
+        <f>AVERAGE(RyanMean!F17,WesMean!F17)</f>
+        <v>0.50394016666666674</v>
+      </c>
+      <c r="G17">
+        <f>AVERAGE(RyanMean!G17,WesMean!G17)</f>
+        <v>5.2829050000000002E-2</v>
+      </c>
+      <c r="H17">
+        <f>AVERAGE(RyanMean!H17,WesMean!H17)</f>
+        <v>0.15646833333333332</v>
+      </c>
+      <c r="I17">
+        <f>AVERAGE(RyanMean!I17,WesMean!I17)</f>
+        <v>0.17470849999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>50000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <f>AVERAGE(RyanMean!D18,WesMean!D18)</f>
+        <v>1.5279099999999999</v>
+      </c>
+      <c r="E18">
+        <f>AVERAGE(RyanMean!E18,WesMean!E18)</f>
+        <v>1.3458816666666668E-2</v>
+      </c>
+      <c r="F18">
+        <f>AVERAGE(RyanMean!F18,WesMean!F18)</f>
+        <v>0.23827349999999997</v>
+      </c>
+      <c r="G18">
+        <f>AVERAGE(RyanMean!G18,WesMean!G18)</f>
+        <v>1.3072938333333334E-2</v>
+      </c>
+      <c r="H18">
+        <f>AVERAGE(RyanMean!H18,WesMean!H18)</f>
+        <v>7.0147766666666667E-2</v>
+      </c>
+      <c r="I18">
+        <f>AVERAGE(RyanMean!I18,WesMean!I18)</f>
+        <v>7.0103216666666662E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>10000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <f>AVERAGE(RyanMean!D19,WesMean!D19)</f>
+        <v>0.38781300000000002</v>
+      </c>
+      <c r="E19">
+        <f>AVERAGE(RyanMean!E19,WesMean!E19)</f>
+        <v>3.1473550000000001E-3</v>
+      </c>
+      <c r="F19">
+        <f>AVERAGE(RyanMean!F19,WesMean!F19)</f>
+        <v>4.8405233333333332E-2</v>
+      </c>
+      <c r="G19">
+        <f>AVERAGE(RyanMean!G19,WesMean!G19)</f>
+        <v>3.7878183333333332E-3</v>
+      </c>
+      <c r="H19">
+        <f>AVERAGE(RyanMean!H19,WesMean!H19)</f>
+        <v>1.3667925000000001E-2</v>
+      </c>
+      <c r="I19">
+        <f>AVERAGE(RyanMean!I19,WesMean!I19)</f>
+        <v>1.5091279999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>500000</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <f>AVERAGE(RyanMean!D20,WesMean!D20)</f>
+        <v>951.57050000000004</v>
+      </c>
+      <c r="E20">
+        <f>AVERAGE(RyanMean!E20,WesMean!E20)</f>
+        <v>0.18800566666666665</v>
+      </c>
+      <c r="F20">
+        <f>AVERAGE(RyanMean!F20,WesMean!F20)</f>
+        <v>2.5408649999999997</v>
+      </c>
+      <c r="G20">
+        <f>AVERAGE(RyanMean!G20,WesMean!G20)</f>
+        <v>0.35276350000000001</v>
+      </c>
+      <c r="H20">
+        <f>AVERAGE(RyanMean!H20,WesMean!H20)</f>
+        <v>0.87419216666666666</v>
+      </c>
+      <c r="I20">
+        <f>AVERAGE(RyanMean!I20,WesMean!I20)</f>
+        <v>0.9471425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>500000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <f>AVERAGE(RyanMean!D21,WesMean!D21)</f>
+        <v>947.31600000000003</v>
+      </c>
+      <c r="E21">
+        <f>AVERAGE(RyanMean!E21,WesMean!E21)</f>
+        <v>0.18767416666666667</v>
+      </c>
+      <c r="F21">
+        <f>AVERAGE(RyanMean!F21,WesMean!F21)</f>
+        <v>2.5196450000000001</v>
+      </c>
+      <c r="G21">
+        <f>AVERAGE(RyanMean!G21,WesMean!G21)</f>
+        <v>0.34216333333333332</v>
+      </c>
+      <c r="H21">
+        <f>AVERAGE(RyanMean!H21,WesMean!H21)</f>
+        <v>0.86771033333333336</v>
+      </c>
+      <c r="I21">
+        <f>AVERAGE(RyanMean!I21,WesMean!I21)</f>
+        <v>0.9323840000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>1000000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <f>AVERAGE(RyanMean!D22,WesMean!D22)</f>
+        <v>1.7189550000000001E-2</v>
+      </c>
+      <c r="E22">
+        <f>AVERAGE(RyanMean!E22,WesMean!E22)</f>
+        <v>0.26882099999999998</v>
+      </c>
+      <c r="F22">
+        <f>AVERAGE(RyanMean!F22,WesMean!F22)</f>
+        <v>5.0331716666666662</v>
+      </c>
+      <c r="G22">
+        <f>AVERAGE(RyanMean!G22,WesMean!G22)</f>
+        <v>0.18298049999999999</v>
+      </c>
+      <c r="H22">
+        <f>AVERAGE(RyanMean!H22,WesMean!H22)</f>
+        <v>1.7260650000000002</v>
+      </c>
+      <c r="I22">
+        <f>AVERAGE(RyanMean!I22,WesMean!I22)</f>
+        <v>1.6921983333333332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>5000</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <f>AVERAGE(RyanMean!D23,WesMean!D23)</f>
+        <v>9.2812499999999992E-2</v>
+      </c>
+      <c r="E23">
+        <f>AVERAGE(RyanMean!E23,WesMean!E23)</f>
+        <v>1.4630616666666666E-3</v>
+      </c>
+      <c r="F23">
+        <f>AVERAGE(RyanMean!F23,WesMean!F23)</f>
+        <v>2.2511700000000003E-2</v>
+      </c>
+      <c r="G23">
+        <f>AVERAGE(RyanMean!G23,WesMean!G23)</f>
+        <v>1.5092433333333333E-3</v>
+      </c>
+      <c r="H23">
+        <f>AVERAGE(RyanMean!H23,WesMean!H23)</f>
+        <v>5.7810116666666654E-3</v>
+      </c>
+      <c r="I23">
+        <f>AVERAGE(RyanMean!I23,WesMean!I23)</f>
+        <v>6.3531449999999993E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>100000</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <f>AVERAGE(RyanMean!D24,WesMean!D24)</f>
+        <v>37.810499999999998</v>
+      </c>
+      <c r="E24">
+        <f>AVERAGE(RyanMean!E24,WesMean!E24)</f>
+        <v>3.3718166666666674E-2</v>
+      </c>
+      <c r="F24">
+        <f>AVERAGE(RyanMean!F24,WesMean!F24)</f>
+        <v>0.49470783333333335</v>
+      </c>
+      <c r="G24">
+        <f>AVERAGE(RyanMean!G24,WesMean!G24)</f>
+        <v>5.4667500000000008E-2</v>
+      </c>
+      <c r="H24">
+        <f>AVERAGE(RyanMean!H24,WesMean!H24)</f>
+        <v>0.15611083333333334</v>
+      </c>
+      <c r="I24">
+        <f>AVERAGE(RyanMean!I24,WesMean!I24)</f>
+        <v>0.16887433333333335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>50000</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <f>AVERAGE(RyanMean!D25,WesMean!D25)</f>
+        <v>9.4352100000000014</v>
+      </c>
+      <c r="E25">
+        <f>AVERAGE(RyanMean!E25,WesMean!E25)</f>
+        <v>1.8693150000000002E-2</v>
+      </c>
+      <c r="F25">
+        <f>AVERAGE(RyanMean!F25,WesMean!F25)</f>
+        <v>0.24369433333333332</v>
+      </c>
+      <c r="G25">
+        <f>AVERAGE(RyanMean!G25,WesMean!G25)</f>
+        <v>2.3900866666666666E-2</v>
+      </c>
+      <c r="H25">
+        <f>AVERAGE(RyanMean!H25,WesMean!H25)</f>
+        <v>7.5078099999999995E-2</v>
+      </c>
+      <c r="I25">
+        <f>AVERAGE(RyanMean!I25,WesMean!I25)</f>
+        <v>7.8798716666666671E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>10000</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <f>AVERAGE(RyanMean!D26,WesMean!D26)</f>
+        <v>0.38313600000000003</v>
+      </c>
+      <c r="E26">
+        <f>AVERAGE(RyanMean!E26,WesMean!E26)</f>
+        <v>3.0243066666666672E-3</v>
+      </c>
+      <c r="F26">
+        <f>AVERAGE(RyanMean!F26,WesMean!F26)</f>
+        <v>4.6134599999999998E-2</v>
+      </c>
+      <c r="G26">
+        <f>AVERAGE(RyanMean!G26,WesMean!G26)</f>
+        <v>3.5354783333333335E-3</v>
+      </c>
+      <c r="H26">
+        <f>AVERAGE(RyanMean!H26,WesMean!H26)</f>
+        <v>1.23984E-2</v>
+      </c>
+      <c r="I26">
+        <f>AVERAGE(RyanMean!I26,WesMean!I26)</f>
+        <v>1.4153950000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>100000</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <f>AVERAGE(RyanMean!D27,WesMean!D27)</f>
+        <v>1.724845E-3</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(RyanMean!E27,WesMean!E27)</f>
+        <v>2.3970783333333332E-2</v>
+      </c>
+      <c r="F27">
+        <f>AVERAGE(RyanMean!F27,WesMean!F27)</f>
+        <v>0.48152800000000001</v>
+      </c>
+      <c r="G27">
+        <f>AVERAGE(RyanMean!G27,WesMean!G27)</f>
+        <v>1.5084163333333334E-2</v>
+      </c>
+      <c r="H27">
+        <f>AVERAGE(RyanMean!H27,WesMean!H27)</f>
+        <v>0.1455255</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(RyanMean!I27,WesMean!I27)</f>
+        <v>0.14433566666666667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>100000</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <f>AVERAGE(RyanMean!D28,WesMean!D28)</f>
+        <v>6.0814450000000004</v>
+      </c>
+      <c r="E28">
+        <f>AVERAGE(RyanMean!E28,WesMean!E28)</f>
+        <v>2.7807483333333334E-2</v>
+      </c>
+      <c r="F28">
+        <f>AVERAGE(RyanMean!F28,WesMean!F28)</f>
+        <v>0.48339016666666668</v>
+      </c>
+      <c r="G28">
+        <f>AVERAGE(RyanMean!G28,WesMean!G28)</f>
+        <v>2.9143466666666666E-2</v>
+      </c>
+      <c r="H28">
+        <f>AVERAGE(RyanMean!H28,WesMean!H28)</f>
+        <v>0.15361116666666666</v>
+      </c>
+      <c r="I28">
+        <f>AVERAGE(RyanMean!I28,WesMean!I28)</f>
+        <v>0.14961666666666668</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>10000</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <f>AVERAGE(RyanMean!D29,WesMean!D29)</f>
+        <v>1.741495E-4</v>
+      </c>
+      <c r="E29">
+        <f>AVERAGE(RyanMean!E29,WesMean!E29)</f>
+        <v>2.2710600000000001E-3</v>
+      </c>
+      <c r="F29">
+        <f>AVERAGE(RyanMean!F29,WesMean!F29)</f>
+        <v>4.4526133333333329E-2</v>
+      </c>
+      <c r="G29">
+        <f>AVERAGE(RyanMean!G29,WesMean!G29)</f>
+        <v>1.1643966666666666E-3</v>
+      </c>
+      <c r="H29">
+        <f>AVERAGE(RyanMean!H29,WesMean!H29)</f>
+        <v>1.2083586666666667E-2</v>
+      </c>
+      <c r="I29">
+        <f>AVERAGE(RyanMean!I29,WesMean!I29)</f>
+        <v>1.1516255E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>5000</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <f>AVERAGE(RyanMean!D30,WesMean!D30)</f>
+        <v>9.8438350000000008E-2</v>
+      </c>
+      <c r="E30">
+        <f>AVERAGE(RyanMean!E30,WesMean!E30)</f>
+        <v>1.4706133333333333E-3</v>
+      </c>
+      <c r="F30">
+        <f>AVERAGE(RyanMean!F30,WesMean!F30)</f>
+        <v>2.2610000000000002E-2</v>
+      </c>
+      <c r="G30">
+        <f>AVERAGE(RyanMean!G30,WesMean!G30)</f>
+        <v>1.6441883333333336E-3</v>
+      </c>
+      <c r="H30">
+        <f>AVERAGE(RyanMean!H30,WesMean!H30)</f>
+        <v>6.4008533333333329E-3</v>
+      </c>
+      <c r="I30">
+        <f>AVERAGE(RyanMean!I30,WesMean!I30)</f>
+        <v>7.1442266666666664E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>1000000</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <f>AVERAGE(RyanMean!D31,WesMean!D31)</f>
+        <v>605.79550000000006</v>
+      </c>
+      <c r="E31">
+        <f>AVERAGE(RyanMean!E31,WesMean!E31)</f>
+        <v>0.32909750000000004</v>
+      </c>
+      <c r="F31">
+        <f>AVERAGE(RyanMean!F31,WesMean!F31)</f>
+        <v>5.2613450000000004</v>
+      </c>
+      <c r="G31">
+        <f>AVERAGE(RyanMean!G31,WesMean!G31)</f>
+        <v>0.38122050000000002</v>
+      </c>
+      <c r="H31">
+        <f>AVERAGE(RyanMean!H31,WesMean!H31)</f>
+        <v>1.8150900000000001</v>
+      </c>
+      <c r="I31">
+        <f>AVERAGE(RyanMean!I31,WesMean!I31)</f>
+        <v>1.8297316666666668</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>50000</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <f>AVERAGE(RyanMean!D32,WesMean!D32)</f>
+        <v>7.0715450000000003E-3</v>
+      </c>
+      <c r="E32">
+        <f>AVERAGE(RyanMean!E32,WesMean!E32)</f>
+        <v>0.10259890000000001</v>
+      </c>
+      <c r="F32">
+        <f>AVERAGE(RyanMean!F32,WesMean!F32)</f>
+        <v>0.35941649999999997</v>
+      </c>
+      <c r="G32">
+        <f>AVERAGE(RyanMean!G32,WesMean!G32)</f>
+        <v>7.7971766666666664E-2</v>
+      </c>
+      <c r="H32">
+        <f>AVERAGE(RyanMean!H32,WesMean!H32)</f>
+        <v>0.19673516666666668</v>
+      </c>
+      <c r="I32">
+        <f>AVERAGE(RyanMean!I32,WesMean!I32)</f>
+        <v>0.17745166666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <v>500000</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <f>AVERAGE(RyanMean!D33,WesMean!D33)</f>
+        <v>7677.6100000000006</v>
+      </c>
+      <c r="E33">
+        <f>AVERAGE(RyanMean!E33,WesMean!E33)</f>
+        <v>1.3006198333333334</v>
+      </c>
+      <c r="F33">
+        <f>AVERAGE(RyanMean!F33,WesMean!F33)</f>
+        <v>4.5776866666666667</v>
+      </c>
+      <c r="G33">
+        <f>AVERAGE(RyanMean!G33,WesMean!G33)</f>
+        <v>3.1456883333333332</v>
+      </c>
+      <c r="H33">
+        <f>AVERAGE(RyanMean!H33,WesMean!H33)</f>
+        <v>2.7084216666666672</v>
+      </c>
+      <c r="I33">
+        <f>AVERAGE(RyanMean!I33,WesMean!I33)</f>
+        <v>3.2011449999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <v>50000</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34">
+        <f>AVERAGE(RyanMean!D34,WesMean!D34)</f>
+        <v>76.311099999999996</v>
+      </c>
+      <c r="E34">
+        <f>AVERAGE(RyanMean!E34,WesMean!E34)</f>
+        <v>0.10236898333333333</v>
+      </c>
+      <c r="F34">
+        <f>AVERAGE(RyanMean!F34,WesMean!F34)</f>
+        <v>0.42131016666666671</v>
+      </c>
+      <c r="G34">
+        <f>AVERAGE(RyanMean!G34,WesMean!G34)</f>
+        <v>0.2111835</v>
+      </c>
+      <c r="H34">
+        <f>AVERAGE(RyanMean!H34,WesMean!H34)</f>
+        <v>0.21972299999999997</v>
+      </c>
+      <c r="I34">
+        <f>AVERAGE(RyanMean!I34,WesMean!I34)</f>
+        <v>0.26106316666666668</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35">
+        <v>10000</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <f>AVERAGE(RyanMean!D35,WesMean!D35)</f>
+        <v>3.0607850000000001</v>
+      </c>
+      <c r="E35">
+        <f>AVERAGE(RyanMean!E35,WesMean!E35)</f>
+        <v>1.7345449999999998E-2</v>
+      </c>
+      <c r="F35">
+        <f>AVERAGE(RyanMean!F35,WesMean!F35)</f>
+        <v>7.621431666666667E-2</v>
+      </c>
+      <c r="G35">
+        <f>AVERAGE(RyanMean!G35,WesMean!G35)</f>
+        <v>2.9625366666666667E-2</v>
+      </c>
+      <c r="H35">
+        <f>AVERAGE(RyanMean!H35,WesMean!H35)</f>
+        <v>3.5755483333333331E-2</v>
+      </c>
+      <c r="I35">
+        <f>AVERAGE(RyanMean!I35,WesMean!I35)</f>
+        <v>4.5282100000000006E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36">
+        <v>10000</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36">
+        <f>AVERAGE(RyanMean!D36,WesMean!D36)</f>
+        <v>1.941865</v>
+      </c>
+      <c r="E36">
+        <f>AVERAGE(RyanMean!E36,WesMean!E36)</f>
+        <v>1.7530300000000002E-2</v>
+      </c>
+      <c r="F36">
+        <f>AVERAGE(RyanMean!F36,WesMean!F36)</f>
+        <v>7.1965083333333332E-2</v>
+      </c>
+      <c r="G36">
+        <f>AVERAGE(RyanMean!G36,WesMean!G36)</f>
+        <v>3.0016499999999995E-2</v>
+      </c>
+      <c r="H36">
+        <f>AVERAGE(RyanMean!H36,WesMean!H36)</f>
+        <v>3.6678099999999998E-2</v>
+      </c>
+      <c r="I36">
+        <f>AVERAGE(RyanMean!I36,WesMean!I36)</f>
+        <v>3.6267416666666663E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <v>100000</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <f>AVERAGE(RyanMean!D37,WesMean!D37)</f>
+        <v>1.48179E-2</v>
+      </c>
+      <c r="E37">
+        <f>AVERAGE(RyanMean!E37,WesMean!E37)</f>
+        <v>0.20782033333333333</v>
+      </c>
+      <c r="F37">
+        <f>AVERAGE(RyanMean!F37,WesMean!F37)</f>
+        <v>0.75133783333333337</v>
+      </c>
+      <c r="G37">
+        <f>AVERAGE(RyanMean!G37,WesMean!G37)</f>
+        <v>0.17336466666666667</v>
+      </c>
+      <c r="H37">
+        <f>AVERAGE(RyanMean!H37,WesMean!H37)</f>
+        <v>0.41863250000000007</v>
+      </c>
+      <c r="I37">
+        <f>AVERAGE(RyanMean!I37,WesMean!I37)</f>
+        <v>0.3844846666666667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <v>5000</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <f>AVERAGE(RyanMean!D38,WesMean!D38)</f>
+        <v>0.75533549999999994</v>
+      </c>
+      <c r="E38">
+        <f>AVERAGE(RyanMean!E38,WesMean!E38)</f>
+        <v>8.0536433333333324E-3</v>
+      </c>
+      <c r="F38">
+        <f>AVERAGE(RyanMean!F38,WesMean!F38)</f>
+        <v>3.603046666666667E-2</v>
+      </c>
+      <c r="G38">
+        <f>AVERAGE(RyanMean!G38,WesMean!G38)</f>
+        <v>1.2812505000000002E-2</v>
+      </c>
+      <c r="H38">
+        <f>AVERAGE(RyanMean!H38,WesMean!H38)</f>
+        <v>1.6618183333333331E-2</v>
+      </c>
+      <c r="I38">
+        <f>AVERAGE(RyanMean!I38,WesMean!I38)</f>
+        <v>2.1617066666666667E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <v>500000</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39">
+        <f>AVERAGE(RyanMean!D39,WesMean!D39)</f>
+        <v>4921.09</v>
+      </c>
+      <c r="E39">
+        <f>AVERAGE(RyanMean!E39,WesMean!E39)</f>
+        <v>1.2440853333333333</v>
+      </c>
+      <c r="F39">
+        <f>AVERAGE(RyanMean!F39,WesMean!F39)</f>
+        <v>4.0764883333333337</v>
+      </c>
+      <c r="G39">
+        <f>AVERAGE(RyanMean!G39,WesMean!G39)</f>
+        <v>2.7809716666666668</v>
+      </c>
+      <c r="H39">
+        <f>AVERAGE(RyanMean!H39,WesMean!H39)</f>
+        <v>2.5378499999999997</v>
+      </c>
+      <c r="I39">
+        <f>AVERAGE(RyanMean!I39,WesMean!I39)</f>
+        <v>2.5764866666666664</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>50000</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <f>AVERAGE(RyanMean!D40,WesMean!D40)</f>
+        <v>73.894549999999995</v>
+      </c>
+      <c r="E40">
+        <f>AVERAGE(RyanMean!E40,WesMean!E40)</f>
+        <v>0.10270243333333334</v>
+      </c>
+      <c r="F40">
+        <f>AVERAGE(RyanMean!F40,WesMean!F40)</f>
+        <v>0.40604750000000001</v>
+      </c>
+      <c r="G40">
+        <f>AVERAGE(RyanMean!G40,WesMean!G40)</f>
+        <v>0.21321216666666667</v>
+      </c>
+      <c r="H40">
+        <f>AVERAGE(RyanMean!H40,WesMean!H40)</f>
+        <v>0.20833083333333335</v>
+      </c>
+      <c r="I40">
+        <f>AVERAGE(RyanMean!I40,WesMean!I40)</f>
+        <v>0.25827</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41">
+        <v>500000</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41">
+        <f>AVERAGE(RyanMean!D41,WesMean!D41)</f>
+        <v>7515.2250000000004</v>
+      </c>
+      <c r="E41">
+        <f>AVERAGE(RyanMean!E41,WesMean!E41)</f>
+        <v>1.3316466666666666</v>
+      </c>
+      <c r="F41">
+        <f>AVERAGE(RyanMean!F41,WesMean!F41)</f>
+        <v>4.4477283333333331</v>
+      </c>
+      <c r="G41">
+        <f>AVERAGE(RyanMean!G41,WesMean!G41)</f>
+        <v>3.3530283333333335</v>
+      </c>
+      <c r="H41">
+        <f>AVERAGE(RyanMean!H41,WesMean!H41)</f>
+        <v>2.691278333333333</v>
+      </c>
+      <c r="I41">
+        <f>AVERAGE(RyanMean!I41,WesMean!I41)</f>
+        <v>3.1549699999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42">
+        <v>5000</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <f>AVERAGE(RyanMean!D42,WesMean!D42)</f>
+        <v>0.74891750000000001</v>
+      </c>
+      <c r="E42">
+        <f>AVERAGE(RyanMean!E42,WesMean!E42)</f>
+        <v>8.2846700000000009E-3</v>
+      </c>
+      <c r="F42">
+        <f>AVERAGE(RyanMean!F42,WesMean!F42)</f>
+        <v>3.6352566666666662E-2</v>
+      </c>
+      <c r="G42">
+        <f>AVERAGE(RyanMean!G42,WesMean!G42)</f>
+        <v>1.2585220000000001E-2</v>
+      </c>
+      <c r="H42">
+        <f>AVERAGE(RyanMean!H42,WesMean!H42)</f>
+        <v>1.7345616666666668E-2</v>
+      </c>
+      <c r="I42">
+        <f>AVERAGE(RyanMean!I42,WesMean!I42)</f>
+        <v>1.9759566666666666E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43">
+        <v>100000</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <f>AVERAGE(RyanMean!D43,WesMean!D43)</f>
+        <v>300.50049999999999</v>
+      </c>
+      <c r="E43">
+        <f>AVERAGE(RyanMean!E43,WesMean!E43)</f>
+        <v>0.22139566666666666</v>
+      </c>
+      <c r="F43">
+        <f>AVERAGE(RyanMean!F43,WesMean!F43)</f>
+        <v>0.84280299999999997</v>
+      </c>
+      <c r="G43">
+        <f>AVERAGE(RyanMean!G43,WesMean!G43)</f>
+        <v>0.47497966666666669</v>
+      </c>
+      <c r="H43">
+        <f>AVERAGE(RyanMean!H43,WesMean!H43)</f>
+        <v>0.45359566666666667</v>
+      </c>
+      <c r="I43">
+        <f>AVERAGE(RyanMean!I43,WesMean!I43)</f>
+        <v>0.55511583333333325</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44">
+        <v>5000</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <f>AVERAGE(RyanMean!D44,WesMean!D44)</f>
+        <v>0.75785999999999998</v>
+      </c>
+      <c r="E44">
+        <f>AVERAGE(RyanMean!E44,WesMean!E44)</f>
+        <v>8.0168983333333346E-3</v>
+      </c>
+      <c r="F44">
+        <f>AVERAGE(RyanMean!F44,WesMean!F44)</f>
+        <v>3.6103716666666667E-2</v>
+      </c>
+      <c r="G44">
+        <f>AVERAGE(RyanMean!G44,WesMean!G44)</f>
+        <v>1.3104646666666667E-2</v>
+      </c>
+      <c r="H44">
+        <f>AVERAGE(RyanMean!H44,WesMean!H44)</f>
+        <v>1.6824250000000002E-2</v>
+      </c>
+      <c r="I44">
+        <f>AVERAGE(RyanMean!I44,WesMean!I44)</f>
+        <v>1.9876750000000002E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>100000</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <f>AVERAGE(RyanMean!D45,WesMean!D45)</f>
+        <v>192.405</v>
+      </c>
+      <c r="E45">
+        <f>AVERAGE(RyanMean!E45,WesMean!E45)</f>
+        <v>0.21585266666666666</v>
+      </c>
+      <c r="F45">
+        <f>AVERAGE(RyanMean!F45,WesMean!F45)</f>
+        <v>0.78265899999999999</v>
+      </c>
+      <c r="G45">
+        <f>AVERAGE(RyanMean!G45,WesMean!G45)</f>
+        <v>0.45494133333333331</v>
+      </c>
+      <c r="H45">
+        <f>AVERAGE(RyanMean!H45,WesMean!H45)</f>
+        <v>0.43917250000000002</v>
+      </c>
+      <c r="I45">
+        <f>AVERAGE(RyanMean!I45,WesMean!I45)</f>
+        <v>0.45534483333333331</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46">
+        <v>1000000</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46">
+        <f>AVERAGE(RyanMean!D46,WesMean!D46)</f>
+        <v>30541.899999999998</v>
+      </c>
+      <c r="E46">
+        <f>AVERAGE(RyanMean!E46,WesMean!E46)</f>
+        <v>2.7525483333333329</v>
+      </c>
+      <c r="F46">
+        <f>AVERAGE(RyanMean!F46,WesMean!F46)</f>
+        <v>9.2505000000000006</v>
+      </c>
+      <c r="G46">
+        <f>AVERAGE(RyanMean!G46,WesMean!G46)</f>
+        <v>7.5871533333333332</v>
+      </c>
+      <c r="H46">
+        <f>AVERAGE(RyanMean!H46,WesMean!H46)</f>
+        <v>5.6705583333333331</v>
+      </c>
+      <c r="I46">
+        <f>AVERAGE(RyanMean!I46,WesMean!I46)</f>
+        <v>6.6786266666666663</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47">
+        <v>10000</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <f>AVERAGE(RyanMean!D47,WesMean!D47)</f>
+        <v>3.0380250000000002</v>
+      </c>
+      <c r="E47">
+        <f>AVERAGE(RyanMean!E47,WesMean!E47)</f>
+        <v>2.03553E-2</v>
+      </c>
+      <c r="F47">
+        <f>AVERAGE(RyanMean!F47,WesMean!F47)</f>
+        <v>7.6556700000000005E-2</v>
+      </c>
+      <c r="G47">
+        <f>AVERAGE(RyanMean!G47,WesMean!G47)</f>
+        <v>3.1396566666666667E-2</v>
+      </c>
+      <c r="H47">
+        <f>AVERAGE(RyanMean!H47,WesMean!H47)</f>
+        <v>4.3000916666666666E-2</v>
+      </c>
+      <c r="I47">
+        <f>AVERAGE(RyanMean!I47,WesMean!I47)</f>
+        <v>4.5159116666666665E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>1000000</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <f>AVERAGE(RyanMean!D48,WesMean!D48)</f>
+        <v>31924.550000000003</v>
+      </c>
+      <c r="E48">
+        <f>AVERAGE(RyanMean!E48,WesMean!E48)</f>
+        <v>2.9536433333333338</v>
+      </c>
+      <c r="F48">
+        <f>AVERAGE(RyanMean!F48,WesMean!F48)</f>
+        <v>9.9439283333333321</v>
+      </c>
+      <c r="G48">
+        <f>AVERAGE(RyanMean!G48,WesMean!G48)</f>
+        <v>7.7543733333333336</v>
+      </c>
+      <c r="H48">
+        <f>AVERAGE(RyanMean!H48,WesMean!H48)</f>
+        <v>6.186868333333333</v>
+      </c>
+      <c r="I48">
+        <f>AVERAGE(RyanMean!I48,WesMean!I48)</f>
+        <v>7.270081666666667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49">
+        <v>1000000</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <f>AVERAGE(RyanMean!D49,WesMean!D49)</f>
+        <v>0.16526299999999999</v>
+      </c>
+      <c r="E49">
+        <f>AVERAGE(RyanMean!E49,WesMean!E49)</f>
+        <v>2.6931633333333336</v>
+      </c>
+      <c r="F49">
+        <f>AVERAGE(RyanMean!F49,WesMean!F49)</f>
+        <v>8.9726533333333336</v>
+      </c>
+      <c r="G49">
+        <f>AVERAGE(RyanMean!G49,WesMean!G49)</f>
+        <v>2.071555</v>
+      </c>
+      <c r="H49">
+        <f>AVERAGE(RyanMean!H49,WesMean!H49)</f>
+        <v>6.2699316666666665</v>
+      </c>
+      <c r="I49">
+        <f>AVERAGE(RyanMean!I49,WesMean!I49)</f>
+        <v>5.1117983333333328</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50">
+        <v>500000</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50">
+        <f>AVERAGE(RyanMean!D50,WesMean!D50)</f>
+        <v>8534.84</v>
+      </c>
+      <c r="E50">
+        <f>AVERAGE(RyanMean!E50,WesMean!E50)</f>
+        <v>1.2908183333333332</v>
+      </c>
+      <c r="F50">
+        <f>AVERAGE(RyanMean!F50,WesMean!F50)</f>
+        <v>4.4560950000000004</v>
+      </c>
+      <c r="G50">
+        <f>AVERAGE(RyanMean!G50,WesMean!G50)</f>
+        <v>3.0920199999999998</v>
+      </c>
+      <c r="H50">
+        <f>AVERAGE(RyanMean!H50,WesMean!H50)</f>
+        <v>2.5991866666666663</v>
+      </c>
+      <c r="I50">
+        <f>AVERAGE(RyanMean!I50,WesMean!I50)</f>
+        <v>3.2124183333333329</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51">
+        <v>100000</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51">
+        <f>AVERAGE(RyanMean!D51,WesMean!D51)</f>
+        <v>304.96449999999999</v>
+      </c>
+      <c r="E51">
+        <f>AVERAGE(RyanMean!E51,WesMean!E51)</f>
+        <v>0.23016599999999998</v>
+      </c>
+      <c r="F51">
+        <f>AVERAGE(RyanMean!F51,WesMean!F51)</f>
+        <v>0.84875566666666658</v>
+      </c>
+      <c r="G51">
+        <f>AVERAGE(RyanMean!G51,WesMean!G51)</f>
+        <v>0.48878333333333335</v>
+      </c>
+      <c r="H51">
+        <f>AVERAGE(RyanMean!H51,WesMean!H51)</f>
+        <v>0.45825233333333337</v>
+      </c>
+      <c r="I51">
+        <f>AVERAGE(RyanMean!I51,WesMean!I51)</f>
+        <v>0.55623199999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52">
+        <v>5000</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52">
+        <f>AVERAGE(RyanMean!D52,WesMean!D52)</f>
+        <v>0.47659150000000006</v>
+      </c>
+      <c r="E52">
+        <f>AVERAGE(RyanMean!E52,WesMean!E52)</f>
+        <v>7.9373299999999994E-3</v>
+      </c>
+      <c r="F52">
+        <f>AVERAGE(RyanMean!F52,WesMean!F52)</f>
+        <v>3.5186050000000003E-2</v>
+      </c>
+      <c r="G52">
+        <f>AVERAGE(RyanMean!G52,WesMean!G52)</f>
+        <v>1.1447624999999999E-2</v>
+      </c>
+      <c r="H52">
+        <f>AVERAGE(RyanMean!H52,WesMean!H52)</f>
+        <v>1.5932483333333334E-2</v>
+      </c>
+      <c r="I52">
+        <f>AVERAGE(RyanMean!I52,WesMean!I52)</f>
+        <v>1.6620466666666663E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53">
+        <v>1000000</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53">
+        <f>AVERAGE(RyanMean!D53,WesMean!D53)</f>
+        <v>19952.150000000001</v>
+      </c>
+      <c r="E53">
+        <f>AVERAGE(RyanMean!E53,WesMean!E53)</f>
+        <v>2.6745133333333335</v>
+      </c>
+      <c r="F53">
+        <f>AVERAGE(RyanMean!F53,WesMean!F53)</f>
+        <v>8.5216849999999997</v>
+      </c>
+      <c r="G53">
+        <f>AVERAGE(RyanMean!G53,WesMean!G53)</f>
+        <v>6.28681</v>
+      </c>
+      <c r="H53">
+        <f>AVERAGE(RyanMean!H53,WesMean!H53)</f>
+        <v>5.6090933333333339</v>
+      </c>
+      <c r="I53">
+        <f>AVERAGE(RyanMean!I53,WesMean!I53)</f>
+        <v>5.5671533333333327</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54">
+        <v>5000</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54">
+        <f>AVERAGE(RyanMean!D54,WesMean!D54)</f>
+        <v>6.6322050000000002E-4</v>
+      </c>
+      <c r="E54">
+        <f>AVERAGE(RyanMean!E54,WesMean!E54)</f>
+        <v>7.4052966666666668E-3</v>
+      </c>
+      <c r="F54">
+        <f>AVERAGE(RyanMean!F54,WesMean!F54)</f>
+        <v>3.3081050000000001E-2</v>
+      </c>
+      <c r="G54">
+        <f>AVERAGE(RyanMean!G54,WesMean!G54)</f>
+        <v>6.2467216666666665E-3</v>
+      </c>
+      <c r="H54">
+        <f>AVERAGE(RyanMean!H54,WesMean!H54)</f>
+        <v>1.6007283333333334E-2</v>
+      </c>
+      <c r="I54">
+        <f>AVERAGE(RyanMean!I54,WesMean!I54)</f>
+        <v>1.3668128333333335E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55">
+        <v>100000</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55">
+        <f>AVERAGE(RyanMean!D55,WesMean!D55)</f>
+        <v>307.04950000000002</v>
+      </c>
+      <c r="E55">
+        <f>AVERAGE(RyanMean!E55,WesMean!E55)</f>
+        <v>0.22329283333333333</v>
+      </c>
+      <c r="F55">
+        <f>AVERAGE(RyanMean!F55,WesMean!F55)</f>
+        <v>0.84737950000000017</v>
+      </c>
+      <c r="G55">
+        <f>AVERAGE(RyanMean!G55,WesMean!G55)</f>
+        <v>0.49994466666666659</v>
+      </c>
+      <c r="H55">
+        <f>AVERAGE(RyanMean!H55,WesMean!H55)</f>
+        <v>0.49036516666666663</v>
+      </c>
+      <c r="I55">
+        <f>AVERAGE(RyanMean!I55,WesMean!I55)</f>
+        <v>0.56959300000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56">
+        <v>10000</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56">
+        <f>AVERAGE(RyanMean!D56,WesMean!D56)</f>
+        <v>3.04535</v>
+      </c>
+      <c r="E56">
+        <f>AVERAGE(RyanMean!E56,WesMean!E56)</f>
+        <v>1.9640949999999997E-2</v>
+      </c>
+      <c r="F56">
+        <f>AVERAGE(RyanMean!F56,WesMean!F56)</f>
+        <v>7.9478483333333322E-2</v>
+      </c>
+      <c r="G56">
+        <f>AVERAGE(RyanMean!G56,WesMean!G56)</f>
+        <v>2.9829383333333334E-2</v>
+      </c>
+      <c r="H56">
+        <f>AVERAGE(RyanMean!H56,WesMean!H56)</f>
+        <v>3.4127299999999999E-2</v>
+      </c>
+      <c r="I56">
+        <f>AVERAGE(RyanMean!I56,WesMean!I56)</f>
+        <v>4.3808050000000001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57">
+        <v>10000</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57">
+        <f>AVERAGE(RyanMean!D57,WesMean!D57)</f>
+        <v>1.41344E-3</v>
+      </c>
+      <c r="E57">
+        <f>AVERAGE(RyanMean!E57,WesMean!E57)</f>
+        <v>1.69576E-2</v>
+      </c>
+      <c r="F57">
+        <f>AVERAGE(RyanMean!F57,WesMean!F57)</f>
+        <v>6.7889016666666663E-2</v>
+      </c>
+      <c r="G57">
+        <f>AVERAGE(RyanMean!G57,WesMean!G57)</f>
+        <v>1.3447901666666666E-2</v>
+      </c>
+      <c r="H57">
+        <f>AVERAGE(RyanMean!H57,WesMean!H57)</f>
+        <v>3.4099066666666664E-2</v>
+      </c>
+      <c r="I57">
+        <f>AVERAGE(RyanMean!I57,WesMean!I57)</f>
+        <v>3.2859733333333335E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58">
+        <v>500000</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58">
+        <f>AVERAGE(RyanMean!D58,WesMean!D58)</f>
+        <v>7.1408050000000001E-2</v>
+      </c>
+      <c r="E58">
+        <f>AVERAGE(RyanMean!E58,WesMean!E58)</f>
+        <v>1.2305753333333334</v>
+      </c>
+      <c r="F58">
+        <f>AVERAGE(RyanMean!F58,WesMean!F58)</f>
+        <v>3.9300583333333332</v>
+      </c>
+      <c r="G58">
+        <f>AVERAGE(RyanMean!G58,WesMean!G58)</f>
+        <v>0.96368750000000003</v>
+      </c>
+      <c r="H58">
+        <f>AVERAGE(RyanMean!H58,WesMean!H58)</f>
+        <v>2.5045116666666667</v>
+      </c>
+      <c r="I58">
+        <f>AVERAGE(RyanMean!I58,WesMean!I58)</f>
+        <v>2.2347483333333331</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59">
+        <v>50000</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59">
+        <f>AVERAGE(RyanMean!D59,WesMean!D59)</f>
+        <v>76.630499999999998</v>
+      </c>
+      <c r="E59">
+        <f>AVERAGE(RyanMean!E59,WesMean!E59)</f>
+        <v>0.10607844999999999</v>
+      </c>
+      <c r="F59">
+        <f>AVERAGE(RyanMean!F59,WesMean!F59)</f>
+        <v>0.41228883333333333</v>
+      </c>
+      <c r="G59">
+        <f>AVERAGE(RyanMean!G59,WesMean!G59)</f>
+        <v>0.2138835</v>
+      </c>
+      <c r="H59">
+        <f>AVERAGE(RyanMean!H59,WesMean!H59)</f>
+        <v>0.21309899999999998</v>
+      </c>
+      <c r="I59">
+        <f>AVERAGE(RyanMean!I59,WesMean!I59)</f>
+        <v>0.2609475</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60">
+        <v>50000</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60">
+        <f>AVERAGE(RyanMean!D60,WesMean!D60)</f>
+        <v>49.581450000000004</v>
+      </c>
+      <c r="E60">
+        <f>AVERAGE(RyanMean!E60,WesMean!E60)</f>
+        <v>0.10364705</v>
+      </c>
+      <c r="F60">
+        <f>AVERAGE(RyanMean!F60,WesMean!F60)</f>
+        <v>0.37648733333333334</v>
+      </c>
+      <c r="G60">
+        <f>AVERAGE(RyanMean!G60,WesMean!G60)</f>
+        <v>0.19994999999999999</v>
+      </c>
+      <c r="H60">
+        <f>AVERAGE(RyanMean!H60,WesMean!H60)</f>
+        <v>0.21136983333333337</v>
+      </c>
+      <c r="I60">
+        <f>AVERAGE(RyanMean!I60,WesMean!I60)</f>
+        <v>0.21379233333333331</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61">
+        <v>1000000</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61">
+        <f>AVERAGE(RyanMean!D61,WesMean!D61)</f>
+        <v>30755.95</v>
+      </c>
+      <c r="E61">
+        <f>AVERAGE(RyanMean!E61,WesMean!E61)</f>
+        <v>2.6959233333333334</v>
+      </c>
+      <c r="F61">
+        <f>AVERAGE(RyanMean!F61,WesMean!F61)</f>
+        <v>9.2105449999999998</v>
+      </c>
+      <c r="G61">
+        <f>AVERAGE(RyanMean!G61,WesMean!G61)</f>
+        <v>7.2245033333333328</v>
+      </c>
+      <c r="H61">
+        <f>AVERAGE(RyanMean!H61,WesMean!H61)</f>
+        <v>5.739863333333334</v>
+      </c>
+      <c r="I61">
+        <f>AVERAGE(RyanMean!I61,WesMean!I61)</f>
+        <v>6.7698233333333349</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/AllData.xlsx
+++ b/data/AllData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanschaefer/Documents/SMU/2022Spring/CS3353/Projects/Project2/Program2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C506D8-D2BC-A94E-B189-234D784262E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A90AE33-E4AF-144A-9438-BCB5284BEDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" activeTab="8" xr2:uid="{0351E3D1-8E73-2641-852B-06D6734494C5}"/>
+    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" activeTab="7" xr2:uid="{0351E3D1-8E73-2641-852B-06D6734494C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Ryan1" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,8 @@
     <sheet name="Wes2" sheetId="6" r:id="rId6"/>
     <sheet name="Wes3" sheetId="7" r:id="rId7"/>
     <sheet name="WesMean" sheetId="8" r:id="rId8"/>
-    <sheet name="Combined" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="18">
   <si>
     <t xml:space="preserve"> var_type</t>
   </si>
@@ -13299,8 +13298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D59C28-F948-7042-BC7E-813739BE4F18}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15437,2148 +15436,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DBE446-20FC-C940-8C0D-8E75523290F0}">
-  <dimension ref="A1:I61"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>500000</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <f>AVERAGE(RyanMean!D2,WesMean!D2)</f>
-        <v>928.59249999999997</v>
-      </c>
-      <c r="E2">
-        <f>AVERAGE(RyanMean!E2,WesMean!E2)</f>
-        <v>0.20632699999999998</v>
-      </c>
-      <c r="F2">
-        <f>AVERAGE(RyanMean!F2,WesMean!F2)</f>
-        <v>2.6146383333333336</v>
-      </c>
-      <c r="G2">
-        <f>AVERAGE(RyanMean!G2,WesMean!G2)</f>
-        <v>0.35297100000000003</v>
-      </c>
-      <c r="H2">
-        <f>AVERAGE(RyanMean!H2,WesMean!H2)</f>
-        <v>0.84389200000000009</v>
-      </c>
-      <c r="I2">
-        <f>AVERAGE(RyanMean!I2,WesMean!I2)</f>
-        <v>0.94704266666666659</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>1000000</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <f>AVERAGE(RyanMean!D3,WesMean!D3)</f>
-        <v>3794.0600000000004</v>
-      </c>
-      <c r="E3">
-        <f>AVERAGE(RyanMean!E3,WesMean!E3)</f>
-        <v>0.38262316666666668</v>
-      </c>
-      <c r="F3">
-        <f>AVERAGE(RyanMean!F3,WesMean!F3)</f>
-        <v>5.2244299999999999</v>
-      </c>
-      <c r="G3">
-        <f>AVERAGE(RyanMean!G3,WesMean!G3)</f>
-        <v>0.77607366666666666</v>
-      </c>
-      <c r="H3">
-        <f>AVERAGE(RyanMean!H3,WesMean!H3)</f>
-        <v>1.9203116666666666</v>
-      </c>
-      <c r="I3">
-        <f>AVERAGE(RyanMean!I3,WesMean!I3)</f>
-        <v>2.0126766666666667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>100000</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <f>AVERAGE(RyanMean!D4,WesMean!D4)</f>
-        <v>37.818300000000001</v>
-      </c>
-      <c r="E4">
-        <f>AVERAGE(RyanMean!E4,WesMean!E4)</f>
-        <v>3.3999599999999998E-2</v>
-      </c>
-      <c r="F4">
-        <f>AVERAGE(RyanMean!F4,WesMean!F4)</f>
-        <v>0.51216583333333343</v>
-      </c>
-      <c r="G4">
-        <f>AVERAGE(RyanMean!G4,WesMean!G4)</f>
-        <v>5.6593233333333333E-2</v>
-      </c>
-      <c r="H4">
-        <f>AVERAGE(RyanMean!H4,WesMean!H4)</f>
-        <v>0.16745383333333333</v>
-      </c>
-      <c r="I4">
-        <f>AVERAGE(RyanMean!I4,WesMean!I4)</f>
-        <v>0.18426066666666668</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>10000</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <f>AVERAGE(RyanMean!D5,WesMean!D5)</f>
-        <v>0.39220300000000002</v>
-      </c>
-      <c r="E5">
-        <f>AVERAGE(RyanMean!E5,WesMean!E5)</f>
-        <v>3.0156583333333332E-3</v>
-      </c>
-      <c r="F5">
-        <f>AVERAGE(RyanMean!F5,WesMean!F5)</f>
-        <v>4.9989033333333335E-2</v>
-      </c>
-      <c r="G5">
-        <f>AVERAGE(RyanMean!G5,WesMean!G5)</f>
-        <v>3.5379016666666667E-3</v>
-      </c>
-      <c r="H5">
-        <f>AVERAGE(RyanMean!H5,WesMean!H5)</f>
-        <v>1.360155E-2</v>
-      </c>
-      <c r="I5">
-        <f>AVERAGE(RyanMean!I5,WesMean!I5)</f>
-        <v>1.5257669999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>50000</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <f>AVERAGE(RyanMean!D6,WesMean!D6)</f>
-        <v>8.8080500000000002E-4</v>
-      </c>
-      <c r="E6">
-        <f>AVERAGE(RyanMean!E6,WesMean!E6)</f>
-        <v>1.376902E-2</v>
-      </c>
-      <c r="F6">
-        <f>AVERAGE(RyanMean!F6,WesMean!F6)</f>
-        <v>0.25437033333333336</v>
-      </c>
-      <c r="G6">
-        <f>AVERAGE(RyanMean!G6,WesMean!G6)</f>
-        <v>6.8510099999999994E-3</v>
-      </c>
-      <c r="H6">
-        <f>AVERAGE(RyanMean!H6,WesMean!H6)</f>
-        <v>7.0738550000000011E-2</v>
-      </c>
-      <c r="I6">
-        <f>AVERAGE(RyanMean!I6,WesMean!I6)</f>
-        <v>6.7643983333333338E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>50000</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <f>AVERAGE(RyanMean!D7,WesMean!D7)</f>
-        <v>9.5058900000000008</v>
-      </c>
-      <c r="E7">
-        <f>AVERAGE(RyanMean!E7,WesMean!E7)</f>
-        <v>1.6747399999999999E-2</v>
-      </c>
-      <c r="F7">
-        <f>AVERAGE(RyanMean!F7,WesMean!F7)</f>
-        <v>0.24884149999999999</v>
-      </c>
-      <c r="G7">
-        <f>AVERAGE(RyanMean!G7,WesMean!G7)</f>
-        <v>2.3602949999999998E-2</v>
-      </c>
-      <c r="H7">
-        <f>AVERAGE(RyanMean!H7,WesMean!H7)</f>
-        <v>7.5824083333333334E-2</v>
-      </c>
-      <c r="I7">
-        <f>AVERAGE(RyanMean!I7,WesMean!I7)</f>
-        <v>8.2080166666666676E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>5000</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <f>AVERAGE(RyanMean!D8,WesMean!D8)</f>
-        <v>9.7554050000000003E-2</v>
-      </c>
-      <c r="E8">
-        <f>AVERAGE(RyanMean!E8,WesMean!E8)</f>
-        <v>1.4794999999999999E-3</v>
-      </c>
-      <c r="F8">
-        <f>AVERAGE(RyanMean!F8,WesMean!F8)</f>
-        <v>2.3019899999999996E-2</v>
-      </c>
-      <c r="G8">
-        <f>AVERAGE(RyanMean!G8,WesMean!G8)</f>
-        <v>1.568615E-3</v>
-      </c>
-      <c r="H8">
-        <f>AVERAGE(RyanMean!H8,WesMean!H8)</f>
-        <v>5.9624699999999992E-3</v>
-      </c>
-      <c r="I8">
-        <f>AVERAGE(RyanMean!I8,WesMean!I8)</f>
-        <v>6.3464133333333336E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>500000</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <f>AVERAGE(RyanMean!D9,WesMean!D9)</f>
-        <v>8.6029799999999997E-3</v>
-      </c>
-      <c r="E9">
-        <f>AVERAGE(RyanMean!E9,WesMean!E9)</f>
-        <v>0.12612871666666667</v>
-      </c>
-      <c r="F9">
-        <f>AVERAGE(RyanMean!F9,WesMean!F9)</f>
-        <v>2.6839683333333335</v>
-      </c>
-      <c r="G9">
-        <f>AVERAGE(RyanMean!G9,WesMean!G9)</f>
-        <v>9.3804216666666662E-2</v>
-      </c>
-      <c r="H9">
-        <f>AVERAGE(RyanMean!H9,WesMean!H9)</f>
-        <v>0.94733233333333344</v>
-      </c>
-      <c r="I9">
-        <f>AVERAGE(RyanMean!I9,WesMean!I9)</f>
-        <v>0.91318583333333336</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>500000</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <f>AVERAGE(RyanMean!D10,WesMean!D10)</f>
-        <v>152.6105</v>
-      </c>
-      <c r="E10">
-        <f>AVERAGE(RyanMean!E10,WesMean!E10)</f>
-        <v>0.16170033333333333</v>
-      </c>
-      <c r="F10">
-        <f>AVERAGE(RyanMean!F10,WesMean!F10)</f>
-        <v>2.7571699999999995</v>
-      </c>
-      <c r="G10">
-        <f>AVERAGE(RyanMean!G10,WesMean!G10)</f>
-        <v>0.183444</v>
-      </c>
-      <c r="H10">
-        <f>AVERAGE(RyanMean!H10,WesMean!H10)</f>
-        <v>0.9264443333333332</v>
-      </c>
-      <c r="I10">
-        <f>AVERAGE(RyanMean!I10,WesMean!I10)</f>
-        <v>0.94644066666666671</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>10000</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <f>AVERAGE(RyanMean!D11,WesMean!D11)</f>
-        <v>6.1462050000000004E-2</v>
-      </c>
-      <c r="E11">
-        <f>AVERAGE(RyanMean!E11,WesMean!E11)</f>
-        <v>2.6381099999999999E-3</v>
-      </c>
-      <c r="F11">
-        <f>AVERAGE(RyanMean!F11,WesMean!F11)</f>
-        <v>5.1022683333333332E-2</v>
-      </c>
-      <c r="G11">
-        <f>AVERAGE(RyanMean!G11,WesMean!G11)</f>
-        <v>2.1301683333333331E-3</v>
-      </c>
-      <c r="H11">
-        <f>AVERAGE(RyanMean!H11,WesMean!H11)</f>
-        <v>1.4277321666666665E-2</v>
-      </c>
-      <c r="I11">
-        <f>AVERAGE(RyanMean!I11,WesMean!I11)</f>
-        <v>1.4156651666666666E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>1000000</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <f>AVERAGE(RyanMean!D12,WesMean!D12)</f>
-        <v>3801.0699999999997</v>
-      </c>
-      <c r="E12">
-        <f>AVERAGE(RyanMean!E12,WesMean!E12)</f>
-        <v>0.41100816666666662</v>
-      </c>
-      <c r="F12">
-        <f>AVERAGE(RyanMean!F12,WesMean!F12)</f>
-        <v>5.6368749999999999</v>
-      </c>
-      <c r="G12">
-        <f>AVERAGE(RyanMean!G12,WesMean!G12)</f>
-        <v>0.81254266666666664</v>
-      </c>
-      <c r="H12">
-        <f>AVERAGE(RyanMean!H12,WesMean!H12)</f>
-        <v>1.9554</v>
-      </c>
-      <c r="I12">
-        <f>AVERAGE(RyanMean!I12,WesMean!I12)</f>
-        <v>2.1300149999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>1000000</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <f>AVERAGE(RyanMean!D13,WesMean!D13)</f>
-        <v>3821.29</v>
-      </c>
-      <c r="E13">
-        <f>AVERAGE(RyanMean!E13,WesMean!E13)</f>
-        <v>0.41495683333333333</v>
-      </c>
-      <c r="F13">
-        <f>AVERAGE(RyanMean!F13,WesMean!F13)</f>
-        <v>5.5454749999999997</v>
-      </c>
-      <c r="G13">
-        <f>AVERAGE(RyanMean!G13,WesMean!G13)</f>
-        <v>0.79851033333333321</v>
-      </c>
-      <c r="H13">
-        <f>AVERAGE(RyanMean!H13,WesMean!H13)</f>
-        <v>1.9299249999999999</v>
-      </c>
-      <c r="I13">
-        <f>AVERAGE(RyanMean!I13,WesMean!I13)</f>
-        <v>2.0347116666666669</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>50000</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14">
-        <f>AVERAGE(RyanMean!D14,WesMean!D14)</f>
-        <v>9.5889349999999993</v>
-      </c>
-      <c r="E14">
-        <f>AVERAGE(RyanMean!E14,WesMean!E14)</f>
-        <v>1.6368799999999999E-2</v>
-      </c>
-      <c r="F14">
-        <f>AVERAGE(RyanMean!F14,WesMean!F14)</f>
-        <v>0.24949866666666665</v>
-      </c>
-      <c r="G14">
-        <f>AVERAGE(RyanMean!G14,WesMean!G14)</f>
-        <v>2.4548199999999999E-2</v>
-      </c>
-      <c r="H14">
-        <f>AVERAGE(RyanMean!H14,WesMean!H14)</f>
-        <v>7.5524066666666667E-2</v>
-      </c>
-      <c r="I14">
-        <f>AVERAGE(RyanMean!I14,WesMean!I14)</f>
-        <v>8.169966666666667E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15">
-        <v>5000</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <f>AVERAGE(RyanMean!D15,WesMean!D15)</f>
-        <v>1.5704599999999999E-2</v>
-      </c>
-      <c r="E15">
-        <f>AVERAGE(RyanMean!E15,WesMean!E15)</f>
-        <v>1.29043E-3</v>
-      </c>
-      <c r="F15">
-        <f>AVERAGE(RyanMean!F15,WesMean!F15)</f>
-        <v>2.3205699999999999E-2</v>
-      </c>
-      <c r="G15">
-        <f>AVERAGE(RyanMean!G15,WesMean!G15)</f>
-        <v>9.320983333333335E-4</v>
-      </c>
-      <c r="H15">
-        <f>AVERAGE(RyanMean!H15,WesMean!H15)</f>
-        <v>5.896533333333333E-3</v>
-      </c>
-      <c r="I15">
-        <f>AVERAGE(RyanMean!I15,WesMean!I15)</f>
-        <v>5.8888516666666668E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16">
-        <v>5000</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16">
-        <f>AVERAGE(RyanMean!D16,WesMean!D16)</f>
-        <v>7.9939999999999997E-5</v>
-      </c>
-      <c r="E16">
-        <f>AVERAGE(RyanMean!E16,WesMean!E16)</f>
-        <v>1.0944948333333334E-3</v>
-      </c>
-      <c r="F16">
-        <f>AVERAGE(RyanMean!F16,WesMean!F16)</f>
-        <v>2.176585E-2</v>
-      </c>
-      <c r="G16">
-        <f>AVERAGE(RyanMean!G16,WesMean!G16)</f>
-        <v>5.1929950000000004E-4</v>
-      </c>
-      <c r="H16">
-        <f>AVERAGE(RyanMean!H16,WesMean!H16)</f>
-        <v>5.4894449999999999E-3</v>
-      </c>
-      <c r="I16">
-        <f>AVERAGE(RyanMean!I16,WesMean!I16)</f>
-        <v>5.4154583333333329E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17">
-        <v>100000</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17">
-        <f>AVERAGE(RyanMean!D17,WesMean!D17)</f>
-        <v>38.068449999999999</v>
-      </c>
-      <c r="E17">
-        <f>AVERAGE(RyanMean!E17,WesMean!E17)</f>
-        <v>3.402288333333333E-2</v>
-      </c>
-      <c r="F17">
-        <f>AVERAGE(RyanMean!F17,WesMean!F17)</f>
-        <v>0.50394016666666674</v>
-      </c>
-      <c r="G17">
-        <f>AVERAGE(RyanMean!G17,WesMean!G17)</f>
-        <v>5.2829050000000002E-2</v>
-      </c>
-      <c r="H17">
-        <f>AVERAGE(RyanMean!H17,WesMean!H17)</f>
-        <v>0.15646833333333332</v>
-      </c>
-      <c r="I17">
-        <f>AVERAGE(RyanMean!I17,WesMean!I17)</f>
-        <v>0.17470849999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>50000</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <f>AVERAGE(RyanMean!D18,WesMean!D18)</f>
-        <v>1.5279099999999999</v>
-      </c>
-      <c r="E18">
-        <f>AVERAGE(RyanMean!E18,WesMean!E18)</f>
-        <v>1.3458816666666668E-2</v>
-      </c>
-      <c r="F18">
-        <f>AVERAGE(RyanMean!F18,WesMean!F18)</f>
-        <v>0.23827349999999997</v>
-      </c>
-      <c r="G18">
-        <f>AVERAGE(RyanMean!G18,WesMean!G18)</f>
-        <v>1.3072938333333334E-2</v>
-      </c>
-      <c r="H18">
-        <f>AVERAGE(RyanMean!H18,WesMean!H18)</f>
-        <v>7.0147766666666667E-2</v>
-      </c>
-      <c r="I18">
-        <f>AVERAGE(RyanMean!I18,WesMean!I18)</f>
-        <v>7.0103216666666662E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19">
-        <v>10000</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19">
-        <f>AVERAGE(RyanMean!D19,WesMean!D19)</f>
-        <v>0.38781300000000002</v>
-      </c>
-      <c r="E19">
-        <f>AVERAGE(RyanMean!E19,WesMean!E19)</f>
-        <v>3.1473550000000001E-3</v>
-      </c>
-      <c r="F19">
-        <f>AVERAGE(RyanMean!F19,WesMean!F19)</f>
-        <v>4.8405233333333332E-2</v>
-      </c>
-      <c r="G19">
-        <f>AVERAGE(RyanMean!G19,WesMean!G19)</f>
-        <v>3.7878183333333332E-3</v>
-      </c>
-      <c r="H19">
-        <f>AVERAGE(RyanMean!H19,WesMean!H19)</f>
-        <v>1.3667925000000001E-2</v>
-      </c>
-      <c r="I19">
-        <f>AVERAGE(RyanMean!I19,WesMean!I19)</f>
-        <v>1.5091279999999999E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20">
-        <v>500000</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20">
-        <f>AVERAGE(RyanMean!D20,WesMean!D20)</f>
-        <v>951.57050000000004</v>
-      </c>
-      <c r="E20">
-        <f>AVERAGE(RyanMean!E20,WesMean!E20)</f>
-        <v>0.18800566666666665</v>
-      </c>
-      <c r="F20">
-        <f>AVERAGE(RyanMean!F20,WesMean!F20)</f>
-        <v>2.5408649999999997</v>
-      </c>
-      <c r="G20">
-        <f>AVERAGE(RyanMean!G20,WesMean!G20)</f>
-        <v>0.35276350000000001</v>
-      </c>
-      <c r="H20">
-        <f>AVERAGE(RyanMean!H20,WesMean!H20)</f>
-        <v>0.87419216666666666</v>
-      </c>
-      <c r="I20">
-        <f>AVERAGE(RyanMean!I20,WesMean!I20)</f>
-        <v>0.9471425</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21">
-        <v>500000</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21">
-        <f>AVERAGE(RyanMean!D21,WesMean!D21)</f>
-        <v>947.31600000000003</v>
-      </c>
-      <c r="E21">
-        <f>AVERAGE(RyanMean!E21,WesMean!E21)</f>
-        <v>0.18767416666666667</v>
-      </c>
-      <c r="F21">
-        <f>AVERAGE(RyanMean!F21,WesMean!F21)</f>
-        <v>2.5196450000000001</v>
-      </c>
-      <c r="G21">
-        <f>AVERAGE(RyanMean!G21,WesMean!G21)</f>
-        <v>0.34216333333333332</v>
-      </c>
-      <c r="H21">
-        <f>AVERAGE(RyanMean!H21,WesMean!H21)</f>
-        <v>0.86771033333333336</v>
-      </c>
-      <c r="I21">
-        <f>AVERAGE(RyanMean!I21,WesMean!I21)</f>
-        <v>0.9323840000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22">
-        <v>1000000</v>
-      </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22">
-        <f>AVERAGE(RyanMean!D22,WesMean!D22)</f>
-        <v>1.7189550000000001E-2</v>
-      </c>
-      <c r="E22">
-        <f>AVERAGE(RyanMean!E22,WesMean!E22)</f>
-        <v>0.26882099999999998</v>
-      </c>
-      <c r="F22">
-        <f>AVERAGE(RyanMean!F22,WesMean!F22)</f>
-        <v>5.0331716666666662</v>
-      </c>
-      <c r="G22">
-        <f>AVERAGE(RyanMean!G22,WesMean!G22)</f>
-        <v>0.18298049999999999</v>
-      </c>
-      <c r="H22">
-        <f>AVERAGE(RyanMean!H22,WesMean!H22)</f>
-        <v>1.7260650000000002</v>
-      </c>
-      <c r="I22">
-        <f>AVERAGE(RyanMean!I22,WesMean!I22)</f>
-        <v>1.6921983333333332</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23">
-        <v>5000</v>
-      </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23">
-        <f>AVERAGE(RyanMean!D23,WesMean!D23)</f>
-        <v>9.2812499999999992E-2</v>
-      </c>
-      <c r="E23">
-        <f>AVERAGE(RyanMean!E23,WesMean!E23)</f>
-        <v>1.4630616666666666E-3</v>
-      </c>
-      <c r="F23">
-        <f>AVERAGE(RyanMean!F23,WesMean!F23)</f>
-        <v>2.2511700000000003E-2</v>
-      </c>
-      <c r="G23">
-        <f>AVERAGE(RyanMean!G23,WesMean!G23)</f>
-        <v>1.5092433333333333E-3</v>
-      </c>
-      <c r="H23">
-        <f>AVERAGE(RyanMean!H23,WesMean!H23)</f>
-        <v>5.7810116666666654E-3</v>
-      </c>
-      <c r="I23">
-        <f>AVERAGE(RyanMean!I23,WesMean!I23)</f>
-        <v>6.3531449999999993E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24">
-        <v>100000</v>
-      </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24">
-        <f>AVERAGE(RyanMean!D24,WesMean!D24)</f>
-        <v>37.810499999999998</v>
-      </c>
-      <c r="E24">
-        <f>AVERAGE(RyanMean!E24,WesMean!E24)</f>
-        <v>3.3718166666666674E-2</v>
-      </c>
-      <c r="F24">
-        <f>AVERAGE(RyanMean!F24,WesMean!F24)</f>
-        <v>0.49470783333333335</v>
-      </c>
-      <c r="G24">
-        <f>AVERAGE(RyanMean!G24,WesMean!G24)</f>
-        <v>5.4667500000000008E-2</v>
-      </c>
-      <c r="H24">
-        <f>AVERAGE(RyanMean!H24,WesMean!H24)</f>
-        <v>0.15611083333333334</v>
-      </c>
-      <c r="I24">
-        <f>AVERAGE(RyanMean!I24,WesMean!I24)</f>
-        <v>0.16887433333333335</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25">
-        <v>50000</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25">
-        <f>AVERAGE(RyanMean!D25,WesMean!D25)</f>
-        <v>9.4352100000000014</v>
-      </c>
-      <c r="E25">
-        <f>AVERAGE(RyanMean!E25,WesMean!E25)</f>
-        <v>1.8693150000000002E-2</v>
-      </c>
-      <c r="F25">
-        <f>AVERAGE(RyanMean!F25,WesMean!F25)</f>
-        <v>0.24369433333333332</v>
-      </c>
-      <c r="G25">
-        <f>AVERAGE(RyanMean!G25,WesMean!G25)</f>
-        <v>2.3900866666666666E-2</v>
-      </c>
-      <c r="H25">
-        <f>AVERAGE(RyanMean!H25,WesMean!H25)</f>
-        <v>7.5078099999999995E-2</v>
-      </c>
-      <c r="I25">
-        <f>AVERAGE(RyanMean!I25,WesMean!I25)</f>
-        <v>7.8798716666666671E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26">
-        <v>10000</v>
-      </c>
-      <c r="C26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26">
-        <f>AVERAGE(RyanMean!D26,WesMean!D26)</f>
-        <v>0.38313600000000003</v>
-      </c>
-      <c r="E26">
-        <f>AVERAGE(RyanMean!E26,WesMean!E26)</f>
-        <v>3.0243066666666672E-3</v>
-      </c>
-      <c r="F26">
-        <f>AVERAGE(RyanMean!F26,WesMean!F26)</f>
-        <v>4.6134599999999998E-2</v>
-      </c>
-      <c r="G26">
-        <f>AVERAGE(RyanMean!G26,WesMean!G26)</f>
-        <v>3.5354783333333335E-3</v>
-      </c>
-      <c r="H26">
-        <f>AVERAGE(RyanMean!H26,WesMean!H26)</f>
-        <v>1.23984E-2</v>
-      </c>
-      <c r="I26">
-        <f>AVERAGE(RyanMean!I26,WesMean!I26)</f>
-        <v>1.4153950000000002E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27">
-        <v>100000</v>
-      </c>
-      <c r="C27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27">
-        <f>AVERAGE(RyanMean!D27,WesMean!D27)</f>
-        <v>1.724845E-3</v>
-      </c>
-      <c r="E27">
-        <f>AVERAGE(RyanMean!E27,WesMean!E27)</f>
-        <v>2.3970783333333332E-2</v>
-      </c>
-      <c r="F27">
-        <f>AVERAGE(RyanMean!F27,WesMean!F27)</f>
-        <v>0.48152800000000001</v>
-      </c>
-      <c r="G27">
-        <f>AVERAGE(RyanMean!G27,WesMean!G27)</f>
-        <v>1.5084163333333334E-2</v>
-      </c>
-      <c r="H27">
-        <f>AVERAGE(RyanMean!H27,WesMean!H27)</f>
-        <v>0.1455255</v>
-      </c>
-      <c r="I27">
-        <f>AVERAGE(RyanMean!I27,WesMean!I27)</f>
-        <v>0.14433566666666667</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28">
-        <v>100000</v>
-      </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28">
-        <f>AVERAGE(RyanMean!D28,WesMean!D28)</f>
-        <v>6.0814450000000004</v>
-      </c>
-      <c r="E28">
-        <f>AVERAGE(RyanMean!E28,WesMean!E28)</f>
-        <v>2.7807483333333334E-2</v>
-      </c>
-      <c r="F28">
-        <f>AVERAGE(RyanMean!F28,WesMean!F28)</f>
-        <v>0.48339016666666668</v>
-      </c>
-      <c r="G28">
-        <f>AVERAGE(RyanMean!G28,WesMean!G28)</f>
-        <v>2.9143466666666666E-2</v>
-      </c>
-      <c r="H28">
-        <f>AVERAGE(RyanMean!H28,WesMean!H28)</f>
-        <v>0.15361116666666666</v>
-      </c>
-      <c r="I28">
-        <f>AVERAGE(RyanMean!I28,WesMean!I28)</f>
-        <v>0.14961666666666668</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29">
-        <v>10000</v>
-      </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29">
-        <f>AVERAGE(RyanMean!D29,WesMean!D29)</f>
-        <v>1.741495E-4</v>
-      </c>
-      <c r="E29">
-        <f>AVERAGE(RyanMean!E29,WesMean!E29)</f>
-        <v>2.2710600000000001E-3</v>
-      </c>
-      <c r="F29">
-        <f>AVERAGE(RyanMean!F29,WesMean!F29)</f>
-        <v>4.4526133333333329E-2</v>
-      </c>
-      <c r="G29">
-        <f>AVERAGE(RyanMean!G29,WesMean!G29)</f>
-        <v>1.1643966666666666E-3</v>
-      </c>
-      <c r="H29">
-        <f>AVERAGE(RyanMean!H29,WesMean!H29)</f>
-        <v>1.2083586666666667E-2</v>
-      </c>
-      <c r="I29">
-        <f>AVERAGE(RyanMean!I29,WesMean!I29)</f>
-        <v>1.1516255E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30">
-        <v>5000</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30">
-        <f>AVERAGE(RyanMean!D30,WesMean!D30)</f>
-        <v>9.8438350000000008E-2</v>
-      </c>
-      <c r="E30">
-        <f>AVERAGE(RyanMean!E30,WesMean!E30)</f>
-        <v>1.4706133333333333E-3</v>
-      </c>
-      <c r="F30">
-        <f>AVERAGE(RyanMean!F30,WesMean!F30)</f>
-        <v>2.2610000000000002E-2</v>
-      </c>
-      <c r="G30">
-        <f>AVERAGE(RyanMean!G30,WesMean!G30)</f>
-        <v>1.6441883333333336E-3</v>
-      </c>
-      <c r="H30">
-        <f>AVERAGE(RyanMean!H30,WesMean!H30)</f>
-        <v>6.4008533333333329E-3</v>
-      </c>
-      <c r="I30">
-        <f>AVERAGE(RyanMean!I30,WesMean!I30)</f>
-        <v>7.1442266666666664E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31">
-        <v>1000000</v>
-      </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31">
-        <f>AVERAGE(RyanMean!D31,WesMean!D31)</f>
-        <v>605.79550000000006</v>
-      </c>
-      <c r="E31">
-        <f>AVERAGE(RyanMean!E31,WesMean!E31)</f>
-        <v>0.32909750000000004</v>
-      </c>
-      <c r="F31">
-        <f>AVERAGE(RyanMean!F31,WesMean!F31)</f>
-        <v>5.2613450000000004</v>
-      </c>
-      <c r="G31">
-        <f>AVERAGE(RyanMean!G31,WesMean!G31)</f>
-        <v>0.38122050000000002</v>
-      </c>
-      <c r="H31">
-        <f>AVERAGE(RyanMean!H31,WesMean!H31)</f>
-        <v>1.8150900000000001</v>
-      </c>
-      <c r="I31">
-        <f>AVERAGE(RyanMean!I31,WesMean!I31)</f>
-        <v>1.8297316666666668</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32">
-        <v>50000</v>
-      </c>
-      <c r="C32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32">
-        <f>AVERAGE(RyanMean!D32,WesMean!D32)</f>
-        <v>7.0715450000000003E-3</v>
-      </c>
-      <c r="E32">
-        <f>AVERAGE(RyanMean!E32,WesMean!E32)</f>
-        <v>0.10259890000000001</v>
-      </c>
-      <c r="F32">
-        <f>AVERAGE(RyanMean!F32,WesMean!F32)</f>
-        <v>0.35941649999999997</v>
-      </c>
-      <c r="G32">
-        <f>AVERAGE(RyanMean!G32,WesMean!G32)</f>
-        <v>7.7971766666666664E-2</v>
-      </c>
-      <c r="H32">
-        <f>AVERAGE(RyanMean!H32,WesMean!H32)</f>
-        <v>0.19673516666666668</v>
-      </c>
-      <c r="I32">
-        <f>AVERAGE(RyanMean!I32,WesMean!I32)</f>
-        <v>0.17745166666666667</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33">
-        <v>500000</v>
-      </c>
-      <c r="C33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33">
-        <f>AVERAGE(RyanMean!D33,WesMean!D33)</f>
-        <v>7677.6100000000006</v>
-      </c>
-      <c r="E33">
-        <f>AVERAGE(RyanMean!E33,WesMean!E33)</f>
-        <v>1.3006198333333334</v>
-      </c>
-      <c r="F33">
-        <f>AVERAGE(RyanMean!F33,WesMean!F33)</f>
-        <v>4.5776866666666667</v>
-      </c>
-      <c r="G33">
-        <f>AVERAGE(RyanMean!G33,WesMean!G33)</f>
-        <v>3.1456883333333332</v>
-      </c>
-      <c r="H33">
-        <f>AVERAGE(RyanMean!H33,WesMean!H33)</f>
-        <v>2.7084216666666672</v>
-      </c>
-      <c r="I33">
-        <f>AVERAGE(RyanMean!I33,WesMean!I33)</f>
-        <v>3.2011449999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34">
-        <v>50000</v>
-      </c>
-      <c r="C34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34">
-        <f>AVERAGE(RyanMean!D34,WesMean!D34)</f>
-        <v>76.311099999999996</v>
-      </c>
-      <c r="E34">
-        <f>AVERAGE(RyanMean!E34,WesMean!E34)</f>
-        <v>0.10236898333333333</v>
-      </c>
-      <c r="F34">
-        <f>AVERAGE(RyanMean!F34,WesMean!F34)</f>
-        <v>0.42131016666666671</v>
-      </c>
-      <c r="G34">
-        <f>AVERAGE(RyanMean!G34,WesMean!G34)</f>
-        <v>0.2111835</v>
-      </c>
-      <c r="H34">
-        <f>AVERAGE(RyanMean!H34,WesMean!H34)</f>
-        <v>0.21972299999999997</v>
-      </c>
-      <c r="I34">
-        <f>AVERAGE(RyanMean!I34,WesMean!I34)</f>
-        <v>0.26106316666666668</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35">
-        <v>10000</v>
-      </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35">
-        <f>AVERAGE(RyanMean!D35,WesMean!D35)</f>
-        <v>3.0607850000000001</v>
-      </c>
-      <c r="E35">
-        <f>AVERAGE(RyanMean!E35,WesMean!E35)</f>
-        <v>1.7345449999999998E-2</v>
-      </c>
-      <c r="F35">
-        <f>AVERAGE(RyanMean!F35,WesMean!F35)</f>
-        <v>7.621431666666667E-2</v>
-      </c>
-      <c r="G35">
-        <f>AVERAGE(RyanMean!G35,WesMean!G35)</f>
-        <v>2.9625366666666667E-2</v>
-      </c>
-      <c r="H35">
-        <f>AVERAGE(RyanMean!H35,WesMean!H35)</f>
-        <v>3.5755483333333331E-2</v>
-      </c>
-      <c r="I35">
-        <f>AVERAGE(RyanMean!I35,WesMean!I35)</f>
-        <v>4.5282100000000006E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36">
-        <v>10000</v>
-      </c>
-      <c r="C36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36">
-        <f>AVERAGE(RyanMean!D36,WesMean!D36)</f>
-        <v>1.941865</v>
-      </c>
-      <c r="E36">
-        <f>AVERAGE(RyanMean!E36,WesMean!E36)</f>
-        <v>1.7530300000000002E-2</v>
-      </c>
-      <c r="F36">
-        <f>AVERAGE(RyanMean!F36,WesMean!F36)</f>
-        <v>7.1965083333333332E-2</v>
-      </c>
-      <c r="G36">
-        <f>AVERAGE(RyanMean!G36,WesMean!G36)</f>
-        <v>3.0016499999999995E-2</v>
-      </c>
-      <c r="H36">
-        <f>AVERAGE(RyanMean!H36,WesMean!H36)</f>
-        <v>3.6678099999999998E-2</v>
-      </c>
-      <c r="I36">
-        <f>AVERAGE(RyanMean!I36,WesMean!I36)</f>
-        <v>3.6267416666666663E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37">
-        <v>100000</v>
-      </c>
-      <c r="C37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37">
-        <f>AVERAGE(RyanMean!D37,WesMean!D37)</f>
-        <v>1.48179E-2</v>
-      </c>
-      <c r="E37">
-        <f>AVERAGE(RyanMean!E37,WesMean!E37)</f>
-        <v>0.20782033333333333</v>
-      </c>
-      <c r="F37">
-        <f>AVERAGE(RyanMean!F37,WesMean!F37)</f>
-        <v>0.75133783333333337</v>
-      </c>
-      <c r="G37">
-        <f>AVERAGE(RyanMean!G37,WesMean!G37)</f>
-        <v>0.17336466666666667</v>
-      </c>
-      <c r="H37">
-        <f>AVERAGE(RyanMean!H37,WesMean!H37)</f>
-        <v>0.41863250000000007</v>
-      </c>
-      <c r="I37">
-        <f>AVERAGE(RyanMean!I37,WesMean!I37)</f>
-        <v>0.3844846666666667</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38">
-        <v>5000</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38">
-        <f>AVERAGE(RyanMean!D38,WesMean!D38)</f>
-        <v>0.75533549999999994</v>
-      </c>
-      <c r="E38">
-        <f>AVERAGE(RyanMean!E38,WesMean!E38)</f>
-        <v>8.0536433333333324E-3</v>
-      </c>
-      <c r="F38">
-        <f>AVERAGE(RyanMean!F38,WesMean!F38)</f>
-        <v>3.603046666666667E-2</v>
-      </c>
-      <c r="G38">
-        <f>AVERAGE(RyanMean!G38,WesMean!G38)</f>
-        <v>1.2812505000000002E-2</v>
-      </c>
-      <c r="H38">
-        <f>AVERAGE(RyanMean!H38,WesMean!H38)</f>
-        <v>1.6618183333333331E-2</v>
-      </c>
-      <c r="I38">
-        <f>AVERAGE(RyanMean!I38,WesMean!I38)</f>
-        <v>2.1617066666666667E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39">
-        <v>500000</v>
-      </c>
-      <c r="C39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39">
-        <f>AVERAGE(RyanMean!D39,WesMean!D39)</f>
-        <v>4921.09</v>
-      </c>
-      <c r="E39">
-        <f>AVERAGE(RyanMean!E39,WesMean!E39)</f>
-        <v>1.2440853333333333</v>
-      </c>
-      <c r="F39">
-        <f>AVERAGE(RyanMean!F39,WesMean!F39)</f>
-        <v>4.0764883333333337</v>
-      </c>
-      <c r="G39">
-        <f>AVERAGE(RyanMean!G39,WesMean!G39)</f>
-        <v>2.7809716666666668</v>
-      </c>
-      <c r="H39">
-        <f>AVERAGE(RyanMean!H39,WesMean!H39)</f>
-        <v>2.5378499999999997</v>
-      </c>
-      <c r="I39">
-        <f>AVERAGE(RyanMean!I39,WesMean!I39)</f>
-        <v>2.5764866666666664</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40">
-        <v>50000</v>
-      </c>
-      <c r="C40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40">
-        <f>AVERAGE(RyanMean!D40,WesMean!D40)</f>
-        <v>73.894549999999995</v>
-      </c>
-      <c r="E40">
-        <f>AVERAGE(RyanMean!E40,WesMean!E40)</f>
-        <v>0.10270243333333334</v>
-      </c>
-      <c r="F40">
-        <f>AVERAGE(RyanMean!F40,WesMean!F40)</f>
-        <v>0.40604750000000001</v>
-      </c>
-      <c r="G40">
-        <f>AVERAGE(RyanMean!G40,WesMean!G40)</f>
-        <v>0.21321216666666667</v>
-      </c>
-      <c r="H40">
-        <f>AVERAGE(RyanMean!H40,WesMean!H40)</f>
-        <v>0.20833083333333335</v>
-      </c>
-      <c r="I40">
-        <f>AVERAGE(RyanMean!I40,WesMean!I40)</f>
-        <v>0.25827</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41">
-        <v>500000</v>
-      </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41">
-        <f>AVERAGE(RyanMean!D41,WesMean!D41)</f>
-        <v>7515.2250000000004</v>
-      </c>
-      <c r="E41">
-        <f>AVERAGE(RyanMean!E41,WesMean!E41)</f>
-        <v>1.3316466666666666</v>
-      </c>
-      <c r="F41">
-        <f>AVERAGE(RyanMean!F41,WesMean!F41)</f>
-        <v>4.4477283333333331</v>
-      </c>
-      <c r="G41">
-        <f>AVERAGE(RyanMean!G41,WesMean!G41)</f>
-        <v>3.3530283333333335</v>
-      </c>
-      <c r="H41">
-        <f>AVERAGE(RyanMean!H41,WesMean!H41)</f>
-        <v>2.691278333333333</v>
-      </c>
-      <c r="I41">
-        <f>AVERAGE(RyanMean!I41,WesMean!I41)</f>
-        <v>3.1549699999999996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42">
-        <v>5000</v>
-      </c>
-      <c r="C42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42">
-        <f>AVERAGE(RyanMean!D42,WesMean!D42)</f>
-        <v>0.74891750000000001</v>
-      </c>
-      <c r="E42">
-        <f>AVERAGE(RyanMean!E42,WesMean!E42)</f>
-        <v>8.2846700000000009E-3</v>
-      </c>
-      <c r="F42">
-        <f>AVERAGE(RyanMean!F42,WesMean!F42)</f>
-        <v>3.6352566666666662E-2</v>
-      </c>
-      <c r="G42">
-        <f>AVERAGE(RyanMean!G42,WesMean!G42)</f>
-        <v>1.2585220000000001E-2</v>
-      </c>
-      <c r="H42">
-        <f>AVERAGE(RyanMean!H42,WesMean!H42)</f>
-        <v>1.7345616666666668E-2</v>
-      </c>
-      <c r="I42">
-        <f>AVERAGE(RyanMean!I42,WesMean!I42)</f>
-        <v>1.9759566666666666E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43">
-        <v>100000</v>
-      </c>
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43">
-        <f>AVERAGE(RyanMean!D43,WesMean!D43)</f>
-        <v>300.50049999999999</v>
-      </c>
-      <c r="E43">
-        <f>AVERAGE(RyanMean!E43,WesMean!E43)</f>
-        <v>0.22139566666666666</v>
-      </c>
-      <c r="F43">
-        <f>AVERAGE(RyanMean!F43,WesMean!F43)</f>
-        <v>0.84280299999999997</v>
-      </c>
-      <c r="G43">
-        <f>AVERAGE(RyanMean!G43,WesMean!G43)</f>
-        <v>0.47497966666666669</v>
-      </c>
-      <c r="H43">
-        <f>AVERAGE(RyanMean!H43,WesMean!H43)</f>
-        <v>0.45359566666666667</v>
-      </c>
-      <c r="I43">
-        <f>AVERAGE(RyanMean!I43,WesMean!I43)</f>
-        <v>0.55511583333333325</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44">
-        <v>5000</v>
-      </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44">
-        <f>AVERAGE(RyanMean!D44,WesMean!D44)</f>
-        <v>0.75785999999999998</v>
-      </c>
-      <c r="E44">
-        <f>AVERAGE(RyanMean!E44,WesMean!E44)</f>
-        <v>8.0168983333333346E-3</v>
-      </c>
-      <c r="F44">
-        <f>AVERAGE(RyanMean!F44,WesMean!F44)</f>
-        <v>3.6103716666666667E-2</v>
-      </c>
-      <c r="G44">
-        <f>AVERAGE(RyanMean!G44,WesMean!G44)</f>
-        <v>1.3104646666666667E-2</v>
-      </c>
-      <c r="H44">
-        <f>AVERAGE(RyanMean!H44,WesMean!H44)</f>
-        <v>1.6824250000000002E-2</v>
-      </c>
-      <c r="I44">
-        <f>AVERAGE(RyanMean!I44,WesMean!I44)</f>
-        <v>1.9876750000000002E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45">
-        <v>100000</v>
-      </c>
-      <c r="C45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45">
-        <f>AVERAGE(RyanMean!D45,WesMean!D45)</f>
-        <v>192.405</v>
-      </c>
-      <c r="E45">
-        <f>AVERAGE(RyanMean!E45,WesMean!E45)</f>
-        <v>0.21585266666666666</v>
-      </c>
-      <c r="F45">
-        <f>AVERAGE(RyanMean!F45,WesMean!F45)</f>
-        <v>0.78265899999999999</v>
-      </c>
-      <c r="G45">
-        <f>AVERAGE(RyanMean!G45,WesMean!G45)</f>
-        <v>0.45494133333333331</v>
-      </c>
-      <c r="H45">
-        <f>AVERAGE(RyanMean!H45,WesMean!H45)</f>
-        <v>0.43917250000000002</v>
-      </c>
-      <c r="I45">
-        <f>AVERAGE(RyanMean!I45,WesMean!I45)</f>
-        <v>0.45534483333333331</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46">
-        <v>1000000</v>
-      </c>
-      <c r="C46" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46">
-        <f>AVERAGE(RyanMean!D46,WesMean!D46)</f>
-        <v>30541.899999999998</v>
-      </c>
-      <c r="E46">
-        <f>AVERAGE(RyanMean!E46,WesMean!E46)</f>
-        <v>2.7525483333333329</v>
-      </c>
-      <c r="F46">
-        <f>AVERAGE(RyanMean!F46,WesMean!F46)</f>
-        <v>9.2505000000000006</v>
-      </c>
-      <c r="G46">
-        <f>AVERAGE(RyanMean!G46,WesMean!G46)</f>
-        <v>7.5871533333333332</v>
-      </c>
-      <c r="H46">
-        <f>AVERAGE(RyanMean!H46,WesMean!H46)</f>
-        <v>5.6705583333333331</v>
-      </c>
-      <c r="I46">
-        <f>AVERAGE(RyanMean!I46,WesMean!I46)</f>
-        <v>6.6786266666666663</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47">
-        <v>10000</v>
-      </c>
-      <c r="C47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47">
-        <f>AVERAGE(RyanMean!D47,WesMean!D47)</f>
-        <v>3.0380250000000002</v>
-      </c>
-      <c r="E47">
-        <f>AVERAGE(RyanMean!E47,WesMean!E47)</f>
-        <v>2.03553E-2</v>
-      </c>
-      <c r="F47">
-        <f>AVERAGE(RyanMean!F47,WesMean!F47)</f>
-        <v>7.6556700000000005E-2</v>
-      </c>
-      <c r="G47">
-        <f>AVERAGE(RyanMean!G47,WesMean!G47)</f>
-        <v>3.1396566666666667E-2</v>
-      </c>
-      <c r="H47">
-        <f>AVERAGE(RyanMean!H47,WesMean!H47)</f>
-        <v>4.3000916666666666E-2</v>
-      </c>
-      <c r="I47">
-        <f>AVERAGE(RyanMean!I47,WesMean!I47)</f>
-        <v>4.5159116666666665E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48">
-        <v>1000000</v>
-      </c>
-      <c r="C48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48">
-        <f>AVERAGE(RyanMean!D48,WesMean!D48)</f>
-        <v>31924.550000000003</v>
-      </c>
-      <c r="E48">
-        <f>AVERAGE(RyanMean!E48,WesMean!E48)</f>
-        <v>2.9536433333333338</v>
-      </c>
-      <c r="F48">
-        <f>AVERAGE(RyanMean!F48,WesMean!F48)</f>
-        <v>9.9439283333333321</v>
-      </c>
-      <c r="G48">
-        <f>AVERAGE(RyanMean!G48,WesMean!G48)</f>
-        <v>7.7543733333333336</v>
-      </c>
-      <c r="H48">
-        <f>AVERAGE(RyanMean!H48,WesMean!H48)</f>
-        <v>6.186868333333333</v>
-      </c>
-      <c r="I48">
-        <f>AVERAGE(RyanMean!I48,WesMean!I48)</f>
-        <v>7.270081666666667</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49">
-        <v>1000000</v>
-      </c>
-      <c r="C49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49">
-        <f>AVERAGE(RyanMean!D49,WesMean!D49)</f>
-        <v>0.16526299999999999</v>
-      </c>
-      <c r="E49">
-        <f>AVERAGE(RyanMean!E49,WesMean!E49)</f>
-        <v>2.6931633333333336</v>
-      </c>
-      <c r="F49">
-        <f>AVERAGE(RyanMean!F49,WesMean!F49)</f>
-        <v>8.9726533333333336</v>
-      </c>
-      <c r="G49">
-        <f>AVERAGE(RyanMean!G49,WesMean!G49)</f>
-        <v>2.071555</v>
-      </c>
-      <c r="H49">
-        <f>AVERAGE(RyanMean!H49,WesMean!H49)</f>
-        <v>6.2699316666666665</v>
-      </c>
-      <c r="I49">
-        <f>AVERAGE(RyanMean!I49,WesMean!I49)</f>
-        <v>5.1117983333333328</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50">
-        <v>500000</v>
-      </c>
-      <c r="C50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50">
-        <f>AVERAGE(RyanMean!D50,WesMean!D50)</f>
-        <v>8534.84</v>
-      </c>
-      <c r="E50">
-        <f>AVERAGE(RyanMean!E50,WesMean!E50)</f>
-        <v>1.2908183333333332</v>
-      </c>
-      <c r="F50">
-        <f>AVERAGE(RyanMean!F50,WesMean!F50)</f>
-        <v>4.4560950000000004</v>
-      </c>
-      <c r="G50">
-        <f>AVERAGE(RyanMean!G50,WesMean!G50)</f>
-        <v>3.0920199999999998</v>
-      </c>
-      <c r="H50">
-        <f>AVERAGE(RyanMean!H50,WesMean!H50)</f>
-        <v>2.5991866666666663</v>
-      </c>
-      <c r="I50">
-        <f>AVERAGE(RyanMean!I50,WesMean!I50)</f>
-        <v>3.2124183333333329</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51">
-        <v>100000</v>
-      </c>
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51">
-        <f>AVERAGE(RyanMean!D51,WesMean!D51)</f>
-        <v>304.96449999999999</v>
-      </c>
-      <c r="E51">
-        <f>AVERAGE(RyanMean!E51,WesMean!E51)</f>
-        <v>0.23016599999999998</v>
-      </c>
-      <c r="F51">
-        <f>AVERAGE(RyanMean!F51,WesMean!F51)</f>
-        <v>0.84875566666666658</v>
-      </c>
-      <c r="G51">
-        <f>AVERAGE(RyanMean!G51,WesMean!G51)</f>
-        <v>0.48878333333333335</v>
-      </c>
-      <c r="H51">
-        <f>AVERAGE(RyanMean!H51,WesMean!H51)</f>
-        <v>0.45825233333333337</v>
-      </c>
-      <c r="I51">
-        <f>AVERAGE(RyanMean!I51,WesMean!I51)</f>
-        <v>0.55623199999999995</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52">
-        <v>5000</v>
-      </c>
-      <c r="C52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52">
-        <f>AVERAGE(RyanMean!D52,WesMean!D52)</f>
-        <v>0.47659150000000006</v>
-      </c>
-      <c r="E52">
-        <f>AVERAGE(RyanMean!E52,WesMean!E52)</f>
-        <v>7.9373299999999994E-3</v>
-      </c>
-      <c r="F52">
-        <f>AVERAGE(RyanMean!F52,WesMean!F52)</f>
-        <v>3.5186050000000003E-2</v>
-      </c>
-      <c r="G52">
-        <f>AVERAGE(RyanMean!G52,WesMean!G52)</f>
-        <v>1.1447624999999999E-2</v>
-      </c>
-      <c r="H52">
-        <f>AVERAGE(RyanMean!H52,WesMean!H52)</f>
-        <v>1.5932483333333334E-2</v>
-      </c>
-      <c r="I52">
-        <f>AVERAGE(RyanMean!I52,WesMean!I52)</f>
-        <v>1.6620466666666663E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53">
-        <v>1000000</v>
-      </c>
-      <c r="C53" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53">
-        <f>AVERAGE(RyanMean!D53,WesMean!D53)</f>
-        <v>19952.150000000001</v>
-      </c>
-      <c r="E53">
-        <f>AVERAGE(RyanMean!E53,WesMean!E53)</f>
-        <v>2.6745133333333335</v>
-      </c>
-      <c r="F53">
-        <f>AVERAGE(RyanMean!F53,WesMean!F53)</f>
-        <v>8.5216849999999997</v>
-      </c>
-      <c r="G53">
-        <f>AVERAGE(RyanMean!G53,WesMean!G53)</f>
-        <v>6.28681</v>
-      </c>
-      <c r="H53">
-        <f>AVERAGE(RyanMean!H53,WesMean!H53)</f>
-        <v>5.6090933333333339</v>
-      </c>
-      <c r="I53">
-        <f>AVERAGE(RyanMean!I53,WesMean!I53)</f>
-        <v>5.5671533333333327</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54">
-        <v>5000</v>
-      </c>
-      <c r="C54" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54">
-        <f>AVERAGE(RyanMean!D54,WesMean!D54)</f>
-        <v>6.6322050000000002E-4</v>
-      </c>
-      <c r="E54">
-        <f>AVERAGE(RyanMean!E54,WesMean!E54)</f>
-        <v>7.4052966666666668E-3</v>
-      </c>
-      <c r="F54">
-        <f>AVERAGE(RyanMean!F54,WesMean!F54)</f>
-        <v>3.3081050000000001E-2</v>
-      </c>
-      <c r="G54">
-        <f>AVERAGE(RyanMean!G54,WesMean!G54)</f>
-        <v>6.2467216666666665E-3</v>
-      </c>
-      <c r="H54">
-        <f>AVERAGE(RyanMean!H54,WesMean!H54)</f>
-        <v>1.6007283333333334E-2</v>
-      </c>
-      <c r="I54">
-        <f>AVERAGE(RyanMean!I54,WesMean!I54)</f>
-        <v>1.3668128333333335E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55">
-        <v>100000</v>
-      </c>
-      <c r="C55" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55">
-        <f>AVERAGE(RyanMean!D55,WesMean!D55)</f>
-        <v>307.04950000000002</v>
-      </c>
-      <c r="E55">
-        <f>AVERAGE(RyanMean!E55,WesMean!E55)</f>
-        <v>0.22329283333333333</v>
-      </c>
-      <c r="F55">
-        <f>AVERAGE(RyanMean!F55,WesMean!F55)</f>
-        <v>0.84737950000000017</v>
-      </c>
-      <c r="G55">
-        <f>AVERAGE(RyanMean!G55,WesMean!G55)</f>
-        <v>0.49994466666666659</v>
-      </c>
-      <c r="H55">
-        <f>AVERAGE(RyanMean!H55,WesMean!H55)</f>
-        <v>0.49036516666666663</v>
-      </c>
-      <c r="I55">
-        <f>AVERAGE(RyanMean!I55,WesMean!I55)</f>
-        <v>0.56959300000000002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56">
-        <v>10000</v>
-      </c>
-      <c r="C56" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56">
-        <f>AVERAGE(RyanMean!D56,WesMean!D56)</f>
-        <v>3.04535</v>
-      </c>
-      <c r="E56">
-        <f>AVERAGE(RyanMean!E56,WesMean!E56)</f>
-        <v>1.9640949999999997E-2</v>
-      </c>
-      <c r="F56">
-        <f>AVERAGE(RyanMean!F56,WesMean!F56)</f>
-        <v>7.9478483333333322E-2</v>
-      </c>
-      <c r="G56">
-        <f>AVERAGE(RyanMean!G56,WesMean!G56)</f>
-        <v>2.9829383333333334E-2</v>
-      </c>
-      <c r="H56">
-        <f>AVERAGE(RyanMean!H56,WesMean!H56)</f>
-        <v>3.4127299999999999E-2</v>
-      </c>
-      <c r="I56">
-        <f>AVERAGE(RyanMean!I56,WesMean!I56)</f>
-        <v>4.3808050000000001E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57">
-        <v>10000</v>
-      </c>
-      <c r="C57" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57">
-        <f>AVERAGE(RyanMean!D57,WesMean!D57)</f>
-        <v>1.41344E-3</v>
-      </c>
-      <c r="E57">
-        <f>AVERAGE(RyanMean!E57,WesMean!E57)</f>
-        <v>1.69576E-2</v>
-      </c>
-      <c r="F57">
-        <f>AVERAGE(RyanMean!F57,WesMean!F57)</f>
-        <v>6.7889016666666663E-2</v>
-      </c>
-      <c r="G57">
-        <f>AVERAGE(RyanMean!G57,WesMean!G57)</f>
-        <v>1.3447901666666666E-2</v>
-      </c>
-      <c r="H57">
-        <f>AVERAGE(RyanMean!H57,WesMean!H57)</f>
-        <v>3.4099066666666664E-2</v>
-      </c>
-      <c r="I57">
-        <f>AVERAGE(RyanMean!I57,WesMean!I57)</f>
-        <v>3.2859733333333335E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>15</v>
-      </c>
-      <c r="B58">
-        <v>500000</v>
-      </c>
-      <c r="C58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58">
-        <f>AVERAGE(RyanMean!D58,WesMean!D58)</f>
-        <v>7.1408050000000001E-2</v>
-      </c>
-      <c r="E58">
-        <f>AVERAGE(RyanMean!E58,WesMean!E58)</f>
-        <v>1.2305753333333334</v>
-      </c>
-      <c r="F58">
-        <f>AVERAGE(RyanMean!F58,WesMean!F58)</f>
-        <v>3.9300583333333332</v>
-      </c>
-      <c r="G58">
-        <f>AVERAGE(RyanMean!G58,WesMean!G58)</f>
-        <v>0.96368750000000003</v>
-      </c>
-      <c r="H58">
-        <f>AVERAGE(RyanMean!H58,WesMean!H58)</f>
-        <v>2.5045116666666667</v>
-      </c>
-      <c r="I58">
-        <f>AVERAGE(RyanMean!I58,WesMean!I58)</f>
-        <v>2.2347483333333331</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59">
-        <v>50000</v>
-      </c>
-      <c r="C59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59">
-        <f>AVERAGE(RyanMean!D59,WesMean!D59)</f>
-        <v>76.630499999999998</v>
-      </c>
-      <c r="E59">
-        <f>AVERAGE(RyanMean!E59,WesMean!E59)</f>
-        <v>0.10607844999999999</v>
-      </c>
-      <c r="F59">
-        <f>AVERAGE(RyanMean!F59,WesMean!F59)</f>
-        <v>0.41228883333333333</v>
-      </c>
-      <c r="G59">
-        <f>AVERAGE(RyanMean!G59,WesMean!G59)</f>
-        <v>0.2138835</v>
-      </c>
-      <c r="H59">
-        <f>AVERAGE(RyanMean!H59,WesMean!H59)</f>
-        <v>0.21309899999999998</v>
-      </c>
-      <c r="I59">
-        <f>AVERAGE(RyanMean!I59,WesMean!I59)</f>
-        <v>0.2609475</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60">
-        <v>50000</v>
-      </c>
-      <c r="C60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60">
-        <f>AVERAGE(RyanMean!D60,WesMean!D60)</f>
-        <v>49.581450000000004</v>
-      </c>
-      <c r="E60">
-        <f>AVERAGE(RyanMean!E60,WesMean!E60)</f>
-        <v>0.10364705</v>
-      </c>
-      <c r="F60">
-        <f>AVERAGE(RyanMean!F60,WesMean!F60)</f>
-        <v>0.37648733333333334</v>
-      </c>
-      <c r="G60">
-        <f>AVERAGE(RyanMean!G60,WesMean!G60)</f>
-        <v>0.19994999999999999</v>
-      </c>
-      <c r="H60">
-        <f>AVERAGE(RyanMean!H60,WesMean!H60)</f>
-        <v>0.21136983333333337</v>
-      </c>
-      <c r="I60">
-        <f>AVERAGE(RyanMean!I60,WesMean!I60)</f>
-        <v>0.21379233333333331</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61">
-        <v>1000000</v>
-      </c>
-      <c r="C61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61">
-        <f>AVERAGE(RyanMean!D61,WesMean!D61)</f>
-        <v>30755.95</v>
-      </c>
-      <c r="E61">
-        <f>AVERAGE(RyanMean!E61,WesMean!E61)</f>
-        <v>2.6959233333333334</v>
-      </c>
-      <c r="F61">
-        <f>AVERAGE(RyanMean!F61,WesMean!F61)</f>
-        <v>9.2105449999999998</v>
-      </c>
-      <c r="G61">
-        <f>AVERAGE(RyanMean!G61,WesMean!G61)</f>
-        <v>7.2245033333333328</v>
-      </c>
-      <c r="H61">
-        <f>AVERAGE(RyanMean!H61,WesMean!H61)</f>
-        <v>5.739863333333334</v>
-      </c>
-      <c r="I61">
-        <f>AVERAGE(RyanMean!I61,WesMean!I61)</f>
-        <v>6.7698233333333349</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/AllData.xlsx
+++ b/data/AllData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanschaefer/Documents/SMU/2022Spring/CS3353/Projects/Project2/Program2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A90AE33-E4AF-144A-9438-BCB5284BEDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2938B475-D2E1-4343-8118-B0CB085DC241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" activeTab="7" xr2:uid="{0351E3D1-8E73-2641-852B-06D6734494C5}"/>
   </bookViews>
@@ -7947,7 +7947,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7995,19 +7995,19 @@
         <v>795.005</v>
       </c>
       <c r="E2">
-        <v>0.165051</v>
+        <v>0.15535299999999999</v>
       </c>
       <c r="F2">
-        <v>2.11687</v>
+        <v>2.0421</v>
       </c>
       <c r="G2">
-        <v>0.26561499999999999</v>
+        <v>0.25205899999999998</v>
       </c>
       <c r="H2">
-        <v>0.67225900000000005</v>
+        <v>0.66269599999999995</v>
       </c>
       <c r="I2">
-        <v>0.74547300000000005</v>
+        <v>0.69295600000000002</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -8024,19 +8024,19 @@
         <v>3164.07</v>
       </c>
       <c r="E3">
-        <v>0.326764</v>
+        <v>0.31470700000000001</v>
       </c>
       <c r="F3">
-        <v>4.2730800000000002</v>
+        <v>4.12174</v>
       </c>
       <c r="G3">
-        <v>0.592526</v>
+        <v>0.56057999999999997</v>
       </c>
       <c r="H3">
-        <v>1.4530099999999999</v>
+        <v>1.3937900000000001</v>
       </c>
       <c r="I3">
-        <v>1.58412</v>
+        <v>1.4574800000000001</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -8053,19 +8053,19 @@
         <v>31.5688</v>
       </c>
       <c r="E4">
-        <v>3.05986E-2</v>
+        <v>2.8234700000000001E-2</v>
       </c>
       <c r="F4">
-        <v>0.41756300000000002</v>
+        <v>0.39001999999999998</v>
       </c>
       <c r="G4">
-        <v>4.0778200000000001E-2</v>
+        <v>3.9381899999999997E-2</v>
       </c>
       <c r="H4">
-        <v>0.12452299999999999</v>
+        <v>0.121087</v>
       </c>
       <c r="I4">
-        <v>0.13062499999999999</v>
+        <v>0.129882</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -8082,19 +8082,19 @@
         <v>0.33203300000000002</v>
       </c>
       <c r="E5">
-        <v>2.40456E-3</v>
+        <v>2.7348099999999998E-3</v>
       </c>
       <c r="F5">
-        <v>3.4877100000000001E-2</v>
+        <v>3.9225500000000003E-2</v>
       </c>
       <c r="G5">
-        <v>2.5823299999999999E-3</v>
+        <v>2.5983899999999999E-3</v>
       </c>
       <c r="H5">
-        <v>9.6160299999999994E-3</v>
+        <v>9.3229100000000002E-3</v>
       </c>
       <c r="I5">
-        <v>1.03815E-2</v>
+        <v>9.9298400000000005E-3</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -8111,19 +8111,19 @@
         <v>6.9052999999999996E-4</v>
       </c>
       <c r="E6">
-        <v>1.03074E-2</v>
+        <v>9.3808399999999997E-3</v>
       </c>
       <c r="F6">
-        <v>0.197744</v>
+        <v>0.194912</v>
       </c>
       <c r="G6">
-        <v>5.0589299999999997E-3</v>
+        <v>4.3192700000000001E-3</v>
       </c>
       <c r="H6">
-        <v>5.1644299999999997E-2</v>
+        <v>4.7686399999999997E-2</v>
       </c>
       <c r="I6">
-        <v>5.0125500000000003E-2</v>
+        <v>4.7938700000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -8140,19 +8140,19 @@
         <v>7.85778</v>
       </c>
       <c r="E7">
-        <v>1.5162699999999999E-2</v>
+        <v>1.4194099999999999E-2</v>
       </c>
       <c r="F7">
-        <v>0.20236399999999999</v>
+        <v>0.19201299999999999</v>
       </c>
       <c r="G7">
-        <v>1.8773600000000001E-2</v>
+        <v>1.7380900000000001E-2</v>
       </c>
       <c r="H7">
-        <v>6.0012700000000002E-2</v>
+        <v>5.3352999999999998E-2</v>
       </c>
       <c r="I7">
-        <v>6.1924800000000002E-2</v>
+        <v>5.4749600000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -8169,19 +8169,19 @@
         <v>8.1240099999999996E-2</v>
       </c>
       <c r="E8">
-        <v>1.39387E-3</v>
+        <v>1.3636399999999999E-3</v>
       </c>
       <c r="F8">
-        <v>1.9300999999999999E-2</v>
+        <v>1.9212699999999999E-2</v>
       </c>
       <c r="G8">
-        <v>1.3264500000000001E-3</v>
+        <v>1.3821700000000001E-3</v>
       </c>
       <c r="H8">
-        <v>4.9550000000000002E-3</v>
+        <v>5.0067599999999999E-3</v>
       </c>
       <c r="I8">
-        <v>5.0564199999999998E-3</v>
+        <v>5.2006700000000001E-3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -8198,19 +8198,19 @@
         <v>7.1313599999999998E-3</v>
       </c>
       <c r="E9">
-        <v>9.5852300000000001E-2</v>
+        <v>0.105948</v>
       </c>
       <c r="F9">
-        <v>2.02013</v>
+        <v>1.94997</v>
       </c>
       <c r="G9">
-        <v>6.5695799999999999E-2</v>
+        <v>5.9808399999999998E-2</v>
       </c>
       <c r="H9">
-        <v>0.64501200000000003</v>
+        <v>0.63018099999999999</v>
       </c>
       <c r="I9">
-        <v>0.59772899999999995</v>
+        <v>0.57986599999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -8227,19 +8227,19 @@
         <v>126.52</v>
       </c>
       <c r="E10">
-        <v>0.116192</v>
+        <v>0.12218999999999999</v>
       </c>
       <c r="F10">
-        <v>2.06426</v>
+        <v>2.0507</v>
       </c>
       <c r="G10">
-        <v>0.137265</v>
+        <v>0.131656</v>
       </c>
       <c r="H10">
-        <v>0.63992099999999996</v>
+        <v>0.652559</v>
       </c>
       <c r="I10">
-        <v>0.64383599999999996</v>
+        <v>0.62493299999999996</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -8256,19 +8256,19 @@
         <v>4.7530200000000002E-2</v>
       </c>
       <c r="E11">
-        <v>1.9989999999999999E-3</v>
+        <v>2.2559799999999999E-3</v>
       </c>
       <c r="F11">
-        <v>3.7247099999999998E-2</v>
+        <v>3.73123E-2</v>
       </c>
       <c r="G11">
-        <v>1.4490600000000001E-3</v>
+        <v>1.47073E-3</v>
       </c>
       <c r="H11">
-        <v>9.1903999999999996E-3</v>
+        <v>9.9742100000000007E-3</v>
       </c>
       <c r="I11">
-        <v>9.6255500000000001E-3</v>
+        <v>9.5043200000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -8285,19 +8285,19 @@
         <v>3133.2</v>
       </c>
       <c r="E12">
-        <v>0.31941900000000001</v>
+        <v>0.33107799999999998</v>
       </c>
       <c r="F12">
-        <v>4.3305400000000001</v>
+        <v>4.2668900000000001</v>
       </c>
       <c r="G12">
-        <v>0.59171799999999997</v>
+        <v>0.59418700000000002</v>
       </c>
       <c r="H12">
-        <v>1.43119</v>
+        <v>1.4261699999999999</v>
       </c>
       <c r="I12">
-        <v>1.55271</v>
+        <v>1.54558</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -8314,19 +8314,19 @@
         <v>3162.43</v>
       </c>
       <c r="E13">
-        <v>0.342111</v>
+        <v>0.32188</v>
       </c>
       <c r="F13">
-        <v>4.3177300000000001</v>
+        <v>4.2594900000000004</v>
       </c>
       <c r="G13">
-        <v>0.59507500000000002</v>
+        <v>0.60575699999999999</v>
       </c>
       <c r="H13">
-        <v>1.4773000000000001</v>
+        <v>1.4604699999999999</v>
       </c>
       <c r="I13">
-        <v>1.5437099999999999</v>
+        <v>1.54145</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -8343,19 +8343,19 @@
         <v>7.9270699999999996</v>
       </c>
       <c r="E14">
-        <v>1.4435E-2</v>
+        <v>1.51066E-2</v>
       </c>
       <c r="F14">
-        <v>0.21016000000000001</v>
+        <v>0.20639299999999999</v>
       </c>
       <c r="G14">
-        <v>1.9980500000000002E-2</v>
+        <v>1.9238999999999999E-2</v>
       </c>
       <c r="H14">
-        <v>6.3494800000000004E-2</v>
+        <v>5.2444999999999999E-2</v>
       </c>
       <c r="I14">
-        <v>6.4606999999999998E-2</v>
+        <v>5.8611000000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -8372,19 +8372,19 @@
         <v>1.3396699999999999E-2</v>
       </c>
       <c r="E15">
-        <v>1.32197E-3</v>
+        <v>1.2197899999999999E-3</v>
       </c>
       <c r="F15">
-        <v>2.04084E-2</v>
+        <v>1.8890400000000002E-2</v>
       </c>
       <c r="G15">
-        <v>6.6454999999999997E-4</v>
+        <v>6.7681000000000002E-4</v>
       </c>
       <c r="H15">
-        <v>4.9113500000000001E-3</v>
+        <v>4.65301E-3</v>
       </c>
       <c r="I15">
-        <v>4.1464600000000002E-3</v>
+        <v>4.6238700000000004E-3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -8401,19 +8401,19 @@
         <v>6.1600000000000007E-5</v>
       </c>
       <c r="E16">
-        <v>1.0147400000000001E-3</v>
+        <v>1.0476400000000001E-3</v>
       </c>
       <c r="F16">
-        <v>1.66772E-2</v>
+        <v>1.8752100000000001E-2</v>
       </c>
       <c r="G16">
-        <v>3.4204999999999999E-4</v>
+        <v>4.1240999999999999E-4</v>
       </c>
       <c r="H16">
-        <v>4.5419099999999997E-3</v>
+        <v>4.4908500000000002E-3</v>
       </c>
       <c r="I16">
-        <v>4.0496200000000003E-3</v>
+        <v>4.26466E-3</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -8430,19 +8430,19 @@
         <v>31.6373</v>
       </c>
       <c r="E17">
-        <v>2.9557400000000001E-2</v>
+        <v>2.8473999999999999E-2</v>
       </c>
       <c r="F17">
-        <v>0.41440300000000002</v>
+        <v>0.41031800000000002</v>
       </c>
       <c r="G17">
-        <v>4.1880100000000003E-2</v>
+        <v>4.2572600000000002E-2</v>
       </c>
       <c r="H17">
-        <v>0.125143</v>
+        <v>0.12361999999999999</v>
       </c>
       <c r="I17">
-        <v>0.13178000000000001</v>
+        <v>0.130387</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -8459,19 +8459,19 @@
         <v>1.26396</v>
       </c>
       <c r="E18">
-        <v>1.18812E-2</v>
+        <v>1.18601E-2</v>
       </c>
       <c r="F18">
-        <v>0.20527599999999999</v>
+        <v>0.20113800000000001</v>
       </c>
       <c r="G18">
-        <v>1.0177800000000001E-2</v>
+        <v>9.01625E-3</v>
       </c>
       <c r="H18">
-        <v>5.1373000000000002E-2</v>
+        <v>5.0375299999999998E-2</v>
       </c>
       <c r="I18">
-        <v>5.3546400000000001E-2</v>
+        <v>5.2273699999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -8488,19 +8488,19 @@
         <v>0.32368000000000002</v>
       </c>
       <c r="E19">
-        <v>2.91363E-3</v>
+        <v>2.8006300000000001E-3</v>
       </c>
       <c r="F19">
-        <v>3.9622900000000003E-2</v>
+        <v>3.8909100000000002E-2</v>
       </c>
       <c r="G19">
-        <v>2.8059299999999999E-3</v>
+        <v>2.8038799999999999E-3</v>
       </c>
       <c r="H19">
-        <v>1.047E-2</v>
+        <v>1.02316E-2</v>
       </c>
       <c r="I19">
-        <v>1.08261E-2</v>
+        <v>1.09193E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -8517,19 +8517,19 @@
         <v>786.74099999999999</v>
       </c>
       <c r="E20">
-        <v>0.16625899999999999</v>
+        <v>0.161444</v>
       </c>
       <c r="F20">
-        <v>2.0826600000000002</v>
+        <v>2.0417399999999999</v>
       </c>
       <c r="G20">
-        <v>0.27619100000000002</v>
+        <v>0.26161699999999999</v>
       </c>
       <c r="H20">
-        <v>0.68597699999999995</v>
+        <v>0.71956299999999995</v>
       </c>
       <c r="I20">
-        <v>0.723464</v>
+        <v>1.2561</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -8546,19 +8546,19 @@
         <v>776.09199999999998</v>
       </c>
       <c r="E21">
-        <v>0.15903700000000001</v>
+        <v>0.162387</v>
       </c>
       <c r="F21">
-        <v>2.0506099999999998</v>
+        <v>2.2934600000000001</v>
       </c>
       <c r="G21">
-        <v>0.25500299999999998</v>
+        <v>0.36491600000000002</v>
       </c>
       <c r="H21">
-        <v>0.68750299999999998</v>
+        <v>1.331</v>
       </c>
       <c r="I21">
-        <v>0.71473900000000001</v>
+        <v>1.30308</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -8575,19 +8575,19 @@
         <v>1.22738E-2</v>
       </c>
       <c r="E22">
-        <v>0.19862099999999999</v>
+        <v>0.299593</v>
       </c>
       <c r="F22">
-        <v>4.0315300000000001</v>
+        <v>5.5351400000000002</v>
       </c>
       <c r="G22">
-        <v>0.132546</v>
+        <v>0.13272300000000001</v>
       </c>
       <c r="H22">
-        <v>1.2762800000000001</v>
+        <v>1.44008</v>
       </c>
       <c r="I22">
-        <v>1.2550399999999999</v>
+        <v>1.3505400000000001</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -8604,19 +8604,19 @@
         <v>7.4512999999999996E-2</v>
       </c>
       <c r="E23">
-        <v>1.28955E-3</v>
+        <v>1.4303E-3</v>
       </c>
       <c r="F23">
-        <v>1.8070599999999999E-2</v>
+        <v>2.06363E-2</v>
       </c>
       <c r="G23">
-        <v>1.10384E-3</v>
+        <v>1.4109599999999999E-3</v>
       </c>
       <c r="H23">
-        <v>4.4341900000000002E-3</v>
+        <v>6.0420400000000003E-3</v>
       </c>
       <c r="I23">
-        <v>4.7744600000000003E-3</v>
+        <v>5.9032299999999998E-3</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -8633,19 +8633,19 @@
         <v>31.033899999999999</v>
       </c>
       <c r="E24">
-        <v>2.8293200000000001E-2</v>
+        <v>2.9090600000000001E-2</v>
       </c>
       <c r="F24">
-        <v>0.400121</v>
+        <v>0.43712499999999999</v>
       </c>
       <c r="G24">
-        <v>4.6334699999999999E-2</v>
+        <v>4.7062199999999998E-2</v>
       </c>
       <c r="H24">
-        <v>0.11598899999999999</v>
+        <v>0.121381</v>
       </c>
       <c r="I24">
-        <v>0.14238000000000001</v>
+        <v>0.14025699999999999</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -8662,19 +8662,19 @@
         <v>7.7518200000000004</v>
       </c>
       <c r="E25">
-        <v>1.53321E-2</v>
+        <v>1.52757E-2</v>
       </c>
       <c r="F25">
-        <v>0.201043</v>
+        <v>0.209061</v>
       </c>
       <c r="G25">
-        <v>1.8745299999999999E-2</v>
+        <v>2.0033100000000002E-2</v>
       </c>
       <c r="H25">
-        <v>6.3898300000000005E-2</v>
+        <v>6.1295500000000003E-2</v>
       </c>
       <c r="I25">
-        <v>6.7371E-2</v>
+        <v>6.6376699999999997E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -8691,19 +8691,19 @@
         <v>0.31813000000000002</v>
       </c>
       <c r="E26">
-        <v>2.8908100000000002E-3</v>
+        <v>3.17622E-3</v>
       </c>
       <c r="F26">
-        <v>4.02507E-2</v>
+        <v>4.3198100000000003E-2</v>
       </c>
       <c r="G26">
-        <v>2.9345600000000001E-3</v>
+        <v>3.1267399999999998E-3</v>
       </c>
       <c r="H26">
-        <v>1.05509E-2</v>
+        <v>1.15423E-2</v>
       </c>
       <c r="I26">
-        <v>1.11901E-2</v>
+        <v>1.19138E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -8720,19 +8720,19 @@
         <v>1.4808899999999999E-3</v>
       </c>
       <c r="E27">
-        <v>2.1222000000000001E-2</v>
+        <v>2.3644399999999999E-2</v>
       </c>
       <c r="F27">
-        <v>0.38843800000000001</v>
+        <v>0.42903000000000002</v>
       </c>
       <c r="G27">
-        <v>9.4358800000000007E-3</v>
+        <v>1.19877E-2</v>
       </c>
       <c r="H27">
-        <v>0.111345</v>
+        <v>0.11698</v>
       </c>
       <c r="I27">
-        <v>0.10641200000000001</v>
+        <v>0.121638</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -8749,19 +8749,19 @@
         <v>5.0070800000000002</v>
       </c>
       <c r="E28">
-        <v>2.5114399999999999E-2</v>
+        <v>2.8353799999999998E-2</v>
       </c>
       <c r="F28">
-        <v>0.40586800000000001</v>
+        <v>0.48288799999999998</v>
       </c>
       <c r="G28">
-        <v>2.3200100000000001E-2</v>
+        <v>2.2399700000000002E-2</v>
       </c>
       <c r="H28">
-        <v>0.11279400000000001</v>
+        <v>0.12753100000000001</v>
       </c>
       <c r="I28">
-        <v>0.10789600000000001</v>
+        <v>0.131491</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -8778,19 +8778,19 @@
         <v>1.4814E-4</v>
       </c>
       <c r="E29">
-        <v>1.84614E-3</v>
+        <v>1.7146799999999999E-3</v>
       </c>
       <c r="F29">
-        <v>3.9646300000000002E-2</v>
+        <v>3.9264E-2</v>
       </c>
       <c r="G29">
-        <v>8.8652999999999996E-4</v>
+        <v>7.8133E-4</v>
       </c>
       <c r="H29">
-        <v>9.3352999999999995E-3</v>
+        <v>9.6725800000000001E-3</v>
       </c>
       <c r="I29">
-        <v>9.5076799999999993E-3</v>
+        <v>8.8682799999999992E-3</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -8807,19 +8807,19 @@
         <v>8.4979700000000005E-2</v>
       </c>
       <c r="E30">
-        <v>1.35574E-3</v>
+        <v>1.3798700000000001E-3</v>
       </c>
       <c r="F30">
-        <v>2.03961E-2</v>
+        <v>2.12065E-2</v>
       </c>
       <c r="G30">
-        <v>1.37257E-3</v>
+        <v>1.71791E-3</v>
       </c>
       <c r="H30">
-        <v>5.18506E-3</v>
+        <v>6.1847600000000001E-3</v>
       </c>
       <c r="I30">
-        <v>5.5666400000000003E-3</v>
+        <v>6.5436399999999999E-3</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -8836,19 +8836,19 @@
         <v>496.10300000000001</v>
       </c>
       <c r="E31">
-        <v>0.249002</v>
+        <v>0.30189700000000003</v>
       </c>
       <c r="F31">
-        <v>4.0824999999999996</v>
+        <v>5.1182999999999996</v>
       </c>
       <c r="G31">
-        <v>0.28129700000000002</v>
+        <v>0.30507000000000001</v>
       </c>
       <c r="H31">
-        <v>1.39514</v>
+        <v>1.49969</v>
       </c>
       <c r="I31">
-        <v>1.3713200000000001</v>
+        <v>1.4848300000000001</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -8865,19 +8865,19 @@
         <v>5.3464699999999999E-3</v>
       </c>
       <c r="E32">
-        <v>7.3879600000000004E-2</v>
+        <v>9.2424699999999999E-2</v>
       </c>
       <c r="F32">
-        <v>0.263878</v>
+        <v>0.34528700000000001</v>
       </c>
       <c r="G32">
-        <v>5.7227E-2</v>
+        <v>7.0829100000000006E-2</v>
       </c>
       <c r="H32">
-        <v>0.13653299999999999</v>
+        <v>0.155581</v>
       </c>
       <c r="I32">
-        <v>0.12684100000000001</v>
+        <v>0.13433500000000001</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -8894,19 +8894,19 @@
         <v>5145.12</v>
       </c>
       <c r="E33">
-        <v>0.979437</v>
+        <v>1.08945</v>
       </c>
       <c r="F33">
-        <v>3.3090600000000001</v>
+        <v>3.70431</v>
       </c>
       <c r="G33">
-        <v>2.2229000000000001</v>
+        <v>2.3791000000000002</v>
       </c>
       <c r="H33">
-        <v>2.0552700000000002</v>
+        <v>2.06609</v>
       </c>
       <c r="I33">
-        <v>2.2857799999999999</v>
+        <v>2.4900799999999998</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -8923,19 +8923,19 @@
         <v>51.053199999999997</v>
       </c>
       <c r="E34">
-        <v>7.5431300000000007E-2</v>
+        <v>8.6214200000000005E-2</v>
       </c>
       <c r="F34">
-        <v>0.29565200000000003</v>
+        <v>0.33568500000000001</v>
       </c>
       <c r="G34">
-        <v>0.16370199999999999</v>
+        <v>0.141712</v>
       </c>
       <c r="H34">
-        <v>0.16297800000000001</v>
+        <v>0.167851</v>
       </c>
       <c r="I34">
-        <v>0.179537</v>
+        <v>0.19111800000000001</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -8952,19 +8952,19 @@
         <v>2.0404599999999999</v>
       </c>
       <c r="E35">
-        <v>1.2925000000000001E-2</v>
+        <v>1.43547E-2</v>
       </c>
       <c r="F35">
-        <v>5.7235300000000003E-2</v>
+        <v>6.30106E-2</v>
       </c>
       <c r="G35">
-        <v>2.0406199999999999E-2</v>
+        <v>2.4320100000000001E-2</v>
       </c>
       <c r="H35">
-        <v>2.68259E-2</v>
+        <v>2.8704199999999999E-2</v>
       </c>
       <c r="I35">
-        <v>3.1734400000000003E-2</v>
+        <v>3.4122399999999997E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -8981,19 +8981,19 @@
         <v>1.29043</v>
       </c>
       <c r="E36">
-        <v>1.34667E-2</v>
+        <v>1.5569599999999999E-2</v>
       </c>
       <c r="F36">
-        <v>5.5631899999999998E-2</v>
+        <v>6.0035499999999999E-2</v>
       </c>
       <c r="G36">
-        <v>2.2979699999999999E-2</v>
+        <v>2.2772500000000001E-2</v>
       </c>
       <c r="H36">
-        <v>2.7514899999999998E-2</v>
+        <v>3.01161E-2</v>
       </c>
       <c r="I36">
-        <v>2.6050400000000001E-2</v>
+        <v>2.7571200000000001E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -9010,19 +9010,19 @@
         <v>1.1099299999999999E-2</v>
       </c>
       <c r="E37">
-        <v>0.16852600000000001</v>
+        <v>0.174655</v>
       </c>
       <c r="F37">
-        <v>0.56367699999999998</v>
+        <v>0.59262300000000001</v>
       </c>
       <c r="G37">
-        <v>0.11757099999999999</v>
+        <v>0.13728299999999999</v>
       </c>
       <c r="H37">
-        <v>0.32720199999999999</v>
+        <v>0.32407000000000002</v>
       </c>
       <c r="I37">
-        <v>0.27328799999999998</v>
+        <v>0.284466</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -9039,19 +9039,19 @@
         <v>0.51089099999999998</v>
       </c>
       <c r="E38">
-        <v>6.4966800000000003E-3</v>
+        <v>6.2073500000000004E-3</v>
       </c>
       <c r="F38">
-        <v>2.6112400000000001E-2</v>
+        <v>2.83535E-2</v>
       </c>
       <c r="G38">
-        <v>8.9728599999999992E-3</v>
+        <v>9.7768600000000001E-3</v>
       </c>
       <c r="H38">
-        <v>1.20378E-2</v>
+        <v>1.26088E-2</v>
       </c>
       <c r="I38">
-        <v>1.45148E-2</v>
+        <v>1.53043E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -9068,19 +9068,19 @@
         <v>3289.54</v>
       </c>
       <c r="E39">
-        <v>0.93865900000000002</v>
+        <v>1.0122599999999999</v>
       </c>
       <c r="F39">
-        <v>3.0265599999999999</v>
+        <v>3.2511399999999999</v>
       </c>
       <c r="G39">
-        <v>2.1077699999999999</v>
+        <v>2.2162999999999999</v>
       </c>
       <c r="H39">
-        <v>1.9685699999999999</v>
+        <v>2.05585</v>
       </c>
       <c r="I39">
-        <v>1.8887</v>
+        <v>1.9988600000000001</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -9097,19 +9097,19 @@
         <v>51.627000000000002</v>
       </c>
       <c r="E40">
-        <v>7.9485100000000003E-2</v>
+        <v>8.3483100000000005E-2</v>
       </c>
       <c r="F40">
-        <v>0.30915999999999999</v>
+        <v>0.33196599999999998</v>
       </c>
       <c r="G40">
-        <v>0.15653800000000001</v>
+        <v>0.16795499999999999</v>
       </c>
       <c r="H40">
-        <v>0.165524</v>
+        <v>0.14887700000000001</v>
       </c>
       <c r="I40">
-        <v>0.18918099999999999</v>
+        <v>0.19259999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -9126,19 +9126,19 @@
         <v>5142.6000000000004</v>
       </c>
       <c r="E41">
-        <v>1.0122800000000001</v>
+        <v>1.0262100000000001</v>
       </c>
       <c r="F41">
-        <v>3.2950599999999999</v>
+        <v>3.44326</v>
       </c>
       <c r="G41">
-        <v>2.5190600000000001</v>
+        <v>2.5610200000000001</v>
       </c>
       <c r="H41">
-        <v>2.1441400000000002</v>
+        <v>2.2020200000000001</v>
       </c>
       <c r="I41">
-        <v>2.30078</v>
+        <v>2.3426399999999998</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -9155,19 +9155,19 @@
         <v>0.51661699999999999</v>
       </c>
       <c r="E42">
-        <v>6.5391700000000004E-3</v>
+        <v>6.3139700000000003E-3</v>
       </c>
       <c r="F42">
-        <v>2.8796599999999999E-2</v>
+        <v>3.0033000000000001E-2</v>
       </c>
       <c r="G42">
-        <v>8.4347099999999998E-3</v>
+        <v>9.9641599999999997E-3</v>
       </c>
       <c r="H42">
-        <v>1.1032800000000001E-2</v>
+        <v>1.2685E-2</v>
       </c>
       <c r="I42">
-        <v>1.41131E-2</v>
+        <v>1.51682E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -9184,19 +9184,19 @@
         <v>205.69800000000001</v>
       </c>
       <c r="E43">
-        <v>0.168762</v>
+        <v>0.17419499999999999</v>
       </c>
       <c r="F43">
-        <v>0.63215200000000005</v>
+        <v>0.66207000000000005</v>
       </c>
       <c r="G43">
-        <v>0.36606899999999998</v>
+        <v>0.37739699999999998</v>
       </c>
       <c r="H43">
-        <v>0.34577400000000003</v>
+        <v>0.34479300000000002</v>
       </c>
       <c r="I43">
-        <v>0.391712</v>
+        <v>0.41333999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -9213,19 +9213,19 @@
         <v>0.52120100000000003</v>
       </c>
       <c r="E44">
-        <v>6.4210100000000004E-3</v>
+        <v>6.7084500000000004E-3</v>
       </c>
       <c r="F44">
-        <v>2.5394699999999999E-2</v>
+        <v>3.0399800000000001E-2</v>
       </c>
       <c r="G44">
-        <v>9.7746799999999991E-3</v>
+        <v>1.03064E-2</v>
       </c>
       <c r="H44">
-        <v>1.2598E-2</v>
+        <v>1.33969E-2</v>
       </c>
       <c r="I44">
-        <v>1.4495299999999999E-2</v>
+        <v>1.58738E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -9242,19 +9242,19 @@
         <v>131.47800000000001</v>
       </c>
       <c r="E45">
-        <v>0.16656499999999999</v>
+        <v>0.180807</v>
       </c>
       <c r="F45">
-        <v>0.58031100000000002</v>
+        <v>0.64985400000000004</v>
       </c>
       <c r="G45">
-        <v>0.334957</v>
+        <v>0.35919200000000001</v>
       </c>
       <c r="H45">
-        <v>0.33161299999999999</v>
+        <v>0.36255300000000001</v>
       </c>
       <c r="I45">
-        <v>0.32746599999999998</v>
+        <v>0.3483</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -9271,19 +9271,19 @@
         <v>20958.599999999999</v>
       </c>
       <c r="E46">
-        <v>2.1400600000000001</v>
+        <v>2.2438099999999999</v>
       </c>
       <c r="F46">
-        <v>6.8582900000000002</v>
+        <v>7.2754599999999998</v>
       </c>
       <c r="G46">
-        <v>5.6643400000000002</v>
+        <v>5.7510000000000003</v>
       </c>
       <c r="H46">
-        <v>4.6639200000000001</v>
+        <v>4.3754900000000001</v>
       </c>
       <c r="I46">
-        <v>4.8375300000000001</v>
+        <v>4.9918300000000002</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -9300,19 +9300,19 @@
         <v>2.05775</v>
       </c>
       <c r="E47">
-        <v>1.6114E-2</v>
+        <v>1.5019299999999999E-2</v>
       </c>
       <c r="F47">
-        <v>5.4460700000000001E-2</v>
+        <v>5.5468000000000003E-2</v>
       </c>
       <c r="G47">
-        <v>2.4775100000000001E-2</v>
+        <v>2.4522200000000001E-2</v>
       </c>
       <c r="H47">
-        <v>3.46314E-2</v>
+        <v>3.4448899999999998E-2</v>
       </c>
       <c r="I47">
-        <v>3.4783099999999997E-2</v>
+        <v>2.8832300000000002E-2</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -9329,19 +9329,19 @@
         <v>23420.2</v>
       </c>
       <c r="E48">
-        <v>3.7044199999999998</v>
+        <v>2.3522099999999999</v>
       </c>
       <c r="F48">
-        <v>11.4343</v>
+        <v>7.1869199999999998</v>
       </c>
       <c r="G48">
-        <v>7.9350899999999998</v>
+        <v>5.4943</v>
       </c>
       <c r="H48">
-        <v>8.1242300000000007</v>
+        <v>4.3083200000000001</v>
       </c>
       <c r="I48">
-        <v>8.5626499999999997</v>
+        <v>4.8934499999999996</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -9358,19 +9358,19 @@
         <v>0.146393</v>
       </c>
       <c r="E49">
-        <v>2.6470099999999999</v>
+        <v>2.1143900000000002</v>
       </c>
       <c r="F49">
-        <v>11.956799999999999</v>
+        <v>6.2771100000000004</v>
       </c>
       <c r="G49">
-        <v>1.87391</v>
+        <v>1.5007999999999999</v>
       </c>
       <c r="H49">
-        <v>10.1738</v>
+        <v>4.2684300000000004</v>
       </c>
       <c r="I49">
-        <v>6.0523600000000002</v>
+        <v>3.5855299999999999</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -9387,19 +9387,19 @@
         <v>7014.88</v>
       </c>
       <c r="E50">
-        <v>1.0025599999999999</v>
+        <v>1.03626</v>
       </c>
       <c r="F50">
-        <v>3.3534600000000001</v>
+        <v>3.4691299999999998</v>
       </c>
       <c r="G50">
-        <v>2.3623799999999999</v>
+        <v>2.4297300000000002</v>
       </c>
       <c r="H50">
-        <v>2.0545200000000001</v>
+        <v>2.1158000000000001</v>
       </c>
       <c r="I50">
-        <v>2.4275899999999999</v>
+        <v>2.2810999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -9416,19 +9416,19 @@
         <v>209.06299999999999</v>
       </c>
       <c r="E51">
-        <v>0.19067700000000001</v>
+        <v>0.20024500000000001</v>
       </c>
       <c r="F51">
-        <v>0.61491200000000001</v>
+        <v>0.68104699999999996</v>
       </c>
       <c r="G51">
-        <v>0.36196899999999999</v>
+        <v>0.35525000000000001</v>
       </c>
       <c r="H51">
-        <v>0.35122199999999998</v>
+        <v>0.34100999999999998</v>
       </c>
       <c r="I51">
-        <v>0.40865600000000002</v>
+        <v>0.40009600000000001</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -9445,19 +9445,19 @@
         <v>0.32522800000000002</v>
       </c>
       <c r="E52">
-        <v>6.2867699999999997E-3</v>
+        <v>6.8525599999999997E-3</v>
       </c>
       <c r="F52">
-        <v>2.6103399999999999E-2</v>
+        <v>2.83751E-2</v>
       </c>
       <c r="G52">
-        <v>7.8963100000000001E-3</v>
+        <v>9.2752500000000005E-3</v>
       </c>
       <c r="H52">
-        <v>1.15829E-2</v>
+        <v>1.3842699999999999E-2</v>
       </c>
       <c r="I52">
-        <v>1.14342E-2</v>
+        <v>1.2659E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -9474,19 +9474,19 @@
         <v>14174.1</v>
       </c>
       <c r="E53">
-        <v>2.0469400000000002</v>
+        <v>2.1705800000000002</v>
       </c>
       <c r="F53">
-        <v>6.3251099999999996</v>
+        <v>6.7039</v>
       </c>
       <c r="G53">
-        <v>4.6800899999999999</v>
+        <v>4.7125000000000004</v>
       </c>
       <c r="H53">
-        <v>4.3661099999999999</v>
+        <v>4.1569200000000004</v>
       </c>
       <c r="I53">
-        <v>4.0188499999999996</v>
+        <v>4.0575299999999999</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -9503,19 +9503,19 @@
         <v>4.5095999999999998E-4</v>
       </c>
       <c r="E54">
-        <v>5.3647E-3</v>
+        <v>6.6355499999999996E-3</v>
       </c>
       <c r="F54">
-        <v>2.3565200000000001E-2</v>
+        <v>2.7930199999999999E-2</v>
       </c>
       <c r="G54">
-        <v>4.5361500000000001E-3</v>
+        <v>4.8656999999999997E-3</v>
       </c>
       <c r="H54">
-        <v>1.1855600000000001E-2</v>
+        <v>1.43252E-2</v>
       </c>
       <c r="I54">
-        <v>1.04771E-2</v>
+        <v>1.0442399999999999E-2</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -9532,19 +9532,19 @@
         <v>205.982</v>
       </c>
       <c r="E55">
-        <v>0.17654600000000001</v>
+        <v>0.17608299999999999</v>
       </c>
       <c r="F55">
-        <v>0.62687599999999999</v>
+        <v>0.64192499999999997</v>
       </c>
       <c r="G55">
-        <v>0.35806300000000002</v>
+        <v>0.38575999999999999</v>
       </c>
       <c r="H55">
-        <v>0.38033099999999997</v>
+        <v>0.36113499999999998</v>
       </c>
       <c r="I55">
-        <v>0.44681100000000001</v>
+        <v>0.422458</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -9561,19 +9561,19 @@
         <v>2.0363199999999999</v>
       </c>
       <c r="E56">
-        <v>1.56086E-2</v>
+        <v>1.3590100000000001E-2</v>
       </c>
       <c r="F56">
-        <v>6.1436499999999998E-2</v>
+        <v>5.7143800000000002E-2</v>
       </c>
       <c r="G56">
-        <v>2.0421999999999999E-2</v>
+        <v>2.4145799999999999E-2</v>
       </c>
       <c r="H56">
-        <v>2.61803E-2</v>
+        <v>3.2585900000000001E-2</v>
       </c>
       <c r="I56">
-        <v>3.1464399999999997E-2</v>
+        <v>2.83729E-2</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -9590,19 +9590,19 @@
         <v>9.7963E-4</v>
       </c>
       <c r="E57">
-        <v>1.25113E-2</v>
+        <v>1.23505E-2</v>
       </c>
       <c r="F57">
-        <v>5.2232899999999999E-2</v>
+        <v>5.2184700000000001E-2</v>
       </c>
       <c r="G57">
-        <v>9.2159100000000008E-3</v>
+        <v>9.6817599999999993E-3</v>
       </c>
       <c r="H57">
-        <v>2.48519E-2</v>
+        <v>2.4823499999999998E-2</v>
       </c>
       <c r="I57">
-        <v>1.8785699999999999E-2</v>
+        <v>2.1475299999999999E-2</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -9619,19 +9619,19 @@
         <v>4.7516799999999998E-2</v>
       </c>
       <c r="E58">
-        <v>0.95233199999999996</v>
+        <v>0.91641700000000004</v>
       </c>
       <c r="F58">
-        <v>2.9277299999999999</v>
+        <v>3.3480799999999999</v>
       </c>
       <c r="G58">
-        <v>0.72135800000000005</v>
+        <v>0.68839499999999998</v>
       </c>
       <c r="H58">
-        <v>1.9697</v>
+        <v>2.1148600000000002</v>
       </c>
       <c r="I58">
-        <v>1.6641900000000001</v>
+        <v>1.7258199999999999</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -9648,19 +9648,19 @@
         <v>51.365000000000002</v>
       </c>
       <c r="E59">
-        <v>7.8927999999999998E-2</v>
+        <v>9.2672099999999993E-2</v>
       </c>
       <c r="F59">
-        <v>0.30750300000000003</v>
+        <v>0.349576</v>
       </c>
       <c r="G59">
-        <v>0.16109100000000001</v>
+        <v>0.17332700000000001</v>
       </c>
       <c r="H59">
-        <v>0.161409</v>
+        <v>0.17724999999999999</v>
       </c>
       <c r="I59">
-        <v>0.20064299999999999</v>
+        <v>0.18982299999999999</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -9677,19 +9677,19 @@
         <v>33.268500000000003</v>
       </c>
       <c r="E60">
-        <v>7.8173300000000001E-2</v>
+        <v>8.4488900000000006E-2</v>
       </c>
       <c r="F60">
-        <v>0.27737299999999998</v>
+        <v>0.30943700000000002</v>
       </c>
       <c r="G60">
-        <v>0.151833</v>
+        <v>0.15554699999999999</v>
       </c>
       <c r="H60">
-        <v>0.166077</v>
+        <v>0.15550900000000001</v>
       </c>
       <c r="I60">
-        <v>0.16001199999999999</v>
+        <v>0.14561499999999999</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -9706,19 +9706,19 @@
         <v>20912.400000000001</v>
       </c>
       <c r="E61">
-        <v>2.0600999999999998</v>
+        <v>2.3872200000000001</v>
       </c>
       <c r="F61">
-        <v>6.79772</v>
+        <v>13.173299999999999</v>
       </c>
       <c r="G61">
-        <v>5.3461699999999999</v>
+        <v>10.952299999999999</v>
       </c>
       <c r="H61">
-        <v>4.3220900000000002</v>
+        <v>7.8312900000000001</v>
       </c>
       <c r="I61">
-        <v>4.9469099999999999</v>
+        <v>6.9468500000000004</v>
       </c>
     </row>
   </sheetData>
@@ -9731,7 +9731,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9779,19 +9779,19 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>0.16311899999999999</v>
+        <v>0.200656</v>
       </c>
       <c r="F2">
-        <v>2.044</v>
+        <v>2.02257</v>
       </c>
       <c r="G2">
-        <v>0.24965499999999999</v>
+        <v>0.25769700000000001</v>
       </c>
       <c r="H2">
-        <v>0.62253099999999995</v>
+        <v>0.64303900000000003</v>
       </c>
       <c r="I2">
-        <v>0.68434700000000004</v>
+        <v>0.72447300000000003</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -9808,19 +9808,19 @@
         <v>17</v>
       </c>
       <c r="E3">
-        <v>0.30912299999999998</v>
+        <v>0.31675599999999998</v>
       </c>
       <c r="F3">
-        <v>4.0275800000000004</v>
+        <v>4.1767200000000004</v>
       </c>
       <c r="G3">
-        <v>0.57571499999999998</v>
+        <v>0.58588399999999996</v>
       </c>
       <c r="H3">
-        <v>1.4754400000000001</v>
+        <v>1.4792700000000001</v>
       </c>
       <c r="I3">
-        <v>1.49091</v>
+        <v>1.52156</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -9837,19 +9837,19 @@
         <v>17</v>
       </c>
       <c r="E4">
-        <v>2.8481900000000001E-2</v>
+        <v>3.0300799999999999E-2</v>
       </c>
       <c r="F4">
-        <v>0.39877699999999999</v>
+        <v>0.40747899999999998</v>
       </c>
       <c r="G4">
-        <v>4.0216399999999999E-2</v>
+        <v>4.1771500000000003E-2</v>
       </c>
       <c r="H4">
-        <v>0.111512</v>
+        <v>0.12170599999999999</v>
       </c>
       <c r="I4">
-        <v>0.12167699999999999</v>
+        <v>0.125274</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -9866,19 +9866,19 @@
         <v>17</v>
       </c>
       <c r="E5">
-        <v>2.5682399999999998E-3</v>
+        <v>2.82526E-3</v>
       </c>
       <c r="F5">
-        <v>3.47202E-2</v>
+        <v>3.7842800000000003E-2</v>
       </c>
       <c r="G5">
-        <v>2.5267900000000001E-3</v>
+        <v>2.7148699999999999E-3</v>
       </c>
       <c r="H5">
-        <v>9.2592000000000004E-3</v>
+        <v>1.0234500000000001E-2</v>
       </c>
       <c r="I5">
-        <v>1.0058599999999999E-2</v>
+        <v>1.06959E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -9895,19 +9895,19 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>1.1901200000000001E-2</v>
+        <v>1.17532E-2</v>
       </c>
       <c r="F6">
-        <v>0.18093200000000001</v>
+        <v>0.19452900000000001</v>
       </c>
       <c r="G6">
-        <v>4.9146700000000003E-3</v>
+        <v>5.2909400000000001E-3</v>
       </c>
       <c r="H6">
-        <v>5.0270200000000001E-2</v>
+        <v>4.9501499999999997E-2</v>
       </c>
       <c r="I6">
-        <v>4.9383900000000001E-2</v>
+        <v>4.97248E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -9924,19 +9924,19 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>1.49023E-2</v>
+        <v>1.50467E-2</v>
       </c>
       <c r="F7">
-        <v>0.18987799999999999</v>
+        <v>0.19831699999999999</v>
       </c>
       <c r="G7">
-        <v>1.69249E-2</v>
+        <v>1.7221E-2</v>
       </c>
       <c r="H7">
-        <v>5.3824299999999999E-2</v>
+        <v>5.7262E-2</v>
       </c>
       <c r="I7">
-        <v>5.6274299999999999E-2</v>
+        <v>6.1981300000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -9953,19 +9953,19 @@
         <v>17</v>
       </c>
       <c r="E8">
-        <v>1.3769400000000001E-3</v>
+        <v>1.4114500000000001E-3</v>
       </c>
       <c r="F8">
-        <v>1.93452E-2</v>
+        <v>1.9727499999999999E-2</v>
       </c>
       <c r="G8">
-        <v>1.1171899999999999E-3</v>
+        <v>1.29784E-3</v>
       </c>
       <c r="H8">
-        <v>4.7286000000000003E-3</v>
+        <v>4.8360599999999997E-3</v>
       </c>
       <c r="I8">
-        <v>4.5535799999999998E-3</v>
+        <v>5.1909399999999998E-3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -9982,19 +9982,19 @@
         <v>17</v>
       </c>
       <c r="E9">
-        <v>0.105223</v>
+        <v>0.12606100000000001</v>
       </c>
       <c r="F9">
-        <v>2.0445899999999999</v>
+        <v>1.9947699999999999</v>
       </c>
       <c r="G9">
-        <v>6.0436200000000002E-2</v>
+        <v>6.63686E-2</v>
       </c>
       <c r="H9">
-        <v>0.65459699999999998</v>
+        <v>0.60727500000000001</v>
       </c>
       <c r="I9">
-        <v>0.59463200000000005</v>
+        <v>0.60306000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -10011,19 +10011,19 @@
         <v>17</v>
       </c>
       <c r="E10">
-        <v>0.13292200000000001</v>
+        <v>0.125473</v>
       </c>
       <c r="F10">
-        <v>1.9939199999999999</v>
+        <v>2.0236299999999998</v>
       </c>
       <c r="G10">
-        <v>0.12778700000000001</v>
+        <v>0.13161300000000001</v>
       </c>
       <c r="H10">
-        <v>0.62076500000000001</v>
+        <v>0.65127999999999997</v>
       </c>
       <c r="I10">
-        <v>0.62892999999999999</v>
+        <v>0.64473800000000003</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -10040,19 +10040,19 @@
         <v>17</v>
       </c>
       <c r="E11">
-        <v>2.27108E-3</v>
+        <v>2.13387E-3</v>
       </c>
       <c r="F11">
-        <v>3.5599499999999999E-2</v>
+        <v>3.77761E-2</v>
       </c>
       <c r="G11">
-        <v>1.35209E-3</v>
+        <v>1.4889E-3</v>
       </c>
       <c r="H11">
-        <v>9.5821799999999992E-3</v>
+        <v>9.5854400000000006E-3</v>
       </c>
       <c r="I11">
-        <v>9.1571199999999995E-3</v>
+        <v>9.8038899999999991E-3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -10069,19 +10069,19 @@
         <v>17</v>
       </c>
       <c r="E12">
-        <v>0.346383</v>
+        <v>0.32839400000000002</v>
       </c>
       <c r="F12">
-        <v>4.5201700000000002</v>
+        <v>4.2857900000000004</v>
       </c>
       <c r="G12">
-        <v>0.58645999999999998</v>
+        <v>0.57721199999999995</v>
       </c>
       <c r="H12">
-        <v>1.40551</v>
+        <v>1.4293499999999999</v>
       </c>
       <c r="I12">
-        <v>1.5260899999999999</v>
+        <v>1.5577300000000001</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -10098,19 +10098,19 @@
         <v>17</v>
       </c>
       <c r="E13">
-        <v>0.33752100000000002</v>
+        <v>0.32574700000000001</v>
       </c>
       <c r="F13">
-        <v>4.26586</v>
+        <v>4.3334599999999996</v>
       </c>
       <c r="G13">
-        <v>0.58933100000000005</v>
+        <v>0.60463500000000003</v>
       </c>
       <c r="H13">
-        <v>1.42631</v>
+        <v>1.4164399999999999</v>
       </c>
       <c r="I13">
-        <v>1.48712</v>
+        <v>1.5238</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -10127,19 +10127,19 @@
         <v>17</v>
       </c>
       <c r="E14">
-        <v>1.44111E-2</v>
+        <v>1.55184E-2</v>
       </c>
       <c r="F14">
-        <v>0.20503099999999999</v>
+        <v>0.20791399999999999</v>
       </c>
       <c r="G14">
-        <v>1.83806E-2</v>
+        <v>1.7774100000000001E-2</v>
       </c>
       <c r="H14">
-        <v>6.0204300000000002E-2</v>
+        <v>5.3932500000000001E-2</v>
       </c>
       <c r="I14">
-        <v>7.0345099999999994E-2</v>
+        <v>6.4642099999999994E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -10156,19 +10156,19 @@
         <v>17</v>
       </c>
       <c r="E15">
-        <v>1.2724699999999999E-3</v>
+        <v>1.00957E-3</v>
       </c>
       <c r="F15">
-        <v>2.2136599999999999E-2</v>
+        <v>1.84432E-2</v>
       </c>
       <c r="G15">
-        <v>7.7275E-4</v>
+        <v>6.2381000000000003E-4</v>
       </c>
       <c r="H15">
-        <v>5.3639600000000001E-3</v>
+        <v>4.1863400000000002E-3</v>
       </c>
       <c r="I15">
-        <v>5.7178999999999997E-3</v>
+        <v>3.8918999999999998E-3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -10185,19 +10185,19 @@
         <v>17</v>
       </c>
       <c r="E16">
-        <v>1.2749599999999999E-3</v>
+        <v>7.6895000000000002E-4</v>
       </c>
       <c r="F16">
-        <v>1.9104099999999999E-2</v>
+        <v>1.6313100000000001E-2</v>
       </c>
       <c r="G16">
-        <v>3.4799000000000001E-4</v>
+        <v>3.5775E-4</v>
       </c>
       <c r="H16">
-        <v>4.1975099999999998E-3</v>
+        <v>4.3875600000000004E-3</v>
       </c>
       <c r="I16">
-        <v>3.8141799999999999E-3</v>
+        <v>3.6633099999999999E-3</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -10214,19 +10214,19 @@
         <v>17</v>
       </c>
       <c r="E17">
-        <v>3.02901E-2</v>
+        <v>2.8380800000000001E-2</v>
       </c>
       <c r="F17">
-        <v>0.40879100000000002</v>
+        <v>0.41829499999999997</v>
       </c>
       <c r="G17">
-        <v>3.8165699999999997E-2</v>
+        <v>4.5447000000000001E-2</v>
       </c>
       <c r="H17">
-        <v>0.122124</v>
+        <v>0.13551199999999999</v>
       </c>
       <c r="I17">
-        <v>0.13125999999999999</v>
+        <v>0.13333800000000001</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -10243,19 +10243,19 @@
         <v>17</v>
       </c>
       <c r="E18">
-        <v>1.2029099999999999E-2</v>
+        <v>1.07016E-2</v>
       </c>
       <c r="F18">
-        <v>0.193435</v>
+        <v>0.19468099999999999</v>
       </c>
       <c r="G18">
-        <v>9.6246300000000003E-3</v>
+        <v>1.0573600000000001E-2</v>
       </c>
       <c r="H18">
-        <v>5.3444600000000002E-2</v>
+        <v>5.1384399999999997E-2</v>
       </c>
       <c r="I18">
-        <v>5.2166999999999998E-2</v>
+        <v>5.1989300000000002E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -10272,19 +10272,19 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>2.94144E-3</v>
+        <v>2.6539799999999998E-3</v>
       </c>
       <c r="F19">
-        <v>3.7326600000000001E-2</v>
+        <v>3.7785800000000001E-2</v>
       </c>
       <c r="G19">
-        <v>2.7320700000000001E-3</v>
+        <v>2.8211500000000001E-3</v>
       </c>
       <c r="H19">
-        <v>9.0381000000000003E-3</v>
+        <v>9.9026800000000005E-3</v>
       </c>
       <c r="I19">
-        <v>9.9343899999999995E-3</v>
+        <v>1.0751999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -10301,19 +10301,19 @@
         <v>17</v>
       </c>
       <c r="E20">
-        <v>0.16059399999999999</v>
+        <v>0.15873699999999999</v>
       </c>
       <c r="F20">
-        <v>2.0761699999999998</v>
+        <v>2.1270899999999999</v>
       </c>
       <c r="G20">
-        <v>0.26217699999999999</v>
+        <v>0.27304600000000001</v>
       </c>
       <c r="H20">
-        <v>0.68857599999999997</v>
+        <v>0.70387599999999995</v>
       </c>
       <c r="I20">
-        <v>0.73128099999999996</v>
+        <v>0.71247499999999997</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -10330,19 +10330,19 @@
         <v>17</v>
       </c>
       <c r="E21">
-        <v>0.15998999999999999</v>
+        <v>0.167322</v>
       </c>
       <c r="F21">
-        <v>2.1185299999999998</v>
+        <v>2.1461700000000001</v>
       </c>
       <c r="G21">
-        <v>0.26551000000000002</v>
+        <v>0.27443299999999998</v>
       </c>
       <c r="H21">
-        <v>0.67221900000000001</v>
+        <v>0.68936799999999998</v>
       </c>
       <c r="I21">
-        <v>0.74552399999999996</v>
+        <v>0.74840399999999996</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -10359,19 +10359,19 @@
         <v>17</v>
       </c>
       <c r="E22">
-        <v>0.21760199999999999</v>
+        <v>0.24353900000000001</v>
       </c>
       <c r="F22">
-        <v>4.0744199999999999</v>
+        <v>4.2201300000000002</v>
       </c>
       <c r="G22">
-        <v>0.12770400000000001</v>
+        <v>0.14377999999999999</v>
       </c>
       <c r="H22">
-        <v>1.2632099999999999</v>
+        <v>1.385</v>
       </c>
       <c r="I22">
-        <v>1.2536700000000001</v>
+        <v>1.3157300000000001</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -10388,19 +10388,19 @@
         <v>17</v>
       </c>
       <c r="E23">
-        <v>1.4346000000000001E-3</v>
+        <v>1.42257E-3</v>
       </c>
       <c r="F23">
-        <v>1.9923400000000001E-2</v>
+        <v>2.00123E-2</v>
       </c>
       <c r="G23">
-        <v>1.2326500000000001E-3</v>
+        <v>1.41361E-3</v>
       </c>
       <c r="H23">
-        <v>4.6006299999999997E-3</v>
+        <v>5.0820700000000002E-3</v>
       </c>
       <c r="I23">
-        <v>5.1756299999999996E-3</v>
+        <v>5.3229200000000001E-3</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -10417,19 +10417,19 @@
         <v>17</v>
       </c>
       <c r="E24">
-        <v>2.9667800000000001E-2</v>
+        <v>3.1978699999999999E-2</v>
       </c>
       <c r="F24">
-        <v>0.40508300000000003</v>
+        <v>0.42474099999999998</v>
       </c>
       <c r="G24">
-        <v>3.85367E-2</v>
+        <v>4.3695699999999997E-2</v>
       </c>
       <c r="H24">
-        <v>0.117702</v>
+        <v>0.12848499999999999</v>
       </c>
       <c r="I24">
-        <v>0.124677</v>
+        <v>0.135825</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -10446,19 +10446,19 @@
         <v>17</v>
       </c>
       <c r="E25">
-        <v>1.77439E-2</v>
+        <v>1.5743E-2</v>
       </c>
       <c r="F25">
-        <v>0.19698599999999999</v>
+        <v>0.21414800000000001</v>
       </c>
       <c r="G25">
-        <v>1.9294599999999999E-2</v>
+        <v>1.9909199999999998E-2</v>
       </c>
       <c r="H25">
-        <v>5.6490199999999997E-2</v>
+        <v>6.0202800000000001E-2</v>
       </c>
       <c r="I25">
-        <v>5.8037400000000003E-2</v>
+        <v>6.21547E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -10475,19 +10475,19 @@
         <v>17</v>
       </c>
       <c r="E26">
-        <v>2.6931699999999999E-3</v>
+        <v>3.09203E-3</v>
       </c>
       <c r="F26">
-        <v>3.8938199999999999E-2</v>
+        <v>4.1831899999999998E-2</v>
       </c>
       <c r="G26">
-        <v>2.69053E-3</v>
+        <v>3.00177E-3</v>
       </c>
       <c r="H26">
-        <v>1.0164400000000001E-2</v>
+        <v>1.0674100000000001E-2</v>
       </c>
       <c r="I26">
-        <v>1.0819E-2</v>
+        <v>1.18145E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -10504,19 +10504,19 @@
         <v>17</v>
       </c>
       <c r="E27">
-        <v>1.79921E-2</v>
+        <v>2.1685699999999999E-2</v>
       </c>
       <c r="F27">
-        <v>0.40461399999999997</v>
+        <v>0.41164400000000001</v>
       </c>
       <c r="G27">
-        <v>1.13393E-2</v>
+        <v>1.0665900000000001E-2</v>
       </c>
       <c r="H27">
-        <v>0.11849</v>
+        <v>0.11522</v>
       </c>
       <c r="I27">
-        <v>0.113071</v>
+        <v>0.109584</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -10533,19 +10533,19 @@
         <v>17</v>
       </c>
       <c r="E28">
-        <v>2.4698700000000001E-2</v>
+        <v>2.5601599999999999E-2</v>
       </c>
       <c r="F28">
-        <v>0.40804299999999999</v>
+        <v>0.41070499999999999</v>
       </c>
       <c r="G28">
-        <v>2.0970300000000001E-2</v>
+        <v>2.1860000000000001E-2</v>
       </c>
       <c r="H28">
-        <v>0.119535</v>
+        <v>0.118629</v>
       </c>
       <c r="I28">
-        <v>0.114999</v>
+        <v>0.119689</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -10562,19 +10562,19 @@
         <v>17</v>
       </c>
       <c r="E29">
-        <v>2.3407100000000002E-3</v>
+        <v>2.3116899999999999E-3</v>
       </c>
       <c r="F29">
-        <v>3.66878E-2</v>
+        <v>4.0872400000000003E-2</v>
       </c>
       <c r="G29">
-        <v>7.7488000000000003E-4</v>
+        <v>9.2363999999999999E-4</v>
       </c>
       <c r="H29">
-        <v>9.2405400000000002E-3</v>
+        <v>9.8742199999999995E-3</v>
       </c>
       <c r="I29">
-        <v>8.8519400000000008E-3</v>
+        <v>9.6613299999999992E-3</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -10591,19 +10591,19 @@
         <v>17</v>
       </c>
       <c r="E30">
-        <v>1.32507E-3</v>
+        <v>1.5241300000000001E-3</v>
       </c>
       <c r="F30">
-        <v>1.8626899999999998E-2</v>
+        <v>2.03868E-2</v>
       </c>
       <c r="G30">
-        <v>1.1895E-3</v>
+        <v>1.3337399999999999E-3</v>
       </c>
       <c r="H30">
-        <v>4.5965700000000003E-3</v>
+        <v>5.2505599999999996E-3</v>
       </c>
       <c r="I30">
-        <v>5.0824700000000004E-3</v>
+        <v>5.6565599999999997E-3</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -10620,19 +10620,19 @@
         <v>17</v>
       </c>
       <c r="E31">
-        <v>0.29896200000000001</v>
+        <v>0.26828800000000003</v>
       </c>
       <c r="F31">
-        <v>4.2269399999999999</v>
+        <v>4.3181399999999996</v>
       </c>
       <c r="G31">
-        <v>0.286935</v>
+        <v>0.29385099999999997</v>
       </c>
       <c r="H31">
-        <v>1.35392</v>
+        <v>1.37561</v>
       </c>
       <c r="I31">
-        <v>1.37602</v>
+        <v>1.3961699999999999</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -10649,19 +10649,19 @@
         <v>17</v>
       </c>
       <c r="E32">
-        <v>8.2496200000000006E-2</v>
+        <v>8.1864800000000001E-2</v>
       </c>
       <c r="F32">
-        <v>0.26980100000000001</v>
+        <v>0.26824300000000001</v>
       </c>
       <c r="G32">
-        <v>5.3387700000000003E-2</v>
+        <v>5.5525999999999999E-2</v>
       </c>
       <c r="H32">
-        <v>0.156193</v>
+        <v>0.14491999999999999</v>
       </c>
       <c r="I32">
-        <v>0.127777</v>
+        <v>0.12789700000000001</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -10678,19 +10678,19 @@
         <v>17</v>
       </c>
       <c r="E33">
-        <v>1.0159499999999999</v>
+        <v>1.0358099999999999</v>
       </c>
       <c r="F33">
-        <v>3.3300900000000002</v>
+        <v>3.37243</v>
       </c>
       <c r="G33">
-        <v>2.2967300000000002</v>
+        <v>2.2295500000000001</v>
       </c>
       <c r="H33">
-        <v>2.1049500000000001</v>
+        <v>2.0264000000000002</v>
       </c>
       <c r="I33">
-        <v>2.2910200000000001</v>
+        <v>2.2368700000000001</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -10707,19 +10707,19 @@
         <v>17</v>
       </c>
       <c r="E34">
-        <v>8.0830299999999994E-2</v>
+        <v>7.6402999999999999E-2</v>
       </c>
       <c r="F34">
-        <v>0.32098500000000002</v>
+        <v>0.30188599999999999</v>
       </c>
       <c r="G34">
-        <v>0.15403500000000001</v>
+        <v>0.14600399999999999</v>
       </c>
       <c r="H34">
-        <v>0.17874399999999999</v>
+        <v>0.16201699999999999</v>
       </c>
       <c r="I34">
-        <v>0.18449699999999999</v>
+        <v>0.17896500000000001</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -10736,19 +10736,19 @@
         <v>17</v>
       </c>
       <c r="E35">
-        <v>1.4148000000000001E-2</v>
+        <v>1.46546E-2</v>
       </c>
       <c r="F35">
-        <v>5.71073E-2</v>
+        <v>6.1009599999999997E-2</v>
       </c>
       <c r="G35">
-        <v>2.29485E-2</v>
+        <v>2.27412E-2</v>
       </c>
       <c r="H35">
-        <v>2.8745300000000001E-2</v>
+        <v>2.9462700000000001E-2</v>
       </c>
       <c r="I35">
-        <v>3.1206000000000001E-2</v>
+        <v>3.3374599999999997E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -10765,19 +10765,19 @@
         <v>17</v>
       </c>
       <c r="E36">
-        <v>1.5234599999999999E-2</v>
+        <v>1.4685E-2</v>
       </c>
       <c r="F36">
-        <v>5.3080000000000002E-2</v>
+        <v>5.7659500000000002E-2</v>
       </c>
       <c r="G36">
-        <v>2.0411100000000001E-2</v>
+        <v>2.2521300000000001E-2</v>
       </c>
       <c r="H36">
-        <v>3.0669399999999999E-2</v>
+        <v>2.8551900000000002E-2</v>
       </c>
       <c r="I36">
-        <v>2.5821400000000001E-2</v>
+        <v>2.48185E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -10794,19 +10794,19 @@
         <v>17</v>
       </c>
       <c r="E37">
-        <v>0.16499</v>
+        <v>0.172128</v>
       </c>
       <c r="F37">
-        <v>0.56556499999999998</v>
+        <v>0.57455100000000003</v>
       </c>
       <c r="G37">
-        <v>0.12620899999999999</v>
+        <v>0.115782</v>
       </c>
       <c r="H37">
-        <v>0.30604100000000001</v>
+        <v>0.31360300000000002</v>
       </c>
       <c r="I37">
-        <v>0.28119699999999997</v>
+        <v>0.27663500000000002</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -10823,19 +10823,19 @@
         <v>17</v>
       </c>
       <c r="E38">
-        <v>7.1590100000000004E-3</v>
+        <v>6.3303600000000002E-3</v>
       </c>
       <c r="F38">
-        <v>2.8867799999999999E-2</v>
+        <v>2.8171399999999999E-2</v>
       </c>
       <c r="G38">
-        <v>1.0816900000000001E-2</v>
+        <v>9.2584799999999995E-3</v>
       </c>
       <c r="H38">
-        <v>1.6104799999999999E-2</v>
+        <v>1.27493E-2</v>
       </c>
       <c r="I38">
-        <v>1.7071599999999999E-2</v>
+        <v>1.6306399999999999E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -10852,19 +10852,19 @@
         <v>17</v>
       </c>
       <c r="E39">
-        <v>0.97917299999999996</v>
+        <v>0.98549799999999999</v>
       </c>
       <c r="F39">
-        <v>3.1150899999999999</v>
+        <v>3.15089</v>
       </c>
       <c r="G39">
-        <v>2.0884999999999998</v>
+        <v>2.0684499999999999</v>
       </c>
       <c r="H39">
-        <v>2.0244</v>
+        <v>2.10738</v>
       </c>
       <c r="I39">
-        <v>1.8764799999999999</v>
+        <v>1.8991800000000001</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -10881,19 +10881,19 @@
         <v>17</v>
       </c>
       <c r="E40">
-        <v>8.5217299999999996E-2</v>
+        <v>8.8303599999999996E-2</v>
       </c>
       <c r="F40">
-        <v>0.31334899999999999</v>
+        <v>0.31331700000000001</v>
       </c>
       <c r="G40">
-        <v>0.15706300000000001</v>
+        <v>0.15523200000000001</v>
       </c>
       <c r="H40">
-        <v>0.17130500000000001</v>
+        <v>0.161884</v>
       </c>
       <c r="I40">
-        <v>0.19053100000000001</v>
+        <v>0.18754899999999999</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -10910,19 +10910,19 @@
         <v>17</v>
       </c>
       <c r="E41">
-        <v>1.1043400000000001</v>
+        <v>1.0130999999999999</v>
       </c>
       <c r="F41">
-        <v>3.3340200000000002</v>
+        <v>3.43072</v>
       </c>
       <c r="G41">
-        <v>2.5115799999999999</v>
+        <v>2.4698600000000002</v>
       </c>
       <c r="H41">
-        <v>2.0604399999999998</v>
+        <v>1.9826900000000001</v>
       </c>
       <c r="I41">
-        <v>2.2769499999999998</v>
+        <v>2.3140800000000001</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -10939,19 +10939,19 @@
         <v>17</v>
       </c>
       <c r="E42">
-        <v>7.3270100000000001E-3</v>
+        <v>7.0401999999999999E-3</v>
       </c>
       <c r="F42">
-        <v>2.77267E-2</v>
+        <v>2.9672299999999999E-2</v>
       </c>
       <c r="G42">
-        <v>9.8228299999999994E-3</v>
+        <v>1.0000500000000001E-2</v>
       </c>
       <c r="H42">
-        <v>1.3737600000000001E-2</v>
+        <v>1.5007100000000001E-2</v>
       </c>
       <c r="I42">
-        <v>1.3677E-2</v>
+        <v>1.5387700000000001E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -10968,19 +10968,19 @@
         <v>17</v>
       </c>
       <c r="E43">
-        <v>0.17743600000000001</v>
+        <v>0.18793099999999999</v>
       </c>
       <c r="F43">
-        <v>0.62563199999999997</v>
+        <v>0.67603599999999997</v>
       </c>
       <c r="G43">
-        <v>0.34711599999999998</v>
+        <v>0.36475299999999999</v>
       </c>
       <c r="H43">
-        <v>0.37609999999999999</v>
+        <v>0.37423299999999998</v>
       </c>
       <c r="I43">
-        <v>0.40498699999999999</v>
+        <v>0.41347400000000001</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -10997,19 +10997,19 @@
         <v>17</v>
       </c>
       <c r="E44">
-        <v>5.8327500000000003E-3</v>
+        <v>6.9569999999999996E-3</v>
       </c>
       <c r="F44">
-        <v>2.8308E-2</v>
+        <v>2.9390599999999999E-2</v>
       </c>
       <c r="G44">
-        <v>1.02498E-2</v>
+        <v>9.8563699999999997E-3</v>
       </c>
       <c r="H44">
-        <v>1.28495E-2</v>
+        <v>1.40473E-2</v>
       </c>
       <c r="I44">
-        <v>1.5334199999999999E-2</v>
+        <v>1.54269E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -11026,19 +11026,19 @@
         <v>17</v>
       </c>
       <c r="E45">
-        <v>0.176009</v>
+        <v>0.18127499999999999</v>
       </c>
       <c r="F45">
-        <v>0.59719999999999995</v>
+        <v>0.63340600000000002</v>
       </c>
       <c r="G45">
-        <v>0.34767399999999998</v>
+        <v>0.35316500000000001</v>
       </c>
       <c r="H45">
-        <v>0.35303400000000001</v>
+        <v>0.32583600000000001</v>
       </c>
       <c r="I45">
-        <v>0.33707500000000001</v>
+        <v>0.32946799999999998</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -11055,19 +11055,19 @@
         <v>17</v>
       </c>
       <c r="E46">
-        <v>2.1727300000000001</v>
+        <v>2.1779899999999999</v>
       </c>
       <c r="F46">
-        <v>6.9262199999999998</v>
+        <v>6.9356799999999996</v>
       </c>
       <c r="G46">
-        <v>5.6380699999999999</v>
+        <v>5.58223</v>
       </c>
       <c r="H46">
-        <v>4.24939</v>
+        <v>4.34985</v>
       </c>
       <c r="I46">
-        <v>4.8404199999999999</v>
+        <v>5.0146300000000004</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -11084,19 +11084,19 @@
         <v>17</v>
       </c>
       <c r="E47">
-        <v>1.40982E-2</v>
+        <v>1.4838499999999999E-2</v>
       </c>
       <c r="F47">
-        <v>6.0685599999999999E-2</v>
+        <v>6.0103400000000001E-2</v>
       </c>
       <c r="G47">
-        <v>2.24076E-2</v>
+        <v>2.3013499999999999E-2</v>
       </c>
       <c r="H47">
-        <v>3.1114300000000001E-2</v>
+        <v>3.1560100000000001E-2</v>
       </c>
       <c r="I47">
-        <v>3.0519000000000001E-2</v>
+        <v>3.2204700000000003E-2</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -11113,19 +11113,19 @@
         <v>17</v>
       </c>
       <c r="E48">
-        <v>2.1424799999999999</v>
+        <v>2.2386300000000001</v>
       </c>
       <c r="F48">
-        <v>6.9153000000000002</v>
+        <v>7.12697</v>
       </c>
       <c r="G48">
-        <v>5.4757300000000004</v>
+        <v>5.5050999999999997</v>
       </c>
       <c r="H48">
-        <v>4.3575499999999998</v>
+        <v>4.41744</v>
       </c>
       <c r="I48">
-        <v>4.8801500000000004</v>
+        <v>4.9598699999999996</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -11142,19 +11142,19 @@
         <v>17</v>
       </c>
       <c r="E49">
-        <v>1.98038</v>
+        <v>2.01945</v>
       </c>
       <c r="F49">
-        <v>6.1281100000000004</v>
+        <v>6.4868499999999996</v>
       </c>
       <c r="G49">
-        <v>1.5115099999999999</v>
+        <v>1.49756</v>
       </c>
       <c r="H49">
-        <v>3.9840399999999998</v>
+        <v>5.7586599999999999</v>
       </c>
       <c r="I49">
-        <v>3.4834999999999998</v>
+        <v>4.8129999999999997</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -11171,19 +11171,19 @@
         <v>17</v>
       </c>
       <c r="E50">
-        <v>1.0078199999999999</v>
+        <v>1.15744</v>
       </c>
       <c r="F50">
-        <v>3.3847700000000001</v>
+        <v>4.3100199999999997</v>
       </c>
       <c r="G50">
-        <v>2.3299699999999999</v>
+        <v>3.16493</v>
       </c>
       <c r="H50">
-        <v>2.0766200000000001</v>
+        <v>3.4162499999999998</v>
       </c>
       <c r="I50">
-        <v>2.3134600000000001</v>
+        <v>2.4485000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -11200,19 +11200,19 @@
         <v>17</v>
       </c>
       <c r="E51">
-        <v>0.17988399999999999</v>
+        <v>0.202454</v>
       </c>
       <c r="F51">
-        <v>0.65418399999999999</v>
+        <v>0.68038900000000002</v>
       </c>
       <c r="G51">
-        <v>0.37900499999999998</v>
+        <v>0.37218600000000002</v>
       </c>
       <c r="H51">
-        <v>0.37124299999999999</v>
+        <v>0.374971</v>
       </c>
       <c r="I51">
-        <v>0.39752799999999999</v>
+        <v>0.51237100000000002</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -11229,19 +11229,19 @@
         <v>17</v>
       </c>
       <c r="E52">
-        <v>6.5506599999999998E-3</v>
+        <v>1.21259E-2</v>
       </c>
       <c r="F52">
-        <v>2.7583199999999999E-2</v>
+        <v>4.3388000000000003E-2</v>
       </c>
       <c r="G52">
-        <v>8.0858800000000002E-3</v>
+        <v>1.36378E-2</v>
       </c>
       <c r="H52">
-        <v>1.26132E-2</v>
+        <v>1.6897499999999999E-2</v>
       </c>
       <c r="I52">
-        <v>1.14255E-2</v>
+        <v>1.5531E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -11258,19 +11258,19 @@
         <v>17</v>
       </c>
       <c r="E53">
-        <v>2.1593200000000001</v>
+        <v>3.1908500000000002</v>
       </c>
       <c r="F53">
-        <v>6.4592400000000003</v>
+        <v>9.5075599999999998</v>
       </c>
       <c r="G53">
-        <v>4.7232700000000003</v>
+        <v>6.2366000000000001</v>
       </c>
       <c r="H53">
-        <v>4.2761199999999997</v>
+        <v>6.8616999999999999</v>
       </c>
       <c r="I53">
-        <v>4.01166</v>
+        <v>6.3987299999999996</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -11287,19 +11287,19 @@
         <v>17</v>
       </c>
       <c r="E54">
-        <v>6.3171900000000003E-3</v>
+        <v>9.37581E-3</v>
       </c>
       <c r="F54">
-        <v>2.7687300000000001E-2</v>
+        <v>4.9144599999999997E-2</v>
       </c>
       <c r="G54">
-        <v>4.7559799999999999E-3</v>
+        <v>7.01434E-3</v>
       </c>
       <c r="H54">
-        <v>1.35464E-2</v>
+        <v>1.86266E-2</v>
       </c>
       <c r="I54">
-        <v>9.9238399999999997E-3</v>
+        <v>1.7141799999999999E-2</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -11316,19 +11316,19 @@
         <v>17</v>
       </c>
       <c r="E55">
-        <v>0.16833799999999999</v>
+        <v>0.25259999999999999</v>
       </c>
       <c r="F55">
-        <v>0.63953000000000004</v>
+        <v>0.82682999999999995</v>
       </c>
       <c r="G55">
-        <v>0.371193</v>
+        <v>0.480292</v>
       </c>
       <c r="H55">
-        <v>0.373247</v>
+        <v>0.51922900000000005</v>
       </c>
       <c r="I55">
-        <v>0.39010499999999998</v>
+        <v>0.61698900000000001</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -11345,19 +11345,19 @@
         <v>17</v>
       </c>
       <c r="E56">
-        <v>1.4646899999999999E-2</v>
+        <v>1.9123100000000001E-2</v>
       </c>
       <c r="F56">
-        <v>6.63131E-2</v>
+        <v>7.7549400000000004E-2</v>
       </c>
       <c r="G56">
-        <v>2.6781099999999999E-2</v>
+        <v>2.7478099999999998E-2</v>
       </c>
       <c r="H56">
-        <v>2.5435900000000001E-2</v>
+        <v>3.75903E-2</v>
       </c>
       <c r="I56">
-        <v>2.95617E-2</v>
+        <v>4.1965599999999999E-2</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -11374,19 +11374,19 @@
         <v>17</v>
       </c>
       <c r="E57">
-        <v>1.28387E-2</v>
+        <v>1.80927E-2</v>
       </c>
       <c r="F57">
-        <v>5.6277099999999997E-2</v>
+        <v>6.7290100000000005E-2</v>
       </c>
       <c r="G57">
-        <v>1.12751E-2</v>
+        <v>1.44107E-2</v>
       </c>
       <c r="H57">
-        <v>2.6969400000000001E-2</v>
+        <v>4.36268E-2</v>
       </c>
       <c r="I57">
-        <v>2.36133E-2</v>
+        <v>3.2156900000000002E-2</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -11403,19 +11403,19 @@
         <v>17</v>
       </c>
       <c r="E58">
-        <v>0.99068999999999996</v>
+        <v>1.29914</v>
       </c>
       <c r="F58">
-        <v>2.9269699999999998</v>
+        <v>4.6774300000000002</v>
       </c>
       <c r="G58">
-        <v>0.69795300000000005</v>
+        <v>0.850244</v>
       </c>
       <c r="H58">
-        <v>1.9308399999999999</v>
+        <v>2.5528400000000002</v>
       </c>
       <c r="I58">
-        <v>1.5981399999999999</v>
+        <v>2.2057500000000001</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -11432,19 +11432,19 @@
         <v>17</v>
       </c>
       <c r="E59">
-        <v>8.1378599999999995E-2</v>
+        <v>0.14216899999999999</v>
       </c>
       <c r="F59">
-        <v>0.33204</v>
+        <v>0.48774099999999998</v>
       </c>
       <c r="G59">
-        <v>0.161443</v>
+        <v>0.20769699999999999</v>
       </c>
       <c r="H59">
-        <v>0.163355</v>
+        <v>0.24227399999999999</v>
       </c>
       <c r="I59">
-        <v>0.187665</v>
+        <v>0.37688899999999997</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -11461,19 +11461,19 @@
         <v>17</v>
       </c>
       <c r="E60">
-        <v>8.2494899999999996E-2</v>
+        <v>0.214369</v>
       </c>
       <c r="F60">
-        <v>0.28321499999999999</v>
+        <v>0.56408100000000005</v>
       </c>
       <c r="G60">
-        <v>0.14654900000000001</v>
+        <v>0.190946</v>
       </c>
       <c r="H60">
-        <v>0.18255399999999999</v>
+        <v>0.34503400000000001</v>
       </c>
       <c r="I60">
-        <v>0.15197099999999999</v>
+        <v>0.23868400000000001</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -11490,19 +11490,19 @@
         <v>17</v>
       </c>
       <c r="E61">
-        <v>2.2323200000000001</v>
+        <v>3.1559699999999999</v>
       </c>
       <c r="F61">
-        <v>6.9397399999999996</v>
+        <v>11.1683</v>
       </c>
       <c r="G61">
-        <v>5.4396699999999996</v>
+        <v>8.11599</v>
       </c>
       <c r="H61">
-        <v>4.6269900000000002</v>
+        <v>7.1733200000000004</v>
       </c>
       <c r="I61">
-        <v>4.8711200000000003</v>
+        <v>6.5666500000000001</v>
       </c>
     </row>
   </sheetData>
@@ -11515,7 +11515,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11563,19 +11563,19 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>0.16627800000000001</v>
+        <v>0.31524799999999997</v>
       </c>
       <c r="F2">
-        <v>1.9073100000000001</v>
+        <v>3.6768900000000002</v>
       </c>
       <c r="G2">
-        <v>0.236014</v>
+        <v>0.36107299999999998</v>
       </c>
       <c r="H2">
-        <v>0.61839699999999997</v>
+        <v>0.89410500000000004</v>
       </c>
       <c r="I2">
-        <v>0.65286599999999995</v>
+        <v>1.00824</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -11592,19 +11592,19 @@
         <v>17</v>
       </c>
       <c r="E3">
-        <v>0.303421</v>
+        <v>0.40344799999999997</v>
       </c>
       <c r="F3">
-        <v>3.9111899999999999</v>
+        <v>6.82395</v>
       </c>
       <c r="G3">
-        <v>0.65488299999999999</v>
+        <v>1.1484799999999999</v>
       </c>
       <c r="H3">
-        <v>1.4488399999999999</v>
+        <v>2.19238</v>
       </c>
       <c r="I3">
-        <v>1.4492700000000001</v>
+        <v>2.04061</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -11621,19 +11621,19 @@
         <v>17</v>
       </c>
       <c r="E4">
-        <v>2.76203E-2</v>
+        <v>3.3160599999999998E-2</v>
       </c>
       <c r="F4">
-        <v>0.406804</v>
+        <v>0.54545600000000005</v>
       </c>
       <c r="G4">
-        <v>4.1638599999999998E-2</v>
+        <v>5.0923799999999998E-2</v>
       </c>
       <c r="H4">
-        <v>0.12844800000000001</v>
+        <v>0.13905200000000001</v>
       </c>
       <c r="I4">
-        <v>0.12899099999999999</v>
+        <v>0.17716999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -11650,19 +11650,19 @@
         <v>17</v>
       </c>
       <c r="E5">
-        <v>2.77897E-3</v>
+        <v>3.08363E-3</v>
       </c>
       <c r="F5">
-        <v>3.8391000000000002E-2</v>
+        <v>4.5448099999999998E-2</v>
       </c>
       <c r="G5">
-        <v>2.4890400000000001E-3</v>
+        <v>3.5473599999999998E-3</v>
       </c>
       <c r="H5">
-        <v>9.38487E-3</v>
+        <v>1.16004E-2</v>
       </c>
       <c r="I5">
-        <v>9.8365199999999996E-3</v>
+        <v>1.19197E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -11679,19 +11679,19 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>9.1140200000000005E-3</v>
+        <v>1.1406299999999999E-2</v>
       </c>
       <c r="F6">
-        <v>0.191415</v>
+        <v>0.27513300000000002</v>
       </c>
       <c r="G6">
-        <v>4.8508500000000003E-3</v>
+        <v>7.3048699999999998E-3</v>
       </c>
       <c r="H6">
-        <v>5.6020800000000003E-2</v>
+        <v>7.0244200000000007E-2</v>
       </c>
       <c r="I6">
-        <v>5.0824800000000003E-2</v>
+        <v>5.9383900000000003E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -11708,19 +11708,19 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>1.51837E-2</v>
+        <v>1.8882800000000002E-2</v>
       </c>
       <c r="F7">
-        <v>0.20080300000000001</v>
+        <v>0.22316800000000001</v>
       </c>
       <c r="G7">
-        <v>1.8829200000000001E-2</v>
+        <v>2.29584E-2</v>
       </c>
       <c r="H7">
-        <v>5.3595499999999997E-2</v>
+        <v>8.4058400000000005E-2</v>
       </c>
       <c r="I7">
-        <v>5.6012300000000001E-2</v>
+        <v>9.8420999999999995E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -11737,19 +11737,19 @@
         <v>17</v>
       </c>
       <c r="E8">
-        <v>1.21367E-3</v>
+        <v>2.2372400000000001E-3</v>
       </c>
       <c r="F8">
-        <v>1.7825799999999999E-2</v>
+        <v>2.6753099999999998E-2</v>
       </c>
       <c r="G8">
-        <v>1.2829199999999999E-3</v>
+        <v>1.6312E-3</v>
       </c>
       <c r="H8">
-        <v>4.3588799999999999E-3</v>
+        <v>6.6858500000000001E-3</v>
       </c>
       <c r="I8">
-        <v>4.4482999999999997E-3</v>
+        <v>6.7440199999999999E-3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -11766,19 +11766,19 @@
         <v>17</v>
       </c>
       <c r="E9">
-        <v>0.11851299999999999</v>
+        <v>0.14280799999999999</v>
       </c>
       <c r="F9">
-        <v>1.9419900000000001</v>
+        <v>2.4868999999999999</v>
       </c>
       <c r="G9">
-        <v>6.3586299999999998E-2</v>
+        <v>7.54214E-2</v>
       </c>
       <c r="H9">
-        <v>0.65536499999999998</v>
+        <v>0.86712</v>
       </c>
       <c r="I9">
-        <v>0.59006400000000003</v>
+        <v>1.07396</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -11795,19 +11795,19 @@
         <v>17</v>
       </c>
       <c r="E10">
-        <v>0.141541</v>
+        <v>0.16273799999999999</v>
       </c>
       <c r="F10">
-        <v>2.00292</v>
+        <v>3.29515</v>
       </c>
       <c r="G10">
-        <v>0.125113</v>
+        <v>0.32879000000000003</v>
       </c>
       <c r="H10">
-        <v>0.64146999999999998</v>
+        <v>1.05738</v>
       </c>
       <c r="I10">
-        <v>0.63442799999999999</v>
+        <v>0.95884800000000003</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -11824,19 +11824,19 @@
         <v>17</v>
       </c>
       <c r="E11">
-        <v>2.04434E-3</v>
+        <v>2.92742E-3</v>
       </c>
       <c r="F11">
-        <v>3.6339000000000003E-2</v>
+        <v>5.5818699999999999E-2</v>
       </c>
       <c r="G11">
-        <v>1.4367799999999999E-3</v>
+        <v>1.92432E-3</v>
       </c>
       <c r="H11">
-        <v>9.0881499999999997E-3</v>
+        <v>1.16676E-2</v>
       </c>
       <c r="I11">
-        <v>8.8455400000000007E-3</v>
+        <v>1.16478E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -11853,19 +11853,19 @@
         <v>17</v>
       </c>
       <c r="E12">
-        <v>0.3493</v>
+        <v>0.42876500000000001</v>
       </c>
       <c r="F12">
-        <v>4.1095600000000001</v>
+        <v>6.9089299999999998</v>
       </c>
       <c r="G12">
-        <v>0.54977900000000002</v>
+        <v>1.26623</v>
       </c>
       <c r="H12">
-        <v>1.4139600000000001</v>
+        <v>2.3672499999999999</v>
       </c>
       <c r="I12">
-        <v>1.48915</v>
+        <v>1.98465</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -11882,19 +11882,19 @@
         <v>17</v>
       </c>
       <c r="E13">
-        <v>0.32045699999999999</v>
+        <v>0.443467</v>
       </c>
       <c r="F13">
-        <v>4.2411399999999997</v>
+        <v>6.9691200000000002</v>
       </c>
       <c r="G13">
-        <v>0.59038400000000002</v>
+        <v>0.86886699999999994</v>
       </c>
       <c r="H13">
-        <v>1.4370799999999999</v>
+        <v>2.03145</v>
       </c>
       <c r="I13">
-        <v>1.5167200000000001</v>
+        <v>2.4390000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -11911,19 +11911,19 @@
         <v>17</v>
       </c>
       <c r="E14">
-        <v>1.4419899999999999E-2</v>
+        <v>3.28086E-2</v>
       </c>
       <c r="F14">
-        <v>0.20632300000000001</v>
+        <v>0.35732199999999997</v>
       </c>
       <c r="G14">
-        <v>1.9451E-2</v>
+        <v>3.2446000000000003E-2</v>
       </c>
       <c r="H14">
-        <v>5.8974899999999997E-2</v>
+        <v>0.10017</v>
       </c>
       <c r="I14">
-        <v>6.1101099999999998E-2</v>
+        <v>0.106765</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -11940,19 +11940,19 @@
         <v>17</v>
       </c>
       <c r="E15">
-        <v>1.14934E-3</v>
+        <v>2.0814499999999999E-3</v>
       </c>
       <c r="F15">
-        <v>1.9066099999999999E-2</v>
+        <v>3.1872900000000003E-2</v>
       </c>
       <c r="G15">
-        <v>6.6259999999999995E-4</v>
+        <v>1.07069E-3</v>
       </c>
       <c r="H15">
-        <v>4.8188399999999996E-3</v>
+        <v>7.0089599999999998E-3</v>
       </c>
       <c r="I15">
-        <v>4.4511999999999998E-3</v>
+        <v>6.1134400000000004E-3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -11969,19 +11969,19 @@
         <v>17</v>
       </c>
       <c r="E16">
-        <v>1.00552E-3</v>
+        <v>1.39467E-3</v>
       </c>
       <c r="F16">
-        <v>1.87336E-2</v>
+        <v>2.2491299999999999E-2</v>
       </c>
       <c r="G16">
-        <v>3.7561000000000002E-4</v>
+        <v>4.6800999999999999E-4</v>
       </c>
       <c r="H16">
-        <v>5.0591000000000004E-3</v>
+        <v>5.68221E-3</v>
       </c>
       <c r="I16">
-        <v>4.1844100000000004E-3</v>
+        <v>5.1255199999999997E-3</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -11998,19 +11998,19 @@
         <v>17</v>
       </c>
       <c r="E17">
-        <v>3.0323800000000001E-2</v>
+        <v>3.7664200000000002E-2</v>
       </c>
       <c r="F17">
-        <v>0.40406700000000001</v>
+        <v>0.53490199999999999</v>
       </c>
       <c r="G17">
-        <v>4.1764799999999998E-2</v>
+        <v>0.141176</v>
       </c>
       <c r="H17">
-        <v>0.121283</v>
+        <v>0.19677500000000001</v>
       </c>
       <c r="I17">
-        <v>0.12764800000000001</v>
+        <v>0.176537</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -12027,19 +12027,19 @@
         <v>17</v>
       </c>
       <c r="E18">
-        <v>1.14088E-2</v>
+        <v>2.05049E-2</v>
       </c>
       <c r="F18">
-        <v>0.19970399999999999</v>
+        <v>0.37487199999999998</v>
       </c>
       <c r="G18">
-        <v>9.7590999999999997E-3</v>
+        <v>1.66532E-2</v>
       </c>
       <c r="H18">
-        <v>5.6810899999999998E-2</v>
+        <v>9.1362700000000005E-2</v>
       </c>
       <c r="I18">
-        <v>4.9737999999999997E-2</v>
+        <v>7.5546100000000005E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -12056,19 +12056,19 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>2.6604799999999998E-3</v>
+        <v>3.4619999999999998E-3</v>
       </c>
       <c r="F19">
-        <v>3.9576600000000003E-2</v>
+        <v>4.86223E-2</v>
       </c>
       <c r="G19">
-        <v>2.9978100000000001E-3</v>
+        <v>3.68484E-3</v>
       </c>
       <c r="H19">
-        <v>9.6126500000000004E-3</v>
+        <v>1.41771E-2</v>
       </c>
       <c r="I19">
-        <v>9.7390900000000006E-3</v>
+        <v>1.6249199999999998E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -12085,19 +12085,19 @@
         <v>17</v>
       </c>
       <c r="E20">
-        <v>0.15689</v>
+        <v>0.29426400000000003</v>
       </c>
       <c r="F20">
-        <v>2.10209</v>
+        <v>3.8611599999999999</v>
       </c>
       <c r="G20">
-        <v>0.26654800000000001</v>
+        <v>0.37185800000000002</v>
       </c>
       <c r="H20">
-        <v>0.70128000000000001</v>
+        <v>0.95776300000000003</v>
       </c>
       <c r="I20">
-        <v>0.73711000000000004</v>
+        <v>0.96947300000000003</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -12114,19 +12114,19 @@
         <v>17</v>
       </c>
       <c r="E21">
-        <v>0.15787399999999999</v>
+        <v>0.18417700000000001</v>
       </c>
       <c r="F21">
-        <v>2.12744</v>
+        <v>2.6637200000000001</v>
       </c>
       <c r="G21">
-        <v>0.26518799999999998</v>
+        <v>0.32309199999999999</v>
       </c>
       <c r="H21">
-        <v>0.66922000000000004</v>
+        <v>0.88461199999999995</v>
       </c>
       <c r="I21">
-        <v>0.71977100000000005</v>
+        <v>0.87490000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -12143,19 +12143,19 @@
         <v>17</v>
       </c>
       <c r="E22">
-        <v>0.22663900000000001</v>
+        <v>0.283972</v>
       </c>
       <c r="F22">
-        <v>4.1182699999999999</v>
+        <v>5.5015999999999998</v>
       </c>
       <c r="G22">
-        <v>0.130444</v>
+        <v>0.179476</v>
       </c>
       <c r="H22">
-        <v>1.32907</v>
+        <v>1.93655</v>
       </c>
       <c r="I22">
-        <v>1.2905</v>
+        <v>1.7382899999999999</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -12172,19 +12172,19 @@
         <v>17</v>
       </c>
       <c r="E23">
-        <v>1.3500999999999999E-3</v>
+        <v>1.43424E-3</v>
       </c>
       <c r="F23">
-        <v>1.94802E-2</v>
+        <v>2.23596E-2</v>
       </c>
       <c r="G23">
-        <v>1.21404E-3</v>
+        <v>1.51622E-3</v>
       </c>
       <c r="H23">
-        <v>4.7511100000000002E-3</v>
+        <v>6.0271600000000002E-3</v>
       </c>
       <c r="I23">
-        <v>5.0188100000000003E-3</v>
+        <v>6.4269000000000001E-3</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -12201,19 +12201,19 @@
         <v>17</v>
       </c>
       <c r="E24">
-        <v>3.08848E-2</v>
+        <v>3.4521000000000003E-2</v>
       </c>
       <c r="F24">
-        <v>0.419514</v>
+        <v>0.64343499999999998</v>
       </c>
       <c r="G24">
-        <v>4.1319799999999997E-2</v>
+        <v>7.5251499999999999E-2</v>
       </c>
       <c r="H24">
-        <v>0.12744900000000001</v>
+        <v>0.22986699999999999</v>
       </c>
       <c r="I24">
-        <v>0.129769</v>
+        <v>0.335588</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -12230,19 +12230,19 @@
         <v>17</v>
       </c>
       <c r="E25">
-        <v>1.50843E-2</v>
+        <v>2.4522599999999999E-2</v>
       </c>
       <c r="F25">
-        <v>0.20630799999999999</v>
+        <v>0.432116</v>
       </c>
       <c r="G25">
-        <v>1.87732E-2</v>
+        <v>3.2467500000000003E-2</v>
       </c>
       <c r="H25">
-        <v>5.9451900000000002E-2</v>
+        <v>9.7684800000000002E-2</v>
       </c>
       <c r="I25">
-        <v>6.0411399999999997E-2</v>
+        <v>0.10922800000000001</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -12259,19 +12259,19 @@
         <v>17</v>
       </c>
       <c r="E26">
-        <v>2.8350599999999999E-3</v>
+        <v>5.3406599999999997E-3</v>
       </c>
       <c r="F26">
-        <v>3.9114299999999998E-2</v>
+        <v>6.9081600000000007E-2</v>
       </c>
       <c r="G26">
-        <v>2.8091600000000002E-3</v>
+        <v>5.1775800000000002E-3</v>
       </c>
       <c r="H26">
-        <v>1.00882E-2</v>
+        <v>2.41754E-2</v>
       </c>
       <c r="I26">
-        <v>1.08056E-2</v>
+        <v>1.8583700000000002E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -12288,19 +12288,19 @@
         <v>17</v>
       </c>
       <c r="E27">
-        <v>2.2214999999999999E-2</v>
+        <v>4.5279600000000003E-2</v>
       </c>
       <c r="F27">
-        <v>0.40585900000000003</v>
+        <v>0.52664699999999998</v>
       </c>
       <c r="G27">
-        <v>1.0245499999999999E-2</v>
+        <v>1.2627899999999999E-2</v>
       </c>
       <c r="H27">
-        <v>0.109056</v>
+        <v>0.13303699999999999</v>
       </c>
       <c r="I27">
-        <v>0.105601</v>
+        <v>0.14893000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -12317,19 +12317,19 @@
         <v>17</v>
       </c>
       <c r="E28">
-        <v>2.24327E-2</v>
+        <v>3.7974500000000001E-2</v>
       </c>
       <c r="F28">
-        <v>0.405663</v>
+        <v>0.604294</v>
       </c>
       <c r="G28">
-        <v>2.1581800000000002E-2</v>
+        <v>2.6568000000000001E-2</v>
       </c>
       <c r="H28">
-        <v>0.11100500000000001</v>
+        <v>0.153669</v>
       </c>
       <c r="I28">
-        <v>0.11553099999999999</v>
+        <v>0.15131</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -12346,19 +12346,19 @@
         <v>17</v>
       </c>
       <c r="E29">
-        <v>1.7832E-3</v>
+        <v>2.3010000000000001E-3</v>
       </c>
       <c r="F29">
-        <v>3.8279800000000003E-2</v>
+        <v>3.9867399999999997E-2</v>
       </c>
       <c r="G29">
-        <v>8.5683000000000005E-4</v>
+        <v>9.1312999999999995E-4</v>
       </c>
       <c r="H29">
-        <v>8.4633799999999995E-3</v>
+        <v>1.0996300000000001E-2</v>
       </c>
       <c r="I29">
-        <v>8.8811099999999994E-3</v>
+        <v>1.08089E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -12375,19 +12375,19 @@
         <v>17</v>
       </c>
       <c r="E30">
-        <v>1.4076399999999999E-3</v>
+        <v>1.64891E-3</v>
       </c>
       <c r="F30">
-        <v>1.9242700000000001E-2</v>
+        <v>2.35958E-2</v>
       </c>
       <c r="G30">
-        <v>1.23762E-3</v>
+        <v>1.5472000000000001E-3</v>
       </c>
       <c r="H30">
-        <v>4.7576700000000003E-3</v>
+        <v>5.9708299999999999E-3</v>
       </c>
       <c r="I30">
-        <v>5.1781700000000002E-3</v>
+        <v>6.2280800000000004E-3</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -12404,19 +12404,19 @@
         <v>17</v>
       </c>
       <c r="E31">
-        <v>0.259552</v>
+        <v>0.427537</v>
       </c>
       <c r="F31">
-        <v>4.2715500000000004</v>
+        <v>6.0638399999999999</v>
       </c>
       <c r="G31">
-        <v>0.277285</v>
+        <v>0.39610000000000001</v>
       </c>
       <c r="H31">
-        <v>1.3596900000000001</v>
+        <v>1.8759399999999999</v>
       </c>
       <c r="I31">
-        <v>1.42055</v>
+        <v>2.2915000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -12433,19 +12433,19 @@
         <v>17</v>
       </c>
       <c r="E32">
-        <v>8.5389599999999996E-2</v>
+        <v>0.14571300000000001</v>
       </c>
       <c r="F32">
-        <v>0.27131</v>
+        <v>0.68805799999999995</v>
       </c>
       <c r="G32">
-        <v>5.5100799999999998E-2</v>
+        <v>0.13597899999999999</v>
       </c>
       <c r="H32">
-        <v>0.141407</v>
+        <v>0.44429200000000002</v>
       </c>
       <c r="I32">
-        <v>0.12559300000000001</v>
+        <v>0.21234800000000001</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -12462,19 +12462,19 @@
         <v>17</v>
       </c>
       <c r="E33">
-        <v>0.99799199999999999</v>
+        <v>1.35324</v>
       </c>
       <c r="F33">
-        <v>3.3825699999999999</v>
+        <v>4.3033099999999997</v>
       </c>
       <c r="G33">
-        <v>2.2726799999999998</v>
+        <v>4.3035699999999997</v>
       </c>
       <c r="H33">
-        <v>2.0567500000000001</v>
+        <v>3.4861200000000001</v>
       </c>
       <c r="I33">
-        <v>2.2741199999999999</v>
+        <v>3.3959800000000002</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -12491,19 +12491,19 @@
         <v>17</v>
       </c>
       <c r="E34">
-        <v>8.3785299999999993E-2</v>
+        <v>0.114992</v>
       </c>
       <c r="F34">
-        <v>0.312581</v>
+        <v>0.43642599999999998</v>
       </c>
       <c r="G34">
-        <v>0.15870600000000001</v>
+        <v>0.24752099999999999</v>
       </c>
       <c r="H34">
-        <v>0.16776199999999999</v>
+        <v>0.211786</v>
       </c>
       <c r="I34">
-        <v>0.182729</v>
+        <v>0.22517599999999999</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -12520,19 +12520,19 @@
         <v>17</v>
       </c>
       <c r="E35">
-        <v>1.49046E-2</v>
+        <v>2.0228699999999999E-2</v>
       </c>
       <c r="F35">
-        <v>6.2280799999999997E-2</v>
+        <v>8.1164700000000006E-2</v>
       </c>
       <c r="G35">
-        <v>2.3841500000000002E-2</v>
+        <v>2.9760100000000001E-2</v>
       </c>
       <c r="H35">
-        <v>2.6243699999999998E-2</v>
+        <v>3.5446100000000001E-2</v>
       </c>
       <c r="I35">
-        <v>3.1239699999999999E-2</v>
+        <v>3.7816200000000001E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -12549,19 +12549,19 @@
         <v>17</v>
       </c>
       <c r="E36">
-        <v>1.40523E-2</v>
+        <v>1.37511E-2</v>
       </c>
       <c r="F36">
-        <v>5.5813000000000001E-2</v>
+        <v>5.7394100000000003E-2</v>
       </c>
       <c r="G36">
-        <v>2.19711E-2</v>
+        <v>2.3859499999999999E-2</v>
       </c>
       <c r="H36">
-        <v>2.69485E-2</v>
+        <v>2.7667299999999999E-2</v>
       </c>
       <c r="I36">
-        <v>2.6221999999999999E-2</v>
+        <v>2.7905599999999999E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -12578,19 +12578,19 @@
         <v>17</v>
       </c>
       <c r="E37">
-        <v>0.163714</v>
+        <v>0.215776</v>
       </c>
       <c r="F37">
-        <v>0.58249799999999996</v>
+        <v>0.67164999999999997</v>
       </c>
       <c r="G37">
-        <v>0.133409</v>
+        <v>0.143487</v>
       </c>
       <c r="H37">
-        <v>0.31513600000000003</v>
+        <v>0.37655699999999998</v>
       </c>
       <c r="I37">
-        <v>0.27932499999999999</v>
+        <v>0.30995499999999998</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -12607,19 +12607,19 @@
         <v>17</v>
       </c>
       <c r="E38">
-        <v>6.7021099999999998E-3</v>
+        <v>7.3913499999999997E-3</v>
       </c>
       <c r="F38">
-        <v>2.81871E-2</v>
+        <v>3.3197200000000003E-2</v>
       </c>
       <c r="G38">
-        <v>9.8303699999999997E-3</v>
+        <v>1.16989E-2</v>
       </c>
       <c r="H38">
-        <v>1.3951E-2</v>
+        <v>1.5744399999999999E-2</v>
       </c>
       <c r="I38">
-        <v>1.46734E-2</v>
+        <v>1.8452300000000001E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -12636,19 +12636,19 @@
         <v>17</v>
       </c>
       <c r="E39">
-        <v>1.0153799999999999</v>
+        <v>1.3062</v>
       </c>
       <c r="F39">
-        <v>3.1147399999999998</v>
+        <v>3.47262</v>
       </c>
       <c r="G39">
-        <v>2.12853</v>
+        <v>2.3183199999999999</v>
       </c>
       <c r="H39">
-        <v>2.00509</v>
+        <v>2.2425700000000002</v>
       </c>
       <c r="I39">
-        <v>1.9450400000000001</v>
+        <v>2.1441599999999998</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -12665,19 +12665,19 @@
         <v>17</v>
       </c>
       <c r="E40">
-        <v>8.2247200000000006E-2</v>
+        <v>0.109656</v>
       </c>
       <c r="F40">
-        <v>0.31176700000000002</v>
+        <v>0.33101199999999997</v>
       </c>
       <c r="G40">
-        <v>0.164745</v>
+        <v>0.17251</v>
       </c>
       <c r="H40">
-        <v>0.16827400000000001</v>
+        <v>0.18709999999999999</v>
       </c>
       <c r="I40">
-        <v>0.186056</v>
+        <v>0.20381299999999999</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -12694,19 +12694,19 @@
         <v>17</v>
       </c>
       <c r="E41">
-        <v>1.0640499999999999</v>
+        <v>1.10249</v>
       </c>
       <c r="F41">
-        <v>3.4492799999999999</v>
+        <v>3.7436500000000001</v>
       </c>
       <c r="G41">
-        <v>2.5829900000000001</v>
+        <v>2.73881</v>
       </c>
       <c r="H41">
-        <v>2.0967799999999999</v>
+        <v>2.1501100000000002</v>
       </c>
       <c r="I41">
-        <v>2.3244099999999999</v>
+        <v>2.3958900000000001</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -12723,19 +12723,19 @@
         <v>17</v>
       </c>
       <c r="E42">
-        <v>6.8365700000000001E-3</v>
+        <v>6.2930599999999996E-3</v>
       </c>
       <c r="F42">
-        <v>2.8749500000000001E-2</v>
+        <v>2.5268700000000002E-2</v>
       </c>
       <c r="G42">
-        <v>9.84318E-3</v>
+        <v>9.2866300000000006E-3</v>
       </c>
       <c r="H42">
-        <v>1.5514E-2</v>
+        <v>1.45725E-2</v>
       </c>
       <c r="I42">
-        <v>1.4716E-2</v>
+        <v>1.50495E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -12752,19 +12752,19 @@
         <v>17</v>
       </c>
       <c r="E43">
-        <v>0.177921</v>
+        <v>0.18359600000000001</v>
       </c>
       <c r="F43">
-        <v>0.64460399999999995</v>
+        <v>0.69140500000000005</v>
       </c>
       <c r="G43">
-        <v>0.36374200000000001</v>
+        <v>0.38478699999999999</v>
       </c>
       <c r="H43">
-        <v>0.35173399999999999</v>
+        <v>0.38714999999999999</v>
       </c>
       <c r="I43">
-        <v>0.40616200000000002</v>
+        <v>0.43232199999999998</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -12781,19 +12781,19 @@
         <v>17</v>
       </c>
       <c r="E44">
-        <v>7.1540800000000002E-3</v>
+        <v>8.01551E-3</v>
       </c>
       <c r="F44">
-        <v>2.84622E-2</v>
+        <v>3.2062899999999998E-2</v>
       </c>
       <c r="G44">
-        <v>1.00234E-2</v>
+        <v>1.14153E-2</v>
       </c>
       <c r="H44">
-        <v>1.4661799999999999E-2</v>
+        <v>1.5629000000000001E-2</v>
       </c>
       <c r="I44">
-        <v>1.27238E-2</v>
+        <v>1.6878199999999999E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -12810,19 +12810,19 @@
         <v>17</v>
       </c>
       <c r="E45">
-        <v>0.18996399999999999</v>
+        <v>0.19727700000000001</v>
       </c>
       <c r="F45">
-        <v>0.61623499999999998</v>
+        <v>0.66882299999999995</v>
       </c>
       <c r="G45">
-        <v>0.34895799999999999</v>
+        <v>0.36150399999999999</v>
       </c>
       <c r="H45">
-        <v>0.34787099999999999</v>
+        <v>0.36779800000000001</v>
       </c>
       <c r="I45">
-        <v>0.33249800000000002</v>
+        <v>0.366479</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -12839,19 +12839,19 @@
         <v>17</v>
       </c>
       <c r="E46">
-        <v>2.27596</v>
+        <v>2.25637</v>
       </c>
       <c r="F46">
-        <v>7.0983900000000002</v>
+        <v>7.4773800000000001</v>
       </c>
       <c r="G46">
-        <v>5.83108</v>
+        <v>6.0673399999999997</v>
       </c>
       <c r="H46">
-        <v>4.5954100000000002</v>
+        <v>4.4435000000000002</v>
       </c>
       <c r="I46">
-        <v>4.9748700000000001</v>
+        <v>5.0168799999999996</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -12868,19 +12868,19 @@
         <v>17</v>
       </c>
       <c r="E47">
-        <v>2.4760399999999998E-2</v>
+        <v>1.5003300000000001E-2</v>
       </c>
       <c r="F47">
-        <v>6.0070699999999998E-2</v>
+        <v>6.1385700000000001E-2</v>
       </c>
       <c r="G47">
-        <v>2.44627E-2</v>
+        <v>2.4087000000000001E-2</v>
       </c>
       <c r="H47">
-        <v>3.3250599999999998E-2</v>
+        <v>3.2223099999999998E-2</v>
       </c>
       <c r="I47">
-        <v>2.9249600000000001E-2</v>
+        <v>3.2481700000000002E-2</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -12897,19 +12897,19 @@
         <v>17</v>
       </c>
       <c r="E48">
-        <v>2.1730499999999999</v>
+        <v>2.2568600000000001</v>
       </c>
       <c r="F48">
-        <v>7.1805700000000003</v>
+        <v>7.2843299999999997</v>
       </c>
       <c r="G48">
-        <v>5.6703299999999999</v>
+        <v>5.6912599999999998</v>
       </c>
       <c r="H48">
-        <v>4.6056999999999997</v>
+        <v>4.5782299999999996</v>
       </c>
       <c r="I48">
-        <v>4.9779600000000004</v>
+        <v>5.1388800000000003</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -12926,19 +12926,19 @@
         <v>17</v>
       </c>
       <c r="E49">
-        <v>2.0959699999999999</v>
+        <v>2.1791999999999998</v>
       </c>
       <c r="F49">
-        <v>6.2435099999999997</v>
+        <v>6.3037400000000003</v>
       </c>
       <c r="G49">
-        <v>1.5163500000000001</v>
+        <v>1.52007</v>
       </c>
       <c r="H49">
-        <v>4.3191499999999996</v>
+        <v>4.2885999999999997</v>
       </c>
       <c r="I49">
-        <v>3.5568</v>
+        <v>3.5233300000000001</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -12955,19 +12955,19 @@
         <v>17</v>
       </c>
       <c r="E50">
-        <v>1.05809</v>
+        <v>1.07653</v>
       </c>
       <c r="F50">
-        <v>3.5065900000000001</v>
+        <v>3.49892</v>
       </c>
       <c r="G50">
-        <v>2.3431099999999998</v>
+        <v>2.4227799999999999</v>
       </c>
       <c r="H50">
-        <v>2.1010499999999999</v>
+        <v>2.1099600000000001</v>
       </c>
       <c r="I50">
-        <v>2.38171</v>
+        <v>2.3543599999999998</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -12984,19 +12984,19 @@
         <v>17</v>
       </c>
       <c r="E51">
-        <v>0.193549</v>
+        <v>0.18823400000000001</v>
       </c>
       <c r="F51">
-        <v>0.65159800000000001</v>
+        <v>0.67390600000000001</v>
       </c>
       <c r="G51">
-        <v>0.37917699999999999</v>
+        <v>0.38117899999999999</v>
       </c>
       <c r="H51">
-        <v>0.38728099999999999</v>
+        <v>0.37627699999999997</v>
       </c>
       <c r="I51">
-        <v>0.40734700000000001</v>
+        <v>0.422566</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -13013,19 +13013,19 @@
         <v>17</v>
       </c>
       <c r="E52">
-        <v>6.2884000000000004E-3</v>
+        <v>7.3990499999999999E-3</v>
       </c>
       <c r="F52">
-        <v>2.8452000000000002E-2</v>
+        <v>2.9808299999999999E-2</v>
       </c>
       <c r="G52">
-        <v>9.8848600000000005E-3</v>
+        <v>1.00456E-2</v>
       </c>
       <c r="H52">
-        <v>1.39367E-2</v>
+        <v>1.4818100000000001E-2</v>
       </c>
       <c r="I52">
-        <v>1.3201299999999999E-2</v>
+        <v>1.32672E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -13042,19 +13042,19 @@
         <v>17</v>
       </c>
       <c r="E53">
-        <v>2.3234300000000001</v>
+        <v>2.1857799999999998</v>
       </c>
       <c r="F53">
-        <v>6.65496</v>
+        <v>6.6552499999999997</v>
       </c>
       <c r="G53">
-        <v>4.8967299999999998</v>
+        <v>4.9127700000000001</v>
       </c>
       <c r="H53">
-        <v>4.6282100000000002</v>
+        <v>4.3176199999999998</v>
       </c>
       <c r="I53">
-        <v>4.2457900000000004</v>
+        <v>4.1151999999999997</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -13071,19 +13071,19 @@
         <v>17</v>
       </c>
       <c r="E54">
-        <v>5.6660699999999996E-3</v>
+        <v>5.6312999999999997E-3</v>
       </c>
       <c r="F54">
-        <v>2.6262899999999999E-2</v>
+        <v>2.4572099999999999E-2</v>
       </c>
       <c r="G54">
-        <v>4.5693900000000004E-3</v>
+        <v>4.4675299999999999E-3</v>
       </c>
       <c r="H54">
-        <v>1.4554900000000001E-2</v>
+        <v>1.41213E-2</v>
       </c>
       <c r="I54">
-        <v>9.7321300000000003E-3</v>
+        <v>9.40707E-3</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -13100,19 +13100,19 @@
         <v>17</v>
       </c>
       <c r="E55">
-        <v>0.179949</v>
+        <v>0.18584200000000001</v>
       </c>
       <c r="F55">
-        <v>0.66027100000000005</v>
+        <v>0.63688900000000004</v>
       </c>
       <c r="G55">
-        <v>0.39011800000000002</v>
+        <v>0.41982599999999998</v>
       </c>
       <c r="H55">
-        <v>0.38299499999999997</v>
+        <v>0.38409799999999999</v>
       </c>
       <c r="I55">
-        <v>0.41871399999999998</v>
+        <v>0.38885900000000001</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -13129,19 +13129,19 @@
         <v>17</v>
       </c>
       <c r="E56">
-        <v>2.7836300000000001E-2</v>
+        <v>1.43742E-2</v>
       </c>
       <c r="F56">
-        <v>7.2057800000000005E-2</v>
+        <v>6.1089299999999999E-2</v>
       </c>
       <c r="G56">
-        <v>2.17819E-2</v>
+        <v>2.40041E-2</v>
       </c>
       <c r="H56">
-        <v>2.8843799999999999E-2</v>
+        <v>2.8111000000000001E-2</v>
       </c>
       <c r="I56">
-        <v>3.2244099999999998E-2</v>
+        <v>3.4008799999999999E-2</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -13158,19 +13158,19 @@
         <v>17</v>
       </c>
       <c r="E57">
-        <v>1.42869E-2</v>
+        <v>1.4346100000000001E-2</v>
       </c>
       <c r="F57">
-        <v>5.4781700000000003E-2</v>
+        <v>5.5420900000000002E-2</v>
       </c>
       <c r="G57">
-        <v>1.0329E-2</v>
+        <v>1.07002E-2</v>
       </c>
       <c r="H57">
-        <v>2.8420000000000001E-2</v>
+        <v>2.72506E-2</v>
       </c>
       <c r="I57">
-        <v>2.1826000000000002E-2</v>
+        <v>2.2724500000000002E-2</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -13187,19 +13187,19 @@
         <v>17</v>
       </c>
       <c r="E58">
-        <v>1.0036799999999999</v>
+        <v>1.0912500000000001</v>
       </c>
       <c r="F58">
-        <v>3.0378099999999999</v>
+        <v>3.18411</v>
       </c>
       <c r="G58">
-        <v>0.70717399999999997</v>
+        <v>0.793265</v>
       </c>
       <c r="H58">
-        <v>2.0255999999999998</v>
+        <v>2.41411</v>
       </c>
       <c r="I58">
-        <v>1.71959</v>
+        <v>1.84032</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -13216,19 +13216,19 @@
         <v>17</v>
       </c>
       <c r="E59">
-        <v>8.9486099999999999E-2</v>
+        <v>0.16389000000000001</v>
       </c>
       <c r="F59">
-        <v>0.32123699999999999</v>
+        <v>0.40949000000000002</v>
       </c>
       <c r="G59">
-        <v>0.16475000000000001</v>
+        <v>0.31322699999999998</v>
       </c>
       <c r="H59">
-        <v>0.173596</v>
+        <v>0.27712399999999998</v>
       </c>
       <c r="I59">
-        <v>0.18528500000000001</v>
+        <v>0.37355300000000002</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -13245,19 +13245,19 @@
         <v>17</v>
       </c>
       <c r="E60">
-        <v>7.9366099999999995E-2</v>
+        <v>0.11025</v>
       </c>
       <c r="F60">
-        <v>0.29950700000000002</v>
+        <v>0.33532299999999998</v>
       </c>
       <c r="G60">
-        <v>0.15481700000000001</v>
+        <v>0.16040399999999999</v>
       </c>
       <c r="H60">
-        <v>0.165797</v>
+        <v>0.19259299999999999</v>
       </c>
       <c r="I60">
-        <v>0.15465400000000001</v>
+        <v>0.16673299999999999</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -13274,19 +13274,19 @@
         <v>17</v>
       </c>
       <c r="E61">
-        <v>2.2040999999999999</v>
+        <v>2.5615899999999998</v>
       </c>
       <c r="F61">
-        <v>7.1878099999999998</v>
+        <v>8.2976100000000006</v>
       </c>
       <c r="G61">
-        <v>5.6000699999999997</v>
+        <v>5.7275400000000003</v>
       </c>
       <c r="H61">
-        <v>4.9190399999999999</v>
+        <v>4.6605600000000003</v>
       </c>
       <c r="I61">
-        <v>5.0171400000000004</v>
+        <v>5.0805300000000004</v>
       </c>
     </row>
   </sheetData>
@@ -13299,7 +13299,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13349,23 +13349,23 @@
       </c>
       <c r="E2">
         <f>AVERAGE('Wes1'!E2,'Wes2'!E2,'Wes3'!E2)</f>
-        <v>0.16481599999999999</v>
+        <v>0.22375233333333333</v>
       </c>
       <c r="F2">
         <f>AVERAGE('Wes1'!F2,'Wes2'!F2,'Wes3'!F2)</f>
-        <v>2.0227266666666668</v>
+        <v>2.5805199999999999</v>
       </c>
       <c r="G2">
         <f>AVERAGE('Wes1'!G2,'Wes2'!G2,'Wes3'!G2)</f>
-        <v>0.25042800000000004</v>
+        <v>0.2902763333333333</v>
       </c>
       <c r="H2">
         <f>AVERAGE('Wes1'!H2,'Wes2'!H2,'Wes3'!H2)</f>
-        <v>0.63772899999999988</v>
+        <v>0.73328000000000004</v>
       </c>
       <c r="I2">
         <f>AVERAGE('Wes1'!I2,'Wes2'!I2,'Wes3'!I2)</f>
-        <v>0.69422866666666661</v>
+        <v>0.80855633333333332</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -13384,23 +13384,23 @@
       </c>
       <c r="E3">
         <f>AVERAGE('Wes1'!E3,'Wes2'!E3,'Wes3'!E3)</f>
-        <v>0.3131026666666667</v>
+        <v>0.34497033333333332</v>
       </c>
       <c r="F3">
         <f>AVERAGE('Wes1'!F3,'Wes2'!F3,'Wes3'!F3)</f>
-        <v>4.070616666666667</v>
+        <v>5.0408033333333337</v>
       </c>
       <c r="G3">
         <f>AVERAGE('Wes1'!G3,'Wes2'!G3,'Wes3'!G3)</f>
-        <v>0.60770800000000003</v>
+        <v>0.7649813333333334</v>
       </c>
       <c r="H3">
         <f>AVERAGE('Wes1'!H3,'Wes2'!H3,'Wes3'!H3)</f>
-        <v>1.4590966666666665</v>
+        <v>1.6884800000000002</v>
       </c>
       <c r="I3">
         <f>AVERAGE('Wes1'!I3,'Wes2'!I3,'Wes3'!I3)</f>
-        <v>1.5081</v>
+        <v>1.6732166666666668</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -13419,23 +13419,23 @@
       </c>
       <c r="E4">
         <f>AVERAGE('Wes1'!E4,'Wes2'!E4,'Wes3'!E4)</f>
-        <v>2.8900266666666664E-2</v>
+        <v>3.0565366666666666E-2</v>
       </c>
       <c r="F4">
         <f>AVERAGE('Wes1'!F4,'Wes2'!F4,'Wes3'!F4)</f>
-        <v>0.40771466666666667</v>
+        <v>0.44765166666666661</v>
       </c>
       <c r="G4">
         <f>AVERAGE('Wes1'!G4,'Wes2'!G4,'Wes3'!G4)</f>
-        <v>4.0877733333333333E-2</v>
+        <v>4.4025733333333338E-2</v>
       </c>
       <c r="H4">
         <f>AVERAGE('Wes1'!H4,'Wes2'!H4,'Wes3'!H4)</f>
-        <v>0.12149433333333333</v>
+        <v>0.12728166666666665</v>
       </c>
       <c r="I4">
         <f>AVERAGE('Wes1'!I4,'Wes2'!I4,'Wes3'!I4)</f>
-        <v>0.12709766666666666</v>
+        <v>0.14410866666666666</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -13454,23 +13454,23 @@
       </c>
       <c r="E5">
         <f>AVERAGE('Wes1'!E5,'Wes2'!E5,'Wes3'!E5)</f>
-        <v>2.5839233333333333E-3</v>
+        <v>2.8812333333333336E-3</v>
       </c>
       <c r="F5">
         <f>AVERAGE('Wes1'!F5,'Wes2'!F5,'Wes3'!F5)</f>
-        <v>3.5996100000000003E-2</v>
+        <v>4.0838800000000001E-2</v>
       </c>
       <c r="G5">
         <f>AVERAGE('Wes1'!G5,'Wes2'!G5,'Wes3'!G5)</f>
-        <v>2.53272E-3</v>
+        <v>2.9535399999999997E-3</v>
       </c>
       <c r="H5">
         <f>AVERAGE('Wes1'!H5,'Wes2'!H5,'Wes3'!H5)</f>
-        <v>9.4200333333333327E-3</v>
+        <v>1.0385936666666666E-2</v>
       </c>
       <c r="I5">
         <f>AVERAGE('Wes1'!I5,'Wes2'!I5,'Wes3'!I5)</f>
-        <v>1.0092206666666666E-2</v>
+        <v>1.0848480000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -13489,23 +13489,23 @@
       </c>
       <c r="E6">
         <f>AVERAGE('Wes1'!E6,'Wes2'!E6,'Wes3'!E6)</f>
-        <v>1.0440873333333335E-2</v>
+        <v>1.084678E-2</v>
       </c>
       <c r="F6">
         <f>AVERAGE('Wes1'!F6,'Wes2'!F6,'Wes3'!F6)</f>
-        <v>0.19003033333333333</v>
+        <v>0.22152466666666668</v>
       </c>
       <c r="G6">
         <f>AVERAGE('Wes1'!G6,'Wes2'!G6,'Wes3'!G6)</f>
-        <v>4.9414833333333331E-3</v>
+        <v>5.6383599999999994E-3</v>
       </c>
       <c r="H6">
         <f>AVERAGE('Wes1'!H6,'Wes2'!H6,'Wes3'!H6)</f>
-        <v>5.26451E-2</v>
+        <v>5.5810699999999998E-2</v>
       </c>
       <c r="I6">
         <f>AVERAGE('Wes1'!I6,'Wes2'!I6,'Wes3'!I6)</f>
-        <v>5.01114E-2</v>
+        <v>5.2349133333333332E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -13524,23 +13524,23 @@
       </c>
       <c r="E7">
         <f>AVERAGE('Wes1'!E7,'Wes2'!E7,'Wes3'!E7)</f>
-        <v>1.5082900000000002E-2</v>
+        <v>1.6041200000000002E-2</v>
       </c>
       <c r="F7">
         <f>AVERAGE('Wes1'!F7,'Wes2'!F7,'Wes3'!F7)</f>
-        <v>0.19768166666666667</v>
+        <v>0.20449933333333334</v>
       </c>
       <c r="G7">
         <f>AVERAGE('Wes1'!G7,'Wes2'!G7,'Wes3'!G7)</f>
-        <v>1.8175899999999998E-2</v>
+        <v>1.9186766666666671E-2</v>
       </c>
       <c r="H7">
         <f>AVERAGE('Wes1'!H7,'Wes2'!H7,'Wes3'!H7)</f>
-        <v>5.581083333333333E-2</v>
+        <v>6.4891133333333337E-2</v>
       </c>
       <c r="I7">
         <f>AVERAGE('Wes1'!I7,'Wes2'!I7,'Wes3'!I7)</f>
-        <v>5.8070466666666674E-2</v>
+        <v>7.1717299999999998E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -13559,23 +13559,23 @@
       </c>
       <c r="E8">
         <f>AVERAGE('Wes1'!E8,'Wes2'!E8,'Wes3'!E8)</f>
-        <v>1.3281600000000001E-3</v>
+        <v>1.6707766666666669E-3</v>
       </c>
       <c r="F8">
         <f>AVERAGE('Wes1'!F8,'Wes2'!F8,'Wes3'!F8)</f>
-        <v>1.8823999999999997E-2</v>
+        <v>2.1897766666666665E-2</v>
       </c>
       <c r="G8">
         <f>AVERAGE('Wes1'!G8,'Wes2'!G8,'Wes3'!G8)</f>
-        <v>1.2421866666666667E-3</v>
+        <v>1.4370700000000001E-3</v>
       </c>
       <c r="H8">
         <f>AVERAGE('Wes1'!H8,'Wes2'!H8,'Wes3'!H8)</f>
-        <v>4.6808266666666662E-3</v>
+        <v>5.509556666666666E-3</v>
       </c>
       <c r="I8">
         <f>AVERAGE('Wes1'!I8,'Wes2'!I8,'Wes3'!I8)</f>
-        <v>4.6860999999999995E-3</v>
+        <v>5.7118766666666666E-3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -13594,23 +13594,23 @@
       </c>
       <c r="E9">
         <f>AVERAGE('Wes1'!E9,'Wes2'!E9,'Wes3'!E9)</f>
-        <v>0.10652943333333333</v>
+        <v>0.12493900000000001</v>
       </c>
       <c r="F9">
         <f>AVERAGE('Wes1'!F9,'Wes2'!F9,'Wes3'!F9)</f>
-        <v>2.0022366666666667</v>
+        <v>2.1438799999999998</v>
       </c>
       <c r="G9">
         <f>AVERAGE('Wes1'!G9,'Wes2'!G9,'Wes3'!G9)</f>
-        <v>6.3239433333333331E-2</v>
+        <v>6.7199466666666666E-2</v>
       </c>
       <c r="H9">
         <f>AVERAGE('Wes1'!H9,'Wes2'!H9,'Wes3'!H9)</f>
-        <v>0.65165799999999996</v>
+        <v>0.70152533333333322</v>
       </c>
       <c r="I9">
         <f>AVERAGE('Wes1'!I9,'Wes2'!I9,'Wes3'!I9)</f>
-        <v>0.59414166666666668</v>
+        <v>0.75229533333333343</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -13629,23 +13629,23 @@
       </c>
       <c r="E10">
         <f>AVERAGE('Wes1'!E10,'Wes2'!E10,'Wes3'!E10)</f>
-        <v>0.13021833333333332</v>
+        <v>0.13680033333333333</v>
       </c>
       <c r="F10">
         <f>AVERAGE('Wes1'!F10,'Wes2'!F10,'Wes3'!F10)</f>
-        <v>2.0203666666666664</v>
+        <v>2.456493333333333</v>
       </c>
       <c r="G10">
         <f>AVERAGE('Wes1'!G10,'Wes2'!G10,'Wes3'!G10)</f>
-        <v>0.130055</v>
+        <v>0.197353</v>
       </c>
       <c r="H10">
         <f>AVERAGE('Wes1'!H10,'Wes2'!H10,'Wes3'!H10)</f>
-        <v>0.63405199999999995</v>
+        <v>0.78707300000000002</v>
       </c>
       <c r="I10">
         <f>AVERAGE('Wes1'!I10,'Wes2'!I10,'Wes3'!I10)</f>
-        <v>0.63573133333333331</v>
+        <v>0.74283966666666668</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -13664,23 +13664,23 @@
       </c>
       <c r="E11">
         <f>AVERAGE('Wes1'!E11,'Wes2'!E11,'Wes3'!E11)</f>
-        <v>2.1048066666666666E-3</v>
+        <v>2.4390900000000001E-3</v>
       </c>
       <c r="F11">
         <f>AVERAGE('Wes1'!F11,'Wes2'!F11,'Wes3'!F11)</f>
-        <v>3.6395199999999996E-2</v>
+        <v>4.3635699999999999E-2</v>
       </c>
       <c r="G11">
         <f>AVERAGE('Wes1'!G11,'Wes2'!G11,'Wes3'!G11)</f>
-        <v>1.4126433333333333E-3</v>
+        <v>1.6279833333333333E-3</v>
       </c>
       <c r="H11">
         <f>AVERAGE('Wes1'!H11,'Wes2'!H11,'Wes3'!H11)</f>
-        <v>9.2869099999999989E-3</v>
+        <v>1.0409083333333334E-2</v>
       </c>
       <c r="I11">
         <f>AVERAGE('Wes1'!I11,'Wes2'!I11,'Wes3'!I11)</f>
-        <v>9.2094033333333328E-3</v>
+        <v>1.031867E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -13699,23 +13699,23 @@
       </c>
       <c r="E12">
         <f>AVERAGE('Wes1'!E12,'Wes2'!E12,'Wes3'!E12)</f>
-        <v>0.3383673333333333</v>
+        <v>0.36274566666666669</v>
       </c>
       <c r="F12">
         <f>AVERAGE('Wes1'!F12,'Wes2'!F12,'Wes3'!F12)</f>
-        <v>4.3200899999999995</v>
+        <v>5.1538700000000004</v>
       </c>
       <c r="G12">
         <f>AVERAGE('Wes1'!G12,'Wes2'!G12,'Wes3'!G12)</f>
-        <v>0.57598566666666662</v>
+        <v>0.81254300000000013</v>
       </c>
       <c r="H12">
         <f>AVERAGE('Wes1'!H12,'Wes2'!H12,'Wes3'!H12)</f>
-        <v>1.4168866666666666</v>
+        <v>1.7409233333333332</v>
       </c>
       <c r="I12">
         <f>AVERAGE('Wes1'!I12,'Wes2'!I12,'Wes3'!I12)</f>
-        <v>1.5226499999999998</v>
+        <v>1.6959866666666665</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -13734,23 +13734,23 @@
       </c>
       <c r="E13">
         <f>AVERAGE('Wes1'!E13,'Wes2'!E13,'Wes3'!E13)</f>
-        <v>0.33336300000000002</v>
+        <v>0.36369800000000002</v>
       </c>
       <c r="F13">
         <f>AVERAGE('Wes1'!F13,'Wes2'!F13,'Wes3'!F13)</f>
-        <v>4.2749100000000002</v>
+        <v>5.1873566666666671</v>
       </c>
       <c r="G13">
         <f>AVERAGE('Wes1'!G13,'Wes2'!G13,'Wes3'!G13)</f>
-        <v>0.59159666666666666</v>
+        <v>0.69308633333333336</v>
       </c>
       <c r="H13">
         <f>AVERAGE('Wes1'!H13,'Wes2'!H13,'Wes3'!H13)</f>
-        <v>1.4468966666666667</v>
+        <v>1.63612</v>
       </c>
       <c r="I13">
         <f>AVERAGE('Wes1'!I13,'Wes2'!I13,'Wes3'!I13)</f>
-        <v>1.5158500000000001</v>
+        <v>1.8347499999999999</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -13769,23 +13769,23 @@
       </c>
       <c r="E14">
         <f>AVERAGE('Wes1'!E14,'Wes2'!E14,'Wes3'!E14)</f>
-        <v>1.4421999999999999E-2</v>
+        <v>2.1144533333333337E-2</v>
       </c>
       <c r="F14">
         <f>AVERAGE('Wes1'!F14,'Wes2'!F14,'Wes3'!F14)</f>
-        <v>0.20717133333333335</v>
+        <v>0.25720966666666661</v>
       </c>
       <c r="G14">
         <f>AVERAGE('Wes1'!G14,'Wes2'!G14,'Wes3'!G14)</f>
-        <v>1.9270700000000002E-2</v>
+        <v>2.3153033333333333E-2</v>
       </c>
       <c r="H14">
         <f>AVERAGE('Wes1'!H14,'Wes2'!H14,'Wes3'!H14)</f>
-        <v>6.0891333333333332E-2</v>
+        <v>6.884916666666667E-2</v>
       </c>
       <c r="I14">
         <f>AVERAGE('Wes1'!I14,'Wes2'!I14,'Wes3'!I14)</f>
-        <v>6.5351066666666666E-2</v>
+        <v>7.6672699999999996E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -13804,23 +13804,23 @@
       </c>
       <c r="E15">
         <f>AVERAGE('Wes1'!E15,'Wes2'!E15,'Wes3'!E15)</f>
-        <v>1.2479266666666666E-3</v>
+        <v>1.4369366666666667E-3</v>
       </c>
       <c r="F15">
         <f>AVERAGE('Wes1'!F15,'Wes2'!F15,'Wes3'!F15)</f>
-        <v>2.0537033333333333E-2</v>
+        <v>2.3068833333333334E-2</v>
       </c>
       <c r="G15">
         <f>AVERAGE('Wes1'!G15,'Wes2'!G15,'Wes3'!G15)</f>
-        <v>6.9996666666666664E-4</v>
+        <v>7.9043666666666669E-4</v>
       </c>
       <c r="H15">
         <f>AVERAGE('Wes1'!H15,'Wes2'!H15,'Wes3'!H15)</f>
-        <v>5.0313833333333327E-3</v>
+        <v>5.2827699999999991E-3</v>
       </c>
       <c r="I15">
         <f>AVERAGE('Wes1'!I15,'Wes2'!I15,'Wes3'!I15)</f>
-        <v>4.7718533333333327E-3</v>
+        <v>4.8764033333333337E-3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -13839,23 +13839,23 @@
       </c>
       <c r="E16">
         <f>AVERAGE('Wes1'!E16,'Wes2'!E16,'Wes3'!E16)</f>
-        <v>1.0984066666666667E-3</v>
+        <v>1.0704200000000001E-3</v>
       </c>
       <c r="F16">
         <f>AVERAGE('Wes1'!F16,'Wes2'!F16,'Wes3'!F16)</f>
-        <v>1.8171633333333336E-2</v>
+        <v>1.9185500000000001E-2</v>
       </c>
       <c r="G16">
         <f>AVERAGE('Wes1'!G16,'Wes2'!G16,'Wes3'!G16)</f>
-        <v>3.5521666666666669E-4</v>
+        <v>4.1272333333333336E-4</v>
       </c>
       <c r="H16">
         <f>AVERAGE('Wes1'!H16,'Wes2'!H16,'Wes3'!H16)</f>
-        <v>4.5995066666666669E-3</v>
+        <v>4.8535399999999999E-3</v>
       </c>
       <c r="I16">
         <f>AVERAGE('Wes1'!I16,'Wes2'!I16,'Wes3'!I16)</f>
-        <v>4.0160700000000001E-3</v>
+        <v>4.3511633333333331E-3</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -13874,23 +13874,23 @@
       </c>
       <c r="E17">
         <f>AVERAGE('Wes1'!E17,'Wes2'!E17,'Wes3'!E17)</f>
-        <v>3.00571E-2</v>
+        <v>3.1506333333333331E-2</v>
       </c>
       <c r="F17">
         <f>AVERAGE('Wes1'!F17,'Wes2'!F17,'Wes3'!F17)</f>
-        <v>0.40908699999999998</v>
+        <v>0.45450499999999999</v>
       </c>
       <c r="G17">
         <f>AVERAGE('Wes1'!G17,'Wes2'!G17,'Wes3'!G17)</f>
-        <v>4.060353333333333E-2</v>
+        <v>7.6398533333333338E-2</v>
       </c>
       <c r="H17">
         <f>AVERAGE('Wes1'!H17,'Wes2'!H17,'Wes3'!H17)</f>
-        <v>0.12285000000000001</v>
+        <v>0.15196899999999999</v>
       </c>
       <c r="I17">
         <f>AVERAGE('Wes1'!I17,'Wes2'!I17,'Wes3'!I17)</f>
-        <v>0.13022933333333334</v>
+        <v>0.146754</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -13909,23 +13909,23 @@
       </c>
       <c r="E18">
         <f>AVERAGE('Wes1'!E18,'Wes2'!E18,'Wes3'!E18)</f>
-        <v>1.1773033333333334E-2</v>
+        <v>1.4355533333333332E-2</v>
       </c>
       <c r="F18">
         <f>AVERAGE('Wes1'!F18,'Wes2'!F18,'Wes3'!F18)</f>
-        <v>0.19947166666666663</v>
+        <v>0.25689699999999999</v>
       </c>
       <c r="G18">
         <f>AVERAGE('Wes1'!G18,'Wes2'!G18,'Wes3'!G18)</f>
-        <v>9.8538433333333342E-3</v>
+        <v>1.2081016666666666E-2</v>
       </c>
       <c r="H18">
         <f>AVERAGE('Wes1'!H18,'Wes2'!H18,'Wes3'!H18)</f>
-        <v>5.3876166666666669E-2</v>
+        <v>6.4374133333333333E-2</v>
       </c>
       <c r="I18">
         <f>AVERAGE('Wes1'!I18,'Wes2'!I18,'Wes3'!I18)</f>
-        <v>5.1817133333333328E-2</v>
+        <v>5.9936366666666664E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -13944,23 +13944,23 @@
       </c>
       <c r="E19">
         <f>AVERAGE('Wes1'!E19,'Wes2'!E19,'Wes3'!E19)</f>
-        <v>2.8385166666666669E-3</v>
+        <v>2.9722033333333332E-3</v>
       </c>
       <c r="F19">
         <f>AVERAGE('Wes1'!F19,'Wes2'!F19,'Wes3'!F19)</f>
-        <v>3.8842033333333338E-2</v>
+        <v>4.1772400000000008E-2</v>
       </c>
       <c r="G19">
         <f>AVERAGE('Wes1'!G19,'Wes2'!G19,'Wes3'!G19)</f>
-        <v>2.84527E-3</v>
+        <v>3.1032899999999999E-3</v>
       </c>
       <c r="H19">
         <f>AVERAGE('Wes1'!H19,'Wes2'!H19,'Wes3'!H19)</f>
-        <v>9.7069166666666675E-3</v>
+        <v>1.1437126666666667E-2</v>
       </c>
       <c r="I19">
         <f>AVERAGE('Wes1'!I19,'Wes2'!I19,'Wes3'!I19)</f>
-        <v>1.0166526666666667E-2</v>
+        <v>1.2640166666666666E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -13979,23 +13979,23 @@
       </c>
       <c r="E20">
         <f>AVERAGE('Wes1'!E20,'Wes2'!E20,'Wes3'!E20)</f>
-        <v>0.16124766666666665</v>
+        <v>0.204815</v>
       </c>
       <c r="F20">
         <f>AVERAGE('Wes1'!F20,'Wes2'!F20,'Wes3'!F20)</f>
-        <v>2.0869733333333333</v>
+        <v>2.6766633333333334</v>
       </c>
       <c r="G20">
         <f>AVERAGE('Wes1'!G20,'Wes2'!G20,'Wes3'!G20)</f>
-        <v>0.26830533333333334</v>
+        <v>0.30217366666666667</v>
       </c>
       <c r="H20">
         <f>AVERAGE('Wes1'!H20,'Wes2'!H20,'Wes3'!H20)</f>
-        <v>0.69194433333333327</v>
+        <v>0.79373400000000005</v>
       </c>
       <c r="I20">
         <f>AVERAGE('Wes1'!I20,'Wes2'!I20,'Wes3'!I20)</f>
-        <v>0.73061833333333326</v>
+        <v>0.9793493333333334</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -14014,23 +14014,23 @@
       </c>
       <c r="E21">
         <f>AVERAGE('Wes1'!E21,'Wes2'!E21,'Wes3'!E21)</f>
-        <v>0.158967</v>
+        <v>0.17129533333333335</v>
       </c>
       <c r="F21">
         <f>AVERAGE('Wes1'!F21,'Wes2'!F21,'Wes3'!F21)</f>
-        <v>2.0988599999999997</v>
+        <v>2.3677833333333336</v>
       </c>
       <c r="G21">
         <f>AVERAGE('Wes1'!G21,'Wes2'!G21,'Wes3'!G21)</f>
-        <v>0.26190033333333335</v>
+        <v>0.32081366666666661</v>
       </c>
       <c r="H21">
         <f>AVERAGE('Wes1'!H21,'Wes2'!H21,'Wes3'!H21)</f>
-        <v>0.67631400000000008</v>
+        <v>0.96832666666666667</v>
       </c>
       <c r="I21">
         <f>AVERAGE('Wes1'!I21,'Wes2'!I21,'Wes3'!I21)</f>
-        <v>0.72667800000000005</v>
+        <v>0.97546133333333318</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -14049,23 +14049,23 @@
       </c>
       <c r="E22">
         <f>AVERAGE('Wes1'!E22,'Wes2'!E22,'Wes3'!E22)</f>
-        <v>0.21428733333333336</v>
+        <v>0.2757013333333333</v>
       </c>
       <c r="F22">
         <f>AVERAGE('Wes1'!F22,'Wes2'!F22,'Wes3'!F22)</f>
-        <v>4.0747399999999994</v>
+        <v>5.0856233333333334</v>
       </c>
       <c r="G22">
         <f>AVERAGE('Wes1'!G22,'Wes2'!G22,'Wes3'!G22)</f>
-        <v>0.13023133333333334</v>
+        <v>0.15199300000000002</v>
       </c>
       <c r="H22">
         <f>AVERAGE('Wes1'!H22,'Wes2'!H22,'Wes3'!H22)</f>
-        <v>1.2895199999999998</v>
+        <v>1.58721</v>
       </c>
       <c r="I22">
         <f>AVERAGE('Wes1'!I22,'Wes2'!I22,'Wes3'!I22)</f>
-        <v>1.2664033333333331</v>
+        <v>1.4681866666666668</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -14084,23 +14084,23 @@
       </c>
       <c r="E23">
         <f>AVERAGE('Wes1'!E23,'Wes2'!E23,'Wes3'!E23)</f>
-        <v>1.3580833333333333E-3</v>
+        <v>1.4290366666666668E-3</v>
       </c>
       <c r="F23">
         <f>AVERAGE('Wes1'!F23,'Wes2'!F23,'Wes3'!F23)</f>
-        <v>1.9158066666666668E-2</v>
+        <v>2.1002733333333332E-2</v>
       </c>
       <c r="G23">
         <f>AVERAGE('Wes1'!G23,'Wes2'!G23,'Wes3'!G23)</f>
-        <v>1.18351E-3</v>
+        <v>1.4469300000000001E-3</v>
       </c>
       <c r="H23">
         <f>AVERAGE('Wes1'!H23,'Wes2'!H23,'Wes3'!H23)</f>
-        <v>4.5953099999999992E-3</v>
+        <v>5.7170900000000002E-3</v>
       </c>
       <c r="I23">
         <f>AVERAGE('Wes1'!I23,'Wes2'!I23,'Wes3'!I23)</f>
-        <v>4.9896333333333334E-3</v>
+        <v>5.88435E-3</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -14119,23 +14119,23 @@
       </c>
       <c r="E24">
         <f>AVERAGE('Wes1'!E24,'Wes2'!E24,'Wes3'!E24)</f>
-        <v>2.9615266666666668E-2</v>
+        <v>3.1863433333333337E-2</v>
       </c>
       <c r="F24">
         <f>AVERAGE('Wes1'!F24,'Wes2'!F24,'Wes3'!F24)</f>
-        <v>0.40823933333333334</v>
+        <v>0.50176699999999996</v>
       </c>
       <c r="G24">
         <f>AVERAGE('Wes1'!G24,'Wes2'!G24,'Wes3'!G24)</f>
-        <v>4.2063733333333332E-2</v>
+        <v>5.5336466666666667E-2</v>
       </c>
       <c r="H24">
         <f>AVERAGE('Wes1'!H24,'Wes2'!H24,'Wes3'!H24)</f>
-        <v>0.12038</v>
+        <v>0.159911</v>
       </c>
       <c r="I24">
         <f>AVERAGE('Wes1'!I24,'Wes2'!I24,'Wes3'!I24)</f>
-        <v>0.13227533333333333</v>
+        <v>0.20388999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -14154,23 +14154,23 @@
       </c>
       <c r="E25">
         <f>AVERAGE('Wes1'!E25,'Wes2'!E25,'Wes3'!E25)</f>
-        <v>1.6053433333333336E-2</v>
+        <v>1.8513766666666667E-2</v>
       </c>
       <c r="F25">
         <f>AVERAGE('Wes1'!F25,'Wes2'!F25,'Wes3'!F25)</f>
-        <v>0.20144566666666663</v>
+        <v>0.28510833333333335</v>
       </c>
       <c r="G25">
         <f>AVERAGE('Wes1'!G25,'Wes2'!G25,'Wes3'!G25)</f>
-        <v>1.8937700000000002E-2</v>
+        <v>2.4136599999999998E-2</v>
       </c>
       <c r="H25">
         <f>AVERAGE('Wes1'!H25,'Wes2'!H25,'Wes3'!H25)</f>
-        <v>5.9946800000000001E-2</v>
+        <v>7.3061033333333344E-2</v>
       </c>
       <c r="I25">
         <f>AVERAGE('Wes1'!I25,'Wes2'!I25,'Wes3'!I25)</f>
-        <v>6.1939933333333336E-2</v>
+        <v>7.9253133333333337E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -14189,23 +14189,23 @@
       </c>
       <c r="E26">
         <f>AVERAGE('Wes1'!E26,'Wes2'!E26,'Wes3'!E26)</f>
-        <v>2.8063466666666671E-3</v>
+        <v>3.8696366666666668E-3</v>
       </c>
       <c r="F26">
         <f>AVERAGE('Wes1'!F26,'Wes2'!F26,'Wes3'!F26)</f>
-        <v>3.9434400000000001E-2</v>
+        <v>5.1370533333333336E-2</v>
       </c>
       <c r="G26">
         <f>AVERAGE('Wes1'!G26,'Wes2'!G26,'Wes3'!G26)</f>
-        <v>2.8114166666666669E-3</v>
+        <v>3.7686966666666669E-3</v>
       </c>
       <c r="H26">
         <f>AVERAGE('Wes1'!H26,'Wes2'!H26,'Wes3'!H26)</f>
-        <v>1.0267833333333332E-2</v>
+        <v>1.5463933333333332E-2</v>
       </c>
       <c r="I26">
         <f>AVERAGE('Wes1'!I26,'Wes2'!I26,'Wes3'!I26)</f>
-        <v>1.0938233333333333E-2</v>
+        <v>1.4104E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -14224,23 +14224,23 @@
       </c>
       <c r="E27">
         <f>AVERAGE('Wes1'!E27,'Wes2'!E27,'Wes3'!E27)</f>
-        <v>2.0476366666666666E-2</v>
+        <v>3.0203233333333333E-2</v>
       </c>
       <c r="F27">
         <f>AVERAGE('Wes1'!F27,'Wes2'!F27,'Wes3'!F27)</f>
-        <v>0.39963700000000002</v>
+        <v>0.45577366666666669</v>
       </c>
       <c r="G27">
         <f>AVERAGE('Wes1'!G27,'Wes2'!G27,'Wes3'!G27)</f>
-        <v>1.0340226666666667E-2</v>
+        <v>1.17605E-2</v>
       </c>
       <c r="H27">
         <f>AVERAGE('Wes1'!H27,'Wes2'!H27,'Wes3'!H27)</f>
-        <v>0.11296366666666667</v>
+        <v>0.12174566666666668</v>
       </c>
       <c r="I27">
         <f>AVERAGE('Wes1'!I27,'Wes2'!I27,'Wes3'!I27)</f>
-        <v>0.10836133333333335</v>
+        <v>0.12671733333333332</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -14259,23 +14259,23 @@
       </c>
       <c r="E28">
         <f>AVERAGE('Wes1'!E28,'Wes2'!E28,'Wes3'!E28)</f>
-        <v>2.4081933333333333E-2</v>
+        <v>3.0643300000000002E-2</v>
       </c>
       <c r="F28">
         <f>AVERAGE('Wes1'!F28,'Wes2'!F28,'Wes3'!F28)</f>
-        <v>0.4065246666666667</v>
+        <v>0.49929566666666664</v>
       </c>
       <c r="G28">
         <f>AVERAGE('Wes1'!G28,'Wes2'!G28,'Wes3'!G28)</f>
-        <v>2.19174E-2</v>
+        <v>2.360923333333333E-2</v>
       </c>
       <c r="H28">
         <f>AVERAGE('Wes1'!H28,'Wes2'!H28,'Wes3'!H28)</f>
-        <v>0.11444466666666668</v>
+        <v>0.13327633333333333</v>
       </c>
       <c r="I28">
         <f>AVERAGE('Wes1'!I28,'Wes2'!I28,'Wes3'!I28)</f>
-        <v>0.11280866666666667</v>
+        <v>0.13416333333333333</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -14294,23 +14294,23 @@
       </c>
       <c r="E29">
         <f>AVERAGE('Wes1'!E29,'Wes2'!E29,'Wes3'!E29)</f>
-        <v>1.990016666666667E-3</v>
+        <v>2.1091233333333332E-3</v>
       </c>
       <c r="F29">
         <f>AVERAGE('Wes1'!F29,'Wes2'!F29,'Wes3'!F29)</f>
-        <v>3.8204633333333335E-2</v>
+        <v>4.0001266666666667E-2</v>
       </c>
       <c r="G29">
         <f>AVERAGE('Wes1'!G29,'Wes2'!G29,'Wes3'!G29)</f>
-        <v>8.3941333333333327E-4</v>
+        <v>8.7270000000000002E-4</v>
       </c>
       <c r="H29">
         <f>AVERAGE('Wes1'!H29,'Wes2'!H29,'Wes3'!H29)</f>
-        <v>9.0130733333333331E-3</v>
+        <v>1.0181033333333334E-2</v>
       </c>
       <c r="I29">
         <f>AVERAGE('Wes1'!I29,'Wes2'!I29,'Wes3'!I29)</f>
-        <v>9.0802433333333332E-3</v>
+        <v>9.7795033333333333E-3</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -14329,23 +14329,23 @@
       </c>
       <c r="E30">
         <f>AVERAGE('Wes1'!E30,'Wes2'!E30,'Wes3'!E30)</f>
-        <v>1.3628166666666667E-3</v>
+        <v>1.5176366666666667E-3</v>
       </c>
       <c r="F30">
         <f>AVERAGE('Wes1'!F30,'Wes2'!F30,'Wes3'!F30)</f>
-        <v>1.9421900000000002E-2</v>
+        <v>2.1729700000000001E-2</v>
       </c>
       <c r="G30">
         <f>AVERAGE('Wes1'!G30,'Wes2'!G30,'Wes3'!G30)</f>
-        <v>1.2665633333333334E-3</v>
+        <v>1.5329499999999999E-3</v>
       </c>
       <c r="H30">
         <f>AVERAGE('Wes1'!H30,'Wes2'!H30,'Wes3'!H30)</f>
-        <v>4.846433333333333E-3</v>
+        <v>5.8020499999999996E-3</v>
       </c>
       <c r="I30">
         <f>AVERAGE('Wes1'!I30,'Wes2'!I30,'Wes3'!I30)</f>
-        <v>5.27576E-3</v>
+        <v>6.1427599999999997E-3</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -14364,23 +14364,23 @@
       </c>
       <c r="E31">
         <f>AVERAGE('Wes1'!E31,'Wes2'!E31,'Wes3'!E31)</f>
-        <v>0.26917200000000002</v>
+        <v>0.33257399999999998</v>
       </c>
       <c r="F31">
         <f>AVERAGE('Wes1'!F31,'Wes2'!F31,'Wes3'!F31)</f>
-        <v>4.1936633333333333</v>
+        <v>5.16676</v>
       </c>
       <c r="G31">
         <f>AVERAGE('Wes1'!G31,'Wes2'!G31,'Wes3'!G31)</f>
-        <v>0.28183900000000001</v>
+        <v>0.3316736666666667</v>
       </c>
       <c r="H31">
         <f>AVERAGE('Wes1'!H31,'Wes2'!H31,'Wes3'!H31)</f>
-        <v>1.3695833333333336</v>
+        <v>1.5837466666666666</v>
       </c>
       <c r="I31">
         <f>AVERAGE('Wes1'!I31,'Wes2'!I31,'Wes3'!I31)</f>
-        <v>1.3892966666666666</v>
+        <v>1.7241666666666668</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -14399,23 +14399,23 @@
       </c>
       <c r="E32">
         <f>AVERAGE('Wes1'!E32,'Wes2'!E32,'Wes3'!E32)</f>
-        <v>8.0588466666666678E-2</v>
+        <v>0.10666749999999998</v>
       </c>
       <c r="F32">
         <f>AVERAGE('Wes1'!F32,'Wes2'!F32,'Wes3'!F32)</f>
-        <v>0.26832966666666663</v>
+        <v>0.43386266666666667</v>
       </c>
       <c r="G32">
         <f>AVERAGE('Wes1'!G32,'Wes2'!G32,'Wes3'!G32)</f>
-        <v>5.5238500000000003E-2</v>
+        <v>8.74447E-2</v>
       </c>
       <c r="H32">
         <f>AVERAGE('Wes1'!H32,'Wes2'!H32,'Wes3'!H32)</f>
-        <v>0.14471100000000001</v>
+        <v>0.24826433333333334</v>
       </c>
       <c r="I32">
         <f>AVERAGE('Wes1'!I32,'Wes2'!I32,'Wes3'!I32)</f>
-        <v>0.12673700000000002</v>
+        <v>0.15819333333333332</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -14434,23 +14434,23 @@
       </c>
       <c r="E33">
         <f>AVERAGE('Wes1'!E33,'Wes2'!E33,'Wes3'!E33)</f>
-        <v>0.99779300000000004</v>
+        <v>1.1595</v>
       </c>
       <c r="F33">
         <f>AVERAGE('Wes1'!F33,'Wes2'!F33,'Wes3'!F33)</f>
-        <v>3.3405733333333334</v>
+        <v>3.7933500000000002</v>
       </c>
       <c r="G33">
         <f>AVERAGE('Wes1'!G33,'Wes2'!G33,'Wes3'!G33)</f>
-        <v>2.2641033333333334</v>
+        <v>2.9707400000000006</v>
       </c>
       <c r="H33">
         <f>AVERAGE('Wes1'!H33,'Wes2'!H33,'Wes3'!H33)</f>
-        <v>2.0723233333333337</v>
+        <v>2.5262033333333331</v>
       </c>
       <c r="I33">
         <f>AVERAGE('Wes1'!I33,'Wes2'!I33,'Wes3'!I33)</f>
-        <v>2.2836400000000001</v>
+        <v>2.7076433333333334</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -14469,23 +14469,23 @@
       </c>
       <c r="E34">
         <f>AVERAGE('Wes1'!E34,'Wes2'!E34,'Wes3'!E34)</f>
-        <v>8.0015633333333336E-2</v>
+        <v>9.2536400000000005E-2</v>
       </c>
       <c r="F34">
         <f>AVERAGE('Wes1'!F34,'Wes2'!F34,'Wes3'!F34)</f>
-        <v>0.30973933333333337</v>
+        <v>0.35799899999999996</v>
       </c>
       <c r="G34">
         <f>AVERAGE('Wes1'!G34,'Wes2'!G34,'Wes3'!G34)</f>
-        <v>0.15881433333333334</v>
+        <v>0.17841233333333331</v>
       </c>
       <c r="H34">
         <f>AVERAGE('Wes1'!H34,'Wes2'!H34,'Wes3'!H34)</f>
-        <v>0.16982799999999998</v>
+        <v>0.18055133333333331</v>
       </c>
       <c r="I34">
         <f>AVERAGE('Wes1'!I34,'Wes2'!I34,'Wes3'!I34)</f>
-        <v>0.18225433333333332</v>
+        <v>0.19841966666666666</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -14504,23 +14504,23 @@
       </c>
       <c r="E35">
         <f>AVERAGE('Wes1'!E35,'Wes2'!E35,'Wes3'!E35)</f>
-        <v>1.3992533333333335E-2</v>
+        <v>1.6412666666666669E-2</v>
       </c>
       <c r="F35">
         <f>AVERAGE('Wes1'!F35,'Wes2'!F35,'Wes3'!F35)</f>
-        <v>5.887446666666666E-2</v>
+        <v>6.8394966666666668E-2</v>
       </c>
       <c r="G35">
         <f>AVERAGE('Wes1'!G35,'Wes2'!G35,'Wes3'!G35)</f>
-        <v>2.2398733333333334E-2</v>
+        <v>2.5607133333333334E-2</v>
       </c>
       <c r="H35">
         <f>AVERAGE('Wes1'!H35,'Wes2'!H35,'Wes3'!H35)</f>
-        <v>2.7271633333333333E-2</v>
+        <v>3.1204333333333334E-2</v>
       </c>
       <c r="I35">
         <f>AVERAGE('Wes1'!I35,'Wes2'!I35,'Wes3'!I35)</f>
-        <v>3.1393366666666665E-2</v>
+        <v>3.5104400000000001E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -14539,23 +14539,23 @@
       </c>
       <c r="E36">
         <f>AVERAGE('Wes1'!E36,'Wes2'!E36,'Wes3'!E36)</f>
-        <v>1.42512E-2</v>
+        <v>1.4668566666666667E-2</v>
       </c>
       <c r="F36">
         <f>AVERAGE('Wes1'!F36,'Wes2'!F36,'Wes3'!F36)</f>
-        <v>5.4841633333333334E-2</v>
+        <v>5.8363033333333335E-2</v>
       </c>
       <c r="G36">
         <f>AVERAGE('Wes1'!G36,'Wes2'!G36,'Wes3'!G36)</f>
-        <v>2.1787299999999999E-2</v>
+        <v>2.3051100000000001E-2</v>
       </c>
       <c r="H36">
         <f>AVERAGE('Wes1'!H36,'Wes2'!H36,'Wes3'!H36)</f>
-        <v>2.8377599999999999E-2</v>
+        <v>2.8778433333333336E-2</v>
       </c>
       <c r="I36">
         <f>AVERAGE('Wes1'!I36,'Wes2'!I36,'Wes3'!I36)</f>
-        <v>2.6031266666666667E-2</v>
+        <v>2.67651E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -14574,23 +14574,23 @@
       </c>
       <c r="E37">
         <f>AVERAGE('Wes1'!E37,'Wes2'!E37,'Wes3'!E37)</f>
-        <v>0.16574333333333335</v>
+        <v>0.18751966666666667</v>
       </c>
       <c r="F37">
         <f>AVERAGE('Wes1'!F37,'Wes2'!F37,'Wes3'!F37)</f>
-        <v>0.57057999999999998</v>
+        <v>0.61294133333333345</v>
       </c>
       <c r="G37">
         <f>AVERAGE('Wes1'!G37,'Wes2'!G37,'Wes3'!G37)</f>
-        <v>0.12572966666666666</v>
+        <v>0.132184</v>
       </c>
       <c r="H37">
         <f>AVERAGE('Wes1'!H37,'Wes2'!H37,'Wes3'!H37)</f>
-        <v>0.31612633333333334</v>
+        <v>0.33807666666666664</v>
       </c>
       <c r="I37">
         <f>AVERAGE('Wes1'!I37,'Wes2'!I37,'Wes3'!I37)</f>
-        <v>0.27793666666666667</v>
+        <v>0.290352</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -14609,23 +14609,23 @@
       </c>
       <c r="E38">
         <f>AVERAGE('Wes1'!E38,'Wes2'!E38,'Wes3'!E38)</f>
-        <v>6.7859333333333341E-3</v>
+        <v>6.6430199999999995E-3</v>
       </c>
       <c r="F38">
         <f>AVERAGE('Wes1'!F38,'Wes2'!F38,'Wes3'!F38)</f>
-        <v>2.7722433333333334E-2</v>
+        <v>2.9907366666666668E-2</v>
       </c>
       <c r="G38">
         <f>AVERAGE('Wes1'!G38,'Wes2'!G38,'Wes3'!G38)</f>
-        <v>9.8733766666666677E-3</v>
+        <v>1.0244746666666665E-2</v>
       </c>
       <c r="H38">
         <f>AVERAGE('Wes1'!H38,'Wes2'!H38,'Wes3'!H38)</f>
-        <v>1.4031199999999999E-2</v>
+        <v>1.3700833333333334E-2</v>
       </c>
       <c r="I38">
         <f>AVERAGE('Wes1'!I38,'Wes2'!I38,'Wes3'!I38)</f>
-        <v>1.5419933333333335E-2</v>
+        <v>1.6687666666666667E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -14644,23 +14644,23 @@
       </c>
       <c r="E39">
         <f>AVERAGE('Wes1'!E39,'Wes2'!E39,'Wes3'!E39)</f>
-        <v>0.97773733333333335</v>
+        <v>1.1013193333333333</v>
       </c>
       <c r="F39">
         <f>AVERAGE('Wes1'!F39,'Wes2'!F39,'Wes3'!F39)</f>
-        <v>3.0854633333333332</v>
+        <v>3.2915499999999995</v>
       </c>
       <c r="G39">
         <f>AVERAGE('Wes1'!G39,'Wes2'!G39,'Wes3'!G39)</f>
-        <v>2.1082666666666667</v>
+        <v>2.2010233333333331</v>
       </c>
       <c r="H39">
         <f>AVERAGE('Wes1'!H39,'Wes2'!H39,'Wes3'!H39)</f>
-        <v>1.9993533333333333</v>
+        <v>2.1352666666666669</v>
       </c>
       <c r="I39">
         <f>AVERAGE('Wes1'!I39,'Wes2'!I39,'Wes3'!I39)</f>
-        <v>1.9034066666666665</v>
+        <v>2.0140666666666664</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -14679,23 +14679,23 @@
       </c>
       <c r="E40">
         <f>AVERAGE('Wes1'!E40,'Wes2'!E40,'Wes3'!E40)</f>
-        <v>8.231653333333333E-2</v>
+        <v>9.3814233333333344E-2</v>
       </c>
       <c r="F40">
         <f>AVERAGE('Wes1'!F40,'Wes2'!F40,'Wes3'!F40)</f>
-        <v>0.31142533333333333</v>
+        <v>0.32543166666666667</v>
       </c>
       <c r="G40">
         <f>AVERAGE('Wes1'!G40,'Wes2'!G40,'Wes3'!G40)</f>
-        <v>0.15944866666666668</v>
+        <v>0.16523233333333334</v>
       </c>
       <c r="H40">
         <f>AVERAGE('Wes1'!H40,'Wes2'!H40,'Wes3'!H40)</f>
-        <v>0.16836766666666669</v>
+        <v>0.16595366666666667</v>
       </c>
       <c r="I40">
         <f>AVERAGE('Wes1'!I40,'Wes2'!I40,'Wes3'!I40)</f>
-        <v>0.18858933333333336</v>
+        <v>0.19465399999999999</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -14714,23 +14714,23 @@
       </c>
       <c r="E41">
         <f>AVERAGE('Wes1'!E41,'Wes2'!E41,'Wes3'!E41)</f>
-        <v>1.0602233333333333</v>
+        <v>1.0472666666666666</v>
       </c>
       <c r="F41">
         <f>AVERAGE('Wes1'!F41,'Wes2'!F41,'Wes3'!F41)</f>
-        <v>3.3594533333333332</v>
+        <v>3.5392100000000002</v>
       </c>
       <c r="G41">
         <f>AVERAGE('Wes1'!G41,'Wes2'!G41,'Wes3'!G41)</f>
-        <v>2.537876666666667</v>
+        <v>2.5898966666666667</v>
       </c>
       <c r="H41">
         <f>AVERAGE('Wes1'!H41,'Wes2'!H41,'Wes3'!H41)</f>
-        <v>2.1004533333333333</v>
+        <v>2.1116066666666669</v>
       </c>
       <c r="I41">
         <f>AVERAGE('Wes1'!I41,'Wes2'!I41,'Wes3'!I41)</f>
-        <v>2.3007133333333329</v>
+        <v>2.35087</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -14749,23 +14749,23 @@
       </c>
       <c r="E42">
         <f>AVERAGE('Wes1'!E42,'Wes2'!E42,'Wes3'!E42)</f>
-        <v>6.9009166666666663E-3</v>
+        <v>6.5490766666666672E-3</v>
       </c>
       <c r="F42">
         <f>AVERAGE('Wes1'!F42,'Wes2'!F42,'Wes3'!F42)</f>
-        <v>2.8424266666666666E-2</v>
+        <v>2.8324666666666668E-2</v>
       </c>
       <c r="G42">
         <f>AVERAGE('Wes1'!G42,'Wes2'!G42,'Wes3'!G42)</f>
-        <v>9.3669066666666658E-3</v>
+        <v>9.7504300000000009E-3</v>
       </c>
       <c r="H42">
         <f>AVERAGE('Wes1'!H42,'Wes2'!H42,'Wes3'!H42)</f>
-        <v>1.3428133333333333E-2</v>
+        <v>1.40882E-2</v>
       </c>
       <c r="I42">
         <f>AVERAGE('Wes1'!I42,'Wes2'!I42,'Wes3'!I42)</f>
-        <v>1.4168699999999999E-2</v>
+        <v>1.5201800000000001E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -14784,23 +14784,23 @@
       </c>
       <c r="E43">
         <f>AVERAGE('Wes1'!E43,'Wes2'!E43,'Wes3'!E43)</f>
-        <v>0.17470633333333332</v>
+        <v>0.18190733333333331</v>
       </c>
       <c r="F43">
         <f>AVERAGE('Wes1'!F43,'Wes2'!F43,'Wes3'!F43)</f>
-        <v>0.63412933333333332</v>
+        <v>0.67650366666666673</v>
       </c>
       <c r="G43">
         <f>AVERAGE('Wes1'!G43,'Wes2'!G43,'Wes3'!G43)</f>
-        <v>0.35897566666666664</v>
+        <v>0.3756456666666666</v>
       </c>
       <c r="H43">
         <f>AVERAGE('Wes1'!H43,'Wes2'!H43,'Wes3'!H43)</f>
-        <v>0.35786933333333337</v>
+        <v>0.36872533333333335</v>
       </c>
       <c r="I43">
         <f>AVERAGE('Wes1'!I43,'Wes2'!I43,'Wes3'!I43)</f>
-        <v>0.40095366666666665</v>
+        <v>0.41971199999999992</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -14819,23 +14819,23 @@
       </c>
       <c r="E44">
         <f>AVERAGE('Wes1'!E44,'Wes2'!E44,'Wes3'!E44)</f>
-        <v>6.4692800000000009E-3</v>
+        <v>7.2269866666666667E-3</v>
       </c>
       <c r="F44">
         <f>AVERAGE('Wes1'!F44,'Wes2'!F44,'Wes3'!F44)</f>
-        <v>2.7388300000000001E-2</v>
+        <v>3.0617766666666667E-2</v>
       </c>
       <c r="G44">
         <f>AVERAGE('Wes1'!G44,'Wes2'!G44,'Wes3'!G44)</f>
-        <v>1.0015959999999999E-2</v>
+        <v>1.0526023333333334E-2</v>
       </c>
       <c r="H44">
         <f>AVERAGE('Wes1'!H44,'Wes2'!H44,'Wes3'!H44)</f>
-        <v>1.3369766666666666E-2</v>
+        <v>1.4357733333333336E-2</v>
       </c>
       <c r="I44">
         <f>AVERAGE('Wes1'!I44,'Wes2'!I44,'Wes3'!I44)</f>
-        <v>1.4184433333333335E-2</v>
+        <v>1.6059633333333333E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -14854,23 +14854,23 @@
       </c>
       <c r="E45">
         <f>AVERAGE('Wes1'!E45,'Wes2'!E45,'Wes3'!E45)</f>
-        <v>0.17751266666666665</v>
+        <v>0.18645300000000001</v>
       </c>
       <c r="F45">
         <f>AVERAGE('Wes1'!F45,'Wes2'!F45,'Wes3'!F45)</f>
-        <v>0.59791533333333335</v>
+        <v>0.65069433333333337</v>
       </c>
       <c r="G45">
         <f>AVERAGE('Wes1'!G45,'Wes2'!G45,'Wes3'!G45)</f>
-        <v>0.34386299999999997</v>
+        <v>0.35795366666666667</v>
       </c>
       <c r="H45">
         <f>AVERAGE('Wes1'!H45,'Wes2'!H45,'Wes3'!H45)</f>
-        <v>0.34417266666666668</v>
+        <v>0.35206233333333331</v>
       </c>
       <c r="I45">
         <f>AVERAGE('Wes1'!I45,'Wes2'!I45,'Wes3'!I45)</f>
-        <v>0.33234633333333335</v>
+        <v>0.34808233333333333</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -14889,23 +14889,23 @@
       </c>
       <c r="E46">
         <f>AVERAGE('Wes1'!E46,'Wes2'!E46,'Wes3'!E46)</f>
-        <v>2.1962499999999996</v>
+        <v>2.2260566666666666</v>
       </c>
       <c r="F46">
         <f>AVERAGE('Wes1'!F46,'Wes2'!F46,'Wes3'!F46)</f>
-        <v>6.9609666666666667</v>
+        <v>7.2295066666666665</v>
       </c>
       <c r="G46">
         <f>AVERAGE('Wes1'!G46,'Wes2'!G46,'Wes3'!G46)</f>
-        <v>5.7111633333333343</v>
+        <v>5.8001900000000006</v>
       </c>
       <c r="H46">
         <f>AVERAGE('Wes1'!H46,'Wes2'!H46,'Wes3'!H46)</f>
-        <v>4.5029066666666671</v>
+        <v>4.3896133333333331</v>
       </c>
       <c r="I46">
         <f>AVERAGE('Wes1'!I46,'Wes2'!I46,'Wes3'!I46)</f>
-        <v>4.8842733333333328</v>
+        <v>5.0077800000000003</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -14924,23 +14924,23 @@
       </c>
       <c r="E47">
         <f>AVERAGE('Wes1'!E47,'Wes2'!E47,'Wes3'!E47)</f>
-        <v>1.8324199999999999E-2</v>
+        <v>1.49537E-2</v>
       </c>
       <c r="F47">
         <f>AVERAGE('Wes1'!F47,'Wes2'!F47,'Wes3'!F47)</f>
-        <v>5.8405666666666668E-2</v>
+        <v>5.8985700000000002E-2</v>
       </c>
       <c r="G47">
         <f>AVERAGE('Wes1'!G47,'Wes2'!G47,'Wes3'!G47)</f>
-        <v>2.3881799999999998E-2</v>
+        <v>2.3874233333333331E-2</v>
       </c>
       <c r="H47">
         <f>AVERAGE('Wes1'!H47,'Wes2'!H47,'Wes3'!H47)</f>
-        <v>3.2998766666666672E-2</v>
+        <v>3.2744033333333332E-2</v>
       </c>
       <c r="I47">
         <f>AVERAGE('Wes1'!I47,'Wes2'!I47,'Wes3'!I47)</f>
-        <v>3.1517233333333332E-2</v>
+        <v>3.1172900000000003E-2</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -14959,23 +14959,23 @@
       </c>
       <c r="E48">
         <f>AVERAGE('Wes1'!E48,'Wes2'!E48,'Wes3'!E48)</f>
-        <v>2.6733166666666666</v>
+        <v>2.2825666666666664</v>
       </c>
       <c r="F48">
         <f>AVERAGE('Wes1'!F48,'Wes2'!F48,'Wes3'!F48)</f>
-        <v>8.5100566666666673</v>
+        <v>7.1994066666666674</v>
       </c>
       <c r="G48">
         <f>AVERAGE('Wes1'!G48,'Wes2'!G48,'Wes3'!G48)</f>
-        <v>6.3603833333333339</v>
+        <v>5.563553333333334</v>
       </c>
       <c r="H48">
         <f>AVERAGE('Wes1'!H48,'Wes2'!H48,'Wes3'!H48)</f>
-        <v>5.6958266666666661</v>
+        <v>4.4346633333333338</v>
       </c>
       <c r="I48">
         <f>AVERAGE('Wes1'!I48,'Wes2'!I48,'Wes3'!I48)</f>
-        <v>6.1402533333333338</v>
+        <v>4.9973999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -14994,23 +14994,23 @@
       </c>
       <c r="E49">
         <f>AVERAGE('Wes1'!E49,'Wes2'!E49,'Wes3'!E49)</f>
-        <v>2.24112</v>
+        <v>2.1043466666666668</v>
       </c>
       <c r="F49">
         <f>AVERAGE('Wes1'!F49,'Wes2'!F49,'Wes3'!F49)</f>
-        <v>8.1094733333333338</v>
+        <v>6.355900000000001</v>
       </c>
       <c r="G49">
         <f>AVERAGE('Wes1'!G49,'Wes2'!G49,'Wes3'!G49)</f>
-        <v>1.6339233333333334</v>
+        <v>1.5061433333333334</v>
       </c>
       <c r="H49">
         <f>AVERAGE('Wes1'!H49,'Wes2'!H49,'Wes3'!H49)</f>
-        <v>6.1589966666666669</v>
+        <v>4.7718966666666667</v>
       </c>
       <c r="I49">
         <f>AVERAGE('Wes1'!I49,'Wes2'!I49,'Wes3'!I49)</f>
-        <v>4.3642199999999995</v>
+        <v>3.9739533333333328</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -15029,23 +15029,23 @@
       </c>
       <c r="E50">
         <f>AVERAGE('Wes1'!E50,'Wes2'!E50,'Wes3'!E50)</f>
-        <v>1.0228233333333332</v>
+        <v>1.0900766666666666</v>
       </c>
       <c r="F50">
         <f>AVERAGE('Wes1'!F50,'Wes2'!F50,'Wes3'!F50)</f>
-        <v>3.4149400000000001</v>
+        <v>3.7593566666666667</v>
       </c>
       <c r="G50">
         <f>AVERAGE('Wes1'!G50,'Wes2'!G50,'Wes3'!G50)</f>
-        <v>2.3451533333333328</v>
+        <v>2.6724800000000002</v>
       </c>
       <c r="H50">
         <f>AVERAGE('Wes1'!H50,'Wes2'!H50,'Wes3'!H50)</f>
-        <v>2.0773966666666666</v>
+        <v>2.5473366666666668</v>
       </c>
       <c r="I50">
         <f>AVERAGE('Wes1'!I50,'Wes2'!I50,'Wes3'!I50)</f>
-        <v>2.3742533333333333</v>
+        <v>2.3613199999999996</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -15064,23 +15064,23 @@
       </c>
       <c r="E51">
         <f>AVERAGE('Wes1'!E51,'Wes2'!E51,'Wes3'!E51)</f>
-        <v>0.18803666666666666</v>
+        <v>0.19697766666666669</v>
       </c>
       <c r="F51">
         <f>AVERAGE('Wes1'!F51,'Wes2'!F51,'Wes3'!F51)</f>
-        <v>0.64023133333333337</v>
+        <v>0.67844733333333329</v>
       </c>
       <c r="G51">
         <f>AVERAGE('Wes1'!G51,'Wes2'!G51,'Wes3'!G51)</f>
-        <v>0.37338366666666661</v>
+        <v>0.3695383333333333</v>
       </c>
       <c r="H51">
         <f>AVERAGE('Wes1'!H51,'Wes2'!H51,'Wes3'!H51)</f>
-        <v>0.36991533333333332</v>
+        <v>0.36408599999999997</v>
       </c>
       <c r="I51">
         <f>AVERAGE('Wes1'!I51,'Wes2'!I51,'Wes3'!I51)</f>
-        <v>0.40451033333333336</v>
+        <v>0.44501100000000005</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -15099,23 +15099,23 @@
       </c>
       <c r="E52">
         <f>AVERAGE('Wes1'!E52,'Wes2'!E52,'Wes3'!E52)</f>
-        <v>6.3752766666666663E-3</v>
+        <v>8.7925033333333333E-3</v>
       </c>
       <c r="F52">
         <f>AVERAGE('Wes1'!F52,'Wes2'!F52,'Wes3'!F52)</f>
-        <v>2.7379533333333334E-2</v>
+        <v>3.3857133333333331E-2</v>
       </c>
       <c r="G52">
         <f>AVERAGE('Wes1'!G52,'Wes2'!G52,'Wes3'!G52)</f>
-        <v>8.6223500000000008E-3</v>
+        <v>1.0986216666666666E-2</v>
       </c>
       <c r="H52">
         <f>AVERAGE('Wes1'!H52,'Wes2'!H52,'Wes3'!H52)</f>
-        <v>1.2710933333333332E-2</v>
+        <v>1.5186099999999999E-2</v>
       </c>
       <c r="I52">
         <f>AVERAGE('Wes1'!I52,'Wes2'!I52,'Wes3'!I52)</f>
-        <v>1.2020333333333333E-2</v>
+        <v>1.3819066666666666E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -15134,23 +15134,23 @@
       </c>
       <c r="E53">
         <f>AVERAGE('Wes1'!E53,'Wes2'!E53,'Wes3'!E53)</f>
-        <v>2.1765633333333336</v>
+        <v>2.5157366666666667</v>
       </c>
       <c r="F53">
         <f>AVERAGE('Wes1'!F53,'Wes2'!F53,'Wes3'!F53)</f>
-        <v>6.4797699999999994</v>
+        <v>7.6222366666666659</v>
       </c>
       <c r="G53">
         <f>AVERAGE('Wes1'!G53,'Wes2'!G53,'Wes3'!G53)</f>
-        <v>4.7666966666666664</v>
+        <v>5.2872900000000005</v>
       </c>
       <c r="H53">
         <f>AVERAGE('Wes1'!H53,'Wes2'!H53,'Wes3'!H53)</f>
-        <v>4.4234800000000005</v>
+        <v>5.1120799999999997</v>
       </c>
       <c r="I53">
         <f>AVERAGE('Wes1'!I53,'Wes2'!I53,'Wes3'!I53)</f>
-        <v>4.0920999999999994</v>
+        <v>4.8571533333333337</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -15169,23 +15169,23 @@
       </c>
       <c r="E54">
         <f>AVERAGE('Wes1'!E54,'Wes2'!E54,'Wes3'!E54)</f>
-        <v>5.7826533333333327E-3</v>
+        <v>7.2142199999999995E-3</v>
       </c>
       <c r="F54">
         <f>AVERAGE('Wes1'!F54,'Wes2'!F54,'Wes3'!F54)</f>
-        <v>2.5838466666666671E-2</v>
+        <v>3.3882299999999997E-2</v>
       </c>
       <c r="G54">
         <f>AVERAGE('Wes1'!G54,'Wes2'!G54,'Wes3'!G54)</f>
-        <v>4.6205066666666662E-3</v>
+        <v>5.4491899999999996E-3</v>
       </c>
       <c r="H54">
         <f>AVERAGE('Wes1'!H54,'Wes2'!H54,'Wes3'!H54)</f>
-        <v>1.3318966666666668E-2</v>
+        <v>1.5691033333333337E-2</v>
       </c>
       <c r="I54">
         <f>AVERAGE('Wes1'!I54,'Wes2'!I54,'Wes3'!I54)</f>
-        <v>1.0044356666666665E-2</v>
+        <v>1.2330423333333332E-2</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -15204,23 +15204,23 @@
       </c>
       <c r="E55">
         <f>AVERAGE('Wes1'!E55,'Wes2'!E55,'Wes3'!E55)</f>
-        <v>0.17494433333333334</v>
+        <v>0.20484166666666667</v>
       </c>
       <c r="F55">
         <f>AVERAGE('Wes1'!F55,'Wes2'!F55,'Wes3'!F55)</f>
-        <v>0.64222566666666669</v>
+        <v>0.70188133333333325</v>
       </c>
       <c r="G55">
         <f>AVERAGE('Wes1'!G55,'Wes2'!G55,'Wes3'!G55)</f>
-        <v>0.37312466666666672</v>
+        <v>0.42862600000000001</v>
       </c>
       <c r="H55">
         <f>AVERAGE('Wes1'!H55,'Wes2'!H55,'Wes3'!H55)</f>
-        <v>0.37885766666666659</v>
+        <v>0.42148733333333332</v>
       </c>
       <c r="I55">
         <f>AVERAGE('Wes1'!I55,'Wes2'!I55,'Wes3'!I55)</f>
-        <v>0.41854333333333332</v>
+        <v>0.47610200000000003</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -15239,23 +15239,23 @@
       </c>
       <c r="E56">
         <f>AVERAGE('Wes1'!E56,'Wes2'!E56,'Wes3'!E56)</f>
-        <v>1.9363933333333333E-2</v>
+        <v>1.5695799999999999E-2</v>
       </c>
       <c r="F56">
         <f>AVERAGE('Wes1'!F56,'Wes2'!F56,'Wes3'!F56)</f>
-        <v>6.6602466666666665E-2</v>
+        <v>6.5260833333333337E-2</v>
       </c>
       <c r="G56">
         <f>AVERAGE('Wes1'!G56,'Wes2'!G56,'Wes3'!G56)</f>
-        <v>2.2994999999999998E-2</v>
+        <v>2.5209333333333334E-2</v>
       </c>
       <c r="H56">
         <f>AVERAGE('Wes1'!H56,'Wes2'!H56,'Wes3'!H56)</f>
-        <v>2.682E-2</v>
+        <v>3.2762399999999997E-2</v>
       </c>
       <c r="I56">
         <f>AVERAGE('Wes1'!I56,'Wes2'!I56,'Wes3'!I56)</f>
-        <v>3.1090066666666666E-2</v>
+        <v>3.4782433333333335E-2</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -15274,23 +15274,23 @@
       </c>
       <c r="E57">
         <f>AVERAGE('Wes1'!E57,'Wes2'!E57,'Wes3'!E57)</f>
-        <v>1.3212299999999998E-2</v>
+        <v>1.4929766666666669E-2</v>
       </c>
       <c r="F57">
         <f>AVERAGE('Wes1'!F57,'Wes2'!F57,'Wes3'!F57)</f>
-        <v>5.4430566666666659E-2</v>
+        <v>5.8298566666666669E-2</v>
       </c>
       <c r="G57">
         <f>AVERAGE('Wes1'!G57,'Wes2'!G57,'Wes3'!G57)</f>
-        <v>1.0273336666666667E-2</v>
+        <v>1.1597553333333335E-2</v>
       </c>
       <c r="H57">
         <f>AVERAGE('Wes1'!H57,'Wes2'!H57,'Wes3'!H57)</f>
-        <v>2.6747099999999999E-2</v>
+        <v>3.1900299999999999E-2</v>
       </c>
       <c r="I57">
         <f>AVERAGE('Wes1'!I57,'Wes2'!I57,'Wes3'!I57)</f>
-        <v>2.1408333333333335E-2</v>
+        <v>2.5452233333333334E-2</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -15309,23 +15309,23 @@
       </c>
       <c r="E58">
         <f>AVERAGE('Wes1'!E58,'Wes2'!E58,'Wes3'!E58)</f>
-        <v>0.98223400000000005</v>
+        <v>1.1022689999999999</v>
       </c>
       <c r="F58">
         <f>AVERAGE('Wes1'!F58,'Wes2'!F58,'Wes3'!F58)</f>
-        <v>2.9641699999999997</v>
+        <v>3.7365400000000002</v>
       </c>
       <c r="G58">
         <f>AVERAGE('Wes1'!G58,'Wes2'!G58,'Wes3'!G58)</f>
-        <v>0.70882833333333328</v>
+        <v>0.77730133333333329</v>
       </c>
       <c r="H58">
         <f>AVERAGE('Wes1'!H58,'Wes2'!H58,'Wes3'!H58)</f>
-        <v>1.9753800000000001</v>
+        <v>2.3606033333333332</v>
       </c>
       <c r="I58">
         <f>AVERAGE('Wes1'!I58,'Wes2'!I58,'Wes3'!I58)</f>
-        <v>1.6606399999999999</v>
+        <v>1.9239633333333332</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -15344,23 +15344,23 @@
       </c>
       <c r="E59">
         <f>AVERAGE('Wes1'!E59,'Wes2'!E59,'Wes3'!E59)</f>
-        <v>8.3264233333333326E-2</v>
+        <v>0.13291036666666667</v>
       </c>
       <c r="F59">
         <f>AVERAGE('Wes1'!F59,'Wes2'!F59,'Wes3'!F59)</f>
-        <v>0.32025999999999999</v>
+        <v>0.41560233333333335</v>
       </c>
       <c r="G59">
         <f>AVERAGE('Wes1'!G59,'Wes2'!G59,'Wes3'!G59)</f>
-        <v>0.16242799999999999</v>
+        <v>0.23141699999999998</v>
       </c>
       <c r="H59">
         <f>AVERAGE('Wes1'!H59,'Wes2'!H59,'Wes3'!H59)</f>
-        <v>0.16612000000000002</v>
+        <v>0.23221599999999998</v>
       </c>
       <c r="I59">
         <f>AVERAGE('Wes1'!I59,'Wes2'!I59,'Wes3'!I59)</f>
-        <v>0.19119766666666668</v>
+        <v>0.31342166666666665</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -15379,23 +15379,23 @@
       </c>
       <c r="E60">
         <f>AVERAGE('Wes1'!E60,'Wes2'!E60,'Wes3'!E60)</f>
-        <v>8.0011433333333326E-2</v>
+        <v>0.1363693</v>
       </c>
       <c r="F60">
         <f>AVERAGE('Wes1'!F60,'Wes2'!F60,'Wes3'!F60)</f>
-        <v>0.28669833333333333</v>
+        <v>0.402947</v>
       </c>
       <c r="G60">
         <f>AVERAGE('Wes1'!G60,'Wes2'!G60,'Wes3'!G60)</f>
-        <v>0.15106633333333333</v>
+        <v>0.16896566666666665</v>
       </c>
       <c r="H60">
         <f>AVERAGE('Wes1'!H60,'Wes2'!H60,'Wes3'!H60)</f>
-        <v>0.17147599999999999</v>
+        <v>0.23104533333333332</v>
       </c>
       <c r="I60">
         <f>AVERAGE('Wes1'!I60,'Wes2'!I60,'Wes3'!I60)</f>
-        <v>0.15554566666666667</v>
+        <v>0.18367733333333333</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -15414,23 +15414,23 @@
       </c>
       <c r="E61">
         <f>AVERAGE('Wes1'!E61,'Wes2'!E61,'Wes3'!E61)</f>
-        <v>2.1655066666666669</v>
+        <v>2.7015933333333333</v>
       </c>
       <c r="F61">
         <f>AVERAGE('Wes1'!F61,'Wes2'!F61,'Wes3'!F61)</f>
-        <v>6.9750899999999989</v>
+        <v>10.879736666666666</v>
       </c>
       <c r="G61">
         <f>AVERAGE('Wes1'!G61,'Wes2'!G61,'Wes3'!G61)</f>
-        <v>5.46197</v>
+        <v>8.2652766666666668</v>
       </c>
       <c r="H61">
         <f>AVERAGE('Wes1'!H61,'Wes2'!H61,'Wes3'!H61)</f>
-        <v>4.6227066666666667</v>
+        <v>6.5550566666666663</v>
       </c>
       <c r="I61">
         <f>AVERAGE('Wes1'!I61,'Wes2'!I61,'Wes3'!I61)</f>
-        <v>4.9450566666666669</v>
+        <v>6.19801</v>
       </c>
     </row>
   </sheetData>
